--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="510">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">1.3.1.b Udział osób w wieku poprodukcyjnym otrzymujących emeryturę w odniesieniu do ludności ogółem w wieku poprodukcyjnym </t>
   </si>
   <si>
-    <t>Zakład Ubezpieczeń Społecznych / Kasa Rolniczego Ubezpieczenia Społecznego / Ministerstwo Obrony Narodowej / Ministerstwo Spraw Wewnętrznych i Administracji / Ministerstwo Sprawiedliwości / Główny Urząd Statystyczny</t>
+    <t>Zakład Ubezpieczeń Społecznych / Kasa Rolniczego Ubezpieczenia Społecznego /  Ministerstwo Obrony Narodowej / Ministerstwo Spraw Wewnętrznych i  Administracji / Ministerstwo Sprawiedliwości / Główny Urząd Statystyczny</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.1 Odsetek gospodarstw domowych z dostępem do podstawowych urządzeń sanitarnych i zaopatrzenia w wodę </t>
@@ -838,7 +838,7 @@
     <t>oddziały/100 tys. osób dorosłych</t>
   </si>
   <si>
-    <t>Główny Urząd StatystycznyNarodowy Bank PolskiKrajowa Kasa SKOK (do 2017)</t>
+    <t>Główny Urząd Statystyczny Narodowy Bank Polski Krajowa Kasa SKOK (do 2017)</t>
   </si>
   <si>
     <t>8.10.2 Odsetek osób dorosłych (w wieku 15 lat i więcej) z kontem w banku lub innej instytucji finansowej</t>
@@ -1180,7 +1180,7 @@
     <t>Ministerstwo Środowiska / Główny Inspektorat Ochrony Środowiska / Ministerstwo Zdrowia</t>
   </si>
   <si>
-    <t>12.4.2 Odpady niebezpieczne wytwarzone na osobę i udział odpadów niebezpiecznych przetworzonych w ilości odpadów wytworzonych, według rodzaju przetwarzania</t>
+    <t>12.4.2 Odpady niebezpieczne wytworzone na osobę i udział odpadów niebezpiecznych przetworzonych w ilości odpadów wytworzonych, według rodzaju przetwarzania</t>
   </si>
   <si>
     <t>wg rodzaju przetwarzania</t>
@@ -1204,7 +1204,7 @@
     <t>12.6.1 Liczba sygnatariuszy Partnerstwa na rzecz realizacji Celów Zrównoważonego Rozwoju (SDGs) - ZASTĘPCZY!</t>
   </si>
   <si>
-    <t>Ministerstwo Przedsiębiorczości i Technologii</t>
+    <t>Ministerstwo Rozwoju</t>
   </si>
   <si>
     <t>12.7.1 Liczba krajów, które wdrożyły zrównoważoną politykę zamówień publicznych wraz z planami działania</t>
@@ -1231,7 +1231,7 @@
     <t>13.3.2 Liczba krajów które na poziomie instytucjonalnym, systemowym i indywidualnym budują i wzmacniają potencjał w kierunku łagodzenia zmian klimatu, dostosowania się do jego skutków, transferu technologii i działań rozwojowych</t>
   </si>
   <si>
-    <t>Ministerstwo Środowiska / Główny Inspektorat Ochrony Środowiska</t>
+    <t>Ministerstwo Klimatu / Główny Inspektorat Ochrony Środowiska</t>
   </si>
   <si>
     <t>13.a.1 Oficjalna Pomoc Rozwojowa na rzecz mitygacji i adaptacji do zmian klimatu - ZASTĘPCZY!</t>
@@ -1522,9 +1522,6 @@
     <t>17.14.1 Liczba krajów posiadających mechanizmy zwiększające spójność polityk na rzecz zrównoważonego rozwoju</t>
   </si>
   <si>
-    <t>Ministerstwo Inwestycji i Rozwoju</t>
-  </si>
-  <si>
     <t>17.18.2 Liczba krajów, które posiadają krajowe statystyczne ustawodawstwo zgodne z Fundamentalnymi Zasadami Statystyki Oficjalnej</t>
   </si>
   <si>
@@ -1555,7 +1552,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 31-03-2020, 07:35</t>
+    <t>Ostatnia aktualizacja: 07-04-2020, 13:57</t>
   </si>
 </sst>
 </file>
@@ -20379,7 +20376,7 @@
         <v>1</v>
       </c>
       <c r="P427" s="2" t="s">
-        <v>499</v>
+        <v>393</v>
       </c>
     </row>
     <row r="428" spans="1:16" ht="27" x14ac:dyDescent="0.25">
@@ -20387,7 +20384,7 @@
         <v>468</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>19</v>
@@ -20437,7 +20434,7 @@
         <v>468</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>19</v>
@@ -20487,7 +20484,7 @@
         <v>468</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>19</v>
@@ -20496,7 +20493,7 @@
         <v>20</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
@@ -20529,13 +20526,13 @@
         <v>468</v>
       </c>
       <c r="B431" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C431" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C431" s="2" t="s">
+      <c r="D431" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="E431" s="3" t="s">
         <v>157</v>
@@ -20553,7 +20550,7 @@
       <c r="N431" s="3"/>
       <c r="O431" s="3"/>
       <c r="P431" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="432" spans="1:16" ht="36" x14ac:dyDescent="0.25">
@@ -20561,13 +20558,13 @@
         <v>468</v>
       </c>
       <c r="B432" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C432" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="D432" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E432" s="3" t="s">
         <v>157</v>
@@ -20603,7 +20600,7 @@
         <v>1</v>
       </c>
       <c r="P432" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="433" spans="1:16" ht="36" x14ac:dyDescent="0.25">
@@ -20611,13 +20608,13 @@
         <v>468</v>
       </c>
       <c r="B433" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C433" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C433" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="D433" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>157</v>
@@ -20653,14 +20650,14 @@
         <v>1</v>
       </c>
       <c r="P433" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="434" spans="1:16" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="435" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="436" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B436" s="9"/>
     </row>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_OiDanych\_SDG\_dyzur\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1501,7 +1501,7 @@
     <t>PKB na 1 mieszkańca (ceny bieżące)</t>
   </si>
   <si>
-    <t>euro</t>
+    <t>PLN, [-], procent [%]</t>
   </si>
   <si>
     <t>dynamika PKB (w cenach stałych)</t>
@@ -1552,7 +1552,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 07-04-2020, 13:57</t>
+    <t>Ostatnia aktualizacja: 21-04-2020, 13:23</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2100,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,7 +3157,9 @@
       <c r="M24" s="4">
         <v>63.3</v>
       </c>
-      <c r="N24" s="3"/>
+      <c r="N24" s="4">
+        <v>62.6</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="2" t="s">
         <v>22</v>
@@ -3203,7 +3205,9 @@
       <c r="M25" s="4">
         <v>11.4</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="4">
+        <v>11.6</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="2" t="s">
         <v>22</v>
@@ -3249,7 +3253,9 @@
       <c r="M26" s="4">
         <v>11.9</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="4">
+        <v>12</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="2" t="s">
         <v>22</v>
@@ -3295,7 +3301,9 @@
       <c r="M27" s="4">
         <v>40</v>
       </c>
-      <c r="N27" s="3"/>
+      <c r="N27" s="4">
+        <v>39</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="2" t="s">
         <v>22</v>
@@ -3827,7 +3835,9 @@
       <c r="M39" s="5">
         <v>0.36</v>
       </c>
-      <c r="N39" s="3"/>
+      <c r="N39" s="5">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="O39" s="3"/>
       <c r="P39" s="2" t="s">
         <v>76</v>
@@ -3915,7 +3925,9 @@
       <c r="M41" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N41" s="3"/>
+      <c r="N41" s="4">
+        <v>1.3</v>
+      </c>
       <c r="O41" s="3"/>
       <c r="P41" s="2" t="s">
         <v>22</v>
@@ -4204,7 +4216,9 @@
       <c r="N47" s="6">
         <v>28</v>
       </c>
-      <c r="O47" s="3"/>
+      <c r="O47" s="6">
+        <v>25</v>
+      </c>
       <c r="P47" s="2" t="s">
         <v>86</v>
       </c>
@@ -4345,7 +4359,9 @@
       <c r="M50" s="4">
         <v>434.8</v>
       </c>
-      <c r="N50" s="3"/>
+      <c r="N50" s="4">
+        <v>437.2</v>
+      </c>
       <c r="O50" s="3"/>
       <c r="P50" s="2" t="s">
         <v>22</v>
@@ -4391,7 +4407,9 @@
       <c r="M51" s="4">
         <v>22.9</v>
       </c>
-      <c r="N51" s="3"/>
+      <c r="N51" s="4">
+        <v>23.5</v>
+      </c>
       <c r="O51" s="3"/>
       <c r="P51" s="2" t="s">
         <v>22</v>
@@ -4437,7 +4455,9 @@
       <c r="M52" s="4">
         <v>259.3</v>
       </c>
-      <c r="N52" s="3"/>
+      <c r="N52" s="4">
+        <v>263.89999999999998</v>
+      </c>
       <c r="O52" s="3"/>
       <c r="P52" s="2" t="s">
         <v>22</v>
@@ -4483,7 +4503,9 @@
       <c r="M53" s="4">
         <v>26.4</v>
       </c>
-      <c r="N53" s="3"/>
+      <c r="N53" s="4">
+        <v>24.6</v>
+      </c>
       <c r="O53" s="3"/>
       <c r="P53" s="2" t="s">
         <v>22</v>
@@ -4529,7 +4551,9 @@
       <c r="M54" s="4">
         <v>11.7</v>
       </c>
-      <c r="N54" s="3"/>
+      <c r="N54" s="4">
+        <v>11.6</v>
+      </c>
       <c r="O54" s="3"/>
       <c r="P54" s="2" t="s">
         <v>22</v>
@@ -4575,7 +4599,9 @@
       <c r="M55" s="4">
         <v>20.9</v>
       </c>
-      <c r="N55" s="3"/>
+      <c r="N55" s="4">
+        <v>20.8</v>
+      </c>
       <c r="O55" s="3"/>
       <c r="P55" s="2" t="s">
         <v>22</v>
@@ -4621,7 +4647,9 @@
       <c r="M56" s="4">
         <v>3</v>
       </c>
-      <c r="N56" s="3"/>
+      <c r="N56" s="4">
+        <v>2.9</v>
+      </c>
       <c r="O56" s="3"/>
       <c r="P56" s="2" t="s">
         <v>22</v>
@@ -4941,7 +4969,9 @@
       <c r="M63" s="4">
         <v>0.6</v>
       </c>
-      <c r="N63" s="3"/>
+      <c r="N63" s="4">
+        <v>0.8</v>
+      </c>
       <c r="O63" s="3"/>
       <c r="P63" s="2" t="s">
         <v>22</v>
@@ -9220,8 +9250,12 @@
       <c r="L175" s="6">
         <v>145185</v>
       </c>
-      <c r="M175" s="3"/>
-      <c r="N175" s="3"/>
+      <c r="M175" s="6">
+        <v>153374</v>
+      </c>
+      <c r="N175" s="6">
+        <v>153374</v>
+      </c>
       <c r="O175" s="3"/>
       <c r="P175" s="2" t="s">
         <v>222</v>
@@ -9865,7 +9899,9 @@
         <v>26.37</v>
       </c>
       <c r="M190" s="3"/>
-      <c r="N190" s="3"/>
+      <c r="N190" s="5">
+        <v>27.79</v>
+      </c>
       <c r="O190" s="3"/>
       <c r="P190" s="2" t="s">
         <v>22</v>
@@ -9903,7 +9939,9 @@
         <v>27.79</v>
       </c>
       <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
+      <c r="N191" s="5">
+        <v>29.47</v>
+      </c>
       <c r="O191" s="3"/>
       <c r="P191" s="2" t="s">
         <v>22</v>
@@ -9941,7 +9979,9 @@
         <v>24.79</v>
       </c>
       <c r="M192" s="3"/>
-      <c r="N192" s="3"/>
+      <c r="N192" s="5">
+        <v>25.94</v>
+      </c>
       <c r="O192" s="3"/>
       <c r="P192" s="2" t="s">
         <v>22</v>
@@ -9979,7 +10019,9 @@
         <v>52.11</v>
       </c>
       <c r="M193" s="3"/>
-      <c r="N193" s="3"/>
+      <c r="N193" s="5">
+        <v>51.95</v>
+      </c>
       <c r="O193" s="3"/>
       <c r="P193" s="2" t="s">
         <v>22</v>
@@ -10017,7 +10059,9 @@
         <v>36.17</v>
       </c>
       <c r="M194" s="3"/>
-      <c r="N194" s="3"/>
+      <c r="N194" s="5">
+        <v>37.49</v>
+      </c>
       <c r="O194" s="3"/>
       <c r="P194" s="2" t="s">
         <v>22</v>
@@ -10055,7 +10099,9 @@
         <v>26.12</v>
       </c>
       <c r="M195" s="3"/>
-      <c r="N195" s="3"/>
+      <c r="N195" s="5">
+        <v>26.78</v>
+      </c>
       <c r="O195" s="3"/>
       <c r="P195" s="2" t="s">
         <v>22</v>
@@ -10093,7 +10139,9 @@
         <v>20.8</v>
       </c>
       <c r="M196" s="3"/>
-      <c r="N196" s="3"/>
+      <c r="N196" s="5">
+        <v>21.85</v>
+      </c>
       <c r="O196" s="3"/>
       <c r="P196" s="2" t="s">
         <v>22</v>
@@ -10131,7 +10179,9 @@
         <v>15.93</v>
       </c>
       <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
+      <c r="N197" s="5">
+        <v>16.91</v>
+      </c>
       <c r="O197" s="3"/>
       <c r="P197" s="2" t="s">
         <v>22</v>
@@ -10169,7 +10219,9 @@
         <v>17.29</v>
       </c>
       <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
+      <c r="N198" s="5">
+        <v>18.309999999999999</v>
+      </c>
       <c r="O198" s="3"/>
       <c r="P198" s="2" t="s">
         <v>22</v>
@@ -10207,7 +10259,9 @@
         <v>19.84</v>
       </c>
       <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
+      <c r="N199" s="5">
+        <v>21.98</v>
+      </c>
       <c r="O199" s="3"/>
       <c r="P199" s="2" t="s">
         <v>22</v>
@@ -10245,7 +10299,9 @@
         <v>20.2</v>
       </c>
       <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
+      <c r="N200" s="5">
+        <v>21.7</v>
+      </c>
       <c r="O200" s="3"/>
       <c r="P200" s="2" t="s">
         <v>22</v>
@@ -10283,7 +10339,9 @@
         <v>15.35</v>
       </c>
       <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
+      <c r="N201" s="5">
+        <v>16.22</v>
+      </c>
       <c r="O201" s="3"/>
       <c r="P201" s="2" t="s">
         <v>22</v>
@@ -10321,7 +10379,9 @@
         <v>17.14</v>
       </c>
       <c r="M202" s="3"/>
-      <c r="N202" s="3"/>
+      <c r="N202" s="5">
+        <v>18.809999999999999</v>
+      </c>
       <c r="O202" s="3"/>
       <c r="P202" s="2" t="s">
         <v>22</v>
@@ -10359,7 +10419,9 @@
         <v>24.29</v>
       </c>
       <c r="M203" s="3"/>
-      <c r="N203" s="3"/>
+      <c r="N203" s="5">
+        <v>25.91</v>
+      </c>
       <c r="O203" s="3"/>
       <c r="P203" s="2" t="s">
         <v>22</v>
@@ -10397,7 +10459,9 @@
         <v>28.98</v>
       </c>
       <c r="M204" s="3"/>
-      <c r="N204" s="3"/>
+      <c r="N204" s="5">
+        <v>30.29</v>
+      </c>
       <c r="O204" s="3"/>
       <c r="P204" s="2" t="s">
         <v>22</v>
@@ -10435,7 +10499,9 @@
         <v>27.63</v>
       </c>
       <c r="M205" s="3"/>
-      <c r="N205" s="3"/>
+      <c r="N205" s="5">
+        <v>29.02</v>
+      </c>
       <c r="O205" s="3"/>
       <c r="P205" s="2" t="s">
         <v>22</v>
@@ -10473,7 +10539,9 @@
         <v>25.87</v>
       </c>
       <c r="M206" s="3"/>
-      <c r="N206" s="3"/>
+      <c r="N206" s="5">
+        <v>26.84</v>
+      </c>
       <c r="O206" s="3"/>
       <c r="P206" s="2" t="s">
         <v>22</v>
@@ -10511,7 +10579,9 @@
         <v>27.61</v>
       </c>
       <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
+      <c r="N207" s="5">
+        <v>28.28</v>
+      </c>
       <c r="O207" s="3"/>
       <c r="P207" s="2" t="s">
         <v>22</v>
@@ -10549,7 +10619,9 @@
         <v>34.18</v>
       </c>
       <c r="M208" s="3"/>
-      <c r="N208" s="3"/>
+      <c r="N208" s="5">
+        <v>38.65</v>
+      </c>
       <c r="O208" s="3"/>
       <c r="P208" s="2" t="s">
         <v>22</v>
@@ -10598,7 +10670,9 @@
       <c r="N209" s="4">
         <v>3.8</v>
       </c>
-      <c r="O209" s="3"/>
+      <c r="O209" s="4">
+        <v>3.3</v>
+      </c>
       <c r="P209" s="2" t="s">
         <v>22</v>
       </c>
@@ -10646,7 +10720,9 @@
       <c r="N210" s="4">
         <v>3.8</v>
       </c>
-      <c r="O210" s="3"/>
+      <c r="O210" s="4">
+        <v>3</v>
+      </c>
       <c r="P210" s="2" t="s">
         <v>22</v>
       </c>
@@ -10694,7 +10770,9 @@
       <c r="N211" s="4">
         <v>3.8</v>
       </c>
-      <c r="O211" s="3"/>
+      <c r="O211" s="4">
+        <v>3.6</v>
+      </c>
       <c r="P211" s="2" t="s">
         <v>22</v>
       </c>
@@ -10742,7 +10820,9 @@
       <c r="N212" s="4">
         <v>11.7</v>
       </c>
-      <c r="O212" s="3"/>
+      <c r="O212" s="4">
+        <v>9.9</v>
+      </c>
       <c r="P212" s="2" t="s">
         <v>22</v>
       </c>
@@ -10790,7 +10870,9 @@
       <c r="N213" s="4">
         <v>4.3</v>
       </c>
-      <c r="O213" s="3"/>
+      <c r="O213" s="4">
+        <v>3.7</v>
+      </c>
       <c r="P213" s="2" t="s">
         <v>22</v>
       </c>
@@ -10838,7 +10920,9 @@
       <c r="N214" s="4">
         <v>2.9</v>
       </c>
-      <c r="O214" s="3"/>
+      <c r="O214" s="4">
+        <v>2.6</v>
+      </c>
       <c r="P214" s="2" t="s">
         <v>22</v>
       </c>
@@ -10886,7 +10970,9 @@
       <c r="N215" s="4">
         <v>2.9</v>
       </c>
-      <c r="O215" s="3"/>
+      <c r="O215" s="4">
+        <v>2.4</v>
+      </c>
       <c r="P215" s="2" t="s">
         <v>22</v>
       </c>
@@ -10934,7 +11020,9 @@
       <c r="N216" s="4">
         <v>2.5</v>
       </c>
-      <c r="O216" s="3"/>
+      <c r="O216" s="4">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="P216" s="2" t="s">
         <v>22</v>
       </c>
@@ -10982,7 +11070,9 @@
       <c r="N217" s="4">
         <v>6.5</v>
       </c>
-      <c r="O217" s="3"/>
+      <c r="O217" s="4">
+        <v>6.5</v>
+      </c>
       <c r="P217" s="2" t="s">
         <v>22</v>
       </c>
@@ -14136,7 +14226,9 @@
       <c r="N287" s="5">
         <v>6.19</v>
       </c>
-      <c r="O287" s="3"/>
+      <c r="O287" s="5">
+        <v>9.5299999999999994</v>
+      </c>
       <c r="P287" s="2" t="s">
         <v>331</v>
       </c>
@@ -14184,7 +14276,9 @@
       <c r="N288" s="5">
         <v>766.04</v>
       </c>
-      <c r="O288" s="3"/>
+      <c r="O288" s="5">
+        <v>684.46</v>
+      </c>
       <c r="P288" s="2" t="s">
         <v>335</v>
       </c>
@@ -14232,7 +14326,9 @@
       <c r="N289" s="5">
         <v>244.93</v>
       </c>
-      <c r="O289" s="3"/>
+      <c r="O289" s="5">
+        <v>144.66999999999999</v>
+      </c>
       <c r="P289" s="2" t="s">
         <v>335</v>
       </c>
@@ -17783,7 +17879,9 @@
       <c r="M364" s="7">
         <v>0.19800000000000001</v>
       </c>
-      <c r="N364" s="3"/>
+      <c r="N364" s="7">
+        <v>0.19800000000000001</v>
+      </c>
       <c r="O364" s="3"/>
       <c r="P364" s="2" t="s">
         <v>420</v>
@@ -18279,7 +18377,9 @@
       <c r="M377" s="5">
         <v>0.68</v>
       </c>
-      <c r="N377" s="3"/>
+      <c r="N377" s="5">
+        <v>0.53</v>
+      </c>
       <c r="O377" s="3"/>
       <c r="P377" s="2" t="s">
         <v>22</v>
@@ -18440,15 +18540,17 @@
       <c r="J381" s="3"/>
       <c r="K381" s="3"/>
       <c r="L381" s="6">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="M381" s="6">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="N381" s="6">
         <v>1475</v>
       </c>
-      <c r="O381" s="3"/>
+      <c r="O381" s="6">
+        <v>1603</v>
+      </c>
       <c r="P381" s="2" t="s">
         <v>441</v>
       </c>
@@ -18479,12 +18581,14 @@
         <v>212</v>
       </c>
       <c r="M382" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N382" s="6">
-        <v>198</v>
-      </c>
-      <c r="O382" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="O382" s="6">
+        <v>236</v>
+      </c>
       <c r="P382" s="2" t="s">
         <v>441</v>
       </c>
@@ -18512,15 +18616,17 @@
       <c r="J383" s="3"/>
       <c r="K383" s="3"/>
       <c r="L383" s="6">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="M383" s="6">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="N383" s="6">
-        <v>1233</v>
-      </c>
-      <c r="O383" s="3"/>
+        <v>1264</v>
+      </c>
+      <c r="O383" s="6">
+        <v>1359</v>
+      </c>
       <c r="P383" s="2" t="s">
         <v>441</v>
       </c>
@@ -18548,15 +18654,17 @@
       <c r="J384" s="3"/>
       <c r="K384" s="3"/>
       <c r="L384" s="6">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="M384" s="6">
-        <v>1193</v>
+        <v>1211</v>
       </c>
       <c r="N384" s="6">
+        <v>1270</v>
+      </c>
+      <c r="O384" s="6">
         <v>1379</v>
       </c>
-      <c r="O384" s="3"/>
       <c r="P384" s="2" t="s">
         <v>441</v>
       </c>
@@ -18587,12 +18695,14 @@
         <v>153</v>
       </c>
       <c r="M385" s="6">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N385" s="6">
-        <v>195</v>
-      </c>
-      <c r="O385" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="O385" s="6">
+        <v>196</v>
+      </c>
       <c r="P385" s="2" t="s">
         <v>441</v>
       </c>
@@ -18623,12 +18733,14 @@
         <v>879</v>
       </c>
       <c r="M386" s="6">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="N386" s="6">
-        <v>1178</v>
-      </c>
-      <c r="O386" s="3"/>
+        <v>1078</v>
+      </c>
+      <c r="O386" s="6">
+        <v>1175</v>
+      </c>
       <c r="P386" s="2" t="s">
         <v>441</v>
       </c>
@@ -18656,7 +18768,7 @@
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
       <c r="L387" s="6">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M387" s="6">
         <v>116</v>
@@ -18664,7 +18776,9 @@
       <c r="N387" s="6">
         <v>159</v>
       </c>
-      <c r="O387" s="3"/>
+      <c r="O387" s="6">
+        <v>110</v>
+      </c>
       <c r="P387" s="2" t="s">
         <v>441</v>
       </c>
@@ -18692,7 +18806,7 @@
       <c r="J388" s="3"/>
       <c r="K388" s="3"/>
       <c r="L388" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M388" s="3"/>
       <c r="N388" s="3"/>
@@ -18724,15 +18838,17 @@
       <c r="J389" s="3"/>
       <c r="K389" s="3"/>
       <c r="L389" s="6">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="M389" s="6">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="N389" s="6">
         <v>1259</v>
       </c>
-      <c r="O389" s="3"/>
+      <c r="O389" s="6">
+        <v>1400</v>
+      </c>
       <c r="P389" s="2" t="s">
         <v>441</v>
       </c>
@@ -18763,12 +18879,14 @@
         <v>67</v>
       </c>
       <c r="M390" s="6">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N390" s="6">
         <v>57</v>
       </c>
-      <c r="O390" s="3"/>
+      <c r="O390" s="6">
+        <v>93</v>
+      </c>
       <c r="P390" s="2" t="s">
         <v>441</v>
       </c>
@@ -18864,7 +18982,9 @@
       <c r="N392" s="6">
         <v>13407</v>
       </c>
-      <c r="O392" s="3"/>
+      <c r="O392" s="6">
+        <v>9367</v>
+      </c>
       <c r="P392" s="2" t="s">
         <v>455</v>
       </c>
@@ -19618,7 +19738,9 @@
       <c r="N411" s="4">
         <v>0.7</v>
       </c>
-      <c r="O411" s="3"/>
+      <c r="O411" s="4">
+        <v>0.7</v>
+      </c>
       <c r="P411" s="2" t="s">
         <v>475</v>
       </c>
@@ -19714,7 +19836,9 @@
       <c r="N413" s="4">
         <v>2.5</v>
       </c>
-      <c r="O413" s="3"/>
+      <c r="O413" s="4">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="P413" s="2" t="s">
         <v>478</v>
       </c>
@@ -19737,7 +19861,7 @@
       </c>
       <c r="F414" s="3"/>
       <c r="G414" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H414" s="6">
         <v>2</v>
@@ -19760,7 +19884,9 @@
       <c r="N414" s="6">
         <v>1</v>
       </c>
-      <c r="O414" s="3"/>
+      <c r="O414" s="6">
+        <v>2</v>
+      </c>
       <c r="P414" s="2" t="s">
         <v>480</v>
       </c>
@@ -19941,10 +20067,10 @@
         <v>62.3</v>
       </c>
       <c r="I418" s="4">
-        <v>63.9</v>
+        <v>62.8</v>
       </c>
       <c r="J418" s="4">
-        <v>67.2</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="K418" s="4">
         <v>68</v>
@@ -19955,8 +20081,12 @@
       <c r="M418" s="4">
         <v>76</v>
       </c>
-      <c r="N418" s="3"/>
-      <c r="O418" s="3"/>
+      <c r="N418" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="O418" s="4">
+        <v>80.400000000000006</v>
+      </c>
       <c r="P418" s="2" t="s">
         <v>22</v>
       </c>
@@ -20004,7 +20134,9 @@
       <c r="N419" s="4">
         <v>766</v>
       </c>
-      <c r="O419" s="3"/>
+      <c r="O419" s="4">
+        <v>684.5</v>
+      </c>
       <c r="P419" s="2" t="s">
         <v>79</v>
       </c>
@@ -20052,7 +20184,9 @@
       <c r="N420" s="5">
         <v>1.27</v>
       </c>
-      <c r="O420" s="3"/>
+      <c r="O420" s="5">
+        <v>1.26</v>
+      </c>
       <c r="P420" s="2" t="s">
         <v>331</v>
       </c>
@@ -20074,35 +20208,35 @@
         <v>492</v>
       </c>
       <c r="F421" s="6">
-        <v>9400</v>
+        <v>37524</v>
       </c>
       <c r="G421" s="6">
-        <v>9900</v>
+        <v>40669</v>
       </c>
       <c r="H421" s="6">
-        <v>10100</v>
+        <v>42285</v>
       </c>
       <c r="I421" s="6">
-        <v>10300</v>
+        <v>43034</v>
       </c>
       <c r="J421" s="6">
-        <v>10700</v>
+        <v>44705</v>
       </c>
       <c r="K421" s="6">
-        <v>11200</v>
+        <v>46814</v>
       </c>
       <c r="L421" s="6">
-        <v>11100</v>
+        <v>48433</v>
       </c>
       <c r="M421" s="6">
-        <v>12200</v>
+        <v>51776</v>
       </c>
       <c r="N421" s="6">
-        <v>12900</v>
+        <v>55066</v>
       </c>
       <c r="O421" s="3"/>
       <c r="P421" s="2" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="422" spans="1:16" ht="27" x14ac:dyDescent="0.25">
@@ -20143,14 +20277,16 @@
         <v>103.1</v>
       </c>
       <c r="M422" s="4">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="N422" s="4">
         <v>105.1</v>
       </c>
-      <c r="O422" s="3"/>
+      <c r="O422" s="4">
+        <v>104.1</v>
+      </c>
       <c r="P422" s="2" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="423" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -20191,14 +20327,14 @@
         <v>18</v>
       </c>
       <c r="M423" s="4">
-        <v>17.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="N423" s="4">
         <v>18.2</v>
       </c>
       <c r="O423" s="3"/>
       <c r="P423" s="2" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="424" spans="1:16" ht="36" x14ac:dyDescent="0.25">
@@ -20241,10 +20377,14 @@
       <c r="M424" s="4">
         <v>102</v>
       </c>
-      <c r="N424" s="3"/>
-      <c r="O424" s="3"/>
+      <c r="N424" s="4">
+        <v>101.6</v>
+      </c>
+      <c r="O424" s="4">
+        <v>102.3</v>
+      </c>
       <c r="P424" s="2" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="425" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -20292,7 +20432,7 @@
       </c>
       <c r="O425" s="3"/>
       <c r="P425" s="2" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="426" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -20312,35 +20452,35 @@
         <v>492</v>
       </c>
       <c r="F426" s="4">
-        <v>-7.3</v>
+        <v>-7.4</v>
       </c>
       <c r="G426" s="4">
-        <v>-4.8</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="H426" s="4">
         <v>-3.7</v>
       </c>
       <c r="I426" s="4">
-        <v>-4.0999999999999996</v>
+        <v>-4.2</v>
       </c>
       <c r="J426" s="4">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="K426" s="4">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="L426" s="4">
-        <v>-2.2000000000000002</v>
+        <v>-2.4</v>
       </c>
       <c r="M426" s="4">
         <v>-1.5</v>
       </c>
       <c r="N426" s="4">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="O426" s="3"/>
       <c r="P426" s="2" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="427" spans="1:16" ht="27" x14ac:dyDescent="0.25">

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1552,7 +1552,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 21-04-2020, 13:23</t>
+    <t>Ostatnia aktualizacja: 21-04-2020, 15:42</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_OiDanych\_SDG\_dyzur\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1552,7 +1552,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 21-04-2020, 15:42</t>
+    <t>Ostatnia aktualizacja: 28-04-2020, 11:11</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2100,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6980,7 +6980,9 @@
       <c r="N117" s="6">
         <v>1</v>
       </c>
-      <c r="O117" s="3"/>
+      <c r="O117" s="6">
+        <v>1</v>
+      </c>
       <c r="P117" s="2" t="s">
         <v>122</v>
       </c>
@@ -7028,7 +7030,9 @@
       <c r="N118" s="6">
         <v>100</v>
       </c>
-      <c r="O118" s="3"/>
+      <c r="O118" s="6">
+        <v>100</v>
+      </c>
       <c r="P118" s="2" t="s">
         <v>122</v>
       </c>
@@ -7140,7 +7144,9 @@
       <c r="N121" s="6">
         <v>100</v>
       </c>
-      <c r="O121" s="3"/>
+      <c r="O121" s="6">
+        <v>100</v>
+      </c>
       <c r="P121" s="2" t="s">
         <v>122</v>
       </c>
@@ -7188,7 +7194,9 @@
       <c r="N122" s="6">
         <v>100</v>
       </c>
-      <c r="O122" s="3"/>
+      <c r="O122" s="6">
+        <v>100</v>
+      </c>
       <c r="P122" s="2" t="s">
         <v>122</v>
       </c>
@@ -7236,7 +7244,9 @@
       <c r="N123" s="6">
         <v>100</v>
       </c>
-      <c r="O123" s="3"/>
+      <c r="O123" s="6">
+        <v>100</v>
+      </c>
       <c r="P123" s="2" t="s">
         <v>122</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="511">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -211,7 +211,7 @@
     <t>sztuki</t>
   </si>
   <si>
-    <t>Ministerstwo Rolnictwa i Rozwoju Wsi / Instytut Hodowli i Aklimatyzacji Roślin - PIB in Radzików / Instytut Ogrodnictwa w Skierniewicach</t>
+    <t>Ministerstwo Rolnictwa i Rozwoju Wsi / Instytut Hodowli i Aklimatyzacji Roślin  - PIB in Radzików / Instytut Ogrodnictwa w Skierniewicach/ Instytut  Zootechniki</t>
   </si>
   <si>
     <t>zasoby genetyczne zwierząt</t>
@@ -862,7 +862,7 @@
     <t>transport kolejowy</t>
   </si>
   <si>
-    <t xml:space="preserve">tys. pasażerów </t>
+    <t>tys. pasażerów, tys. ton</t>
   </si>
   <si>
     <t>transport samochodowy</t>
@@ -1186,21 +1186,24 @@
     <t>wg rodzaju przetwarzania</t>
   </si>
   <si>
-    <t>kilogramy na osobę [kg na osobę]</t>
+    <t>kilogramy na osobę [kg na osobę], procent [%]</t>
+  </si>
+  <si>
+    <t>Ministerstwo Klimatu, Eurostat</t>
+  </si>
+  <si>
+    <t>odzysk odpadów niebezpiecznych</t>
+  </si>
+  <si>
+    <t>unieszkodliwienie odpadów niebezpiecznych</t>
+  </si>
+  <si>
+    <t>12.5.1 Krajowy poziom recyklingu odpadów</t>
   </si>
   <si>
     <t>Ministerstwo Środowiska, Eurostat</t>
   </si>
   <si>
-    <t>odzysk odpadów niebezpiecznych</t>
-  </si>
-  <si>
-    <t>unieszkodliwienie odpadów niebezpiecznych</t>
-  </si>
-  <si>
-    <t>12.5.1 Krajowy poziom recyklingu odpadów</t>
-  </si>
-  <si>
     <t>12.6.1 Liczba sygnatariuszy Partnerstwa na rzecz realizacji Celów Zrównoważonego Rozwoju (SDGs) - ZASTĘPCZY!</t>
   </si>
   <si>
@@ -1552,7 +1555,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 28-04-2020, 11:11</t>
+    <t>Ostatnia aktualizacja: 12-05-2020, 07:43</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2103,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,7 +3418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -3465,7 +3468,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
@@ -3515,7 +3518,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="54" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -17090,7 +17093,7 @@
       <c r="N347" s="3"/>
       <c r="O347" s="3"/>
       <c r="P347" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="348" spans="1:16" ht="36" x14ac:dyDescent="0.25">
@@ -17098,7 +17101,7 @@
         <v>380</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>19</v>
@@ -17126,7 +17129,7 @@
         <v>127</v>
       </c>
       <c r="P348" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="349" spans="1:16" ht="36" x14ac:dyDescent="0.25">
@@ -17134,7 +17137,7 @@
         <v>380</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>19</v>
@@ -17176,7 +17179,7 @@
         <v>1</v>
       </c>
       <c r="P349" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="350" spans="1:16" ht="54" x14ac:dyDescent="0.25">
@@ -17184,7 +17187,7 @@
         <v>380</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>19</v>
@@ -17231,10 +17234,10 @@
     </row>
     <row r="351" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>43</v>
@@ -17279,10 +17282,10 @@
     </row>
     <row r="352" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>43</v>
@@ -17327,10 +17330,10 @@
     </row>
     <row r="353" spans="1:16" ht="72" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>19</v>
@@ -17372,15 +17375,15 @@
         <v>1</v>
       </c>
       <c r="P353" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="354" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>19</v>
@@ -17422,15 +17425,15 @@
         <v>1</v>
       </c>
       <c r="P354" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="355" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>19</v>
@@ -17469,16 +17472,16 @@
     </row>
     <row r="356" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E356" s="3" t="s">
         <v>21</v>
@@ -17512,21 +17515,21 @@
       </c>
       <c r="O356" s="3"/>
       <c r="P356" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="357" spans="1:16" ht="54" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>21</v>
@@ -17560,21 +17563,21 @@
       </c>
       <c r="O357" s="3"/>
       <c r="P357" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="358" spans="1:16" ht="72" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E358" s="3" t="s">
         <v>21</v>
@@ -17608,21 +17611,21 @@
       </c>
       <c r="O358" s="3"/>
       <c r="P358" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="359" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E359" s="3" t="s">
         <v>21</v>
@@ -17656,15 +17659,15 @@
       </c>
       <c r="O359" s="3"/>
       <c r="P359" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="360" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>19</v>
@@ -17704,15 +17707,15 @@
       </c>
       <c r="O360" s="3"/>
       <c r="P360" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="361" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>19</v>
@@ -17721,7 +17724,7 @@
         <v>20</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F361" s="3"/>
       <c r="G361" s="6">
@@ -17750,15 +17753,15 @@
       </c>
       <c r="O361" s="3"/>
       <c r="P361" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="362" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>19</v>
@@ -17803,10 +17806,10 @@
     </row>
     <row r="363" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>19</v>
@@ -17851,10 +17854,10 @@
     </row>
     <row r="364" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>19</v>
@@ -17894,18 +17897,18 @@
       </c>
       <c r="O364" s="3"/>
       <c r="P364" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="365" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>20</v>
@@ -17926,21 +17929,21 @@
         <v>95</v>
       </c>
       <c r="P365" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="366" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>21</v>
@@ -17956,21 +17959,21 @@
       <c r="N366" s="3"/>
       <c r="O366" s="3"/>
       <c r="P366" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="367" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>21</v>
@@ -17986,21 +17989,21 @@
       <c r="N367" s="3"/>
       <c r="O367" s="3"/>
       <c r="P367" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="368" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E368" s="3" t="s">
         <v>21</v>
@@ -18016,21 +18019,21 @@
       <c r="N368" s="3"/>
       <c r="O368" s="3"/>
       <c r="P368" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="369" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>21</v>
@@ -18048,21 +18051,21 @@
         <v>67.099999999999994</v>
       </c>
       <c r="P369" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="370" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>21</v>
@@ -18080,21 +18083,21 @@
         <v>99.2</v>
       </c>
       <c r="P370" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="371" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>21</v>
@@ -18112,15 +18115,15 @@
         <v>95.3</v>
       </c>
       <c r="P371" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="372" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>19</v>
@@ -18162,15 +18165,15 @@
         <v>1</v>
       </c>
       <c r="P372" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="373" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>19</v>
@@ -18215,10 +18218,10 @@
     </row>
     <row r="374" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>19</v>
@@ -18260,15 +18263,15 @@
         <v>1</v>
       </c>
       <c r="P374" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="375" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>19</v>
@@ -18307,10 +18310,10 @@
     </row>
     <row r="376" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>19</v>
@@ -18349,10 +18352,10 @@
     </row>
     <row r="377" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>19</v>
@@ -18397,10 +18400,10 @@
     </row>
     <row r="378" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>19</v>
@@ -18442,15 +18445,15 @@
         <v>1</v>
       </c>
       <c r="P378" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="379" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>19</v>
@@ -18485,10 +18488,10 @@
     </row>
     <row r="380" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>19</v>
@@ -18524,24 +18527,24 @@
       </c>
       <c r="O380" s="3"/>
       <c r="P380" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="381" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
@@ -18562,24 +18565,24 @@
         <v>1603</v>
       </c>
       <c r="P381" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="382" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
@@ -18600,24 +18603,24 @@
         <v>236</v>
       </c>
       <c r="P382" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="383" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
@@ -18638,24 +18641,24 @@
         <v>1359</v>
       </c>
       <c r="P383" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="384" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
@@ -18676,24 +18679,24 @@
         <v>1379</v>
       </c>
       <c r="P384" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="385" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
@@ -18714,24 +18717,24 @@
         <v>196</v>
       </c>
       <c r="P385" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="386" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
@@ -18752,24 +18755,24 @@
         <v>1175</v>
       </c>
       <c r="P386" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="387" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
@@ -18790,24 +18793,24 @@
         <v>110</v>
       </c>
       <c r="P387" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="388" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
@@ -18822,24 +18825,24 @@
       <c r="N388" s="3"/>
       <c r="O388" s="3"/>
       <c r="P388" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="389" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
@@ -18860,24 +18863,24 @@
         <v>1400</v>
       </c>
       <c r="P389" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="390" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
@@ -18898,15 +18901,15 @@
         <v>93</v>
       </c>
       <c r="P390" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="391" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>19</v>
@@ -18946,15 +18949,15 @@
       </c>
       <c r="O391" s="3"/>
       <c r="P391" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="392" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>19</v>
@@ -18963,7 +18966,7 @@
         <v>20</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F392" s="6">
         <v>12487</v>
@@ -18996,18 +18999,18 @@
         <v>9367</v>
       </c>
       <c r="P392" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="393" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>186</v>
@@ -19032,18 +19035,18 @@
         <v>28.7</v>
       </c>
       <c r="P393" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="394" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>188</v>
@@ -19068,21 +19071,21 @@
         <v>24</v>
       </c>
       <c r="P394" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="395" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>21</v>
@@ -19104,21 +19107,21 @@
         <v>3</v>
       </c>
       <c r="P395" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="396" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>21</v>
@@ -19140,21 +19143,21 @@
         <v>17.399999999999999</v>
       </c>
       <c r="P396" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="397" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>21</v>
@@ -19176,21 +19179,21 @@
         <v>26.1</v>
       </c>
       <c r="P397" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="398" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>21</v>
@@ -19212,18 +19215,18 @@
         <v>29.8</v>
       </c>
       <c r="P398" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="399" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>35</v>
@@ -19248,21 +19251,21 @@
         <v>23.7</v>
       </c>
       <c r="P399" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="400" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>21</v>
@@ -19284,21 +19287,21 @@
         <v>0</v>
       </c>
       <c r="P400" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="401" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>21</v>
@@ -19320,21 +19323,21 @@
         <v>4</v>
       </c>
       <c r="P401" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="402" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>21</v>
@@ -19356,21 +19359,21 @@
         <v>18</v>
       </c>
       <c r="P402" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="403" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C403" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D403" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>21</v>
@@ -19392,18 +19395,18 @@
         <v>31</v>
       </c>
       <c r="P403" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="404" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>35</v>
@@ -19428,15 +19431,15 @@
         <v>47</v>
       </c>
       <c r="P404" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="405" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>19</v>
@@ -19478,15 +19481,15 @@
         <v>100</v>
       </c>
       <c r="P405" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="406" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>19</v>
@@ -19519,10 +19522,10 @@
     </row>
     <row r="407" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>19</v>
@@ -19567,10 +19570,10 @@
     </row>
     <row r="408" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>19</v>
@@ -19615,13 +19618,13 @@
     </row>
     <row r="409" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>20</v>
@@ -19661,16 +19664,16 @@
     </row>
     <row r="410" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E410" s="3" t="s">
         <v>21</v>
@@ -19707,10 +19710,10 @@
     </row>
     <row r="411" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>19</v>
@@ -19752,15 +19755,15 @@
         <v>0.7</v>
       </c>
       <c r="P411" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="412" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>19</v>
@@ -19805,10 +19808,10 @@
     </row>
     <row r="413" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>19</v>
@@ -19850,15 +19853,15 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="P413" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="414" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>19</v>
@@ -19867,7 +19870,7 @@
         <v>20</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F414" s="3"/>
       <c r="G414" s="6">
@@ -19898,21 +19901,21 @@
         <v>2</v>
       </c>
       <c r="P414" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="415" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E415" s="3" t="s">
         <v>44</v>
@@ -19953,16 +19956,16 @@
     </row>
     <row r="416" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>44</v>
@@ -20003,16 +20006,16 @@
     </row>
     <row r="417" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E417" s="3" t="s">
         <v>44</v>
@@ -20053,10 +20056,10 @@
     </row>
     <row r="418" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>19</v>
@@ -20103,10 +20106,10 @@
     </row>
     <row r="419" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>19</v>
@@ -20153,10 +20156,10 @@
     </row>
     <row r="420" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>19</v>
@@ -20203,19 +20206,19 @@
     </row>
     <row r="421" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F421" s="6">
         <v>37524</v>
@@ -20251,19 +20254,19 @@
     </row>
     <row r="422" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D422" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E422" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="E422" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="F422" s="4">
         <v>103.6</v>
@@ -20301,19 +20304,19 @@
     </row>
     <row r="423" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F423" s="4">
         <v>20.3</v>
@@ -20349,19 +20352,19 @@
     </row>
     <row r="424" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F424" s="4">
         <v>102.6</v>
@@ -20399,19 +20402,19 @@
     </row>
     <row r="425" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F425" s="4">
         <v>53.1</v>
@@ -20447,19 +20450,19 @@
     </row>
     <row r="426" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F426" s="4">
         <v>-7.4</v>
@@ -20495,10 +20498,10 @@
     </row>
     <row r="427" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>19</v>
@@ -20526,15 +20529,15 @@
         <v>1</v>
       </c>
       <c r="P427" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="428" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>19</v>
@@ -20581,10 +20584,10 @@
     </row>
     <row r="429" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>19</v>
@@ -20631,10 +20634,10 @@
     </row>
     <row r="430" spans="1:16" ht="27" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>19</v>
@@ -20643,7 +20646,7 @@
         <v>20</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
@@ -20673,16 +20676,16 @@
     </row>
     <row r="431" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E431" s="3" t="s">
         <v>157</v>
@@ -20700,21 +20703,21 @@
       <c r="N431" s="3"/>
       <c r="O431" s="3"/>
       <c r="P431" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="432" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E432" s="3" t="s">
         <v>157</v>
@@ -20750,21 +20753,21 @@
         <v>1</v>
       </c>
       <c r="P432" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="433" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>157</v>
@@ -20800,14 +20803,14 @@
         <v>1</v>
       </c>
       <c r="P433" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="434" spans="1:16" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="435" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="436" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B436" s="9"/>
     </row>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1546,7 +1546,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 26-05-2020, 08:22</t>
+    <t>Ostatnia aktualizacja: 02-06-2020, 12:46</t>
   </si>
 </sst>
 </file>
@@ -2094,7 +2094,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3325,7 +3325,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="4">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="L28" s="4">
         <v>6</v>
@@ -3333,7 +3333,9 @@
       <c r="M28" s="4">
         <v>5.3</v>
       </c>
-      <c r="N28" s="3"/>
+      <c r="N28" s="4">
+        <v>4.2</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="2" t="s">
         <v>56</v>
@@ -3361,7 +3363,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L29" s="4">
         <v>1.1000000000000001</v>
@@ -3369,7 +3371,9 @@
       <c r="M29" s="4">
         <v>0.7</v>
       </c>
-      <c r="N29" s="3"/>
+      <c r="N29" s="4">
+        <v>0.5</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="2" t="s">
         <v>56</v>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -496,7 +496,7 @@
     <t>liczenie - wg grup wieku</t>
   </si>
   <si>
-    <t>4.7.1 Stopień, w jakim (i) globalna edukacja obywatelska oraz (ii) edukacja na rzecz zrównoważonego rozwoju, w tym na rzecz równości płci i praw człowieka, są włączane na wszystkich poziomach do (a) krajowych polityk edukacyjnych, (b) programów nauczania, (c) kształcenia nauczycieli oraz ( d) oceny studentów</t>
+    <t>4.7.1 Zakres włączenia (i) globalnej edukacji obywatelskiej oraz (ii) edukacji na rzecz zrównoważonego rozwoju do (a) krajowych polityk edukacyjnych, (b) programów nauczania, (c) kształcenia nauczycieli oraz (d) oceny uczniów</t>
   </si>
   <si>
     <t>{ 0 , 1 }</t>
@@ -1234,7 +1234,7 @@
     <t>Urząd Zamówień Publicznych</t>
   </si>
   <si>
-    <t>12.8.1 Rozszerzenie edukacji w zakresie (i) globalnego obywatelstwa (ii) zrównoważonego rozwoju (z uwzględnieniem zmian klimatycznych) ujętych w a) krajowych politykach edukacyjnych b) podstawach programowych c) kształceniu nauczycieli d) ocenianiu uczniów</t>
+    <t>12.8.1 Zakres włączenia (i) globalnej edukacji obywatelskiej oraz (ii) edukacji na rzecz zrównoważonego rozwoju do (a) krajowych polityk edukacyjnych, (b) programów nauczania, (c) kształcenia nauczycieli oraz (d) oceny uczniów</t>
   </si>
   <si>
     <t>Cel 13. Działania w dziedzinie klimatu</t>
@@ -1567,7 +1567,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 21-07-2020, 12:07</t>
+    <t>Ostatnia aktualizacja: 04-08-2020, 09:18</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2115,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7089,7 +7089,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>120</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="356" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>386</v>
       </c>
@@ -17914,9 +17914,7 @@
       <c r="O356" s="6">
         <v>1</v>
       </c>
-      <c r="P356" s="6">
-        <v>1</v>
-      </c>
+      <c r="P356" s="3"/>
       <c r="Q356" s="2" t="s">
         <v>123</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1567,7 +1567,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 04-08-2020, 09:18</t>
+    <t>Ostatnia aktualizacja: 11-08-2020, 08:53</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2115,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13539,10 +13539,12 @@
       <c r="N266" s="4">
         <v>100</v>
       </c>
-      <c r="O266" s="3"/>
+      <c r="O266" s="4">
+        <v>100</v>
+      </c>
       <c r="P266" s="3"/>
       <c r="Q266" s="2" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
     </row>
     <row r="267" spans="1:17" ht="45" x14ac:dyDescent="0.25">
@@ -13580,10 +13582,12 @@
       <c r="N267" s="4">
         <v>100</v>
       </c>
-      <c r="O267" s="3"/>
+      <c r="O267" s="4">
+        <v>99.9</v>
+      </c>
       <c r="P267" s="3"/>
       <c r="Q267" s="2" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
     </row>
     <row r="268" spans="1:17" ht="18" x14ac:dyDescent="0.25">

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -13,12 +13,14 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Cele_1-17'!$1:$2</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Cele_1-17'!$A$3:$B$439</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Cele_1-17'!$1:$2</definedName>
+    <definedName function="false" hidden="false" name="__Anonymous_Sheet_DB__1" vbProcedure="false">'Cele_1-17'!$A$3:$B$439</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Titles" vbProcedure="false">'Cele_1-17'!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm_Print_Titles" vbProcedure="false">'Cele_1-17'!$1:$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1566,24 +1568,22 @@
     <t xml:space="preserve">100% rejestracja zgonów</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostatnia aktualizacja: 25-08-2020, 10:09</t>
+    <t xml:space="preserve">Ostatnia aktualizacja: 27-10-2020, 08:12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$zł-415];[RED]\-#,##0.00\ [$zł-415]"/>
-    <numFmt numFmtId="166" formatCode="General"/>
-    <numFmt numFmtId="167" formatCode="0.0;\-0.0;0.0"/>
-    <numFmt numFmtId="168" formatCode="0.00;\-0.00;0.00"/>
-    <numFmt numFmtId="169" formatCode="0;\-0;0"/>
-    <numFmt numFmtId="170" formatCode="0.000;\-0.000;0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0000;\-0.0000;0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0;\-0.0;0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00;\-0.00;0.00"/>
+    <numFmt numFmtId="167" formatCode="0;\-0;0"/>
+    <numFmt numFmtId="168" formatCode="0.000;\-0.000;0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1609,46 +1609,33 @@
       <charset val="238"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Fira Sans"/>
-      <family val="0"/>
-      <charset val="238"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Fira Sans"/>
-      <family val="0"/>
-      <charset val="238"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Fira Sans"/>
-      <family val="0"/>
-      <charset val="238"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1677,7 +1664,7 @@
       <top style="thin">
         <color rgb="FFD3D3D3"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color rgb="FFD3D3D3"/>
       </bottom>
       <diagonal/>
@@ -1698,7 +1685,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1722,15 +1709,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1744,59 +1723,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Wynik" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Wynik2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Nagłówek" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Nagłówek1" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1872,9 +1847,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1284840</xdr:colOff>
+      <xdr:colOff>1291320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1888,7 +1863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="2214720" cy="458640"/>
+          <a:ext cx="2220480" cy="457920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1910,29 +1885,29 @@
   </sheetPr>
   <dimension ref="A1:Q442"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1945,7 +1920,7 @@
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1998,7 +1973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2045,7 +2020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2094,7 +2069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2143,7 +2118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2192,7 +2167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2241,7 +2216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -2290,7 +2265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2339,7 +2314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -2388,7 +2363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -2437,7 +2412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2486,7 +2461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -2535,7 +2510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -2584,7 +2559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -2619,7 +2594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -2668,7 +2643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -2715,7 +2690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -2762,7 +2737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -2809,7 +2784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -2856,7 +2831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -2899,13 +2874,15 @@
       <c r="N22" s="7" t="n">
         <v>2.73</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="7" t="n">
+        <v>2.37</v>
+      </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -2948,13 +2925,15 @@
       <c r="N23" s="7" t="n">
         <v>0.62</v>
       </c>
-      <c r="O23" s="5"/>
+      <c r="O23" s="7" t="n">
+        <v>0.73</v>
+      </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -3003,7 +2982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -3052,7 +3031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -3101,7 +3080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
@@ -3150,7 +3129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
@@ -3189,7 +3168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>52</v>
       </c>
@@ -3228,7 +3207,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>52</v>
       </c>
@@ -3261,7 +3240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>52</v>
       </c>
@@ -3312,7 +3291,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>52</v>
       </c>
@@ -3363,7 +3342,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>52</v>
       </c>
@@ -3414,7 +3393,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>52</v>
       </c>
@@ -3465,7 +3444,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>52</v>
       </c>
@@ -3516,7 +3495,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>52</v>
       </c>
@@ -3567,7 +3546,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>52</v>
       </c>
@@ -3608,7 +3587,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
@@ -3649,7 +3628,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>52</v>
       </c>
@@ -3696,7 +3675,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -3739,7 +3718,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
@@ -3786,7 +3765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>80</v>
       </c>
@@ -3835,7 +3814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>80</v>
       </c>
@@ -3884,7 +3863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>80</v>
       </c>
@@ -3933,7 +3912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
@@ -3980,7 +3959,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>80</v>
       </c>
@@ -4027,7 +4006,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>80</v>
       </c>
@@ -4076,7 +4055,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>80</v>
       </c>
@@ -4123,7 +4102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>80</v>
       </c>
@@ -4170,7 +4149,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>80</v>
       </c>
@@ -4219,7 +4198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>80</v>
       </c>
@@ -4268,7 +4247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>80</v>
       </c>
@@ -4317,7 +4296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>80</v>
       </c>
@@ -4366,7 +4345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>80</v>
       </c>
@@ -4415,7 +4394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>80</v>
       </c>
@@ -4464,7 +4443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>80</v>
       </c>
@@ -4513,7 +4492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>80</v>
       </c>
@@ -4554,13 +4533,15 @@
       <c r="N57" s="6" t="n">
         <v>10.7</v>
       </c>
-      <c r="O57" s="5"/>
+      <c r="O57" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="P57" s="5"/>
       <c r="Q57" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>80</v>
       </c>
@@ -4607,7 +4588,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>80</v>
       </c>
@@ -4640,7 +4621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>80</v>
       </c>
@@ -4691,7 +4672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>80</v>
       </c>
@@ -4742,7 +4723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>80</v>
       </c>
@@ -4793,7 +4774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>80</v>
       </c>
@@ -4840,7 +4821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>80</v>
       </c>
@@ -4873,7 +4854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>80</v>
       </c>
@@ -4916,7 +4897,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>80</v>
       </c>
@@ -4965,7 +4946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>80</v>
       </c>
@@ -5014,7 +4995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>80</v>
       </c>
@@ -5063,7 +5044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>80</v>
       </c>
@@ -5106,7 +5087,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>119</v>
       </c>
@@ -5141,7 +5122,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>119</v>
       </c>
@@ -5176,7 +5157,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>119</v>
       </c>
@@ -5211,7 +5192,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>119</v>
       </c>
@@ -5250,7 +5231,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>119</v>
       </c>
@@ -5289,7 +5270,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>119</v>
       </c>
@@ -5328,7 +5309,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>119</v>
       </c>
@@ -5367,7 +5348,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>119</v>
       </c>
@@ -5406,7 +5387,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>119</v>
       </c>
@@ -5445,7 +5426,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>119</v>
       </c>
@@ -5476,7 +5457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>119</v>
       </c>
@@ -5525,7 +5506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>119</v>
       </c>
@@ -5574,7 +5555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>119</v>
       </c>
@@ -5623,7 +5604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>119</v>
       </c>
@@ -5658,7 +5639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>119</v>
       </c>
@@ -5693,7 +5674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>119</v>
       </c>
@@ -5728,7 +5709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>119</v>
       </c>
@@ -5761,13 +5742,15 @@
       <c r="N86" s="6" t="n">
         <v>49.9</v>
       </c>
-      <c r="O86" s="5"/>
+      <c r="O86" s="6" t="n">
+        <v>51.3</v>
+      </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
         <v>119</v>
       </c>
@@ -5800,13 +5783,15 @@
       <c r="N87" s="6" t="n">
         <v>28.9</v>
       </c>
-      <c r="O87" s="5"/>
+      <c r="O87" s="6" t="n">
+        <v>27.9</v>
+      </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>119</v>
       </c>
@@ -5839,13 +5824,15 @@
       <c r="N88" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="O88" s="5"/>
+      <c r="O88" s="6" t="n">
+        <v>48.4</v>
+      </c>
       <c r="P88" s="5"/>
       <c r="Q88" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>119</v>
       </c>
@@ -5878,13 +5865,15 @@
       <c r="N89" s="6" t="n">
         <v>31.5</v>
       </c>
-      <c r="O89" s="5"/>
+      <c r="O89" s="6" t="n">
+        <v>31.6</v>
+      </c>
       <c r="P89" s="5"/>
       <c r="Q89" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>119</v>
       </c>
@@ -5917,13 +5906,15 @@
       <c r="N90" s="6" t="n">
         <v>26.9</v>
       </c>
-      <c r="O90" s="5"/>
+      <c r="O90" s="6" t="n">
+        <v>23.6</v>
+      </c>
       <c r="P90" s="5"/>
       <c r="Q90" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>119</v>
       </c>
@@ -5956,13 +5947,15 @@
       <c r="N91" s="6" t="n">
         <v>60.7</v>
       </c>
-      <c r="O91" s="5"/>
+      <c r="O91" s="6" t="n">
+        <v>64.8</v>
+      </c>
       <c r="P91" s="5"/>
       <c r="Q91" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>119</v>
       </c>
@@ -5995,13 +5988,15 @@
       <c r="N92" s="6" t="n">
         <v>84.1</v>
       </c>
-      <c r="O92" s="5"/>
+      <c r="O92" s="6" t="n">
+        <v>84.2</v>
+      </c>
       <c r="P92" s="5"/>
       <c r="Q92" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>119</v>
       </c>
@@ -6034,13 +6029,15 @@
       <c r="N93" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="O93" s="5"/>
+      <c r="O93" s="6" t="n">
+        <v>52</v>
+      </c>
       <c r="P93" s="5"/>
       <c r="Q93" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
         <v>119</v>
       </c>
@@ -6079,7 +6076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
         <v>119</v>
       </c>
@@ -6118,7 +6115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
         <v>119</v>
       </c>
@@ -6157,7 +6154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
         <v>119</v>
       </c>
@@ -6196,7 +6193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
         <v>119</v>
       </c>
@@ -6233,7 +6230,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>119</v>
       </c>
@@ -6270,7 +6267,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>119</v>
       </c>
@@ -6319,7 +6316,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
         <v>119</v>
       </c>
@@ -6352,7 +6349,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
         <v>119</v>
       </c>
@@ -6385,7 +6382,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>119</v>
       </c>
@@ -6418,7 +6415,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
         <v>119</v>
       </c>
@@ -6451,7 +6448,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
         <v>119</v>
       </c>
@@ -6484,7 +6481,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>119</v>
       </c>
@@ -6517,7 +6514,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>119</v>
       </c>
@@ -6550,7 +6547,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>119</v>
       </c>
@@ -6583,7 +6580,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>119</v>
       </c>
@@ -6616,7 +6613,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>119</v>
       </c>
@@ -6649,7 +6646,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>119</v>
       </c>
@@ -6682,7 +6679,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>119</v>
       </c>
@@ -6715,7 +6712,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>119</v>
       </c>
@@ -6748,7 +6745,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>119</v>
       </c>
@@ -6781,7 +6778,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>119</v>
       </c>
@@ -6814,7 +6811,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>119</v>
       </c>
@@ -6847,7 +6844,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>119</v>
       </c>
@@ -6896,7 +6893,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
         <v>119</v>
       </c>
@@ -6947,7 +6944,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
         <v>119</v>
       </c>
@@ -6980,7 +6977,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
         <v>119</v>
       </c>
@@ -7013,7 +7010,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
         <v>119</v>
       </c>
@@ -7064,7 +7061,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
         <v>119</v>
       </c>
@@ -7115,7 +7112,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>119</v>
       </c>
@@ -7166,7 +7163,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
         <v>119</v>
       </c>
@@ -7209,7 +7206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
         <v>119</v>
       </c>
@@ -7256,7 +7253,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
         <v>119</v>
       </c>
@@ -7303,7 +7300,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>119</v>
       </c>
@@ -7350,7 +7347,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>119</v>
       </c>
@@ -7397,7 +7394,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
         <v>173</v>
       </c>
@@ -7428,7 +7425,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
         <v>173</v>
       </c>
@@ -7477,7 +7474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
         <v>173</v>
       </c>
@@ -7510,7 +7507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
         <v>173</v>
       </c>
@@ -7543,7 +7540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
         <v>173</v>
       </c>
@@ -7576,7 +7573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>173</v>
       </c>
@@ -7609,7 +7606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>173</v>
       </c>
@@ -7642,7 +7639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
         <v>173</v>
       </c>
@@ -7675,7 +7672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>173</v>
       </c>
@@ -7708,7 +7705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>173</v>
       </c>
@@ -7741,7 +7738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
         <v>173</v>
       </c>
@@ -7774,7 +7771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>173</v>
       </c>
@@ -7807,7 +7804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
         <v>173</v>
       </c>
@@ -7840,7 +7837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
         <v>173</v>
       </c>
@@ -7873,7 +7870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>173</v>
       </c>
@@ -7906,7 +7903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
         <v>173</v>
       </c>
@@ -7943,7 +7940,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
         <v>173</v>
       </c>
@@ -7980,7 +7977,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
         <v>173</v>
       </c>
@@ -8031,7 +8028,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>173</v>
       </c>
@@ -8082,7 +8079,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>173</v>
       </c>
@@ -8133,7 +8130,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>173</v>
       </c>
@@ -8184,7 +8181,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>173</v>
       </c>
@@ -8235,7 +8232,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
         <v>173</v>
       </c>
@@ -8276,7 +8273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
         <v>173</v>
       </c>
@@ -8317,7 +8314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
         <v>173</v>
       </c>
@@ -8358,7 +8355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
         <v>173</v>
       </c>
@@ -8399,7 +8396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
         <v>173</v>
       </c>
@@ -8440,7 +8437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
         <v>173</v>
       </c>
@@ -8481,7 +8478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
         <v>173</v>
       </c>
@@ -8522,7 +8519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
         <v>173</v>
       </c>
@@ -8559,7 +8556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
         <v>173</v>
       </c>
@@ -8596,7 +8593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
         <v>173</v>
       </c>
@@ -8633,7 +8630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
         <v>173</v>
       </c>
@@ -8670,7 +8667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
         <v>173</v>
       </c>
@@ -8707,7 +8704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>173</v>
       </c>
@@ -8744,7 +8741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>173</v>
       </c>
@@ -8781,7 +8778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
         <v>173</v>
       </c>
@@ -8818,7 +8815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>173</v>
       </c>
@@ -8855,7 +8852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>173</v>
       </c>
@@ -8892,7 +8889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
         <v>173</v>
       </c>
@@ -8929,7 +8926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
         <v>173</v>
       </c>
@@ -8966,7 +8963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
         <v>173</v>
       </c>
@@ -9001,7 +8998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
         <v>173</v>
       </c>
@@ -9046,7 +9043,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
         <v>173</v>
       </c>
@@ -9091,7 +9088,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
         <v>211</v>
       </c>
@@ -9132,13 +9129,15 @@
       <c r="N173" s="6" t="n">
         <v>92.1</v>
       </c>
-      <c r="O173" s="5"/>
+      <c r="O173" s="6" t="n">
+        <v>92.2</v>
+      </c>
       <c r="P173" s="5"/>
       <c r="Q173" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
         <v>211</v>
       </c>
@@ -9179,13 +9178,15 @@
       <c r="N174" s="6" t="n">
         <v>70.8</v>
       </c>
-      <c r="O174" s="5"/>
+      <c r="O174" s="6" t="n">
+        <v>71.2</v>
+      </c>
       <c r="P174" s="5"/>
       <c r="Q174" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
         <v>211</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
         <v>211</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
         <v>211</v>
       </c>
@@ -9298,7 +9299,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
         <v>211</v>
       </c>
@@ -9343,7 +9344,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
         <v>211</v>
       </c>
@@ -9390,7 +9391,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
         <v>211</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
         <v>211</v>
       </c>
@@ -9478,7 +9479,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
         <v>211</v>
       </c>
@@ -9521,7 +9522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
         <v>211</v>
       </c>
@@ -9568,7 +9569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
         <v>232</v>
       </c>
@@ -9599,7 +9600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
         <v>232</v>
       </c>
@@ -9646,7 +9647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
         <v>232</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
         <v>232</v>
       </c>
@@ -9736,7 +9737,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
         <v>238</v>
       </c>
@@ -9751,39 +9752,41 @@
         <v>21</v>
       </c>
       <c r="F188" s="6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G188" s="6" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H188" s="6" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="I188" s="6" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="J188" s="6" t="n">
         <v>3.4</v>
       </c>
       <c r="K188" s="6" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L188" s="6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M188" s="6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="N188" s="6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O188" s="5"/>
+        <v>5.4</v>
+      </c>
+      <c r="O188" s="6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="P188" s="5"/>
       <c r="Q188" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
         <v>238</v>
       </c>
@@ -9798,39 +9801,41 @@
         <v>21</v>
       </c>
       <c r="F189" s="6" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="G189" s="6" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="H189" s="6" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I189" s="6" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J189" s="6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K189" s="6" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L189" s="6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M189" s="6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="N189" s="6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O189" s="5"/>
+        <v>6.9</v>
+      </c>
+      <c r="O189" s="6" t="n">
+        <v>5.9</v>
+      </c>
       <c r="P189" s="5"/>
       <c r="Q189" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
         <v>238</v>
       </c>
@@ -9867,7 +9872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
         <v>238</v>
       </c>
@@ -9904,7 +9909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
         <v>238</v>
       </c>
@@ -9941,7 +9946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
         <v>238</v>
       </c>
@@ -9990,7 +9995,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
         <v>238</v>
       </c>
@@ -10039,7 +10044,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
         <v>238</v>
       </c>
@@ -10088,7 +10093,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
         <v>238</v>
       </c>
@@ -10129,7 +10134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
         <v>238</v>
       </c>
@@ -10170,7 +10175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="4" t="s">
         <v>238</v>
       </c>
@@ -10211,7 +10216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
         <v>238</v>
       </c>
@@ -10252,7 +10257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
         <v>238</v>
       </c>
@@ -10293,7 +10298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
         <v>238</v>
       </c>
@@ -10334,7 +10339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
         <v>238</v>
       </c>
@@ -10375,7 +10380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
         <v>238</v>
       </c>
@@ -10416,7 +10421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
         <v>238</v>
       </c>
@@ -10457,7 +10462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
         <v>238</v>
       </c>
@@ -10498,7 +10503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
         <v>238</v>
       </c>
@@ -10539,7 +10544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
         <v>238</v>
       </c>
@@ -10580,7 +10585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
         <v>238</v>
       </c>
@@ -10621,7 +10626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
         <v>238</v>
       </c>
@@ -10662,7 +10667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
         <v>238</v>
       </c>
@@ -10703,7 +10708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
         <v>238</v>
       </c>
@@ -10744,7 +10749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
         <v>238</v>
       </c>
@@ -10785,7 +10790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
         <v>238</v>
       </c>
@@ -10826,7 +10831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
         <v>238</v>
       </c>
@@ -10867,7 +10872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
         <v>238</v>
       </c>
@@ -10918,7 +10923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
         <v>238</v>
       </c>
@@ -10969,7 +10974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
         <v>238</v>
       </c>
@@ -11020,7 +11025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
         <v>238</v>
       </c>
@@ -11071,7 +11076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
         <v>238</v>
       </c>
@@ -11122,7 +11127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="4" t="s">
         <v>238</v>
       </c>
@@ -11173,7 +11178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="s">
         <v>238</v>
       </c>
@@ -11224,7 +11229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="4" t="s">
         <v>238</v>
       </c>
@@ -11275,7 +11280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
         <v>238</v>
       </c>
@@ -11326,7 +11331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
         <v>238</v>
       </c>
@@ -11375,7 +11380,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
         <v>238</v>
       </c>
@@ -11424,7 +11429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="4" t="s">
         <v>238</v>
       </c>
@@ -11473,7 +11478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="s">
         <v>238</v>
       </c>
@@ -11512,7 +11517,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
         <v>238</v>
       </c>
@@ -11551,7 +11556,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
         <v>238</v>
       </c>
@@ -11590,7 +11595,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
         <v>238</v>
       </c>
@@ -11617,7 +11622,7 @@
         <v>0.1</v>
       </c>
       <c r="J230" s="7" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="K230" s="7" t="n">
         <v>0.1</v>
@@ -11631,13 +11636,15 @@
       <c r="N230" s="7" t="n">
         <v>0.11</v>
       </c>
-      <c r="O230" s="5"/>
+      <c r="O230" s="7" t="n">
+        <v>0.11</v>
+      </c>
       <c r="P230" s="5"/>
       <c r="Q230" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
         <v>238</v>
       </c>
@@ -11678,13 +11685,15 @@
       <c r="N231" s="6" t="n">
         <v>90.1</v>
       </c>
-      <c r="O231" s="5"/>
+      <c r="O231" s="6" t="n">
+        <v>88.2</v>
+      </c>
       <c r="P231" s="5"/>
       <c r="Q231" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
         <v>238</v>
       </c>
@@ -11717,7 +11726,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="s">
         <v>238</v>
       </c>
@@ -11750,7 +11759,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="4" t="s">
         <v>238</v>
       </c>
@@ -11783,7 +11792,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="4" t="s">
         <v>238</v>
       </c>
@@ -11816,7 +11825,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -11849,7 +11858,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
         <v>238</v>
       </c>
@@ -11882,7 +11891,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
         <v>238</v>
       </c>
@@ -11915,7 +11924,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
         <v>238</v>
       </c>
@@ -11948,7 +11957,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
         <v>238</v>
       </c>
@@ -11991,7 +12000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
         <v>281</v>
       </c>
@@ -12034,13 +12043,15 @@
       <c r="N241" s="8" t="n">
         <v>309722</v>
       </c>
-      <c r="O241" s="5"/>
+      <c r="O241" s="8" t="n">
+        <v>335264</v>
+      </c>
       <c r="P241" s="5"/>
       <c r="Q241" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
         <v>281</v>
       </c>
@@ -12083,13 +12094,15 @@
       <c r="N242" s="8" t="n">
         <v>336511</v>
       </c>
-      <c r="O242" s="5"/>
+      <c r="O242" s="8" t="n">
+        <v>327494</v>
+      </c>
       <c r="P242" s="5"/>
       <c r="Q242" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
         <v>281</v>
       </c>
@@ -12132,13 +12145,15 @@
       <c r="N243" s="8" t="n">
         <v>632</v>
       </c>
-      <c r="O243" s="5"/>
+      <c r="O243" s="8" t="n">
+        <v>754</v>
+      </c>
       <c r="P243" s="5"/>
       <c r="Q243" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="4" t="s">
         <v>281</v>
       </c>
@@ -12181,13 +12196,15 @@
       <c r="N244" s="8" t="n">
         <v>1395</v>
       </c>
-      <c r="O244" s="5"/>
+      <c r="O244" s="8" t="n">
+        <v>1362</v>
+      </c>
       <c r="P244" s="5"/>
       <c r="Q244" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
         <v>281</v>
       </c>
@@ -12230,13 +12247,15 @@
       <c r="N245" s="8" t="n">
         <v>13850</v>
       </c>
-      <c r="O245" s="5"/>
+      <c r="O245" s="8" t="n">
+        <v>21883</v>
+      </c>
       <c r="P245" s="5"/>
       <c r="Q245" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="4" t="s">
         <v>281</v>
       </c>
@@ -12279,13 +12298,15 @@
       <c r="N246" s="8" t="n">
         <v>249260</v>
       </c>
-      <c r="O246" s="5"/>
+      <c r="O246" s="8" t="n">
+        <v>233744</v>
+      </c>
       <c r="P246" s="5"/>
       <c r="Q246" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
         <v>281</v>
       </c>
@@ -12328,13 +12349,15 @@
       <c r="N247" s="8" t="n">
         <v>1873022</v>
       </c>
-      <c r="O247" s="5"/>
+      <c r="O247" s="8" t="n">
+        <v>1921073</v>
+      </c>
       <c r="P247" s="5"/>
       <c r="Q247" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
         <v>281</v>
       </c>
@@ -12377,13 +12400,15 @@
       <c r="N248" s="8" t="n">
         <v>55287</v>
       </c>
-      <c r="O248" s="5"/>
+      <c r="O248" s="8" t="n">
+        <v>52376</v>
+      </c>
       <c r="P248" s="5"/>
       <c r="Q248" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
         <v>281</v>
       </c>
@@ -12426,13 +12451,15 @@
       <c r="N249" s="8" t="n">
         <v>9149</v>
       </c>
-      <c r="O249" s="5"/>
+      <c r="O249" s="8" t="n">
+        <v>8727</v>
+      </c>
       <c r="P249" s="5"/>
       <c r="Q249" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
         <v>281</v>
       </c>
@@ -12473,15 +12500,17 @@
         <v>5778</v>
       </c>
       <c r="N250" s="8" t="n">
-        <v>5107</v>
-      </c>
-      <c r="O250" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="O250" s="8" t="n">
+        <v>4681</v>
+      </c>
       <c r="P250" s="5"/>
       <c r="Q250" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="s">
         <v>281</v>
       </c>
@@ -12524,13 +12553,15 @@
       <c r="N251" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="O251" s="5"/>
+      <c r="O251" s="8" t="n">
+        <v>77</v>
+      </c>
       <c r="P251" s="5"/>
       <c r="Q251" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="4" t="s">
         <v>281</v>
       </c>
@@ -12545,39 +12576,41 @@
         <v>21</v>
       </c>
       <c r="F252" s="6" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="G252" s="6" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="H252" s="6" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I252" s="6" t="n">
         <v>15.6</v>
       </c>
-      <c r="G252" s="6" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="H252" s="6" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="I252" s="6" t="n">
-        <v>15.9</v>
-      </c>
       <c r="J252" s="6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K252" s="6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L252" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="M252" s="6" t="n">
         <v>16.8</v>
-      </c>
-      <c r="K252" s="6" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L252" s="6" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="M252" s="6" t="n">
-        <v>16.9</v>
       </c>
       <c r="N252" s="6" t="n">
         <v>16.7</v>
       </c>
-      <c r="O252" s="5"/>
+      <c r="O252" s="6" t="n">
+        <v>16.6</v>
+      </c>
       <c r="P252" s="5"/>
       <c r="Q252" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="4" t="s">
         <v>281</v>
       </c>
@@ -12624,7 +12657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
         <v>281</v>
       </c>
@@ -12671,7 +12704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
         <v>281</v>
       </c>
@@ -12720,7 +12753,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
         <v>281</v>
       </c>
@@ -12769,7 +12802,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
         <v>281</v>
       </c>
@@ -12818,7 +12851,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
         <v>281</v>
       </c>
@@ -12867,7 +12900,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
         <v>281</v>
       </c>
@@ -12916,7 +12949,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
         <v>281</v>
       </c>
@@ -12965,7 +12998,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
         <v>281</v>
       </c>
@@ -13012,7 +13045,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
         <v>281</v>
       </c>
@@ -13059,7 +13092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
         <v>281</v>
       </c>
@@ -13106,7 +13139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
         <v>281</v>
       </c>
@@ -13149,7 +13182,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
         <v>281</v>
       </c>
@@ -13194,7 +13227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
         <v>281</v>
       </c>
@@ -13237,7 +13270,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
         <v>281</v>
       </c>
@@ -13280,7 +13313,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
         <v>313</v>
       </c>
@@ -13323,13 +13356,15 @@
       <c r="N268" s="6" t="n">
         <v>4.7</v>
       </c>
-      <c r="O268" s="5"/>
+      <c r="O268" s="6" t="n">
+        <v>3.2</v>
+      </c>
       <c r="P268" s="5"/>
       <c r="Q268" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
         <v>313</v>
       </c>
@@ -13372,13 +13407,15 @@
       <c r="N269" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="O269" s="5"/>
+      <c r="O269" s="6" t="n">
+        <v>8.3</v>
+      </c>
       <c r="P269" s="5"/>
       <c r="Q269" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
         <v>313</v>
       </c>
@@ -13421,13 +13458,15 @@
       <c r="N270" s="6" t="n">
         <v>14.8</v>
       </c>
-      <c r="O270" s="5"/>
+      <c r="O270" s="6" t="n">
+        <v>15.4</v>
+      </c>
       <c r="P270" s="5"/>
       <c r="Q270" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
         <v>313</v>
       </c>
@@ -13470,13 +13509,15 @@
       <c r="N271" s="6" t="n">
         <v>14.6</v>
       </c>
-      <c r="O271" s="5"/>
+      <c r="O271" s="6" t="n">
+        <v>15</v>
+      </c>
       <c r="P271" s="5"/>
       <c r="Q271" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
         <v>313</v>
       </c>
@@ -13519,13 +13560,15 @@
       <c r="N272" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="O272" s="5"/>
+      <c r="O272" s="6" t="n">
+        <v>15.8</v>
+      </c>
       <c r="P272" s="5"/>
       <c r="Q272" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
         <v>313</v>
       </c>
@@ -13568,13 +13611,15 @@
       <c r="N273" s="6" t="n">
         <v>10.7</v>
       </c>
-      <c r="O273" s="5"/>
+      <c r="O273" s="6" t="n">
+        <v>12.5</v>
+      </c>
       <c r="P273" s="5"/>
       <c r="Q273" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="4" t="s">
         <v>313</v>
       </c>
@@ -13617,13 +13662,15 @@
       <c r="N274" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="O274" s="5"/>
+      <c r="O274" s="6" t="n">
+        <v>13.4</v>
+      </c>
       <c r="P274" s="5"/>
       <c r="Q274" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="4" t="s">
         <v>313</v>
       </c>
@@ -13666,13 +13713,15 @@
       <c r="N275" s="6" t="n">
         <v>21.1</v>
       </c>
-      <c r="O275" s="5"/>
+      <c r="O275" s="6" t="n">
+        <v>22.1</v>
+      </c>
       <c r="P275" s="5"/>
       <c r="Q275" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="4" t="s">
         <v>313</v>
       </c>
@@ -13715,13 +13764,15 @@
       <c r="N276" s="6" t="n">
         <v>15.2</v>
       </c>
-      <c r="O276" s="5"/>
+      <c r="O276" s="6" t="n">
+        <v>15.5</v>
+      </c>
       <c r="P276" s="5"/>
       <c r="Q276" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
         <v>313</v>
       </c>
@@ -13764,13 +13815,15 @@
       <c r="N277" s="6" t="n">
         <v>16.2</v>
       </c>
-      <c r="O277" s="5"/>
+      <c r="O277" s="6" t="n">
+        <v>17.4</v>
+      </c>
       <c r="P277" s="5"/>
       <c r="Q277" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
         <v>313</v>
       </c>
@@ -13813,13 +13866,15 @@
       <c r="N278" s="6" t="n">
         <v>15.5</v>
       </c>
-      <c r="O278" s="5"/>
+      <c r="O278" s="6" t="n">
+        <v>17.7</v>
+      </c>
       <c r="P278" s="5"/>
       <c r="Q278" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
         <v>313</v>
       </c>
@@ -13854,7 +13909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
         <v>313</v>
       </c>
@@ -13901,7 +13956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="4" t="s">
         <v>313</v>
       </c>
@@ -13944,13 +13999,15 @@
       <c r="N281" s="6" t="n">
         <v>18.3</v>
       </c>
-      <c r="O281" s="5"/>
+      <c r="O281" s="6" t="n">
+        <v>18.6</v>
+      </c>
       <c r="P281" s="5"/>
       <c r="Q281" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
         <v>313</v>
       </c>
@@ -13979,13 +14036,13 @@
         <v>-0.1</v>
       </c>
       <c r="J282" s="6" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K282" s="6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L282" s="6" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="M282" s="6" t="n">
         <v>0.4</v>
@@ -13993,13 +14050,15 @@
       <c r="N282" s="6" t="n">
         <v>0.1</v>
       </c>
-      <c r="O282" s="5"/>
+      <c r="O282" s="6" t="n">
+        <v>0.2</v>
+      </c>
       <c r="P282" s="5"/>
       <c r="Q282" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
         <v>313</v>
       </c>
@@ -14042,13 +14101,15 @@
       <c r="N283" s="6" t="n">
         <v>16.3</v>
       </c>
-      <c r="O283" s="5"/>
+      <c r="O283" s="6" t="n">
+        <v>16.4</v>
+      </c>
       <c r="P283" s="5"/>
       <c r="Q283" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
         <v>313</v>
       </c>
@@ -14091,13 +14152,15 @@
       <c r="N284" s="6" t="n">
         <v>9.4</v>
       </c>
-      <c r="O284" s="5"/>
+      <c r="O284" s="6" t="n">
+        <v>8.9</v>
+      </c>
       <c r="P284" s="5"/>
       <c r="Q284" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
         <v>313</v>
       </c>
@@ -14140,13 +14203,15 @@
       <c r="N285" s="6" t="n">
         <v>3.9</v>
       </c>
-      <c r="O285" s="5"/>
+      <c r="O285" s="6" t="n">
+        <v>3.8</v>
+      </c>
       <c r="P285" s="5"/>
       <c r="Q285" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
         <v>313</v>
       </c>
@@ -14189,13 +14254,15 @@
       <c r="N286" s="6" t="n">
         <v>96.1</v>
       </c>
-      <c r="O286" s="5"/>
+      <c r="O286" s="6" t="n">
+        <v>96.5</v>
+      </c>
       <c r="P286" s="5"/>
       <c r="Q286" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
         <v>313</v>
       </c>
@@ -14238,13 +14305,15 @@
       <c r="N287" s="6" t="n">
         <v>0.7</v>
       </c>
-      <c r="O287" s="5"/>
+      <c r="O287" s="6" t="n">
+        <v>0.7</v>
+      </c>
       <c r="P287" s="5"/>
       <c r="Q287" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
         <v>313</v>
       </c>
@@ -14287,13 +14356,15 @@
       <c r="N288" s="6" t="n">
         <v>7.5</v>
       </c>
-      <c r="O288" s="5"/>
+      <c r="O288" s="6" t="n">
+        <v>7.9</v>
+      </c>
       <c r="P288" s="5"/>
       <c r="Q288" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
         <v>313</v>
       </c>
@@ -14336,13 +14407,15 @@
       <c r="N289" s="6" t="n">
         <v>62.8</v>
       </c>
-      <c r="O289" s="5"/>
+      <c r="O289" s="6" t="n">
+        <v>62.8</v>
+      </c>
       <c r="P289" s="5"/>
       <c r="Q289" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="4" t="s">
         <v>313</v>
       </c>
@@ -14385,13 +14458,15 @@
       <c r="N290" s="6" t="n">
         <v>60.2</v>
       </c>
-      <c r="O290" s="5"/>
+      <c r="O290" s="6" t="n">
+        <v>60</v>
+      </c>
       <c r="P290" s="5"/>
       <c r="Q290" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="4" t="s">
         <v>313</v>
       </c>
@@ -14434,13 +14509,15 @@
       <c r="N291" s="6" t="n">
         <v>14.4</v>
       </c>
-      <c r="O291" s="5"/>
+      <c r="O291" s="6" t="n">
+        <v>15.1</v>
+      </c>
       <c r="P291" s="5"/>
       <c r="Q291" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="4" t="s">
         <v>313</v>
       </c>
@@ -14483,13 +14560,15 @@
       <c r="N292" s="6" t="n">
         <v>25.2</v>
       </c>
-      <c r="O292" s="5"/>
+      <c r="O292" s="6" t="n">
+        <v>26.2</v>
+      </c>
       <c r="P292" s="5"/>
       <c r="Q292" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
         <v>313</v>
       </c>
@@ -14538,7 +14617,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
         <v>313</v>
       </c>
@@ -14589,7 +14668,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="4" t="s">
         <v>313</v>
       </c>
@@ -14640,7 +14719,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="4" t="s">
         <v>313</v>
       </c>
@@ -14691,7 +14770,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="4" t="s">
         <v>313</v>
       </c>
@@ -14742,7 +14821,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
         <v>313</v>
       </c>
@@ -14793,7 +14872,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
         <v>313</v>
       </c>
@@ -14844,7 +14923,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
         <v>313</v>
       </c>
@@ -14879,21 +14958,23 @@
         <v>4994.75</v>
       </c>
       <c r="L300" s="7" t="n">
-        <v>8073.06</v>
+        <v>11599.05</v>
       </c>
       <c r="M300" s="7" t="n">
-        <v>2760.33</v>
+        <v>2170.4</v>
       </c>
       <c r="N300" s="7" t="n">
-        <v>-405.7</v>
-      </c>
-      <c r="O300" s="5"/>
+        <v>890.6</v>
+      </c>
+      <c r="O300" s="7" t="n">
+        <v>1290.2</v>
+      </c>
       <c r="P300" s="5"/>
       <c r="Q300" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
         <v>313</v>
       </c>
@@ -14928,21 +15009,23 @@
         <v>-2.07</v>
       </c>
       <c r="L301" s="7" t="n">
-        <v>-0.91</v>
+        <v>-3.73</v>
       </c>
       <c r="M301" s="7" t="n">
-        <v>-1.46</v>
+        <v>-1.3</v>
       </c>
       <c r="N301" s="7" t="n">
-        <v>-35.5</v>
-      </c>
-      <c r="O301" s="5"/>
+        <v>-35.7</v>
+      </c>
+      <c r="O301" s="7" t="n">
+        <v>5.3</v>
+      </c>
       <c r="P301" s="5"/>
       <c r="Q301" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
         <v>313</v>
       </c>
@@ -14980,18 +15063,20 @@
         <v>-0.38</v>
       </c>
       <c r="M302" s="7" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N302" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O302" s="5"/>
+      <c r="O302" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="P302" s="5"/>
       <c r="Q302" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
         <v>313</v>
       </c>
@@ -15026,21 +15111,23 @@
         <v>-34.53</v>
       </c>
       <c r="L303" s="7" t="n">
-        <v>37.84</v>
+        <v>40.96</v>
       </c>
       <c r="M303" s="7" t="n">
-        <v>201.76</v>
+        <v>190.4</v>
       </c>
       <c r="N303" s="7" t="n">
-        <v>154.6</v>
-      </c>
-      <c r="O303" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="O303" s="7" t="n">
+        <v>123.9</v>
+      </c>
       <c r="P303" s="5"/>
       <c r="Q303" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
         <v>313</v>
       </c>
@@ -15075,21 +15162,23 @@
         <v>110.69</v>
       </c>
       <c r="L304" s="7" t="n">
-        <v>360.93</v>
+        <v>446.86</v>
       </c>
       <c r="M304" s="7" t="n">
-        <v>234.59</v>
+        <v>245.2</v>
       </c>
       <c r="N304" s="7" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="O304" s="5"/>
+        <v>65.1</v>
+      </c>
+      <c r="O304" s="7" t="n">
+        <v>60.9</v>
+      </c>
       <c r="P304" s="5"/>
       <c r="Q304" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
         <v>352</v>
       </c>
@@ -15138,7 +15227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
         <v>352</v>
       </c>
@@ -15187,7 +15276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
         <v>352</v>
       </c>
@@ -15236,7 +15325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
         <v>352</v>
       </c>
@@ -15279,13 +15368,15 @@
       <c r="N308" s="7" t="n">
         <v>2.73</v>
       </c>
-      <c r="O308" s="5"/>
+      <c r="O308" s="7" t="n">
+        <v>2.37</v>
+      </c>
       <c r="P308" s="5"/>
       <c r="Q308" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
         <v>352</v>
       </c>
@@ -15328,13 +15419,15 @@
       <c r="N309" s="7" t="n">
         <v>0.62</v>
       </c>
-      <c r="O309" s="5"/>
+      <c r="O309" s="7" t="n">
+        <v>0.73</v>
+      </c>
       <c r="P309" s="5"/>
       <c r="Q309" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
         <v>352</v>
       </c>
@@ -15377,13 +15470,15 @@
       <c r="N310" s="7" t="n">
         <v>26.18</v>
       </c>
-      <c r="O310" s="5"/>
+      <c r="O310" s="7" t="n">
+        <v>25.03</v>
+      </c>
       <c r="P310" s="5"/>
       <c r="Q310" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="4" t="s">
         <v>352</v>
       </c>
@@ -15426,13 +15521,15 @@
       <c r="N311" s="7" t="n">
         <v>8.11</v>
       </c>
-      <c r="O311" s="5"/>
+      <c r="O311" s="7" t="n">
+        <v>9.04</v>
+      </c>
       <c r="P311" s="5"/>
       <c r="Q311" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
         <v>352</v>
       </c>
@@ -15475,13 +15572,15 @@
       <c r="N312" s="7" t="n">
         <v>24.13</v>
       </c>
-      <c r="O312" s="5"/>
+      <c r="O312" s="7" t="n">
+        <v>22.9</v>
+      </c>
       <c r="P312" s="5"/>
       <c r="Q312" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
         <v>352</v>
       </c>
@@ -15524,13 +15623,15 @@
       <c r="N313" s="7" t="n">
         <v>41.58</v>
       </c>
-      <c r="O313" s="5"/>
+      <c r="O313" s="7" t="n">
+        <v>43.03</v>
+      </c>
       <c r="P313" s="5"/>
       <c r="Q313" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
         <v>352</v>
       </c>
@@ -15579,7 +15680,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
         <v>352</v>
       </c>
@@ -15628,7 +15729,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
         <v>352</v>
       </c>
@@ -15677,7 +15778,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
         <v>352</v>
       </c>
@@ -15726,7 +15827,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
         <v>352</v>
       </c>
@@ -15775,7 +15876,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
         <v>352</v>
       </c>
@@ -15824,7 +15925,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
         <v>352</v>
       </c>
@@ -15873,7 +15974,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
         <v>352</v>
       </c>
@@ -15922,7 +16023,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
         <v>352</v>
       </c>
@@ -15971,7 +16072,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
         <v>352</v>
       </c>
@@ -16020,7 +16121,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
         <v>352</v>
       </c>
@@ -16069,7 +16170,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
         <v>352</v>
       </c>
@@ -16118,7 +16219,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
         <v>352</v>
       </c>
@@ -16167,7 +16268,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
         <v>352</v>
       </c>
@@ -16216,7 +16317,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
         <v>352</v>
       </c>
@@ -16265,7 +16366,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
         <v>352</v>
       </c>
@@ -16314,7 +16415,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
         <v>352</v>
       </c>
@@ -16363,7 +16464,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="s">
         <v>352</v>
       </c>
@@ -16412,7 +16513,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
         <v>352</v>
       </c>
@@ -16459,7 +16560,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
         <v>352</v>
       </c>
@@ -16508,7 +16609,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
         <v>352</v>
       </c>
@@ -16557,7 +16658,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
         <v>352</v>
       </c>
@@ -16606,7 +16707,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
         <v>352</v>
       </c>
@@ -16655,7 +16756,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
         <v>352</v>
       </c>
@@ -16704,7 +16805,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
         <v>352</v>
       </c>
@@ -16747,13 +16848,15 @@
       <c r="N338" s="7" t="n">
         <v>98.08</v>
       </c>
-      <c r="O338" s="5"/>
+      <c r="O338" s="7" t="n">
+        <v>98.17</v>
+      </c>
       <c r="P338" s="5"/>
       <c r="Q338" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
         <v>352</v>
       </c>
@@ -16796,13 +16899,15 @@
       <c r="N339" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="O339" s="5"/>
+      <c r="O339" s="7" t="n">
+        <v>100</v>
+      </c>
       <c r="P339" s="5"/>
       <c r="Q339" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
         <v>352</v>
       </c>
@@ -16845,13 +16950,15 @@
       <c r="N340" s="7" t="n">
         <v>94.04</v>
       </c>
-      <c r="O340" s="5"/>
+      <c r="O340" s="7" t="n">
+        <v>94.4</v>
+      </c>
       <c r="P340" s="5"/>
       <c r="Q340" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
         <v>352</v>
       </c>
@@ -16894,13 +17001,15 @@
       <c r="N341" s="7" t="n">
         <v>99.07</v>
       </c>
-      <c r="O341" s="5"/>
+      <c r="O341" s="7" t="n">
+        <v>98.97</v>
+      </c>
       <c r="P341" s="5"/>
       <c r="Q341" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
         <v>352</v>
       </c>
@@ -16943,13 +17052,15 @@
       <c r="N342" s="6" t="n">
         <v>99.9</v>
       </c>
-      <c r="O342" s="5"/>
+      <c r="O342" s="6" t="n">
+        <v>99.9</v>
+      </c>
       <c r="P342" s="5"/>
       <c r="Q342" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
         <v>352</v>
       </c>
@@ -16992,13 +17103,15 @@
       <c r="N343" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="O343" s="5"/>
+      <c r="O343" s="6" t="n">
+        <v>99.9</v>
+      </c>
       <c r="P343" s="5"/>
       <c r="Q343" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
         <v>352</v>
       </c>
@@ -17041,13 +17154,15 @@
       <c r="N344" s="6" t="n">
         <v>99.8</v>
       </c>
-      <c r="O344" s="5"/>
+      <c r="O344" s="6" t="n">
+        <v>99.8</v>
+      </c>
       <c r="P344" s="5"/>
       <c r="Q344" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
         <v>352</v>
       </c>
@@ -17088,15 +17203,17 @@
         <v>100</v>
       </c>
       <c r="N345" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="O345" s="5"/>
+        <v>99.8</v>
+      </c>
+      <c r="O345" s="6" t="n">
+        <v>99.8</v>
+      </c>
       <c r="P345" s="5"/>
       <c r="Q345" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
         <v>385</v>
       </c>
@@ -17145,7 +17262,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
         <v>385</v>
       </c>
@@ -17194,7 +17311,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
         <v>385</v>
       </c>
@@ -17243,7 +17360,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
         <v>385</v>
       </c>
@@ -17287,12 +17404,14 @@
       <c r="O349" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P349" s="5"/>
+      <c r="P349" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="Q349" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
         <v>385</v>
       </c>
@@ -17323,13 +17442,15 @@
       </c>
       <c r="M350" s="5"/>
       <c r="N350" s="5"/>
-      <c r="O350" s="5"/>
+      <c r="O350" s="8" t="n">
+        <v>100</v>
+      </c>
       <c r="P350" s="5"/>
       <c r="Q350" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="s">
         <v>385</v>
       </c>
@@ -17360,13 +17481,15 @@
       </c>
       <c r="M351" s="5"/>
       <c r="N351" s="5"/>
-      <c r="O351" s="5"/>
+      <c r="O351" s="8" t="n">
+        <v>46</v>
+      </c>
       <c r="P351" s="5"/>
       <c r="Q351" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
         <v>385</v>
       </c>
@@ -17397,13 +17520,15 @@
       </c>
       <c r="M352" s="5"/>
       <c r="N352" s="5"/>
-      <c r="O352" s="5"/>
+      <c r="O352" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P352" s="5"/>
       <c r="Q352" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
         <v>385</v>
       </c>
@@ -17450,7 +17575,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
         <v>385</v>
       </c>
@@ -17485,7 +17610,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
         <v>385</v>
       </c>
@@ -17536,7 +17661,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="s">
         <v>385</v>
       </c>
@@ -17585,7 +17710,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
         <v>403</v>
       </c>
@@ -17628,13 +17753,15 @@
       <c r="N357" s="7" t="n">
         <v>2.73</v>
       </c>
-      <c r="O357" s="5"/>
+      <c r="O357" s="7" t="n">
+        <v>2.37</v>
+      </c>
       <c r="P357" s="5"/>
       <c r="Q357" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
         <v>403</v>
       </c>
@@ -17677,13 +17804,15 @@
       <c r="N358" s="7" t="n">
         <v>0.62</v>
       </c>
-      <c r="O358" s="5"/>
+      <c r="O358" s="7" t="n">
+        <v>0.73</v>
+      </c>
       <c r="P358" s="5"/>
       <c r="Q358" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="4" t="s">
         <v>403</v>
       </c>
@@ -17734,7 +17863,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
         <v>403</v>
       </c>
@@ -17785,7 +17914,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
         <v>403</v>
       </c>
@@ -17828,7 +17957,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
         <v>410</v>
       </c>
@@ -17879,7 +18008,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
         <v>410</v>
       </c>
@@ -17930,7 +18059,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
         <v>410</v>
       </c>
@@ -17981,7 +18110,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
         <v>410</v>
       </c>
@@ -18032,7 +18161,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
         <v>410</v>
       </c>
@@ -18079,7 +18208,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
         <v>410</v>
       </c>
@@ -18126,7 +18255,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
         <v>422</v>
       </c>
@@ -18175,7 +18304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
         <v>422</v>
       </c>
@@ -18224,7 +18353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
         <v>422</v>
       </c>
@@ -18265,13 +18394,15 @@
       <c r="N370" s="9" t="n">
         <v>0.198</v>
       </c>
-      <c r="O370" s="5"/>
+      <c r="O370" s="9" t="n">
+        <v>0.199</v>
+      </c>
       <c r="P370" s="5"/>
       <c r="Q370" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
         <v>422</v>
       </c>
@@ -18306,7 +18437,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
         <v>422</v>
       </c>
@@ -18337,7 +18468,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
         <v>422</v>
       </c>
@@ -18368,7 +18499,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
         <v>422</v>
       </c>
@@ -18399,7 +18530,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
         <v>422</v>
       </c>
@@ -18434,7 +18565,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
         <v>422</v>
       </c>
@@ -18469,7 +18600,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
         <v>422</v>
       </c>
@@ -18504,7 +18635,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
         <v>422</v>
       </c>
@@ -18555,7 +18686,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
         <v>422</v>
       </c>
@@ -18594,15 +18725,17 @@
         <v>3597</v>
       </c>
       <c r="N379" s="8" t="n">
-        <v>14533</v>
-      </c>
-      <c r="O379" s="5"/>
+        <v>13811</v>
+      </c>
+      <c r="O379" s="8" t="n">
+        <v>368631</v>
+      </c>
       <c r="P379" s="5"/>
       <c r="Q379" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
         <v>422</v>
       </c>
@@ -18653,7 +18786,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
         <v>422</v>
       </c>
@@ -18696,7 +18829,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
         <v>422</v>
       </c>
@@ -18739,7 +18872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
         <v>441</v>
       </c>
@@ -18786,7 +18919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
         <v>441</v>
       </c>
@@ -18835,7 +18968,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
         <v>441</v>
       </c>
@@ -18866,13 +18999,15 @@
       <c r="N385" s="6" t="n">
         <v>92.1</v>
       </c>
-      <c r="O385" s="5"/>
+      <c r="O385" s="6" t="n">
+        <v>92.3</v>
+      </c>
       <c r="P385" s="5"/>
       <c r="Q385" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
         <v>441</v>
       </c>
@@ -18915,7 +19050,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="4" t="s">
         <v>441</v>
       </c>
@@ -18954,7 +19089,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="4" t="s">
         <v>441</v>
       </c>
@@ -18993,7 +19128,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="4" t="s">
         <v>441</v>
       </c>
@@ -19032,7 +19167,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="s">
         <v>441</v>
       </c>
@@ -19071,7 +19206,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="s">
         <v>441</v>
       </c>
@@ -19110,7 +19245,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="4" t="s">
         <v>441</v>
       </c>
@@ -19149,7 +19284,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="4" t="s">
         <v>441</v>
       </c>
@@ -19188,7 +19323,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="s">
         <v>441</v>
       </c>
@@ -19221,7 +19356,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="s">
         <v>441</v>
       </c>
@@ -19260,7 +19395,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="4" t="s">
         <v>441</v>
       </c>
@@ -19299,7 +19434,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="4" t="s">
         <v>441</v>
       </c>
@@ -19346,7 +19481,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="4" t="s">
         <v>441</v>
       </c>
@@ -19395,7 +19530,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
         <v>441</v>
       </c>
@@ -19432,7 +19567,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
         <v>441</v>
       </c>
@@ -19469,7 +19604,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
         <v>441</v>
       </c>
@@ -19506,7 +19641,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
         <v>441</v>
       </c>
@@ -19543,7 +19678,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="4" t="s">
         <v>441</v>
       </c>
@@ -19580,7 +19715,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="s">
         <v>441</v>
       </c>
@@ -19617,7 +19752,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="4" t="s">
         <v>441</v>
       </c>
@@ -19654,7 +19789,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="4" t="s">
         <v>441</v>
       </c>
@@ -19691,7 +19826,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="s">
         <v>441</v>
       </c>
@@ -19728,7 +19863,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="s">
         <v>441</v>
       </c>
@@ -19765,7 +19900,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="s">
         <v>441</v>
       </c>
@@ -19802,7 +19937,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="s">
         <v>441</v>
       </c>
@@ -19839,7 +19974,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="s">
         <v>441</v>
       </c>
@@ -19888,7 +20023,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="s">
         <v>441</v>
       </c>
@@ -19923,7 +20058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="s">
         <v>474</v>
       </c>
@@ -19972,7 +20107,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="s">
         <v>474</v>
       </c>
@@ -20021,7 +20156,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="4" t="s">
         <v>474</v>
       </c>
@@ -20072,7 +20207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="s">
         <v>474</v>
       </c>
@@ -20123,7 +20258,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="4" t="s">
         <v>474</v>
       </c>
@@ -20172,7 +20307,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="4" t="s">
         <v>474</v>
       </c>
@@ -20221,7 +20356,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="s">
         <v>474</v>
       </c>
@@ -20270,7 +20405,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="s">
         <v>474</v>
       </c>
@@ -20317,7 +20452,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="s">
         <v>474</v>
       </c>
@@ -20368,7 +20503,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="4" t="s">
         <v>474</v>
       </c>
@@ -20419,7 +20554,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
         <v>474</v>
       </c>
@@ -20470,7 +20605,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
         <v>474</v>
       </c>
@@ -20519,7 +20654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="s">
         <v>474</v>
       </c>
@@ -20568,7 +20703,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="s">
         <v>474</v>
       </c>
@@ -20617,7 +20752,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="s">
         <v>474</v>
       </c>
@@ -20666,7 +20801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
         <v>474</v>
       </c>
@@ -20715,7 +20850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="4" t="s">
         <v>474</v>
       </c>
@@ -20764,7 +20899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="s">
         <v>474</v>
       </c>
@@ -20813,7 +20948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="s">
         <v>474</v>
       </c>
@@ -20862,7 +20997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="s">
         <v>474</v>
       </c>
@@ -20911,7 +21046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="s">
         <v>474</v>
       </c>
@@ -20946,7 +21081,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
         <v>474</v>
       </c>
@@ -20995,7 +21130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
         <v>474</v>
       </c>
@@ -21044,7 +21179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="s">
         <v>474</v>
       </c>
@@ -21087,7 +21222,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
         <v>474</v>
       </c>
@@ -21120,7 +21255,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="4" t="s">
         <v>474</v>
       </c>
@@ -21173,7 +21308,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="4" t="s">
         <v>474</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="516">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -394,114 +394,117 @@
     <t>testy PIRLS w czytaniu - wg płci</t>
   </si>
   <si>
+    <t>OECD / Ministerstwo Edukacji Narodowej</t>
+  </si>
+  <si>
+    <t>chłopcy</t>
+  </si>
+  <si>
+    <t>dziewczęta</t>
+  </si>
+  <si>
+    <t>testy PISA w czytaniu i interpretacji - wg płci</t>
+  </si>
+  <si>
+    <t>testy PISA w matematyce - wg płci</t>
+  </si>
+  <si>
+    <t>4.2.1 Odsetek dzieci poniżej 5 lat o stanie zdrowia ocenianym subiektywnie jako bardzo dobre lub dobre - ZASTĘPCZY!</t>
+  </si>
+  <si>
+    <t>4.2.2 Wskaźnik uczestnictwa w nauczaniu zorganizowanym (na rok przed rozpoczęciem obowiązku szkolnego)</t>
+  </si>
+  <si>
+    <t>4.3.1 Odsetek osób dorosłych uczestniczących w formalnej i nieformalnej edukacji i szkoleniach w ciągu ostatnich 12 miesięcy</t>
+  </si>
+  <si>
+    <t>4.4.1 Odsetek młodzieży i dorosłych posiadających umiejętności z zakresu technologii informacyjno – telekomunikacyjnych (ICT), według rodzaju umiejętności</t>
+  </si>
+  <si>
+    <t>osoby w wieku 16-74 - wg rodzaju umiejętności</t>
+  </si>
+  <si>
+    <t>kopiowanie lub przenoszenie pliku lub folderu</t>
+  </si>
+  <si>
+    <t>korzystanie z arkuszy kalkulacyjnych</t>
+  </si>
+  <si>
+    <t>przenoszenie plików pomiędzy komputerem a innymi urządzeniami</t>
+  </si>
+  <si>
+    <t>zmienianie ustawień dowolnego oprogramowania lub systemu operacyjnego</t>
+  </si>
+  <si>
+    <t>tworzenie prezentacji lub dokumentów łączących tekst obrazki tabelki lub wykresy</t>
+  </si>
+  <si>
+    <t>wysyłanie i odbieranie e-maila</t>
+  </si>
+  <si>
+    <t>osoby w wieku 16-24 - wg rodzaju umiejętności</t>
+  </si>
+  <si>
+    <t>4.5.1 Wskaźniki parytetu płci w obszarze edukacji</t>
+  </si>
+  <si>
+    <t>wg osiągnięć</t>
+  </si>
+  <si>
+    <t>w matematyce pod koniec szkoły gimnazjalnej</t>
+  </si>
+  <si>
+    <t>Główny Urząd Statystyczny / Ministerstwo Edukacji Narodowej</t>
+  </si>
+  <si>
+    <t>w czytaniu pod koniec szkoły gimnazjalnej</t>
+  </si>
+  <si>
+    <t>w wychowaniu przedszkolnym dzieci w wieku 6 lat</t>
+  </si>
+  <si>
+    <t>4.6.1 Odsetek osób, które osiągnęły co najmniej określony poziom biegłości w funkcjonalnej umiejętności</t>
+  </si>
+  <si>
+    <t>czytanie i pisanie - wg płci</t>
+  </si>
+  <si>
+    <t>Organizacja Współpracy Gospodarczej i Rozwoju (OECD)</t>
+  </si>
+  <si>
+    <t>czytanie i pisanie - wg grup wieku</t>
+  </si>
+  <si>
+    <t>16-24 lata</t>
+  </si>
+  <si>
+    <t>25-34 lata</t>
+  </si>
+  <si>
+    <t>35-44 lata</t>
+  </si>
+  <si>
+    <t>45-54 lata</t>
+  </si>
+  <si>
+    <t>55-65 lat</t>
+  </si>
+  <si>
+    <t>liczenie - wg płci</t>
+  </si>
+  <si>
+    <t>liczenie - wg grup wieku</t>
+  </si>
+  <si>
+    <t>4.7.1 Zakres włączenia (i) globalnej edukacji obywatelskiej oraz (ii) edukacji na rzecz zrównoważonego rozwoju do (a) krajowych polityk edukacyjnych, (b) programów nauczania, (c) kształcenia nauczycieli oraz (d) oceny uczniów</t>
+  </si>
+  <si>
+    <t>{ 0 , 1 }</t>
+  </si>
+  <si>
     <t>Ministerstwo Edukacji Narodowej</t>
   </si>
   <si>
-    <t>chłopcy</t>
-  </si>
-  <si>
-    <t>dziewczęta</t>
-  </si>
-  <si>
-    <t>testy PISA w czytaniu i interpretacji - wg płci</t>
-  </si>
-  <si>
-    <t>testy PISA w matematyce - wg płci</t>
-  </si>
-  <si>
-    <t>4.2.1 Odsetek dzieci poniżej 5 lat o stanie zdrowia ocenianym subiektywnie jako bardzo dobre lub dobre - ZASTĘPCZY!</t>
-  </si>
-  <si>
-    <t>4.2.2 Wskaźnik uczestnictwa w nauczaniu zorganizowanym (na rok przed rozpoczęciem obowiązku szkolnego)</t>
-  </si>
-  <si>
-    <t>4.3.1 Odsetek osób dorosłych uczestniczących w formalnej i nieformalnej edukacji i szkoleniach w ciągu ostatnich 12 miesięcy</t>
-  </si>
-  <si>
-    <t>4.4.1 Odsetek młodzieży i dorosłych posiadających umiejętności z zakresu technologii informacyjno – telekomunikacyjnych (ICT), według rodzaju umiejętności</t>
-  </si>
-  <si>
-    <t>osoby w wieku 16-74 - wg rodzaju umiejętności</t>
-  </si>
-  <si>
-    <t>kopiowanie lub przenoszenie pliku lub folderu</t>
-  </si>
-  <si>
-    <t>korzystanie z arkuszy kalkulacyjnych</t>
-  </si>
-  <si>
-    <t>przenoszenie plików pomiędzy komputerem a innymi urządzeniami</t>
-  </si>
-  <si>
-    <t>zmienianie ustawień dowolnego oprogramowania lub systemu operacyjnego</t>
-  </si>
-  <si>
-    <t>tworzenie prezentacji lub dokumentów łączących tekst obrazki tabelki lub wykresy</t>
-  </si>
-  <si>
-    <t>wysyłanie i odbieranie e-maila</t>
-  </si>
-  <si>
-    <t>osoby w wieku 16-24 - wg rodzaju umiejętności</t>
-  </si>
-  <si>
-    <t>4.5.1 Wskaźniki parytetu płci w obszarze edukacji</t>
-  </si>
-  <si>
-    <t>wg osiągnięć</t>
-  </si>
-  <si>
-    <t>w matematyce pod koniec szkoły gimnazjalnej</t>
-  </si>
-  <si>
-    <t>Główny Urząd Statystyczny / Ministerstwo Edukacji Narodowej</t>
-  </si>
-  <si>
-    <t>w czytaniu pod koniec szkoły gimnazjalnej</t>
-  </si>
-  <si>
-    <t>w wychowaniu przedszkolnym dzieci w wieku 6 lat</t>
-  </si>
-  <si>
-    <t>4.6.1 Odsetek osób, które osiągnęły co najmniej określony poziom biegłości w funkcjonalnej umiejętności</t>
-  </si>
-  <si>
-    <t>czytanie i pisanie - wg płci</t>
-  </si>
-  <si>
-    <t>Organizacja Współpracy Gospodarczej i Rozwoju (OECD)</t>
-  </si>
-  <si>
-    <t>czytanie i pisanie - wg grup wieku</t>
-  </si>
-  <si>
-    <t>16-24 lata</t>
-  </si>
-  <si>
-    <t>25-34 lata</t>
-  </si>
-  <si>
-    <t>35-44 lata</t>
-  </si>
-  <si>
-    <t>45-54 lata</t>
-  </si>
-  <si>
-    <t>55-65 lat</t>
-  </si>
-  <si>
-    <t>liczenie - wg płci</t>
-  </si>
-  <si>
-    <t>liczenie - wg grup wieku</t>
-  </si>
-  <si>
-    <t>4.7.1 Zakres włączenia (i) globalnej edukacji obywatelskiej oraz (ii) edukacji na rzecz zrównoważonego rozwoju do (a) krajowych polityk edukacyjnych, (b) programów nauczania, (c) kształcenia nauczycieli oraz (d) oceny uczniów</t>
-  </si>
-  <si>
-    <t>{ 0 , 1 }</t>
-  </si>
-  <si>
     <t>4.a.1 Odsetek szkół z dostępem do (a) energii elektrycznej(b) Internetu wykorzystywanego w celach pedagogicznych(c) komputerów wykorzystywanych w celach pedagogicznych(d) infrastruktury i materiałów dostosowanych do uczniów z niepełnosprawnością(e) wody pitnej, (f) podstawowych niekoedukacyjnych urządzeń sanitarnych(g) podstawowych przyrządów do mycia rąk</t>
   </si>
   <si>
@@ -1438,7 +1441,7 @@
     <t>50-59 lat</t>
   </si>
   <si>
-    <t>senatorzy wg grup wieku</t>
+    <t>senatorowie wg grup wieku</t>
   </si>
   <si>
     <t>16.9.1 Odsetek dzieci w wieku poniżej 5 lat, których narodziny zostały zarejestrowane w urzędzie stanu cywilnego</t>
@@ -1567,7 +1570,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 10-11-2020, 11:05</t>
+    <t>Ostatnia aktualizacja: 15-12-2020, 08:05</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2118,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7185,7 +7188,7 @@
       </c>
       <c r="P117" s="3"/>
       <c r="Q117" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="63" x14ac:dyDescent="0.25">
@@ -7193,13 +7196,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>22</v>
@@ -7236,7 +7239,7 @@
       </c>
       <c r="P118" s="3"/>
       <c r="Q118" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="63" x14ac:dyDescent="0.25">
@@ -7244,13 +7247,13 @@
         <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>22</v>
@@ -7269,7 +7272,7 @@
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="63" x14ac:dyDescent="0.25">
@@ -7277,13 +7280,13 @@
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>22</v>
@@ -7302,7 +7305,7 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="63" x14ac:dyDescent="0.25">
@@ -7310,13 +7313,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>22</v>
@@ -7353,7 +7356,7 @@
       </c>
       <c r="P121" s="3"/>
       <c r="Q121" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="63" x14ac:dyDescent="0.25">
@@ -7361,13 +7364,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>22</v>
@@ -7404,7 +7407,7 @@
       </c>
       <c r="P122" s="3"/>
       <c r="Q122" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="63" x14ac:dyDescent="0.25">
@@ -7412,13 +7415,13 @@
         <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>22</v>
@@ -7455,7 +7458,7 @@
       </c>
       <c r="P123" s="3"/>
       <c r="Q123" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -7463,7 +7466,7 @@
         <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
@@ -7508,13 +7511,13 @@
         <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>22</v>
@@ -7547,7 +7550,7 @@
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
       <c r="Q125" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="45" x14ac:dyDescent="0.25">
@@ -7555,13 +7558,13 @@
         <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>22</v>
@@ -7594,7 +7597,7 @@
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
       <c r="Q126" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="45" x14ac:dyDescent="0.25">
@@ -7602,13 +7605,13 @@
         <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>22</v>
@@ -7641,7 +7644,7 @@
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
       <c r="Q127" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="45" x14ac:dyDescent="0.25">
@@ -7649,13 +7652,13 @@
         <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>22</v>
@@ -7688,15 +7691,15 @@
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
       <c r="Q128" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>20</v>
@@ -7721,18 +7724,18 @@
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
       <c r="Q129" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>21</v>
@@ -7777,13 +7780,13 @@
     </row>
     <row r="131" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>21</v>
@@ -7810,13 +7813,13 @@
     </row>
     <row r="132" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>29</v>
@@ -7843,13 +7846,13 @@
     </row>
     <row r="133" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>30</v>
@@ -7876,13 +7879,13 @@
     </row>
     <row r="134" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>26</v>
@@ -7909,13 +7912,13 @@
     </row>
     <row r="135" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>27</v>
@@ -7942,16 +7945,16 @@
     </row>
     <row r="136" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>22</v>
@@ -7975,16 +7978,16 @@
     </row>
     <row r="137" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>22</v>
@@ -8008,16 +8011,16 @@
     </row>
     <row r="138" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>22</v>
@@ -8041,10 +8044,10 @@
     </row>
     <row r="139" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>31</v>
@@ -8074,10 +8077,10 @@
     </row>
     <row r="140" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>31</v>
@@ -8107,10 +8110,10 @@
     </row>
     <row r="141" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>31</v>
@@ -8140,16 +8143,16 @@
     </row>
     <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>22</v>
@@ -8173,10 +8176,10 @@
     </row>
     <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>31</v>
@@ -8206,16 +8209,16 @@
     </row>
     <row r="144" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>22</v>
@@ -8238,21 +8241,21 @@
       </c>
       <c r="P144" s="3"/>
       <c r="Q144" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>22</v>
@@ -8275,21 +8278,21 @@
       </c>
       <c r="P145" s="3"/>
       <c r="Q145" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>22</v>
@@ -8326,21 +8329,21 @@
       </c>
       <c r="P146" s="3"/>
       <c r="Q146" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>22</v>
@@ -8377,21 +8380,21 @@
       </c>
       <c r="P147" s="3"/>
       <c r="Q147" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>22</v>
@@ -8428,21 +8431,21 @@
       </c>
       <c r="P148" s="3"/>
       <c r="Q148" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>22</v>
@@ -8479,21 +8482,21 @@
       </c>
       <c r="P149" s="3"/>
       <c r="Q149" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>22</v>
@@ -8530,18 +8533,18 @@
       </c>
       <c r="P150" s="3"/>
       <c r="Q150" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>21</v>
@@ -8576,16 +8579,16 @@
     </row>
     <row r="152" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>22</v>
@@ -8617,16 +8620,16 @@
     </row>
     <row r="153" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>22</v>
@@ -8658,16 +8661,16 @@
     </row>
     <row r="154" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>22</v>
@@ -8699,16 +8702,16 @@
     </row>
     <row r="155" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>22</v>
@@ -8740,16 +8743,16 @@
     </row>
     <row r="156" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>22</v>
@@ -8781,16 +8784,16 @@
     </row>
     <row r="157" spans="1:17" ht="54" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>22</v>
@@ -8822,10 +8825,10 @@
     </row>
     <row r="158" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>31</v>
@@ -8859,16 +8862,16 @@
     </row>
     <row r="159" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>22</v>
@@ -8896,16 +8899,16 @@
     </row>
     <row r="160" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>22</v>
@@ -8933,10 +8936,10 @@
     </row>
     <row r="161" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>31</v>
@@ -8970,13 +8973,13 @@
     </row>
     <row r="162" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>21</v>
@@ -9007,16 +9010,16 @@
     </row>
     <row r="163" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>22</v>
@@ -9044,16 +9047,16 @@
     </row>
     <row r="164" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>22</v>
@@ -9081,13 +9084,13 @@
     </row>
     <row r="165" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>37</v>
@@ -9118,13 +9121,13 @@
     </row>
     <row r="166" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>21</v>
@@ -9155,16 +9158,16 @@
     </row>
     <row r="167" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>22</v>
@@ -9192,16 +9195,16 @@
     </row>
     <row r="168" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>22</v>
@@ -9229,13 +9232,13 @@
     </row>
     <row r="169" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>37</v>
@@ -9266,10 +9269,10 @@
     </row>
     <row r="170" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>20</v>
@@ -9303,10 +9306,10 @@
     </row>
     <row r="171" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>28</v>
@@ -9343,15 +9346,15 @@
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
       <c r="Q171" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>28</v>
@@ -9388,15 +9391,15 @@
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
       <c r="Q172" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>20</v>
@@ -9444,10 +9447,10 @@
     </row>
     <row r="174" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>20</v>
@@ -9495,10 +9498,10 @@
     </row>
     <row r="175" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>20</v>
@@ -9544,16 +9547,16 @@
     </row>
     <row r="176" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>22</v>
@@ -9572,21 +9575,21 @@
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
       <c r="Q176" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>22</v>
@@ -9605,15 +9608,15 @@
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
       <c r="Q177" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>20</v>
@@ -9622,7 +9625,7 @@
         <v>21</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F178" s="4">
         <v>31.1</v>
@@ -9652,15 +9655,15 @@
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
       <c r="Q178" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>20</v>
@@ -9701,15 +9704,15 @@
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
       <c r="Q179" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>20</v>
@@ -9744,15 +9747,15 @@
       <c r="O180" s="3"/>
       <c r="P180" s="3"/>
       <c r="Q180" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="181" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>20</v>
@@ -9761,7 +9764,7 @@
         <v>21</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F181" s="6">
         <v>145065</v>
@@ -9793,15 +9796,15 @@
       <c r="O181" s="3"/>
       <c r="P181" s="3"/>
       <c r="Q181" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>20</v>
@@ -9843,10 +9846,10 @@
     </row>
     <row r="183" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>20</v>
@@ -9892,10 +9895,10 @@
     </row>
     <row r="184" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>20</v>
@@ -9925,10 +9928,10 @@
     </row>
     <row r="185" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>20</v>
@@ -9974,10 +9977,10 @@
     </row>
     <row r="186" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>20</v>
@@ -9986,7 +9989,7 @@
         <v>21</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F186" s="7">
         <v>0.36599999999999999</v>
@@ -10023,10 +10026,10 @@
     </row>
     <row r="187" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>20</v>
@@ -10068,10 +10071,10 @@
     </row>
     <row r="188" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>20</v>
@@ -10119,10 +10122,10 @@
     </row>
     <row r="189" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>20</v>
@@ -10170,10 +10173,10 @@
     </row>
     <row r="190" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>28</v>
@@ -10207,10 +10210,10 @@
     </row>
     <row r="191" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>28</v>
@@ -10244,10 +10247,10 @@
     </row>
     <row r="192" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>28</v>
@@ -10281,10 +10284,10 @@
     </row>
     <row r="193" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>20</v>
@@ -10293,7 +10296,7 @@
         <v>21</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F193" s="5">
         <v>0.56000000000000005</v>
@@ -10327,15 +10330,15 @@
       </c>
       <c r="P193" s="3"/>
       <c r="Q193" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="194" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>20</v>
@@ -10344,7 +10347,7 @@
         <v>21</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F194" s="4">
         <v>644835</v>
@@ -10378,24 +10381,24 @@
       </c>
       <c r="P194" s="3"/>
       <c r="Q194" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="195" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D195" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E195" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="F195" s="5">
         <v>16.95</v>
@@ -10429,15 +10432,15 @@
       </c>
       <c r="P195" s="3"/>
       <c r="Q195" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="196" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>28</v>
@@ -10446,7 +10449,7 @@
         <v>21</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F196" s="5">
         <v>21.98</v>
@@ -10475,10 +10478,10 @@
     </row>
     <row r="197" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>28</v>
@@ -10487,7 +10490,7 @@
         <v>29</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F197" s="5">
         <v>22.89</v>
@@ -10516,10 +10519,10 @@
     </row>
     <row r="198" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>28</v>
@@ -10528,7 +10531,7 @@
         <v>30</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F198" s="5">
         <v>21</v>
@@ -10557,19 +10560,19 @@
     </row>
     <row r="199" spans="1:17" ht="54" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C199" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E199" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F199" s="5">
         <v>43.51</v>
@@ -10598,19 +10601,19 @@
     </row>
     <row r="200" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E200" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F200" s="5">
         <v>31.84</v>
@@ -10639,19 +10642,19 @@
     </row>
     <row r="201" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C201" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E201" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F201" s="5">
         <v>21.77</v>
@@ -10680,19 +10683,19 @@
     </row>
     <row r="202" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E202" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F202" s="5">
         <v>17.649999999999999</v>
@@ -10721,19 +10724,19 @@
     </row>
     <row r="203" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C203" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E203" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F203" s="5">
         <v>12.44</v>
@@ -10762,19 +10765,19 @@
     </row>
     <row r="204" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E204" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F204" s="5">
         <v>12.82</v>
@@ -10803,19 +10806,19 @@
     </row>
     <row r="205" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E205" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F205" s="5">
         <v>16.059999999999999</v>
@@ -10844,19 +10847,19 @@
     </row>
     <row r="206" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E206" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F206" s="5">
         <v>17.239999999999998</v>
@@ -10885,19 +10888,19 @@
     </row>
     <row r="207" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E207" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F207" s="5">
         <v>12.22</v>
@@ -10926,19 +10929,19 @@
     </row>
     <row r="208" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F208" s="5">
         <v>13.71</v>
@@ -10967,10 +10970,10 @@
     </row>
     <row r="209" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>31</v>
@@ -10979,7 +10982,7 @@
         <v>151</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F209" s="5">
         <v>20.66</v>
@@ -11008,10 +11011,10 @@
     </row>
     <row r="210" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>31</v>
@@ -11020,7 +11023,7 @@
         <v>152</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F210" s="5">
         <v>24.33</v>
@@ -11049,10 +11052,10 @@
     </row>
     <row r="211" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>31</v>
@@ -11061,7 +11064,7 @@
         <v>153</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F211" s="5">
         <v>22.3</v>
@@ -11090,19 +11093,19 @@
     </row>
     <row r="212" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F212" s="5">
         <v>22.61</v>
@@ -11131,19 +11134,19 @@
     </row>
     <row r="213" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F213" s="5">
         <v>27.21</v>
@@ -11172,10 +11175,10 @@
     </row>
     <row r="214" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>31</v>
@@ -11184,7 +11187,7 @@
         <v>37</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F214" s="5">
         <v>32.57</v>
@@ -11213,10 +11216,10 @@
     </row>
     <row r="215" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>28</v>
@@ -11264,10 +11267,10 @@
     </row>
     <row r="216" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>28</v>
@@ -11315,10 +11318,10 @@
     </row>
     <row r="217" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>28</v>
@@ -11366,16 +11369,16 @@
     </row>
     <row r="218" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>22</v>
@@ -11417,10 +11420,10 @@
     </row>
     <row r="219" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>31</v>
@@ -11468,10 +11471,10 @@
     </row>
     <row r="220" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>31</v>
@@ -11519,10 +11522,10 @@
     </row>
     <row r="221" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>31</v>
@@ -11570,16 +11573,16 @@
     </row>
     <row r="222" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>22</v>
@@ -11621,13 +11624,13 @@
     </row>
     <row r="223" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>21</v>
@@ -11672,10 +11675,10 @@
     </row>
     <row r="224" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>20</v>
@@ -11718,15 +11721,15 @@
       </c>
       <c r="P224" s="3"/>
       <c r="Q224" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="225" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>44</v>
@@ -11772,16 +11775,16 @@
     </row>
     <row r="226" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>45</v>
@@ -11821,13 +11824,13 @@
     </row>
     <row r="227" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>21</v>
@@ -11855,21 +11858,21 @@
       <c r="O227" s="3"/>
       <c r="P227" s="3"/>
       <c r="Q227" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="228" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>118</v>
@@ -11894,21 +11897,21 @@
       <c r="O228" s="3"/>
       <c r="P228" s="3"/>
       <c r="Q228" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="229" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>118</v>
@@ -11933,15 +11936,15 @@
       <c r="O229" s="3"/>
       <c r="P229" s="3"/>
       <c r="Q229" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="230" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>20</v>
@@ -11989,10 +11992,10 @@
     </row>
     <row r="231" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>20</v>
@@ -12001,7 +12004,7 @@
         <v>21</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F231" s="4">
         <v>85.8</v>
@@ -12035,15 +12038,15 @@
       </c>
       <c r="P231" s="3"/>
       <c r="Q231" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>28</v>
@@ -12068,15 +12071,15 @@
       <c r="O232" s="3"/>
       <c r="P232" s="3"/>
       <c r="Q232" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="233" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>28</v>
@@ -12101,15 +12104,15 @@
       <c r="O233" s="3"/>
       <c r="P233" s="3"/>
       <c r="Q233" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>28</v>
@@ -12134,21 +12137,21 @@
       <c r="O234" s="3"/>
       <c r="P234" s="3"/>
       <c r="Q234" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>22</v>
@@ -12167,15 +12170,15 @@
       <c r="O235" s="3"/>
       <c r="P235" s="3"/>
       <c r="Q235" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="236" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>31</v>
@@ -12200,15 +12203,15 @@
       <c r="O236" s="3"/>
       <c r="P236" s="3"/>
       <c r="Q236" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>31</v>
@@ -12233,15 +12236,15 @@
       <c r="O237" s="3"/>
       <c r="P237" s="3"/>
       <c r="Q237" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="238" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>31</v>
@@ -12266,21 +12269,21 @@
       <c r="O238" s="3"/>
       <c r="P238" s="3"/>
       <c r="Q238" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>22</v>
@@ -12299,15 +12302,15 @@
       <c r="O239" s="3"/>
       <c r="P239" s="3"/>
       <c r="Q239" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>20</v>
@@ -12349,19 +12352,19 @@
     </row>
     <row r="241" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F241" s="6">
         <v>261314</v>
@@ -12400,19 +12403,19 @@
     </row>
     <row r="242" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D242" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E242" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="F242" s="6">
         <v>569652</v>
@@ -12451,19 +12454,19 @@
     </row>
     <row r="243" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F243" s="6">
         <v>671</v>
@@ -12502,19 +12505,19 @@
     </row>
     <row r="244" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F244" s="6">
         <v>1397</v>
@@ -12553,19 +12556,19 @@
     </row>
     <row r="245" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F245" s="6">
         <v>4990</v>
@@ -12604,19 +12607,19 @@
     </row>
     <row r="246" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F246" s="6">
         <v>234568</v>
@@ -12655,19 +12658,19 @@
     </row>
     <row r="247" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D247" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E247" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="F247" s="6">
         <v>1491253</v>
@@ -12706,19 +12709,19 @@
     </row>
     <row r="248" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F248" s="6">
         <v>56208</v>
@@ -12757,19 +12760,19 @@
     </row>
     <row r="249" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F249" s="6">
         <v>8362</v>
@@ -12808,19 +12811,19 @@
     </row>
     <row r="250" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F250" s="6">
         <v>5141</v>
@@ -12859,19 +12862,19 @@
     </row>
     <row r="251" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C251" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D251" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D251" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="E251" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F251" s="6">
         <v>41</v>
@@ -12910,10 +12913,10 @@
     </row>
     <row r="252" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>20</v>
@@ -12961,10 +12964,10 @@
     </row>
     <row r="253" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>20</v>
@@ -13010,10 +13013,10 @@
     </row>
     <row r="254" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>20</v>
@@ -13059,13 +13062,13 @@
     </row>
     <row r="255" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>21</v>
@@ -13103,21 +13106,21 @@
       <c r="O255" s="3"/>
       <c r="P255" s="3"/>
       <c r="Q255" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="256" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>22</v>
@@ -13152,21 +13155,21 @@
       <c r="O256" s="3"/>
       <c r="P256" s="3"/>
       <c r="Q256" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="257" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>22</v>
@@ -13201,18 +13204,18 @@
       <c r="O257" s="3"/>
       <c r="P257" s="3"/>
       <c r="Q257" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="258" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>21</v>
@@ -13250,21 +13253,21 @@
       <c r="O258" s="3"/>
       <c r="P258" s="3"/>
       <c r="Q258" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="259" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>22</v>
@@ -13299,21 +13302,21 @@
       <c r="O259" s="3"/>
       <c r="P259" s="3"/>
       <c r="Q259" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="260" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C260" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D260" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>22</v>
@@ -13348,15 +13351,15 @@
       <c r="O260" s="3"/>
       <c r="P260" s="3"/>
       <c r="Q260" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="261" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>20</v>
@@ -13365,7 +13368,7 @@
         <v>21</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F261" s="5">
         <v>0.38</v>
@@ -13397,15 +13400,15 @@
       <c r="O261" s="3"/>
       <c r="P261" s="3"/>
       <c r="Q261" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="262" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>20</v>
@@ -13451,10 +13454,10 @@
     </row>
     <row r="263" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>20</v>
@@ -13463,7 +13466,7 @@
         <v>21</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F263" s="4">
         <v>1689.4</v>
@@ -13500,10 +13503,10 @@
     </row>
     <row r="264" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>20</v>
@@ -13545,10 +13548,10 @@
     </row>
     <row r="265" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>20</v>
@@ -13592,16 +13595,16 @@
     </row>
     <row r="266" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>22</v>
@@ -13630,21 +13633,21 @@
       </c>
       <c r="P266" s="3"/>
       <c r="Q266" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="267" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>22</v>
@@ -13673,18 +13676,18 @@
       </c>
       <c r="P267" s="3"/>
       <c r="Q267" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="268" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>21</v>
@@ -13729,16 +13732,16 @@
     </row>
     <row r="269" spans="1:17" ht="54" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>22</v>
@@ -13780,10 +13783,10 @@
     </row>
     <row r="270" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>28</v>
@@ -13831,10 +13834,10 @@
     </row>
     <row r="271" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>28</v>
@@ -13882,10 +13885,10 @@
     </row>
     <row r="272" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>28</v>
@@ -13933,10 +13936,10 @@
     </row>
     <row r="273" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>31</v>
@@ -13984,10 +13987,10 @@
     </row>
     <row r="274" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>31</v>
@@ -14035,10 +14038,10 @@
     </row>
     <row r="275" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>31</v>
@@ -14086,10 +14089,10 @@
     </row>
     <row r="276" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>31</v>
@@ -14137,10 +14140,10 @@
     </row>
     <row r="277" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>31</v>
@@ -14188,10 +14191,10 @@
     </row>
     <row r="278" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>31</v>
@@ -14239,10 +14242,10 @@
     </row>
     <row r="279" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>20</v>
@@ -14276,10 +14279,10 @@
     </row>
     <row r="280" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>20</v>
@@ -14325,16 +14328,16 @@
     </row>
     <row r="281" spans="1:17" ht="72" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>22</v>
@@ -14371,21 +14374,21 @@
       </c>
       <c r="P281" s="3"/>
       <c r="Q281" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="282" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>22</v>
@@ -14422,21 +14425,21 @@
       </c>
       <c r="P282" s="3"/>
       <c r="Q282" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283" spans="1:17" ht="72" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>22</v>
@@ -14473,21 +14476,21 @@
       </c>
       <c r="P283" s="3"/>
       <c r="Q283" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="284" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>22</v>
@@ -14524,21 +14527,21 @@
       </c>
       <c r="P284" s="3"/>
       <c r="Q284" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="285" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>22</v>
@@ -14575,21 +14578,21 @@
       </c>
       <c r="P285" s="3"/>
       <c r="Q285" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="286" spans="1:17" ht="54" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>22</v>
@@ -14626,21 +14629,21 @@
       </c>
       <c r="P286" s="3"/>
       <c r="Q286" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="287" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>22</v>
@@ -14677,21 +14680,21 @@
       </c>
       <c r="P287" s="3"/>
       <c r="Q287" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="288" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>22</v>
@@ -14728,21 +14731,21 @@
       </c>
       <c r="P288" s="3"/>
       <c r="Q288" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="289" spans="1:17" ht="54" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>22</v>
@@ -14779,21 +14782,21 @@
       </c>
       <c r="P289" s="3"/>
       <c r="Q289" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="290" spans="1:17" ht="54" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>22</v>
@@ -14830,21 +14833,21 @@
       </c>
       <c r="P290" s="3"/>
       <c r="Q290" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="291" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>22</v>
@@ -14881,21 +14884,21 @@
       </c>
       <c r="P291" s="3"/>
       <c r="Q291" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="292" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>22</v>
@@ -14932,15 +14935,15 @@
       </c>
       <c r="P292" s="3"/>
       <c r="Q292" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="293" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>20</v>
@@ -14983,21 +14986,21 @@
       </c>
       <c r="P293" s="3"/>
       <c r="Q293" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="294" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E294" s="3" t="s">
         <v>79</v>
@@ -15034,21 +15037,21 @@
       </c>
       <c r="P294" s="3"/>
       <c r="Q294" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="295" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>79</v>
@@ -15085,21 +15088,21 @@
       </c>
       <c r="P295" s="3"/>
       <c r="Q295" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="296" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>79</v>
@@ -15136,21 +15139,21 @@
       </c>
       <c r="P296" s="3"/>
       <c r="Q296" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="297" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>79</v>
@@ -15187,21 +15190,21 @@
       </c>
       <c r="P297" s="3"/>
       <c r="Q297" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="298" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>79</v>
@@ -15238,21 +15241,21 @@
       </c>
       <c r="P298" s="3"/>
       <c r="Q298" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="299" spans="1:17" ht="72" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>79</v>
@@ -15289,21 +15292,21 @@
       </c>
       <c r="P299" s="3"/>
       <c r="Q299" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="300" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E300" s="3" t="s">
         <v>79</v>
@@ -15340,21 +15343,21 @@
       </c>
       <c r="P300" s="3"/>
       <c r="Q300" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="301" spans="1:17" ht="72" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E301" s="3" t="s">
         <v>79</v>
@@ -15391,21 +15394,21 @@
       </c>
       <c r="P301" s="3"/>
       <c r="Q301" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="302" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E302" s="3" t="s">
         <v>79</v>
@@ -15442,21 +15445,21 @@
       </c>
       <c r="P302" s="3"/>
       <c r="Q302" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="303" spans="1:17" ht="72" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>79</v>
@@ -15493,21 +15496,21 @@
       </c>
       <c r="P303" s="3"/>
       <c r="Q303" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="304" spans="1:17" ht="81" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E304" s="3" t="s">
         <v>79</v>
@@ -15544,15 +15547,15 @@
       </c>
       <c r="P304" s="3"/>
       <c r="Q304" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="305" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>25</v>
@@ -15598,10 +15601,10 @@
     </row>
     <row r="306" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>25</v>
@@ -15647,10 +15650,10 @@
     </row>
     <row r="307" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>25</v>
@@ -15696,10 +15699,10 @@
     </row>
     <row r="308" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>44</v>
@@ -15742,15 +15745,15 @@
       </c>
       <c r="P308" s="3"/>
       <c r="Q308" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="309" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>44</v>
@@ -15793,21 +15796,21 @@
       </c>
       <c r="P309" s="3"/>
       <c r="Q309" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="310" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>22</v>
@@ -15849,16 +15852,16 @@
     </row>
     <row r="311" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>22</v>
@@ -15900,16 +15903,16 @@
     </row>
     <row r="312" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>22</v>
@@ -15951,16 +15954,16 @@
     </row>
     <row r="313" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E313" s="3" t="s">
         <v>22</v>
@@ -16002,19 +16005,19 @@
     </row>
     <row r="314" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F314" s="4">
         <v>27.7</v>
@@ -16046,24 +16049,24 @@
       <c r="O314" s="3"/>
       <c r="P314" s="3"/>
       <c r="Q314" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="315" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D315" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E315" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="F315" s="4">
         <v>29.6</v>
@@ -16095,24 +16098,24 @@
       <c r="O315" s="3"/>
       <c r="P315" s="3"/>
       <c r="Q315" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="316" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F316" s="4">
         <v>50.5</v>
@@ -16144,24 +16147,24 @@
       <c r="O316" s="3"/>
       <c r="P316" s="3"/>
       <c r="Q316" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="317" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F317" s="4">
         <v>65.900000000000006</v>
@@ -16193,24 +16196,24 @@
       <c r="O317" s="3"/>
       <c r="P317" s="3"/>
       <c r="Q317" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="318" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F318" s="4">
         <v>32</v>
@@ -16242,24 +16245,24 @@
       <c r="O318" s="3"/>
       <c r="P318" s="3"/>
       <c r="Q318" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="319" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F319" s="4">
         <v>42.7</v>
@@ -16291,24 +16294,24 @@
       <c r="O319" s="3"/>
       <c r="P319" s="3"/>
       <c r="Q319" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="320" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F320" s="4">
         <v>38</v>
@@ -16340,24 +16343,24 @@
       <c r="O320" s="3"/>
       <c r="P320" s="3"/>
       <c r="Q320" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="321" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F321" s="4">
         <v>57.7</v>
@@ -16389,24 +16392,24 @@
       <c r="O321" s="3"/>
       <c r="P321" s="3"/>
       <c r="Q321" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="322" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F322" s="4">
         <v>31.2</v>
@@ -16438,24 +16441,24 @@
       <c r="O322" s="3"/>
       <c r="P322" s="3"/>
       <c r="Q322" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="323" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F323" s="4">
         <v>25.4</v>
@@ -16487,24 +16490,24 @@
       <c r="O323" s="3"/>
       <c r="P323" s="3"/>
       <c r="Q323" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="324" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F324" s="4">
         <v>38</v>
@@ -16536,24 +16539,24 @@
       <c r="O324" s="3"/>
       <c r="P324" s="3"/>
       <c r="Q324" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="325" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F325" s="4">
         <v>54.9</v>
@@ -16585,24 +16588,24 @@
       <c r="O325" s="3"/>
       <c r="P325" s="3"/>
       <c r="Q325" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="326" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F326" s="4">
         <v>23.7</v>
@@ -16634,24 +16637,24 @@
       <c r="O326" s="3"/>
       <c r="P326" s="3"/>
       <c r="Q326" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="327" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D327" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E327" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="E327" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="F327" s="4">
         <v>27.7</v>
@@ -16683,24 +16686,24 @@
       <c r="O327" s="3"/>
       <c r="P327" s="3"/>
       <c r="Q327" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="328" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F328" s="4">
         <v>42.5</v>
@@ -16732,24 +16735,24 @@
       <c r="O328" s="3"/>
       <c r="P328" s="3"/>
       <c r="Q328" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="329" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F329" s="4">
         <v>50.9</v>
@@ -16781,24 +16784,24 @@
       <c r="O329" s="3"/>
       <c r="P329" s="3"/>
       <c r="Q329" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="330" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F330" s="4">
         <v>25.1</v>
@@ -16830,24 +16833,24 @@
       <c r="O330" s="3"/>
       <c r="P330" s="3"/>
       <c r="Q330" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="331" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F331" s="4">
         <v>26.2</v>
@@ -16879,24 +16882,24 @@
       <c r="O331" s="3"/>
       <c r="P331" s="3"/>
       <c r="Q331" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="332" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="4">
@@ -16926,24 +16929,24 @@
       <c r="O332" s="3"/>
       <c r="P332" s="3"/>
       <c r="Q332" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="333" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F333" s="4">
         <v>44.3</v>
@@ -16975,24 +16978,24 @@
       <c r="O333" s="3"/>
       <c r="P333" s="3"/>
       <c r="Q333" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="334" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F334" s="4">
         <v>19.3</v>
@@ -17024,24 +17027,24 @@
       <c r="O334" s="3"/>
       <c r="P334" s="3"/>
       <c r="Q334" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="335" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F335" s="4">
         <v>20.3</v>
@@ -17073,24 +17076,24 @@
       <c r="O335" s="3"/>
       <c r="P335" s="3"/>
       <c r="Q335" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="336" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F336" s="4">
         <v>30.9</v>
@@ -17122,24 +17125,24 @@
       <c r="O336" s="3"/>
       <c r="P336" s="3"/>
       <c r="Q336" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="337" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C337" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D337" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D337" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="E337" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F337" s="4">
         <v>34.799999999999997</v>
@@ -17171,18 +17174,18 @@
       <c r="O337" s="3"/>
       <c r="P337" s="3"/>
       <c r="Q337" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="338" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>21</v>
@@ -17222,21 +17225,21 @@
       </c>
       <c r="P338" s="3"/>
       <c r="Q338" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="339" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E339" s="3" t="s">
         <v>22</v>
@@ -17273,21 +17276,21 @@
       </c>
       <c r="P339" s="3"/>
       <c r="Q339" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="340" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E340" s="3" t="s">
         <v>22</v>
@@ -17324,21 +17327,21 @@
       </c>
       <c r="P340" s="3"/>
       <c r="Q340" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="341" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E341" s="3" t="s">
         <v>22</v>
@@ -17375,18 +17378,18 @@
       </c>
       <c r="P341" s="3"/>
       <c r="Q341" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="342" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>21</v>
@@ -17426,21 +17429,21 @@
       </c>
       <c r="P342" s="3"/>
       <c r="Q342" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="343" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E343" s="3" t="s">
         <v>22</v>
@@ -17477,21 +17480,21 @@
       </c>
       <c r="P343" s="3"/>
       <c r="Q343" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="344" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>22</v>
@@ -17528,21 +17531,21 @@
       </c>
       <c r="P344" s="3"/>
       <c r="Q344" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="345" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C345" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D345" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="E345" s="3" t="s">
         <v>22</v>
@@ -17579,15 +17582,15 @@
       </c>
       <c r="P345" s="3"/>
       <c r="Q345" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="346" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>20</v>
@@ -17596,7 +17599,7 @@
         <v>21</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F346" s="5">
         <v>0.56000000000000005</v>
@@ -17630,15 +17633,15 @@
       </c>
       <c r="P346" s="3"/>
       <c r="Q346" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="347" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>20</v>
@@ -17647,7 +17650,7 @@
         <v>21</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F347" s="4">
         <v>644835</v>
@@ -17681,24 +17684,24 @@
       </c>
       <c r="P347" s="3"/>
       <c r="Q347" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="348" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D348" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E348" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="E348" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="F348" s="5">
         <v>16.95</v>
@@ -17732,15 +17735,15 @@
       </c>
       <c r="P348" s="3"/>
       <c r="Q348" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="349" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>20</v>
@@ -17785,24 +17788,24 @@
         <v>1</v>
       </c>
       <c r="Q349" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="350" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F350" s="6">
         <v>39</v>
@@ -17826,24 +17829,24 @@
       </c>
       <c r="P350" s="3"/>
       <c r="Q350" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="351" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F351" s="6">
         <v>75</v>
@@ -17867,24 +17870,24 @@
       </c>
       <c r="P351" s="3"/>
       <c r="Q351" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="352" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F352" s="6">
         <v>21</v>
@@ -17908,15 +17911,15 @@
       </c>
       <c r="P352" s="3"/>
       <c r="Q352" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="353" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>20</v>
@@ -17957,15 +17960,15 @@
       <c r="O353" s="3"/>
       <c r="P353" s="3"/>
       <c r="Q353" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="354" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>20</v>
@@ -17994,15 +17997,15 @@
       </c>
       <c r="P354" s="3"/>
       <c r="Q354" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="355" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>20</v>
@@ -18047,15 +18050,15 @@
         <v>1</v>
       </c>
       <c r="Q355" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="356" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>20</v>
@@ -18098,15 +18101,15 @@
       </c>
       <c r="P356" s="3"/>
       <c r="Q356" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="357" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>44</v>
@@ -18149,15 +18152,15 @@
       </c>
       <c r="P357" s="3"/>
       <c r="Q357" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="358" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>44</v>
@@ -18200,15 +18203,15 @@
       </c>
       <c r="P358" s="3"/>
       <c r="Q358" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:17" ht="72" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>20</v>
@@ -18253,15 +18256,15 @@
         <v>1</v>
       </c>
       <c r="Q359" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="360" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>20</v>
@@ -18306,15 +18309,15 @@
         <v>1</v>
       </c>
       <c r="Q360" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="361" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>20</v>
@@ -18356,16 +18359,16 @@
     </row>
     <row r="362" spans="1:17" ht="54" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E362" s="3" t="s">
         <v>22</v>
@@ -18402,21 +18405,21 @@
       </c>
       <c r="P362" s="3"/>
       <c r="Q362" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="363" spans="1:17" ht="54" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E363" s="3" t="s">
         <v>22</v>
@@ -18453,21 +18456,21 @@
       </c>
       <c r="P363" s="3"/>
       <c r="Q363" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="364" spans="1:17" ht="72" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>22</v>
@@ -18504,21 +18507,21 @@
       </c>
       <c r="P364" s="3"/>
       <c r="Q364" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="365" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E365" s="3" t="s">
         <v>22</v>
@@ -18555,15 +18558,15 @@
       </c>
       <c r="P365" s="3"/>
       <c r="Q365" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="366" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>20</v>
@@ -18604,15 +18607,15 @@
       <c r="O366" s="3"/>
       <c r="P366" s="3"/>
       <c r="Q366" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="367" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>20</v>
@@ -18621,7 +18624,7 @@
         <v>21</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F367" s="3"/>
       <c r="G367" s="6">
@@ -18653,15 +18656,15 @@
       </c>
       <c r="P367" s="3"/>
       <c r="Q367" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="368" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>20</v>
@@ -18709,10 +18712,10 @@
     </row>
     <row r="369" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>20</v>
@@ -18760,10 +18763,10 @@
     </row>
     <row r="370" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>20</v>
@@ -18806,18 +18809,18 @@
       </c>
       <c r="P370" s="3"/>
       <c r="Q370" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="371" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>21</v>
@@ -18841,21 +18844,21 @@
         <v>95.4</v>
       </c>
       <c r="Q371" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="372" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>22</v>
@@ -18872,21 +18875,21 @@
       <c r="O372" s="3"/>
       <c r="P372" s="3"/>
       <c r="Q372" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="373" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>22</v>
@@ -18903,21 +18906,21 @@
       <c r="O373" s="3"/>
       <c r="P373" s="3"/>
       <c r="Q373" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="374" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E374" s="3" t="s">
         <v>22</v>
@@ -18934,21 +18937,21 @@
       <c r="O374" s="3"/>
       <c r="P374" s="3"/>
       <c r="Q374" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="375" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E375" s="3" t="s">
         <v>22</v>
@@ -18969,21 +18972,21 @@
         <v>67.099999999999994</v>
       </c>
       <c r="Q375" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="376" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>22</v>
@@ -19004,21 +19007,21 @@
         <v>99.4</v>
       </c>
       <c r="Q376" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="377" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>22</v>
@@ -19039,15 +19042,15 @@
         <v>95.4</v>
       </c>
       <c r="Q377" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="378" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>20</v>
@@ -19092,15 +19095,15 @@
         <v>1</v>
       </c>
       <c r="Q378" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="379" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>20</v>
@@ -19143,15 +19146,15 @@
       </c>
       <c r="P379" s="3"/>
       <c r="Q379" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="380" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>20</v>
@@ -19196,15 +19199,15 @@
         <v>1</v>
       </c>
       <c r="Q380" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="381" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>20</v>
@@ -19246,10 +19249,10 @@
     </row>
     <row r="382" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>20</v>
@@ -19291,10 +19294,10 @@
     </row>
     <row r="383" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>20</v>
@@ -19340,10 +19343,10 @@
     </row>
     <row r="384" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>20</v>
@@ -19386,15 +19389,15 @@
       </c>
       <c r="P384" s="3"/>
       <c r="Q384" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="385" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>20</v>
@@ -19432,10 +19435,10 @@
     </row>
     <row r="386" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>20</v>
@@ -19472,24 +19475,24 @@
       <c r="O386" s="3"/>
       <c r="P386" s="3"/>
       <c r="Q386" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="387" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
@@ -19511,24 +19514,24 @@
       </c>
       <c r="P387" s="3"/>
       <c r="Q387" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="388" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
@@ -19550,24 +19553,24 @@
       </c>
       <c r="P388" s="3"/>
       <c r="Q388" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="389" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
@@ -19589,24 +19592,24 @@
       </c>
       <c r="P389" s="3"/>
       <c r="Q389" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="390" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
@@ -19628,24 +19631,24 @@
       </c>
       <c r="P390" s="3"/>
       <c r="Q390" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="391" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
@@ -19667,24 +19670,24 @@
       </c>
       <c r="P391" s="3"/>
       <c r="Q391" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="392" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
@@ -19706,24 +19709,24 @@
       </c>
       <c r="P392" s="3"/>
       <c r="Q392" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="393" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
@@ -19745,24 +19748,24 @@
       </c>
       <c r="P393" s="3"/>
       <c r="Q393" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="394" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
@@ -19778,24 +19781,24 @@
       <c r="O394" s="3"/>
       <c r="P394" s="3"/>
       <c r="Q394" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="395" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
@@ -19817,24 +19820,24 @@
       </c>
       <c r="P395" s="3"/>
       <c r="Q395" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="396" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
@@ -19856,15 +19859,15 @@
       </c>
       <c r="P396" s="3"/>
       <c r="Q396" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="397" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>20</v>
@@ -19905,15 +19908,15 @@
       <c r="O397" s="3"/>
       <c r="P397" s="3"/>
       <c r="Q397" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="398" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>20</v>
@@ -19922,7 +19925,7 @@
         <v>21</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F398" s="6">
         <v>12487</v>
@@ -19956,21 +19959,21 @@
       </c>
       <c r="P398" s="3"/>
       <c r="Q398" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="399" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E399" s="3" t="s">
         <v>22</v>
@@ -19993,21 +19996,21 @@
       </c>
       <c r="P399" s="3"/>
       <c r="Q399" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="400" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>22</v>
@@ -20030,21 +20033,21 @@
       </c>
       <c r="P400" s="3"/>
       <c r="Q400" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="401" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>22</v>
@@ -20067,21 +20070,21 @@
       </c>
       <c r="P401" s="3"/>
       <c r="Q401" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="402" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>22</v>
@@ -20104,21 +20107,21 @@
       </c>
       <c r="P402" s="3"/>
       <c r="Q402" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="403" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>22</v>
@@ -20141,21 +20144,21 @@
       </c>
       <c r="P403" s="3"/>
       <c r="Q403" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="404" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>22</v>
@@ -20178,18 +20181,18 @@
       </c>
       <c r="P404" s="3"/>
       <c r="Q404" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="405" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>36</v>
@@ -20215,21 +20218,21 @@
       </c>
       <c r="P405" s="3"/>
       <c r="Q405" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="406" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>22</v>
@@ -20252,21 +20255,21 @@
       </c>
       <c r="P406" s="3"/>
       <c r="Q406" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="407" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>22</v>
@@ -20289,21 +20292,21 @@
       </c>
       <c r="P407" s="3"/>
       <c r="Q407" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="408" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E408" s="3" t="s">
         <v>22</v>
@@ -20326,21 +20329,21 @@
       </c>
       <c r="P408" s="3"/>
       <c r="Q408" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="409" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C409" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D409" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="E409" s="3" t="s">
         <v>22</v>
@@ -20363,18 +20366,18 @@
       </c>
       <c r="P409" s="3"/>
       <c r="Q409" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="410" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>36</v>
@@ -20400,15 +20403,15 @@
       </c>
       <c r="P410" s="3"/>
       <c r="Q410" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="411" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>20</v>
@@ -20451,15 +20454,15 @@
       </c>
       <c r="P411" s="3"/>
       <c r="Q411" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="412" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>20</v>
@@ -20493,10 +20496,10 @@
     </row>
     <row r="413" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>20</v>
@@ -20539,15 +20542,15 @@
       </c>
       <c r="P413" s="3"/>
       <c r="Q413" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="414" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>20</v>
@@ -20590,18 +20593,18 @@
       </c>
       <c r="P414" s="3"/>
       <c r="Q414" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="415" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>21</v>
@@ -20646,16 +20649,16 @@
     </row>
     <row r="416" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>22</v>
@@ -20697,10 +20700,10 @@
     </row>
     <row r="417" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>20</v>
@@ -20743,15 +20746,15 @@
       </c>
       <c r="P417" s="3"/>
       <c r="Q417" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="418" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>20</v>
@@ -20794,15 +20797,15 @@
       </c>
       <c r="P418" s="3"/>
       <c r="Q418" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="419" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>20</v>
@@ -20845,15 +20848,15 @@
       </c>
       <c r="P419" s="3"/>
       <c r="Q419" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="420" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>20</v>
@@ -20862,7 +20865,7 @@
         <v>21</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F420" s="3"/>
       <c r="G420" s="6">
@@ -20894,21 +20897,21 @@
       </c>
       <c r="P420" s="3"/>
       <c r="Q420" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="421" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>45</v>
@@ -20945,21 +20948,21 @@
       </c>
       <c r="P421" s="3"/>
       <c r="Q421" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="422" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E422" s="3" t="s">
         <v>45</v>
@@ -20996,21 +20999,21 @@
       </c>
       <c r="P422" s="3"/>
       <c r="Q422" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="423" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>45</v>
@@ -21047,15 +21050,15 @@
       </c>
       <c r="P423" s="3"/>
       <c r="Q423" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="424" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>20</v>
@@ -21103,10 +21106,10 @@
     </row>
     <row r="425" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>20</v>
@@ -21154,10 +21157,10 @@
     </row>
     <row r="426" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>20</v>
@@ -21200,24 +21203,24 @@
       </c>
       <c r="P426" s="3"/>
       <c r="Q426" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="427" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E427" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F427" s="6">
         <v>37524</v>
@@ -21256,19 +21259,19 @@
     </row>
     <row r="428" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F428" s="4">
         <v>103.6</v>
@@ -21307,19 +21310,19 @@
     </row>
     <row r="429" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F429" s="4">
         <v>102.6</v>
@@ -21358,19 +21361,19 @@
     </row>
     <row r="430" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F430" s="4">
         <v>20.3</v>
@@ -21409,19 +21412,19 @@
     </row>
     <row r="431" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F431" s="4">
         <v>53.5</v>
@@ -21460,19 +21463,19 @@
     </row>
     <row r="432" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F432" s="4">
         <v>-7.4</v>
@@ -21511,10 +21514,10 @@
     </row>
     <row r="433" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>20</v>
@@ -21543,15 +21546,15 @@
       </c>
       <c r="P433" s="3"/>
       <c r="Q433" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="434" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>20</v>
@@ -21599,10 +21602,10 @@
     </row>
     <row r="435" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>20</v>
@@ -21650,10 +21653,10 @@
     </row>
     <row r="436" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>20</v>
@@ -21662,7 +21665,7 @@
         <v>21</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
@@ -21695,16 +21698,16 @@
     </row>
     <row r="437" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>158</v>
@@ -21723,21 +21726,21 @@
       <c r="O437" s="3"/>
       <c r="P437" s="3"/>
       <c r="Q437" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="438" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E438" s="3" t="s">
         <v>158</v>
@@ -21776,21 +21779,21 @@
         <v>1</v>
       </c>
       <c r="Q438" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="439" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>158</v>
@@ -21829,14 +21832,14 @@
         <v>1</v>
       </c>
       <c r="Q439" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="440" spans="1:17" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="441" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="442" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B442" s="9"/>
     </row>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1573,7 +1573,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 02-02-2021, 09:09</t>
+    <t>Ostatnia aktualizacja: 09-02-2021, 08:30</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2121,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7237,7 +7237,9 @@
       <c r="O117" s="6">
         <v>100</v>
       </c>
-      <c r="P117" s="3"/>
+      <c r="P117" s="6">
+        <v>100</v>
+      </c>
       <c r="Q117" s="2" t="s">
         <v>160</v>
       </c>
@@ -18091,7 +18093,9 @@
       <c r="O353" s="6">
         <v>127</v>
       </c>
-      <c r="P353" s="3"/>
+      <c r="P353" s="6">
+        <v>144</v>
+      </c>
       <c r="Q353" s="2" t="s">
         <v>400</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1609,7 +1609,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 16-03-2021, 19:46</t>
+    <t>Ostatnia aktualizacja: 30-03-2021, 09:23</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2157,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5192,20 +5192,14 @@
       <c r="E64" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="6">
-        <v>72</v>
-      </c>
+      <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="6">
-        <v>74</v>
-      </c>
+      <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="6">
-        <v>75</v>
-      </c>
+      <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="532">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -1318,30 +1318,33 @@
     <t>odsetek stad ryb w granicach poziomów zrównoważonych na Morzu Bałtyckim</t>
   </si>
   <si>
+    <t>Ministerstwo Rolnictwa i Rozwoju Wsi</t>
+  </si>
+  <si>
+    <t>udział zasobów rybnych w pełni wykorzystanych (fully exploited) na Morzu Bałtyckim</t>
+  </si>
+  <si>
+    <t>odsetek stad ryb które są nie w pełni wykorzystane (non-fully exploited) na Morzu Bałtyckim</t>
+  </si>
+  <si>
+    <t>odsetek stad ryb które są nadmiernie eksploatowane (overexploited) na Morzu Bałtyckim</t>
+  </si>
+  <si>
+    <t>14.5.1 Udział powierzchni chronionych obszarów morskich do ogólnego obszaru terenów morskich</t>
+  </si>
+  <si>
+    <t>Główny Urząd Geodezji i Kartografii / Ministerstwo Klimatu i Środowiska /  Główny Urząd Statystyczny</t>
+  </si>
+  <si>
+    <t>14.c.1 Liczba krajów, które zrobiły postęp w ratyfikowaniu, zaakceptowaniu i implementowaniu w obrębie właściwych ram prawnych, politycznych i instytucjonalnych, międzynarodowego prawa odzwierciedlonego w Konwencji Narodów Zjednoczonych o prawie morza (UNCLOS), dla ochrony i zrównoważonego użytkowania oceanów i ich zasobów</t>
+  </si>
+  <si>
+    <t>szt.</t>
+  </si>
+  <si>
     <t>Ministerstwo Gospodarki Morskiej i Żeglugi Śródlądowej</t>
   </si>
   <si>
-    <t>udział zasobów rybnych w pełni wykorzystanych (fully exploited) na Morzu Bałtyckim</t>
-  </si>
-  <si>
-    <t>odsetek stad ryb które są nie w pełni wykorzystane (non-fully exploited) na Morzu Bałtyckim</t>
-  </si>
-  <si>
-    <t>odsetek stad ryb które są nadmiernie eksploatowane (overexploited) na Morzu Bałtyckim</t>
-  </si>
-  <si>
-    <t>14.5.1 Udział powierzchni chronionych obszarów morskich do ogólnego obszaru terenów morskich</t>
-  </si>
-  <si>
-    <t>Główny Urząd Geodezji i Kartografii / Ministerstwo Klimatu i Środowiska /  Główny Urząd Statystyczny</t>
-  </si>
-  <si>
-    <t>14.c.1 Liczba krajów, które zrobiły postęp w ratyfikowaniu, zaakceptowaniu i implementowaniu w obrębie właściwych ram prawnych, politycznych i instytucjonalnych, międzynarodowego prawa odzwierciedlonego w Konwencji Narodów Zjednoczonych o prawie morza (UNCLOS), dla ochrony i zrównoważonego użytkowania oceanów i ich zasobów</t>
-  </si>
-  <si>
-    <t>szt.</t>
-  </si>
-  <si>
     <t>Cel 15. Życie na lądzie</t>
   </si>
   <si>
@@ -1615,7 +1618,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 13-04-2021, 10:04</t>
+    <t>Ostatnia aktualizacja: 20-04-2021, 08:15</t>
   </si>
 </sst>
 </file>
@@ -19216,15 +19219,15 @@
       </c>
       <c r="P376" s="3"/>
       <c r="Q376" s="2" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="377" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>20</v>
@@ -19272,10 +19275,10 @@
     </row>
     <row r="378" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>20</v>
@@ -19323,10 +19326,10 @@
     </row>
     <row r="379" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>20</v>
@@ -19369,18 +19372,18 @@
       </c>
       <c r="P379" s="3"/>
       <c r="Q379" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="380" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>21</v>
@@ -19404,21 +19407,21 @@
         <v>95.4</v>
       </c>
       <c r="Q380" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="381" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E381" s="3" t="s">
         <v>22</v>
@@ -19435,21 +19438,21 @@
       <c r="O381" s="3"/>
       <c r="P381" s="3"/>
       <c r="Q381" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="382" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E382" s="3" t="s">
         <v>22</v>
@@ -19466,21 +19469,21 @@
       <c r="O382" s="3"/>
       <c r="P382" s="3"/>
       <c r="Q382" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="383" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>22</v>
@@ -19497,21 +19500,21 @@
       <c r="O383" s="3"/>
       <c r="P383" s="3"/>
       <c r="Q383" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="384" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>22</v>
@@ -19532,21 +19535,21 @@
         <v>67.099999999999994</v>
       </c>
       <c r="Q384" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="385" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E385" s="3" t="s">
         <v>22</v>
@@ -19567,21 +19570,21 @@
         <v>99.4</v>
       </c>
       <c r="Q385" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="386" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E386" s="3" t="s">
         <v>22</v>
@@ -19602,15 +19605,15 @@
         <v>95.4</v>
       </c>
       <c r="Q386" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="387" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>20</v>
@@ -19660,10 +19663,10 @@
     </row>
     <row r="388" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>20</v>
@@ -19711,10 +19714,10 @@
     </row>
     <row r="389" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>20</v>
@@ -19764,10 +19767,10 @@
     </row>
     <row r="390" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>20</v>
@@ -19809,10 +19812,10 @@
     </row>
     <row r="391" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>20</v>
@@ -19854,10 +19857,10 @@
     </row>
     <row r="392" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>20</v>
@@ -19903,10 +19906,10 @@
     </row>
     <row r="393" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>20</v>
@@ -19951,15 +19954,15 @@
         <v>0</v>
       </c>
       <c r="Q393" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="394" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>20</v>
@@ -19997,10 +20000,10 @@
     </row>
     <row r="395" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>20</v>
@@ -20039,24 +20042,24 @@
       </c>
       <c r="P395" s="3"/>
       <c r="Q395" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="396" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
@@ -20078,24 +20081,24 @@
       </c>
       <c r="P396" s="3"/>
       <c r="Q396" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="397" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
@@ -20117,24 +20120,24 @@
       </c>
       <c r="P397" s="3"/>
       <c r="Q397" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="398" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
@@ -20156,24 +20159,24 @@
       </c>
       <c r="P398" s="3"/>
       <c r="Q398" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="399" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
@@ -20195,24 +20198,24 @@
       </c>
       <c r="P399" s="3"/>
       <c r="Q399" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="400" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
@@ -20234,24 +20237,24 @@
       </c>
       <c r="P400" s="3"/>
       <c r="Q400" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="401" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
@@ -20273,24 +20276,24 @@
       </c>
       <c r="P401" s="3"/>
       <c r="Q401" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="402" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
@@ -20312,24 +20315,24 @@
       </c>
       <c r="P402" s="3"/>
       <c r="Q402" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="403" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
@@ -20345,24 +20348,24 @@
       <c r="O403" s="3"/>
       <c r="P403" s="3"/>
       <c r="Q403" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="404" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
@@ -20384,24 +20387,24 @@
       </c>
       <c r="P404" s="3"/>
       <c r="Q404" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="405" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
@@ -20423,15 +20426,15 @@
       </c>
       <c r="P405" s="3"/>
       <c r="Q405" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="406" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>20</v>
@@ -20472,15 +20475,15 @@
       <c r="O406" s="3"/>
       <c r="P406" s="3"/>
       <c r="Q406" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="407" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>20</v>
@@ -20489,7 +20492,7 @@
         <v>21</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F407" s="6">
         <v>12487</v>
@@ -20523,18 +20526,18 @@
       </c>
       <c r="P407" s="3"/>
       <c r="Q407" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="408" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>202</v>
@@ -20560,18 +20563,18 @@
       </c>
       <c r="P408" s="3"/>
       <c r="Q408" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="409" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>204</v>
@@ -20597,21 +20600,21 @@
       </c>
       <c r="P409" s="3"/>
       <c r="Q409" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="410" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E410" s="3" t="s">
         <v>22</v>
@@ -20634,21 +20637,21 @@
       </c>
       <c r="P410" s="3"/>
       <c r="Q410" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="411" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E411" s="3" t="s">
         <v>22</v>
@@ -20671,21 +20674,21 @@
       </c>
       <c r="P411" s="3"/>
       <c r="Q411" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="412" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E412" s="3" t="s">
         <v>22</v>
@@ -20708,21 +20711,21 @@
       </c>
       <c r="P412" s="3"/>
       <c r="Q412" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="413" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E413" s="3" t="s">
         <v>22</v>
@@ -20745,18 +20748,18 @@
       </c>
       <c r="P413" s="3"/>
       <c r="Q413" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="414" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>36</v>
@@ -20782,21 +20785,21 @@
       </c>
       <c r="P414" s="3"/>
       <c r="Q414" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="415" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E415" s="3" t="s">
         <v>22</v>
@@ -20819,21 +20822,21 @@
       </c>
       <c r="P415" s="3"/>
       <c r="Q415" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="416" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>22</v>
@@ -20856,21 +20859,21 @@
       </c>
       <c r="P416" s="3"/>
       <c r="Q416" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="417" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E417" s="3" t="s">
         <v>22</v>
@@ -20893,21 +20896,21 @@
       </c>
       <c r="P417" s="3"/>
       <c r="Q417" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="418" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C418" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D418" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="D418" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="E418" s="3" t="s">
         <v>22</v>
@@ -20930,18 +20933,18 @@
       </c>
       <c r="P418" s="3"/>
       <c r="Q418" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="419" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>36</v>
@@ -20967,15 +20970,15 @@
       </c>
       <c r="P419" s="3"/>
       <c r="Q419" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="420" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>20</v>
@@ -21020,15 +21023,15 @@
         <v>100</v>
       </c>
       <c r="Q420" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="421" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>20</v>
@@ -21062,10 +21065,10 @@
     </row>
     <row r="422" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>20</v>
@@ -21113,10 +21116,10 @@
     </row>
     <row r="423" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>20</v>
@@ -21164,13 +21167,13 @@
     </row>
     <row r="424" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>21</v>
@@ -21215,16 +21218,16 @@
     </row>
     <row r="425" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E425" s="3" t="s">
         <v>22</v>
@@ -21266,10 +21269,10 @@
     </row>
     <row r="426" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>20</v>
@@ -21312,15 +21315,15 @@
       </c>
       <c r="P426" s="3"/>
       <c r="Q426" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="427" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>20</v>
@@ -21368,10 +21371,10 @@
     </row>
     <row r="428" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>20</v>
@@ -21414,15 +21417,15 @@
       </c>
       <c r="P428" s="3"/>
       <c r="Q428" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="429" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>20</v>
@@ -21431,7 +21434,7 @@
         <v>21</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F429" s="3"/>
       <c r="G429" s="6">
@@ -21463,21 +21466,21 @@
       </c>
       <c r="P429" s="3"/>
       <c r="Q429" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="430" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E430" s="3" t="s">
         <v>45</v>
@@ -21519,16 +21522,16 @@
     </row>
     <row r="431" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E431" s="3" t="s">
         <v>45</v>
@@ -21570,16 +21573,16 @@
     </row>
     <row r="432" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E432" s="3" t="s">
         <v>45</v>
@@ -21621,10 +21624,10 @@
     </row>
     <row r="433" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>20</v>
@@ -21672,10 +21675,10 @@
     </row>
     <row r="434" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>20</v>
@@ -21723,10 +21726,10 @@
     </row>
     <row r="435" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>20</v>
@@ -21774,16 +21777,16 @@
     </row>
     <row r="436" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E436" s="3" t="s">
         <v>265</v>
@@ -21825,16 +21828,16 @@
     </row>
     <row r="437" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>265</v>
@@ -21876,16 +21879,16 @@
     </row>
     <row r="438" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E438" s="3" t="s">
         <v>265</v>
@@ -21927,16 +21930,16 @@
     </row>
     <row r="439" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>265</v>
@@ -21978,16 +21981,16 @@
     </row>
     <row r="440" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E440" s="3" t="s">
         <v>265</v>
@@ -22029,16 +22032,16 @@
     </row>
     <row r="441" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E441" s="3" t="s">
         <v>265</v>
@@ -22080,10 +22083,10 @@
     </row>
     <row r="442" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>20</v>
@@ -22119,10 +22122,10 @@
     </row>
     <row r="443" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>20</v>
@@ -22172,10 +22175,10 @@
     </row>
     <row r="444" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>20</v>
@@ -22225,10 +22228,10 @@
     </row>
     <row r="445" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>20</v>
@@ -22237,7 +22240,7 @@
         <v>21</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
@@ -22270,16 +22273,16 @@
     </row>
     <row r="446" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E446" s="3" t="s">
         <v>172</v>
@@ -22298,21 +22301,21 @@
       <c r="O446" s="3"/>
       <c r="P446" s="3"/>
       <c r="Q446" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="447" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>172</v>
@@ -22351,21 +22354,21 @@
         <v>1</v>
       </c>
       <c r="Q447" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="448" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E448" s="3" t="s">
         <v>172</v>
@@ -22404,14 +22407,14 @@
         <v>1</v>
       </c>
       <c r="Q448" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="450" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="451" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B451" s="9"/>
     </row>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">100% rejestracja zgonów</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostatnia aktualizacja: 27-04-2021, 10:09</t>
+    <t xml:space="preserve">Ostatnia aktualizacja: 29-04-2021, 07:02</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1942,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7724,9 +7724,15 @@
       <c r="M133" s="6" t="n">
         <v>98.3</v>
       </c>
-      <c r="N133" s="5"/>
-      <c r="O133" s="5"/>
-      <c r="P133" s="5"/>
+      <c r="N133" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="O133" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="P133" s="6" t="n">
+        <v>100</v>
+      </c>
       <c r="Q133" s="4" t="s">
         <v>172</v>
       </c>
@@ -7771,9 +7777,15 @@
       <c r="M134" s="6" t="n">
         <v>99.5</v>
       </c>
-      <c r="N134" s="5"/>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5"/>
+      <c r="N134" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="O134" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="P134" s="6" t="n">
+        <v>100</v>
+      </c>
       <c r="Q134" s="4" t="s">
         <v>172</v>
       </c>
@@ -7818,9 +7830,15 @@
       <c r="M135" s="7" t="n">
         <v>99.2</v>
       </c>
-      <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
+      <c r="N135" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="O135" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="P135" s="7" t="n">
+        <v>100</v>
+      </c>
       <c r="Q135" s="4" t="s">
         <v>172</v>
       </c>
@@ -7865,9 +7883,15 @@
       <c r="M136" s="6" t="n">
         <v>98.3</v>
       </c>
-      <c r="N136" s="5"/>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
+      <c r="N136" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="O136" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="P136" s="6" t="n">
+        <v>100</v>
+      </c>
       <c r="Q136" s="4" t="s">
         <v>172</v>
       </c>
@@ -21507,26 +21531,24 @@
         <v>42770</v>
       </c>
       <c r="J437" s="8" t="n">
-        <v>44705</v>
+        <v>44466</v>
       </c>
       <c r="K437" s="8" t="n">
-        <v>44466</v>
+        <v>46837</v>
       </c>
       <c r="L437" s="8" t="n">
-        <v>46837</v>
+        <v>48494</v>
       </c>
       <c r="M437" s="8" t="n">
-        <v>48494</v>
+        <v>51789</v>
       </c>
       <c r="N437" s="8" t="n">
-        <v>51789</v>
+        <v>55230</v>
       </c>
       <c r="O437" s="8" t="n">
-        <v>55230</v>
-      </c>
-      <c r="P437" s="8" t="n">
         <v>59598</v>
       </c>
+      <c r="P437" s="5"/>
       <c r="Q437" s="4" t="s">
         <v>22</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">100% rejestracja zgonów</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostatnia aktualizacja: 29-04-2021, 07:02</t>
+    <t xml:space="preserve">Ostatnia aktualizacja: 29-04-2021, 10:32</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1942,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15180,7 +15180,9 @@
       <c r="O301" s="7" t="n">
         <v>9.53</v>
       </c>
-      <c r="P301" s="5"/>
+      <c r="P301" s="7" t="n">
+        <v>8.21</v>
+      </c>
       <c r="Q301" s="4" t="s">
         <v>351</v>
       </c>
@@ -21499,7 +21501,9 @@
       <c r="O436" s="7" t="n">
         <v>1.26</v>
       </c>
-      <c r="P436" s="5"/>
+      <c r="P436" s="7" t="n">
+        <v>1.26</v>
+      </c>
       <c r="Q436" s="4" t="s">
         <v>351</v>
       </c>
@@ -21546,7 +21550,7 @@
         <v>55230</v>
       </c>
       <c r="O437" s="8" t="n">
-        <v>59598</v>
+        <v>59741</v>
       </c>
       <c r="P437" s="5"/>
       <c r="Q437" s="4" t="s">

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1621,7 +1621,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 18-05-2021, 10:35</t>
+    <t>Ostatnia aktualizacja: 25-05-2021, 10:57</t>
   </si>
 </sst>
 </file>
@@ -2168,8 +2168,8 @@
   <dimension ref="A1:Q451"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">100% rejestracja zgonów</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostatnia aktualizacja: 08-06-2021, 08:32</t>
+    <t xml:space="preserve">Ostatnia aktualizacja: 13-07-2021, 08:08</t>
   </si>
 </sst>
 </file>
@@ -3957,7 +3957,9 @@
       <c r="O43" s="6" t="n">
         <v>99.8</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="6" t="n">
+        <v>99.7</v>
+      </c>
       <c r="Q43" s="4" t="s">
         <v>22</v>
       </c>
@@ -4006,7 +4008,9 @@
       <c r="O44" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="P44" s="5"/>
+      <c r="P44" s="6" t="n">
+        <v>4.2</v>
+      </c>
       <c r="Q44" s="4" t="s">
         <v>22</v>
       </c>
@@ -4055,7 +4059,9 @@
       <c r="O45" s="6" t="n">
         <v>2.7</v>
       </c>
-      <c r="P45" s="5"/>
+      <c r="P45" s="6" t="n">
+        <v>2.6</v>
+      </c>
       <c r="Q45" s="4" t="s">
         <v>22</v>
       </c>
@@ -4845,7 +4851,9 @@
       <c r="O61" s="6" t="n">
         <v>4.5</v>
       </c>
-      <c r="P61" s="5"/>
+      <c r="P61" s="6" t="n">
+        <v>3.8</v>
+      </c>
       <c r="Q61" s="4" t="s">
         <v>22</v>
       </c>
@@ -4896,7 +4904,9 @@
       <c r="O62" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="P62" s="5"/>
+      <c r="P62" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="Q62" s="4" t="s">
         <v>22</v>
       </c>
@@ -4945,9 +4955,11 @@
         <v>10.2</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P63" s="5"/>
+        <v>9.3</v>
+      </c>
+      <c r="P63" s="6" t="n">
+        <v>8.1</v>
+      </c>
       <c r="Q63" s="4" t="s">
         <v>22</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1618,7 +1618,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 10-08-2021, 12:23</t>
+    <t>Ostatnia aktualizacja: 24-08-2021, 09:57</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2166,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23123,7 +23123,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1627,7 +1627,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 12-10-2021, 14:02</t>
+    <t>Ostatnia aktualizacja: 19-10-2021, 08:31</t>
   </si>
 </sst>
 </file>
@@ -2179,7 +2179,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23180,7 +23180,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1405,7 +1405,7 @@
     <t>15.6.1 Liczba krajów które przyjęły prawne, administracyjne i polityczne ramy działania zapewniające sprawiedliwy i uczciwy podział korzyści płynących z użytkowania zasobów genetycznych</t>
   </si>
   <si>
-    <t>15.7.1 Liczba okazów CITES zatrzymanych przez Służby celne - ZASTĘPCZY!</t>
+    <t>15.7.1 Liczba okazów CITES zatrzymanych przez Służby Celne - ZASTĘPCZY!</t>
   </si>
   <si>
     <t>15.8.1 Liczba krajów które przyjęły odpowiednie krajowe przepisy prawne i odpowiednie środki zapobiegania i kontroli inwazyjnych gatunków obcych</t>
@@ -1417,7 +1417,7 @@
     <t>15.b.1 Oficjalna pomoc rozwojowa oraz wydatki publiczne przeznaczone na ochronę i zrównoważone wykorzystanie bioróżnorodności i ekosystemów</t>
   </si>
   <si>
-    <t>15.c.1 Udział handlu chronionymi gatunkami roślin i zwierząt stanowiących przedmiot nielegalnego obrotu w handlu ogółem</t>
+    <t>15.c.1 Liczba okazów CITES zatrzymanych przez Służby Celne</t>
   </si>
   <si>
     <t>Cel 16. Pokój, sprawiedliwość i silne instytucje</t>
@@ -1630,7 +1630,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 09-11-2021, 11:05</t>
+    <t>Ostatnia aktualizacja: 24-11-2021, 11:16</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2182,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20665,7 +20665,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="393" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>445</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>22</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F393" s="7">
         <v>8495</v>
@@ -20716,7 +20716,7 @@
       </c>
       <c r="Q393" s="3"/>
       <c r="R393" s="2" t="s">
-        <v>21</v>
+        <v>357</v>
       </c>
     </row>
     <row r="394" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -21433,7 +21433,9 @@
       <c r="O409" s="7">
         <v>9367</v>
       </c>
-      <c r="P409" s="3"/>
+      <c r="P409" s="7">
+        <v>10438</v>
+      </c>
       <c r="Q409" s="3"/>
       <c r="R409" s="2" t="s">
         <v>485</v>
@@ -23375,7 +23377,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1630,7 +1630,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 24-11-2021, 11:16</t>
+    <t>Ostatnia aktualizacja: 07-12-2021, 09:36</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2182,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2361,9 @@
       <c r="O5" s="4">
         <v>15.4</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="4">
+        <v>14.8</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="2" t="s">
         <v>24</v>
@@ -2413,7 +2415,9 @@
       <c r="O6" s="4">
         <v>11.1</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="4">
+        <v>10</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="2" t="s">
         <v>24</v>
@@ -2465,7 +2469,9 @@
       <c r="O7" s="4">
         <v>21.9</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="4">
+        <v>21.9</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="2" t="s">
         <v>24</v>
@@ -2517,7 +2523,9 @@
       <c r="O8" s="4">
         <v>15</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="4">
+        <v>13.9</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="2" t="s">
         <v>24</v>
@@ -2569,7 +2577,9 @@
       <c r="O9" s="4">
         <v>15.8</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="4">
+        <v>15.7</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="2" t="s">
         <v>24</v>
@@ -2621,7 +2631,9 @@
       <c r="O10" s="4">
         <v>12.5</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="4">
+        <v>12.1</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="2" t="s">
         <v>24</v>
@@ -2673,7 +2685,9 @@
       <c r="O11" s="4">
         <v>13.4</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="4">
+        <v>13.5</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="2" t="s">
         <v>24</v>
@@ -2725,7 +2739,9 @@
       <c r="O12" s="4">
         <v>22.1</v>
       </c>
-      <c r="P12" s="3"/>
+      <c r="P12" s="4">
+        <v>19.5</v>
+      </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="2" t="s">
         <v>24</v>
@@ -2777,7 +2793,9 @@
       <c r="O13" s="4">
         <v>15.5</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="4">
+        <v>14.2</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="2" t="s">
         <v>24</v>
@@ -2827,9 +2845,11 @@
         <v>16.2</v>
       </c>
       <c r="O14" s="4">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="P14" s="3"/>
+        <v>17.7</v>
+      </c>
+      <c r="P14" s="4">
+        <v>18.3</v>
+      </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="2" t="s">
         <v>24</v>
@@ -2879,9 +2899,11 @@
         <v>15.5</v>
       </c>
       <c r="O15" s="4">
-        <v>17.7</v>
-      </c>
-      <c r="P15" s="3"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="P15" s="4">
+        <v>18.2</v>
+      </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="2" t="s">
         <v>24</v>
@@ -3175,7 +3197,9 @@
       <c r="O21" s="4">
         <v>97</v>
       </c>
-      <c r="P21" s="3"/>
+      <c r="P21" s="4">
+        <v>97.6</v>
+      </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="2" t="s">
         <v>24</v>
@@ -23377,7 +23401,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1654,7 +1654,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 18-01-2022, 08:16</t>
+    <t>Ostatnia aktualizacja: 18-01-2022, 12:30</t>
   </si>
 </sst>
 </file>
@@ -2333,7 +2333,9 @@
       <c r="O4" s="4">
         <v>0.4</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="4">
+        <v>0.2</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="2" t="s">
         <v>24</v>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1663,7 +1663,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 15-03-2022, 09:58</t>
+    <t>Ostatnia aktualizacja: 12-04-2022, 07:58</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Cele_1-17" sheetId="1" r:id="rId1"/>
@@ -2214,33 +2214,33 @@
   <dimension ref="A1:R457"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="17" width="6.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="17" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="99" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="99" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="99" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>65</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>65</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>65</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>65</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>65</v>
       </c>
@@ -4432,15 +4432,17 @@
         <v>0.48</v>
       </c>
       <c r="O45" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="P45" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0.45</v>
+      </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>65</v>
       </c>
@@ -4488,7 +4490,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -4540,7 +4542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -4594,7 +4596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -4648,7 +4650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
@@ -4702,7 +4704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4810,7 +4812,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4864,7 +4866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -4918,7 +4920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -4972,7 +4974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -5024,7 +5026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -5076,7 +5078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -5128,7 +5130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -5180,7 +5182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -5284,7 +5286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
@@ -5336,7 +5338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
@@ -5390,7 +5392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -5444,7 +5446,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
@@ -5482,7 +5484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -5536,7 +5538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -5590,7 +5592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5644,7 +5646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5682,7 +5684,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -5726,7 +5728,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -5804,7 +5806,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -5838,7 +5840,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -5890,7 +5892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
@@ -5980,7 +5982,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -6032,7 +6034,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -6068,7 +6070,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -6116,7 +6118,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -6170,7 +6172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -6224,7 +6226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -6278,7 +6280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -6328,7 +6330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>149</v>
       </c>
@@ -6364,7 +6366,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>149</v>
       </c>
@@ -6400,7 +6402,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>149</v>
       </c>
@@ -6436,7 +6438,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>149</v>
       </c>
@@ -6476,7 +6478,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>149</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>149</v>
       </c>
@@ -6556,7 +6558,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>149</v>
       </c>
@@ -6596,7 +6598,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>149</v>
       </c>
@@ -6636,7 +6638,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>149</v>
       </c>
@@ -6676,7 +6678,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>149</v>
       </c>
@@ -6712,7 +6714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>149</v>
       </c>
@@ -6766,7 +6768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>149</v>
       </c>
@@ -6820,7 +6822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>149</v>
       </c>
@@ -6874,7 +6876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
@@ -6910,7 +6912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>149</v>
       </c>
@@ -6946,7 +6948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>149</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -7026,7 +7028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>149</v>
       </c>
@@ -7070,7 +7072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>149</v>
       </c>
@@ -7114,7 +7116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -7158,7 +7160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>149</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>149</v>
       </c>
@@ -7246,7 +7248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>149</v>
       </c>
@@ -7290,7 +7292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -7334,7 +7336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -7378,7 +7380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -7422,7 +7424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>149</v>
       </c>
@@ -7466,7 +7468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
@@ -7510,7 +7512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
@@ -7548,7 +7550,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -7586,7 +7588,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>149</v>
       </c>
@@ -7640,7 +7642,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>149</v>
       </c>
@@ -7674,7 +7676,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>149</v>
       </c>
@@ -7708,7 +7710,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -7742,7 +7744,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -7776,7 +7778,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -7810,7 +7812,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
@@ -7844,7 +7846,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>149</v>
       </c>
@@ -7878,7 +7880,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -7912,7 +7914,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
@@ -7946,7 +7948,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>149</v>
       </c>
@@ -7980,7 +7982,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -8014,7 +8016,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -8048,7 +8050,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>149</v>
       </c>
@@ -8082,7 +8084,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -8116,7 +8118,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -8150,7 +8152,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -8184,7 +8186,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8240,7 +8242,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -8296,7 +8298,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -8330,7 +8332,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -8364,7 +8366,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -8420,7 +8422,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
@@ -8476,7 +8478,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>149</v>
       </c>
@@ -8532,7 +8534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
@@ -8580,7 +8582,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
@@ -8634,7 +8636,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>149</v>
       </c>
@@ -8688,7 +8690,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -8796,7 +8798,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>204</v>
       </c>
@@ -8830,7 +8832,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>204</v>
       </c>
@@ -8884,7 +8886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>204</v>
       </c>
@@ -8918,7 +8920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>204</v>
       </c>
@@ -8952,7 +8954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>204</v>
       </c>
@@ -8986,7 +8988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>204</v>
       </c>
@@ -9020,7 +9022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>204</v>
       </c>
@@ -9054,7 +9056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>204</v>
       </c>
@@ -9088,7 +9090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>204</v>
       </c>
@@ -9122,7 +9124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>204</v>
       </c>
@@ -9156,7 +9158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>204</v>
       </c>
@@ -9190,7 +9192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>204</v>
       </c>
@@ -9224,7 +9226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>204</v>
       </c>
@@ -9258,7 +9260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>204</v>
       </c>
@@ -9292,7 +9294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>204</v>
       </c>
@@ -9326,7 +9328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>204</v>
       </c>
@@ -9364,7 +9366,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>204</v>
       </c>
@@ -9402,7 +9404,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>204</v>
       </c>
@@ -9454,7 +9456,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>204</v>
       </c>
@@ -9506,7 +9508,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>204</v>
       </c>
@@ -9558,7 +9560,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>204</v>
       </c>
@@ -9610,7 +9612,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>204</v>
       </c>
@@ -9662,7 +9664,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>204</v>
       </c>
@@ -9706,7 +9708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>204</v>
       </c>
@@ -9750,7 +9752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>204</v>
       </c>
@@ -9794,7 +9796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>204</v>
       </c>
@@ -9838,7 +9840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>204</v>
       </c>
@@ -9882,7 +9884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>204</v>
       </c>
@@ -9926,7 +9928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>204</v>
       </c>
@@ -9970,7 +9972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>204</v>
       </c>
@@ -10008,7 +10010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>204</v>
       </c>
@@ -10046,7 +10048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>204</v>
       </c>
@@ -10084,7 +10086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>204</v>
       </c>
@@ -10122,7 +10124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>204</v>
       </c>
@@ -10160,7 +10162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>204</v>
       </c>
@@ -10198,7 +10200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>204</v>
       </c>
@@ -10236,7 +10238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>204</v>
       </c>
@@ -10274,7 +10276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>204</v>
       </c>
@@ -10312,7 +10314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>204</v>
       </c>
@@ -10350,7 +10352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>204</v>
       </c>
@@ -10388,7 +10390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>204</v>
       </c>
@@ -10426,7 +10428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>204</v>
       </c>
@@ -10466,7 +10468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>204</v>
       </c>
@@ -10516,7 +10518,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>204</v>
       </c>
@@ -10566,7 +10568,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>243</v>
       </c>
@@ -10620,7 +10622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>243</v>
       </c>
@@ -10674,7 +10676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>243</v>
       </c>
@@ -10728,7 +10730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>243</v>
       </c>
@@ -10762,7 +10764,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>243</v>
       </c>
@@ -10796,7 +10798,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>243</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>243</v>
       </c>
@@ -10898,7 +10900,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>243</v>
       </c>
@@ -10942,7 +10944,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>243</v>
       </c>
@@ -10996,7 +10998,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>243</v>
       </c>
@@ -11044,7 +11046,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>243</v>
       </c>
@@ -11098,7 +11100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>264</v>
       </c>
@@ -11132,7 +11134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>264</v>
       </c>
@@ -11184,7 +11186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>264</v>
       </c>
@@ -11236,7 +11238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>264</v>
       </c>
@@ -11284,7 +11286,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>270</v>
       </c>
@@ -11338,7 +11340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>270</v>
       </c>
@@ -11392,7 +11394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>270</v>
       </c>
@@ -11430,7 +11432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>270</v>
       </c>
@@ -11468,7 +11470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>270</v>
       </c>
@@ -11506,7 +11508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>270</v>
       </c>
@@ -11560,7 +11562,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>270</v>
       </c>
@@ -11614,7 +11616,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>270</v>
       </c>
@@ -11668,7 +11670,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>270</v>
       </c>
@@ -11710,7 +11712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>270</v>
       </c>
@@ -11752,7 +11754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>270</v>
       </c>
@@ -11794,7 +11796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>270</v>
       </c>
@@ -11836,7 +11838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>270</v>
       </c>
@@ -11878,7 +11880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>270</v>
       </c>
@@ -11920,7 +11922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>270</v>
       </c>
@@ -11962,7 +11964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>270</v>
       </c>
@@ -12004,7 +12006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>270</v>
       </c>
@@ -12046,7 +12048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>270</v>
       </c>
@@ -12088,7 +12090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>270</v>
       </c>
@@ -12130,7 +12132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>270</v>
       </c>
@@ -12172,7 +12174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>270</v>
       </c>
@@ -12214,7 +12216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>270</v>
       </c>
@@ -12256,7 +12258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>270</v>
       </c>
@@ -12298,7 +12300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>270</v>
       </c>
@@ -12340,7 +12342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>270</v>
       </c>
@@ -12382,7 +12384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>270</v>
       </c>
@@ -12424,7 +12426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>270</v>
       </c>
@@ -12466,7 +12468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>270</v>
       </c>
@@ -12520,7 +12522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>270</v>
       </c>
@@ -12574,7 +12576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>270</v>
       </c>
@@ -12628,7 +12630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>270</v>
       </c>
@@ -12682,7 +12684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>270</v>
       </c>
@@ -12736,7 +12738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>270</v>
       </c>
@@ -12790,7 +12792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>270</v>
       </c>
@@ -12844,7 +12846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>270</v>
       </c>
@@ -12898,7 +12900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>270</v>
       </c>
@@ -12952,7 +12954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>270</v>
       </c>
@@ -13006,7 +13008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>270</v>
       </c>
@@ -13060,7 +13062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>270</v>
       </c>
@@ -13114,7 +13116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>270</v>
       </c>
@@ -13154,7 +13156,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="242" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>270</v>
       </c>
@@ -13194,7 +13196,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="243" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>270</v>
       </c>
@@ -13234,7 +13236,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="244" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>270</v>
       </c>
@@ -13288,7 +13290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>270</v>
       </c>
@@ -13342,7 +13344,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="246" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>270</v>
       </c>
@@ -13376,7 +13378,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="247" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>270</v>
       </c>
@@ -13410,7 +13412,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="248" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>270</v>
       </c>
@@ -13444,7 +13446,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>270</v>
       </c>
@@ -13478,7 +13480,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="250" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>270</v>
       </c>
@@ -13512,7 +13514,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>270</v>
       </c>
@@ -13546,7 +13548,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="252" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>270</v>
       </c>
@@ -13580,7 +13582,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>270</v>
       </c>
@@ -13614,7 +13616,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="254" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>270</v>
       </c>
@@ -13662,7 +13664,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="255" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>313</v>
       </c>
@@ -13716,7 +13718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>313</v>
       </c>
@@ -13770,7 +13772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>313</v>
       </c>
@@ -13824,7 +13826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>313</v>
       </c>
@@ -13878,7 +13880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>313</v>
       </c>
@@ -13932,7 +13934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>313</v>
       </c>
@@ -13986,7 +13988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>313</v>
       </c>
@@ -14040,7 +14042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>313</v>
       </c>
@@ -14094,7 +14096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>313</v>
       </c>
@@ -14148,7 +14150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>313</v>
       </c>
@@ -14202,7 +14204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>313</v>
       </c>
@@ -14256,7 +14258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>313</v>
       </c>
@@ -14310,7 +14312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>313</v>
       </c>
@@ -14364,7 +14366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>313</v>
       </c>
@@ -14418,7 +14420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>313</v>
       </c>
@@ -14472,7 +14474,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>313</v>
       </c>
@@ -14526,7 +14528,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>313</v>
       </c>
@@ -14580,7 +14582,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>313</v>
       </c>
@@ -14634,7 +14636,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="273" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>313</v>
       </c>
@@ -14688,7 +14690,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="274" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>313</v>
       </c>
@@ -14742,7 +14744,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="275" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>313</v>
       </c>
@@ -14792,7 +14794,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="276" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>313</v>
       </c>
@@ -14846,7 +14848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>313</v>
       </c>
@@ -14900,7 +14902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>313</v>
       </c>
@@ -14948,7 +14950,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="279" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>313</v>
       </c>
@@ -15000,7 +15002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>313</v>
       </c>
@@ -15046,7 +15048,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>313</v>
       </c>
@@ -15092,7 +15094,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="282" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>345</v>
       </c>
@@ -15146,7 +15148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>345</v>
       </c>
@@ -15200,7 +15202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>345</v>
       </c>
@@ -15254,7 +15256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>345</v>
       </c>
@@ -15308,7 +15310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>345</v>
       </c>
@@ -15362,7 +15364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>345</v>
       </c>
@@ -15416,7 +15418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>345</v>
       </c>
@@ -15470,7 +15472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>345</v>
       </c>
@@ -15524,7 +15526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>345</v>
       </c>
@@ -15578,7 +15580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>345</v>
       </c>
@@ -15632,7 +15634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>345</v>
       </c>
@@ -15686,7 +15688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>345</v>
       </c>
@@ -15724,7 +15726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>345</v>
       </c>
@@ -15778,7 +15780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>345</v>
       </c>
@@ -15832,7 +15834,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="296" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>345</v>
       </c>
@@ -15886,7 +15888,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="297" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>345</v>
       </c>
@@ -15940,7 +15942,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="298" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>345</v>
       </c>
@@ -15994,7 +15996,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="299" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>345</v>
       </c>
@@ -16048,7 +16050,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="300" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>345</v>
       </c>
@@ -16102,7 +16104,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="301" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>345</v>
       </c>
@@ -16156,7 +16158,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="302" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>345</v>
       </c>
@@ -16210,7 +16212,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>345</v>
       </c>
@@ -16264,7 +16266,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="304" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>345</v>
       </c>
@@ -16318,7 +16320,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="305" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>345</v>
       </c>
@@ -16372,7 +16374,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="306" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>345</v>
       </c>
@@ -16426,7 +16428,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>345</v>
       </c>
@@ -16480,7 +16482,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="308" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>345</v>
       </c>
@@ -16534,7 +16536,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="309" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>345</v>
       </c>
@@ -16588,7 +16590,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="310" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>345</v>
       </c>
@@ -16642,7 +16644,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="311" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" ht="96" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>345</v>
       </c>
@@ -16696,7 +16698,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="312" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>345</v>
       </c>
@@ -16750,7 +16752,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="313" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>345</v>
       </c>
@@ -16804,7 +16806,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="314" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>345</v>
       </c>
@@ -16858,7 +16860,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="315" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>345</v>
       </c>
@@ -16912,7 +16914,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="316" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>345</v>
       </c>
@@ -16966,7 +16968,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="317" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>345</v>
       </c>
@@ -17020,7 +17022,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="318" spans="1:18" ht="81" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>345</v>
       </c>
@@ -17074,7 +17076,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="319" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>384</v>
       </c>
@@ -17128,7 +17130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>384</v>
       </c>
@@ -17182,7 +17184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>384</v>
       </c>
@@ -17236,7 +17238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>384</v>
       </c>
@@ -17290,7 +17292,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="323" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>384</v>
       </c>
@@ -17344,7 +17346,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="324" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>384</v>
       </c>
@@ -17398,7 +17400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>384</v>
       </c>
@@ -17452,7 +17454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>384</v>
       </c>
@@ -17506,7 +17508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>384</v>
       </c>
@@ -17560,7 +17562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>384</v>
       </c>
@@ -17614,7 +17616,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="329" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>384</v>
       </c>
@@ -17668,7 +17670,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="330" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>384</v>
       </c>
@@ -17722,7 +17724,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="331" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>384</v>
       </c>
@@ -17776,7 +17778,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="332" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>384</v>
       </c>
@@ -17830,7 +17832,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="333" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>384</v>
       </c>
@@ -17884,7 +17886,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="334" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>384</v>
       </c>
@@ -17938,7 +17940,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="335" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>384</v>
       </c>
@@ -17992,7 +17994,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="336" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>384</v>
       </c>
@@ -18046,7 +18048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="337" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>384</v>
       </c>
@@ -18100,7 +18102,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="338" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>384</v>
       </c>
@@ -18154,7 +18156,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="339" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>384</v>
       </c>
@@ -18208,7 +18210,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="340" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>384</v>
       </c>
@@ -18262,7 +18264,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>384</v>
       </c>
@@ -18316,7 +18318,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>384</v>
       </c>
@@ -18370,7 +18372,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="343" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>384</v>
       </c>
@@ -18424,7 +18426,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="344" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>384</v>
       </c>
@@ -18478,7 +18480,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="345" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>384</v>
       </c>
@@ -18532,7 +18534,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="346" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>384</v>
       </c>
@@ -18584,7 +18586,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="347" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>384</v>
       </c>
@@ -18638,7 +18640,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>384</v>
       </c>
@@ -18692,7 +18694,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="349" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>384</v>
       </c>
@@ -18746,7 +18748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="350" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>384</v>
       </c>
@@ -18800,7 +18802,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="351" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>384</v>
       </c>
@@ -18854,7 +18856,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="352" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>384</v>
       </c>
@@ -18908,7 +18910,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="353" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>384</v>
       </c>
@@ -18962,7 +18964,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="354" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>384</v>
       </c>
@@ -19016,7 +19018,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="355" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>384</v>
       </c>
@@ -19070,7 +19072,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="356" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>384</v>
       </c>
@@ -19124,7 +19126,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="357" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>384</v>
       </c>
@@ -19178,7 +19180,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="358" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>384</v>
       </c>
@@ -19232,7 +19234,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="359" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>384</v>
       </c>
@@ -19286,7 +19288,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="360" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>417</v>
       </c>
@@ -19340,7 +19342,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="361" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>417</v>
       </c>
@@ -19394,7 +19396,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="362" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>417</v>
       </c>
@@ -19448,7 +19450,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="363" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>417</v>
       </c>
@@ -19502,7 +19504,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="364" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>417</v>
       </c>
@@ -19544,7 +19546,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="365" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>417</v>
       </c>
@@ -19586,7 +19588,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="366" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>417</v>
       </c>
@@ -19628,7 +19630,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="367" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>417</v>
       </c>
@@ -19678,7 +19680,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="368" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>417</v>
       </c>
@@ -19718,7 +19720,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="369" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>417</v>
       </c>
@@ -19774,7 +19776,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="370" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>417</v>
       </c>
@@ -19830,7 +19832,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="371" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>434</v>
       </c>
@@ -19884,7 +19886,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="372" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>434</v>
       </c>
@@ -19938,7 +19940,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="373" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>434</v>
       </c>
@@ -19994,7 +19996,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="374" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>434</v>
       </c>
@@ -20046,7 +20048,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="375" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>434</v>
       </c>
@@ -20102,7 +20104,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="376" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>434</v>
       </c>
@@ -20156,7 +20158,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="377" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>434</v>
       </c>
@@ -20204,7 +20206,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="378" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>446</v>
       </c>
@@ -20258,7 +20260,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="379" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>446</v>
       </c>
@@ -20312,7 +20314,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="380" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>446</v>
       </c>
@@ -20366,7 +20368,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="381" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>446</v>
       </c>
@@ -20420,7 +20422,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="382" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>446</v>
       </c>
@@ -20474,7 +20476,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="383" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>456</v>
       </c>
@@ -20528,7 +20530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="384" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>456</v>
       </c>
@@ -20582,7 +20584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="385" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>456</v>
       </c>
@@ -20636,7 +20638,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="386" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>456</v>
       </c>
@@ -20672,7 +20674,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="387" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>456</v>
       </c>
@@ -20704,7 +20706,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="388" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>456</v>
       </c>
@@ -20736,7 +20738,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="389" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>456</v>
       </c>
@@ -20768,7 +20770,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="390" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>456</v>
       </c>
@@ -20804,7 +20806,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="391" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>456</v>
       </c>
@@ -20840,7 +20842,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="392" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>456</v>
       </c>
@@ -20876,7 +20878,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="393" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>456</v>
       </c>
@@ -20932,7 +20934,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="394" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>456</v>
       </c>
@@ -20986,7 +20988,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="395" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>456</v>
       </c>
@@ -21042,7 +21044,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="396" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>456</v>
       </c>
@@ -21090,7 +21092,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="397" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>456</v>
       </c>
@@ -21138,7 +21140,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="398" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>456</v>
       </c>
@@ -21192,7 +21194,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="399" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>476</v>
       </c>
@@ -21244,7 +21246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="400" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>476</v>
       </c>
@@ -21300,7 +21302,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="401" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>476</v>
       </c>
@@ -21342,7 +21344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="402" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>476</v>
       </c>
@@ -21392,7 +21394,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="403" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>476</v>
       </c>
@@ -21434,7 +21436,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="404" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>476</v>
       </c>
@@ -21476,7 +21478,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="405" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>476</v>
       </c>
@@ -21518,7 +21520,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="406" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>476</v>
       </c>
@@ -21560,7 +21562,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="407" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>476</v>
       </c>
@@ -21602,7 +21604,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="408" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>476</v>
       </c>
@@ -21644,7 +21646,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="409" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>476</v>
       </c>
@@ -21686,7 +21688,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="410" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>476</v>
       </c>
@@ -21728,7 +21730,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="411" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>476</v>
       </c>
@@ -21770,7 +21772,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="412" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>476</v>
       </c>
@@ -21812,7 +21814,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="413" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>476</v>
       </c>
@@ -21866,7 +21868,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="414" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>476</v>
       </c>
@@ -21920,7 +21922,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="415" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>476</v>
       </c>
@@ -21958,7 +21960,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="416" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>476</v>
       </c>
@@ -21996,7 +21998,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="417" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>476</v>
       </c>
@@ -22034,7 +22036,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="418" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>476</v>
       </c>
@@ -22072,7 +22074,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="419" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>476</v>
       </c>
@@ -22110,7 +22112,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="420" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>476</v>
       </c>
@@ -22148,7 +22150,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="421" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>476</v>
       </c>
@@ -22186,7 +22188,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="422" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>476</v>
       </c>
@@ -22224,7 +22226,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="423" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>476</v>
       </c>
@@ -22262,7 +22264,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="424" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>476</v>
       </c>
@@ -22300,7 +22302,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="425" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>476</v>
       </c>
@@ -22338,7 +22340,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="426" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>476</v>
       </c>
@@ -22376,7 +22378,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="427" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>476</v>
       </c>
@@ -22430,7 +22432,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="428" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>476</v>
       </c>
@@ -22468,7 +22470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="429" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>509</v>
       </c>
@@ -22522,7 +22524,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="430" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>509</v>
       </c>
@@ -22576,7 +22578,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="431" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>509</v>
       </c>
@@ -22630,7 +22632,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="432" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>509</v>
       </c>
@@ -22684,7 +22686,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="433" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>509</v>
       </c>
@@ -22738,7 +22740,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="434" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>509</v>
       </c>
@@ -22792,7 +22794,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="435" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>509</v>
       </c>
@@ -22846,7 +22848,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="436" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>509</v>
       </c>
@@ -22900,7 +22902,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="437" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>509</v>
       </c>
@@ -22954,7 +22956,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="438" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>509</v>
       </c>
@@ -23008,7 +23010,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="439" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>509</v>
       </c>
@@ -23062,7 +23064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>509</v>
       </c>
@@ -23116,7 +23118,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="441" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>509</v>
       </c>
@@ -23170,7 +23172,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="442" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>509</v>
       </c>
@@ -23224,7 +23226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="443" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>509</v>
       </c>
@@ -23280,7 +23282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>509</v>
       </c>
@@ -23336,7 +23338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="445" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>509</v>
       </c>
@@ -23392,7 +23394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="446" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>509</v>
       </c>
@@ -23446,7 +23448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>509</v>
       </c>
@@ -23500,7 +23502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="448" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>509</v>
       </c>
@@ -23540,7 +23542,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="449" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>509</v>
       </c>
@@ -23596,7 +23598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="450" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>509</v>
       </c>
@@ -23652,7 +23654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="451" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>509</v>
       </c>
@@ -23700,7 +23702,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="452" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>509</v>
       </c>
@@ -23736,7 +23738,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="453" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>509</v>
       </c>
@@ -23792,7 +23794,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="454" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" ht="48" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>509</v>
       </c>
@@ -23848,9 +23850,9 @@
         <v>543</v>
       </c>
     </row>
-    <row r="455" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="12" t="s">
         <v>546</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -12,8 +12,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Cele_1-17'!$1:$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Cele_1-17'!$A$3:$B$454</definedName>
-    <definedName function="false" hidden="false" name="__Anonymous_Sheet_DB__1" vbProcedure="false">'Cele_1-17'!$A$3:$B$454</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Cele_1-17'!$A$3:$B$453</definedName>
+    <definedName function="false" hidden="false" name="__Anonymous_Sheet_DB__1" vbProcedure="false">'Cele_1-17'!$A$3:$B$453</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Titles" vbProcedure="false">'Cele_1-17'!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm_Print_Titles" vbProcedure="false">'Cele_1-17'!$1:$2</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="544">
   <si>
     <t xml:space="preserve">sdg.gov.pl</t>
   </si>
@@ -1355,12 +1355,6 @@
     <t xml:space="preserve">{ 0 , 1 } </t>
   </si>
   <si>
-    <t xml:space="preserve">13.3.2 Liczba krajów które na poziomie instytucjonalnym, systemowym i indywidualnym budują i wzmacniają potencjał w kierunku łagodzenia zmian klimatu, dostosowania się do jego skutków, transferu technologii i działań rozwojowych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministerstwo Klimatu i Środowiska / Główny Inspektorat Ochrony Środowiska</t>
-  </si>
-  <si>
     <t xml:space="preserve">13.a.1 Oficjalna Pomoc Rozwojowa na rzecz mitygacji i adaptacji do zmian klimatu - ZASTĘPCZY!</t>
   </si>
   <si>
@@ -1664,7 +1658,7 @@
     <t xml:space="preserve">100% rejestracja zgonów</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostatnia aktualizacja: 26-04-2022, 08:38</t>
+    <t xml:space="preserve">Ostatnia aktualizacja: 27-04-2022, 13:55</t>
   </si>
 </sst>
 </file>
@@ -1984,10 +1978,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R457"/>
+  <dimension ref="A1:R455"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
@@ -19255,10 +19249,10 @@
         <v>50</v>
       </c>
       <c r="M364" s="5"/>
-      <c r="N364" s="5"/>
-      <c r="O364" s="8" t="n">
+      <c r="N364" s="8" t="n">
         <v>100</v>
       </c>
+      <c r="O364" s="5"/>
       <c r="P364" s="5"/>
       <c r="Q364" s="5"/>
       <c r="R364" s="4" t="s">
@@ -19295,10 +19289,10 @@
         <v>49</v>
       </c>
       <c r="M365" s="5"/>
-      <c r="N365" s="5"/>
-      <c r="O365" s="8" t="n">
+      <c r="N365" s="8" t="n">
         <v>46</v>
       </c>
+      <c r="O365" s="5"/>
       <c r="P365" s="5"/>
       <c r="Q365" s="5"/>
       <c r="R365" s="4" t="s">
@@ -19335,10 +19329,10 @@
         <v>24</v>
       </c>
       <c r="M366" s="5"/>
-      <c r="N366" s="5"/>
-      <c r="O366" s="8" t="n">
+      <c r="N366" s="8" t="n">
         <v>12</v>
       </c>
+      <c r="O366" s="5"/>
       <c r="P366" s="5"/>
       <c r="Q366" s="5"/>
       <c r="R366" s="4" t="s">
@@ -19817,101 +19811,103 @@
         <v>21</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K376" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L376" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N376" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O376" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P376" s="8" t="n">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="7" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="J376" s="7" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K376" s="7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L376" s="7" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M376" s="7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N376" s="7" t="n">
+        <v>63.36</v>
+      </c>
+      <c r="O376" s="7" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="P376" s="7" t="n">
+        <v>6.64</v>
       </c>
       <c r="Q376" s="5"/>
       <c r="R376" s="4" t="s">
-        <v>443</v>
+        <v>92</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C377" s="4"/>
+      <c r="C377" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="D377" s="5" t="s">
-        <v>21</v>
+        <v>446</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F377" s="5"/>
-      <c r="G377" s="5"/>
-      <c r="H377" s="5"/>
-      <c r="I377" s="7" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="J377" s="7" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="K377" s="7" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L377" s="7" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="M377" s="7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="N377" s="7" t="n">
-        <v>63.36</v>
-      </c>
-      <c r="O377" s="7" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="P377" s="7" t="n">
-        <v>6.64</v>
+        <v>22</v>
+      </c>
+      <c r="F377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="G377" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="H377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="I377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="J377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="K377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="L377" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="M377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="N377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="O377" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="P377" s="8" t="n">
+        <v>60</v>
       </c>
       <c r="Q377" s="5"/>
       <c r="R377" s="4" t="s">
-        <v>92</v>
+        <v>447</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C378" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C378" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="D378" s="5" t="s">
         <v>448</v>
@@ -19926,13 +19922,13 @@
         <v>60</v>
       </c>
       <c r="H378" s="8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I378" s="8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J378" s="8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K378" s="8" t="n">
         <v>40</v>
@@ -19944,40 +19940,40 @@
         <v>40</v>
       </c>
       <c r="N378" s="8" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="O378" s="8" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="P378" s="8" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="Q378" s="5"/>
       <c r="R378" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C379" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B379" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C379" s="4" t="s">
-        <v>447</v>
-      </c>
       <c r="D379" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E379" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F379" s="8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G379" s="8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H379" s="8" t="n">
         <v>20</v>
@@ -19989,142 +19985,140 @@
         <v>20</v>
       </c>
       <c r="K379" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L379" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M379" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N379" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O379" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P379" s="8" t="n">
         <v>40</v>
-      </c>
-      <c r="L379" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="M379" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="N379" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O379" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="P379" s="8" t="n">
-        <v>20</v>
       </c>
       <c r="Q379" s="5"/>
       <c r="R379" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C380" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B380" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>447</v>
-      </c>
       <c r="D380" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E380" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F380" s="8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G380" s="8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H380" s="8" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I380" s="8" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J380" s="8" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K380" s="8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L380" s="8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M380" s="8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N380" s="8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O380" s="8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P380" s="8" t="n">
         <v>40</v>
       </c>
       <c r="Q380" s="5"/>
       <c r="R380" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C381" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C381" s="4"/>
       <c r="D381" s="5" t="s">
-        <v>452</v>
+        <v>21</v>
       </c>
       <c r="E381" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F381" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="G381" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="H381" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="I381" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="J381" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="K381" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="L381" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M381" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="N381" s="8" t="n">
-        <v>75</v>
-      </c>
-      <c r="O381" s="8" t="n">
-        <v>75</v>
-      </c>
-      <c r="P381" s="8" t="n">
-        <v>40</v>
+      <c r="F381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L381" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M381" s="7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N381" s="7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O381" s="7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P381" s="7" t="n">
+        <v>1.58</v>
       </c>
       <c r="Q381" s="5"/>
       <c r="R381" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="5" t="s">
@@ -20133,50 +20127,50 @@
       <c r="E382" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L382" s="7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M382" s="7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="N382" s="7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O382" s="7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P382" s="7" t="n">
-        <v>1.58</v>
+      <c r="F382" s="6" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G382" s="6" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H382" s="6" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I382" s="6" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J382" s="6" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K382" s="6" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L382" s="6" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="M382" s="6" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="N382" s="6" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="O382" s="6" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="P382" s="6" t="n">
+        <v>30.9</v>
       </c>
       <c r="Q382" s="5"/>
       <c r="R382" s="4" t="s">
-        <v>454</v>
+        <v>23</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B383" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="C383" s="4"/>
       <c r="D383" s="5" t="s">
@@ -20186,37 +20180,37 @@
         <v>22</v>
       </c>
       <c r="F383" s="6" t="n">
-        <v>30.5</v>
+        <v>92.6</v>
       </c>
       <c r="G383" s="6" t="n">
-        <v>30.5</v>
+        <v>93.1</v>
       </c>
       <c r="H383" s="6" t="n">
-        <v>30.6</v>
+        <v>93.6</v>
       </c>
       <c r="I383" s="6" t="n">
-        <v>30.6</v>
+        <v>93.8</v>
       </c>
       <c r="J383" s="6" t="n">
-        <v>30.7</v>
+        <v>94.3</v>
       </c>
       <c r="K383" s="6" t="n">
-        <v>30.8</v>
+        <v>94.8</v>
       </c>
       <c r="L383" s="6" t="n">
-        <v>30.8</v>
+        <v>95.5</v>
       </c>
       <c r="M383" s="6" t="n">
-        <v>30.9</v>
+        <v>95.9</v>
       </c>
       <c r="N383" s="6" t="n">
-        <v>30.9</v>
+        <v>96.3</v>
       </c>
       <c r="O383" s="6" t="n">
-        <v>30.9</v>
+        <v>96.6</v>
       </c>
       <c r="P383" s="6" t="n">
-        <v>30.9</v>
+        <v>97.1</v>
       </c>
       <c r="Q383" s="5"/>
       <c r="R383" s="4" t="s">
@@ -20225,10 +20219,10 @@
     </row>
     <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C384" s="4"/>
       <c r="D384" s="5" t="s">
@@ -20237,108 +20231,92 @@
       <c r="E384" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F384" s="6" t="n">
-        <v>92.6</v>
-      </c>
-      <c r="G384" s="6" t="n">
-        <v>93.1</v>
-      </c>
-      <c r="H384" s="6" t="n">
-        <v>93.6</v>
-      </c>
-      <c r="I384" s="6" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="J384" s="6" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="K384" s="6" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="L384" s="6" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M384" s="6" t="n">
-        <v>95.9</v>
-      </c>
-      <c r="N384" s="6" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="O384" s="6" t="n">
-        <v>96.6</v>
-      </c>
-      <c r="P384" s="6" t="n">
-        <v>97.1</v>
+      <c r="F384" s="10" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="G384" s="10" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H384" s="10" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="I384" s="10" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="J384" s="10" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="K384" s="10" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="L384" s="10" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="M384" s="10" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="N384" s="10" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="O384" s="10" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="P384" s="10" t="n">
+        <v>0.2</v>
       </c>
       <c r="Q384" s="5"/>
       <c r="R384" s="4" t="s">
-        <v>23</v>
+        <v>457</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C385" s="4"/>
+      <c r="C385" s="4" t="s">
+        <v>459</v>
+      </c>
       <c r="D385" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E385" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F385" s="10" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="G385" s="10" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="H385" s="10" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="I385" s="10" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="J385" s="10" t="n">
-        <v>0.201</v>
-      </c>
-      <c r="K385" s="10" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="L385" s="10" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="M385" s="10" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="N385" s="10" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="O385" s="10" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="P385" s="10" t="n">
-        <v>0.2</v>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="5"/>
+      <c r="J385" s="5"/>
+      <c r="K385" s="5"/>
+      <c r="L385" s="5"/>
+      <c r="M385" s="5"/>
+      <c r="N385" s="5"/>
+      <c r="O385" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="P385" s="6" t="n">
+        <v>95.4</v>
       </c>
       <c r="Q385" s="5"/>
       <c r="R385" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C386" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D386" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="D386" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="E386" s="5" t="s">
         <v>22</v>
@@ -20352,29 +20330,25 @@
       <c r="L386" s="5"/>
       <c r="M386" s="5"/>
       <c r="N386" s="5"/>
-      <c r="O386" s="6" t="n">
-        <v>95</v>
-      </c>
-      <c r="P386" s="6" t="n">
-        <v>95.4</v>
-      </c>
+      <c r="O386" s="5"/>
+      <c r="P386" s="5"/>
       <c r="Q386" s="5"/>
       <c r="R386" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D387" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E387" s="5" t="s">
         <v>22</v>
@@ -20392,21 +20366,21 @@
       <c r="P387" s="5"/>
       <c r="Q387" s="5"/>
       <c r="R387" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E388" s="5" t="s">
         <v>22</v>
@@ -20424,21 +20398,21 @@
       <c r="P388" s="5"/>
       <c r="Q388" s="5"/>
       <c r="R388" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E389" s="5" t="s">
         <v>22</v>
@@ -20452,25 +20426,29 @@
       <c r="L389" s="5"/>
       <c r="M389" s="5"/>
       <c r="N389" s="5"/>
-      <c r="O389" s="5"/>
-      <c r="P389" s="5"/>
+      <c r="O389" s="6" t="n">
+        <v>67.1</v>
+      </c>
+      <c r="P389" s="6" t="n">
+        <v>67.1</v>
+      </c>
       <c r="Q389" s="5"/>
       <c r="R389" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D390" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E390" s="5" t="s">
         <v>22</v>
@@ -20485,28 +20463,28 @@
       <c r="M390" s="5"/>
       <c r="N390" s="5"/>
       <c r="O390" s="6" t="n">
-        <v>67.1</v>
+        <v>99.2</v>
       </c>
       <c r="P390" s="6" t="n">
-        <v>67.1</v>
+        <v>99.4</v>
       </c>
       <c r="Q390" s="5"/>
       <c r="R390" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D391" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E391" s="5" t="s">
         <v>22</v>
@@ -20521,218 +20499,228 @@
       <c r="M391" s="5"/>
       <c r="N391" s="5"/>
       <c r="O391" s="6" t="n">
-        <v>99.2</v>
+        <v>95.3</v>
       </c>
       <c r="P391" s="6" t="n">
-        <v>99.4</v>
+        <v>95.4</v>
       </c>
       <c r="Q391" s="5"/>
       <c r="R391" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C392" s="4" t="s">
-        <v>461</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="C392" s="4"/>
       <c r="D392" s="5" t="s">
-        <v>468</v>
+        <v>21</v>
       </c>
       <c r="E392" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F392" s="5"/>
-      <c r="G392" s="5"/>
-      <c r="H392" s="5"/>
-      <c r="I392" s="5"/>
-      <c r="J392" s="5"/>
-      <c r="K392" s="5"/>
-      <c r="L392" s="5"/>
-      <c r="M392" s="5"/>
-      <c r="N392" s="5"/>
-      <c r="O392" s="6" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="P392" s="6" t="n">
-        <v>95.4</v>
-      </c>
-      <c r="Q392" s="5"/>
+        <v>186</v>
+      </c>
+      <c r="F392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L392" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M392" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N392" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O392" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P392" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q392" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="R392" s="4" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="F393" s="8" t="n">
-        <v>0</v>
+        <v>8495</v>
       </c>
       <c r="G393" s="8" t="n">
-        <v>0</v>
+        <v>12833</v>
       </c>
       <c r="H393" s="8" t="n">
-        <v>0</v>
+        <v>8650</v>
       </c>
       <c r="I393" s="8" t="n">
-        <v>0</v>
+        <v>10632</v>
       </c>
       <c r="J393" s="8" t="n">
-        <v>0</v>
+        <v>3303</v>
       </c>
       <c r="K393" s="8" t="n">
-        <v>0</v>
+        <v>10677</v>
       </c>
       <c r="L393" s="8" t="n">
-        <v>0</v>
+        <v>8582</v>
       </c>
       <c r="M393" s="8" t="n">
-        <v>1</v>
+        <v>3597</v>
       </c>
       <c r="N393" s="8" t="n">
-        <v>1</v>
+        <v>13811</v>
       </c>
       <c r="O393" s="8" t="n">
-        <v>1</v>
+        <v>368631</v>
       </c>
       <c r="P393" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q393" s="8" t="n">
-        <v>1</v>
-      </c>
+        <v>20950</v>
+      </c>
+      <c r="Q393" s="5"/>
       <c r="R393" s="4" t="s">
-        <v>436</v>
+        <v>367</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="F394" s="8" t="n">
-        <v>8495</v>
+        <v>0</v>
       </c>
       <c r="G394" s="8" t="n">
-        <v>12833</v>
+        <v>1</v>
       </c>
       <c r="H394" s="8" t="n">
-        <v>8650</v>
+        <v>1</v>
       </c>
       <c r="I394" s="8" t="n">
-        <v>10632</v>
+        <v>1</v>
       </c>
       <c r="J394" s="8" t="n">
-        <v>3303</v>
+        <v>1</v>
       </c>
       <c r="K394" s="8" t="n">
-        <v>10677</v>
+        <v>1</v>
       </c>
       <c r="L394" s="8" t="n">
-        <v>8582</v>
+        <v>1</v>
       </c>
       <c r="M394" s="8" t="n">
-        <v>3597</v>
+        <v>1</v>
       </c>
       <c r="N394" s="8" t="n">
-        <v>13811</v>
+        <v>1</v>
       </c>
       <c r="O394" s="8" t="n">
-        <v>368631</v>
+        <v>1</v>
       </c>
       <c r="P394" s="8" t="n">
-        <v>20950</v>
-      </c>
-      <c r="Q394" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q394" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="R394" s="4" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C395" s="4"/>
       <c r="D395" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F395" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P395" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q395" s="8" t="n">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F395" s="5"/>
+      <c r="G395" s="5"/>
+      <c r="H395" s="5"/>
+      <c r="I395" s="7" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="J395" s="7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K395" s="7" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="L395" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M395" s="7" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N395" s="7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O395" s="7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P395" s="7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q395" s="5"/>
       <c r="R395" s="4" t="s">
-        <v>436</v>
+        <v>92</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="5" t="s">
@@ -20775,53 +20763,59 @@
     </row>
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C397" s="4"/>
       <c r="D397" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F397" s="5"/>
-      <c r="G397" s="5"/>
-      <c r="H397" s="5"/>
-      <c r="I397" s="7" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J397" s="7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="K397" s="7" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="L397" s="7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M397" s="7" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="N397" s="7" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O397" s="7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P397" s="7" t="n">
-        <v>1.22</v>
+        <v>74</v>
+      </c>
+      <c r="F397" s="8" t="n">
+        <v>8495</v>
+      </c>
+      <c r="G397" s="8" t="n">
+        <v>12833</v>
+      </c>
+      <c r="H397" s="8" t="n">
+        <v>8650</v>
+      </c>
+      <c r="I397" s="8" t="n">
+        <v>10632</v>
+      </c>
+      <c r="J397" s="8" t="n">
+        <v>3303</v>
+      </c>
+      <c r="K397" s="8" t="n">
+        <v>10677</v>
+      </c>
+      <c r="L397" s="8" t="n">
+        <v>8582</v>
+      </c>
+      <c r="M397" s="8" t="n">
+        <v>3597</v>
+      </c>
+      <c r="N397" s="8" t="n">
+        <v>13811</v>
+      </c>
+      <c r="O397" s="8" t="n">
+        <v>368631</v>
+      </c>
+      <c r="P397" s="8" t="n">
+        <v>20950</v>
       </c>
       <c r="Q397" s="5"/>
       <c r="R397" s="4" t="s">
-        <v>92</v>
+        <v>367</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="4" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>474</v>
@@ -20831,52 +20825,52 @@
         <v>21</v>
       </c>
       <c r="E398" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F398" s="8" t="n">
-        <v>8495</v>
-      </c>
-      <c r="G398" s="8" t="n">
-        <v>12833</v>
-      </c>
-      <c r="H398" s="8" t="n">
-        <v>8650</v>
-      </c>
-      <c r="I398" s="8" t="n">
-        <v>10632</v>
-      </c>
-      <c r="J398" s="8" t="n">
-        <v>3303</v>
-      </c>
-      <c r="K398" s="8" t="n">
-        <v>10677</v>
-      </c>
-      <c r="L398" s="8" t="n">
-        <v>8582</v>
-      </c>
-      <c r="M398" s="8" t="n">
-        <v>3597</v>
-      </c>
-      <c r="N398" s="8" t="n">
-        <v>13811</v>
-      </c>
-      <c r="O398" s="8" t="n">
-        <v>368631</v>
-      </c>
-      <c r="P398" s="8" t="n">
-        <v>20950</v>
+        <v>45</v>
+      </c>
+      <c r="F398" s="7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G398" s="7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H398" s="7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I398" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J398" s="7" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K398" s="7" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L398" s="7" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M398" s="7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="N398" s="7" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O398" s="7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="P398" s="7" t="n">
+        <v>0.57</v>
       </c>
       <c r="Q398" s="5"/>
       <c r="R398" s="4" t="s">
-        <v>367</v>
+        <v>23</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B399" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="B399" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="C399" s="4"/>
       <c r="D399" s="5" t="s">
@@ -20885,45 +20879,49 @@
       <c r="E399" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F399" s="7" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G399" s="7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H399" s="7" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="I399" s="7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J399" s="7" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="K399" s="7" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L399" s="7" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="M399" s="7" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="N399" s="7" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O399" s="7" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="P399" s="5"/>
-      <c r="Q399" s="5"/>
+      <c r="F399" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G399" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="H399" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J399" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K399" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L399" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M399" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N399" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O399" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P399" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q399" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="R399" s="4" t="s">
-        <v>23</v>
+        <v>476</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>477</v>
@@ -20933,151 +20931,139 @@
         <v>21</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F400" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G400" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="H400" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J400" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K400" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L400" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M400" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N400" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O400" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P400" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q400" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="5"/>
+      <c r="J400" s="5"/>
+      <c r="K400" s="6" t="n">
+        <v>90.6</v>
+      </c>
+      <c r="L400" s="6" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="M400" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="N400" s="6" t="n">
+        <v>92.1</v>
+      </c>
+      <c r="O400" s="6" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="P400" s="5"/>
+      <c r="Q400" s="5"/>
       <c r="R400" s="4" t="s">
-        <v>478</v>
+        <v>23</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F401" s="5"/>
       <c r="G401" s="5"/>
-      <c r="H401" s="5"/>
-      <c r="I401" s="5"/>
-      <c r="J401" s="5"/>
-      <c r="K401" s="6" t="n">
-        <v>90.6</v>
-      </c>
-      <c r="L401" s="6" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="M401" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="N401" s="6" t="n">
-        <v>92.1</v>
-      </c>
-      <c r="O401" s="6" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="P401" s="5"/>
+      <c r="H401" s="7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I401" s="7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J401" s="7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K401" s="7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L401" s="7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M401" s="7" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N401" s="7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O401" s="7" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="P401" s="7" t="n">
+        <v>0.24</v>
+      </c>
       <c r="Q401" s="5"/>
       <c r="R401" s="4" t="s">
-        <v>23</v>
+        <v>479</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C402" s="4"/>
+      <c r="C402" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="D402" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>45</v>
+        <v>482</v>
       </c>
       <c r="F402" s="5"/>
       <c r="G402" s="5"/>
-      <c r="H402" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I402" s="7" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J402" s="7" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K402" s="7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L402" s="7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M402" s="7" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N402" s="7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O402" s="7" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="P402" s="7" t="n">
-        <v>0.24</v>
+      <c r="H402" s="5"/>
+      <c r="I402" s="5"/>
+      <c r="J402" s="5"/>
+      <c r="K402" s="5"/>
+      <c r="L402" s="8" t="n">
+        <v>1426</v>
+      </c>
+      <c r="M402" s="8" t="n">
+        <v>1421</v>
+      </c>
+      <c r="N402" s="8" t="n">
+        <v>1475</v>
+      </c>
+      <c r="O402" s="8" t="n">
+        <v>1603</v>
+      </c>
+      <c r="P402" s="8" t="n">
+        <v>1414</v>
       </c>
       <c r="Q402" s="5"/>
       <c r="R402" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B403" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E403" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="C403" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D403" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E403" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="F403" s="5"/>
       <c r="G403" s="5"/>
@@ -21086,40 +21072,40 @@
       <c r="J403" s="5"/>
       <c r="K403" s="5"/>
       <c r="L403" s="8" t="n">
-        <v>1426</v>
+        <v>212</v>
       </c>
       <c r="M403" s="8" t="n">
-        <v>1421</v>
+        <v>200</v>
       </c>
       <c r="N403" s="8" t="n">
-        <v>1475</v>
+        <v>204</v>
       </c>
       <c r="O403" s="8" t="n">
-        <v>1603</v>
+        <v>236</v>
       </c>
       <c r="P403" s="8" t="n">
-        <v>1414</v>
+        <v>196</v>
       </c>
       <c r="Q403" s="5"/>
       <c r="R403" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B404" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E404" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D404" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E404" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="F404" s="5"/>
       <c r="G404" s="5"/>
@@ -21128,40 +21114,40 @@
       <c r="J404" s="5"/>
       <c r="K404" s="5"/>
       <c r="L404" s="8" t="n">
-        <v>212</v>
+        <v>1208</v>
       </c>
       <c r="M404" s="8" t="n">
-        <v>200</v>
+        <v>1197</v>
       </c>
       <c r="N404" s="8" t="n">
-        <v>204</v>
+        <v>1264</v>
       </c>
       <c r="O404" s="8" t="n">
-        <v>236</v>
+        <v>1359</v>
       </c>
       <c r="P404" s="8" t="n">
-        <v>196</v>
+        <v>1215</v>
       </c>
       <c r="Q404" s="5"/>
       <c r="R404" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>483</v>
       </c>
       <c r="D405" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F405" s="5"/>
       <c r="G405" s="5"/>
@@ -21170,40 +21156,40 @@
       <c r="J405" s="5"/>
       <c r="K405" s="5"/>
       <c r="L405" s="8" t="n">
-        <v>1208</v>
+        <v>1036</v>
       </c>
       <c r="M405" s="8" t="n">
-        <v>1197</v>
+        <v>1211</v>
       </c>
       <c r="N405" s="8" t="n">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="O405" s="8" t="n">
-        <v>1359</v>
+        <v>1379</v>
       </c>
       <c r="P405" s="8" t="n">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="Q405" s="5"/>
       <c r="R405" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B406" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D406" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E406" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="C406" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="D406" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E406" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="F406" s="5"/>
       <c r="G406" s="5"/>
@@ -21212,40 +21198,40 @@
       <c r="J406" s="5"/>
       <c r="K406" s="5"/>
       <c r="L406" s="8" t="n">
-        <v>1036</v>
+        <v>153</v>
       </c>
       <c r="M406" s="8" t="n">
-        <v>1211</v>
+        <v>167</v>
       </c>
       <c r="N406" s="8" t="n">
-        <v>1270</v>
+        <v>186</v>
       </c>
       <c r="O406" s="8" t="n">
-        <v>1379</v>
+        <v>196</v>
       </c>
       <c r="P406" s="8" t="n">
-        <v>1209</v>
+        <v>163</v>
       </c>
       <c r="Q406" s="5"/>
       <c r="R406" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B407" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D407" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E407" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="C407" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="D407" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E407" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="F407" s="5"/>
       <c r="G407" s="5"/>
@@ -21254,40 +21240,40 @@
       <c r="J407" s="5"/>
       <c r="K407" s="5"/>
       <c r="L407" s="8" t="n">
-        <v>153</v>
+        <v>879</v>
       </c>
       <c r="M407" s="8" t="n">
-        <v>167</v>
+        <v>1021</v>
       </c>
       <c r="N407" s="8" t="n">
-        <v>186</v>
+        <v>1078</v>
       </c>
       <c r="O407" s="8" t="n">
-        <v>196</v>
+        <v>1175</v>
       </c>
       <c r="P407" s="8" t="n">
-        <v>163</v>
+        <v>1043</v>
       </c>
       <c r="Q407" s="5"/>
       <c r="R407" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B408" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D408" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E408" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="C408" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="D408" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E408" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="F408" s="5"/>
       <c r="G408" s="5"/>
@@ -21296,40 +21282,40 @@
       <c r="J408" s="5"/>
       <c r="K408" s="5"/>
       <c r="L408" s="8" t="n">
-        <v>879</v>
+        <v>82</v>
       </c>
       <c r="M408" s="8" t="n">
-        <v>1021</v>
+        <v>116</v>
       </c>
       <c r="N408" s="8" t="n">
-        <v>1078</v>
+        <v>159</v>
       </c>
       <c r="O408" s="8" t="n">
-        <v>1175</v>
+        <v>110</v>
       </c>
       <c r="P408" s="8" t="n">
-        <v>1043</v>
+        <v>116</v>
       </c>
       <c r="Q408" s="5"/>
       <c r="R408" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B409" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D409" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E409" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="D409" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="E409" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="F409" s="5"/>
       <c r="G409" s="5"/>
@@ -21338,40 +21324,40 @@
       <c r="J409" s="5"/>
       <c r="K409" s="5"/>
       <c r="L409" s="8" t="n">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="M409" s="8" t="n">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="N409" s="8" t="n">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="O409" s="8" t="n">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="P409" s="8" t="n">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="Q409" s="5"/>
       <c r="R409" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B410" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E410" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="D410" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E410" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="F410" s="5"/>
       <c r="G410" s="5"/>
@@ -21380,40 +21366,40 @@
       <c r="J410" s="5"/>
       <c r="K410" s="5"/>
       <c r="L410" s="8" t="n">
-        <v>5</v>
+        <v>1277</v>
       </c>
       <c r="M410" s="8" t="n">
-        <v>2</v>
+        <v>1244</v>
       </c>
       <c r="N410" s="8" t="n">
-        <v>10</v>
+        <v>1259</v>
       </c>
       <c r="O410" s="8" t="n">
-        <v>4</v>
+        <v>1400</v>
       </c>
       <c r="P410" s="8" t="n">
-        <v>6</v>
+        <v>1235</v>
       </c>
       <c r="Q410" s="5"/>
       <c r="R410" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B411" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C411" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D411" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E411" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="C411" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="D411" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="E411" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="F411" s="5"/>
       <c r="G411" s="5"/>
@@ -21422,70 +21408,80 @@
       <c r="J411" s="5"/>
       <c r="K411" s="5"/>
       <c r="L411" s="8" t="n">
-        <v>1277</v>
+        <v>67</v>
       </c>
       <c r="M411" s="8" t="n">
-        <v>1244</v>
+        <v>61</v>
       </c>
       <c r="N411" s="8" t="n">
-        <v>1259</v>
+        <v>57</v>
       </c>
       <c r="O411" s="8" t="n">
-        <v>1400</v>
+        <v>93</v>
       </c>
       <c r="P411" s="8" t="n">
-        <v>1235</v>
+        <v>63</v>
       </c>
       <c r="Q411" s="5"/>
       <c r="R411" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C412" s="4" t="s">
-        <v>486</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C412" s="4"/>
       <c r="D412" s="5" t="s">
-        <v>490</v>
+        <v>21</v>
       </c>
       <c r="E412" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
-      <c r="H412" s="5"/>
-      <c r="I412" s="5"/>
-      <c r="J412" s="5"/>
-      <c r="K412" s="5"/>
-      <c r="L412" s="8" t="n">
-        <v>67</v>
-      </c>
-      <c r="M412" s="8" t="n">
-        <v>61</v>
-      </c>
-      <c r="N412" s="8" t="n">
-        <v>57</v>
-      </c>
-      <c r="O412" s="8" t="n">
-        <v>93</v>
-      </c>
-      <c r="P412" s="8" t="n">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="F412" s="6" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G412" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H412" s="6" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="I412" s="6" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="J412" s="6" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="K412" s="6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L412" s="6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M412" s="6" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="N412" s="6" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="O412" s="6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P412" s="6" t="n">
+        <v>12.8</v>
       </c>
       <c r="Q412" s="5"/>
       <c r="R412" s="4" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B413" s="4" t="s">
         <v>491</v>
@@ -21495,557 +21491,559 @@
         <v>21</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F413" s="6" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="G413" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="H413" s="6" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="I413" s="6" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="J413" s="6" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="K413" s="6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L413" s="6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M413" s="6" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="N413" s="6" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="O413" s="6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="P413" s="6" t="n">
-        <v>12.8</v>
+        <v>492</v>
+      </c>
+      <c r="F413" s="8" t="n">
+        <v>12487</v>
+      </c>
+      <c r="G413" s="8" t="n">
+        <v>12192</v>
+      </c>
+      <c r="H413" s="8" t="n">
+        <v>10805</v>
+      </c>
+      <c r="I413" s="8" t="n">
+        <v>22440</v>
+      </c>
+      <c r="J413" s="8" t="n">
+        <v>14310</v>
+      </c>
+      <c r="K413" s="8" t="n">
+        <v>10847</v>
+      </c>
+      <c r="L413" s="8" t="n">
+        <v>11796</v>
+      </c>
+      <c r="M413" s="8" t="n">
+        <v>11807</v>
+      </c>
+      <c r="N413" s="8" t="n">
+        <v>13407</v>
+      </c>
+      <c r="O413" s="8" t="n">
+        <v>9367</v>
+      </c>
+      <c r="P413" s="8" t="n">
+        <v>10438</v>
       </c>
       <c r="Q413" s="5"/>
       <c r="R413" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C414" s="4"/>
+        <v>494</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="D414" s="5" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F414" s="8" t="n">
-        <v>12487</v>
-      </c>
-      <c r="G414" s="8" t="n">
-        <v>12192</v>
-      </c>
-      <c r="H414" s="8" t="n">
-        <v>10805</v>
-      </c>
-      <c r="I414" s="8" t="n">
-        <v>22440</v>
-      </c>
-      <c r="J414" s="8" t="n">
-        <v>14310</v>
-      </c>
-      <c r="K414" s="8" t="n">
-        <v>10847</v>
-      </c>
-      <c r="L414" s="8" t="n">
-        <v>11796</v>
-      </c>
-      <c r="M414" s="8" t="n">
-        <v>11807</v>
-      </c>
-      <c r="N414" s="8" t="n">
-        <v>13407</v>
-      </c>
-      <c r="O414" s="8" t="n">
-        <v>9367</v>
-      </c>
-      <c r="P414" s="8" t="n">
-        <v>10438</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F414" s="5"/>
+      <c r="G414" s="6" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="H414" s="5"/>
+      <c r="I414" s="5"/>
+      <c r="J414" s="5"/>
+      <c r="K414" s="6" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="L414" s="5"/>
+      <c r="M414" s="5"/>
+      <c r="N414" s="5"/>
+      <c r="O414" s="6" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="P414" s="5"/>
       <c r="Q414" s="5"/>
       <c r="R414" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D415" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E415" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F415" s="5"/>
-      <c r="G415" s="6" t="n">
-        <v>23.9</v>
+      <c r="G415" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="H415" s="5"/>
       <c r="I415" s="5"/>
       <c r="J415" s="5"/>
-      <c r="K415" s="6" t="n">
-        <v>27.4</v>
+      <c r="K415" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="L415" s="5"/>
       <c r="M415" s="5"/>
       <c r="N415" s="5"/>
-      <c r="O415" s="6" t="n">
-        <v>28.7</v>
+      <c r="O415" s="8" t="n">
+        <v>24</v>
       </c>
       <c r="P415" s="5"/>
       <c r="Q415" s="5"/>
       <c r="R415" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>497</v>
       </c>
       <c r="D416" s="5" t="s">
-        <v>219</v>
+        <v>498</v>
       </c>
       <c r="E416" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F416" s="5"/>
-      <c r="G416" s="8" t="n">
-        <v>13</v>
+      <c r="G416" s="6" t="n">
+        <v>2.2</v>
       </c>
       <c r="H416" s="5"/>
       <c r="I416" s="5"/>
       <c r="J416" s="5"/>
-      <c r="K416" s="8" t="n">
-        <v>13</v>
+      <c r="K416" s="6" t="n">
+        <v>3.7</v>
       </c>
       <c r="L416" s="5"/>
       <c r="M416" s="5"/>
       <c r="N416" s="5"/>
-      <c r="O416" s="8" t="n">
-        <v>24</v>
+      <c r="O416" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="P416" s="5"/>
       <c r="Q416" s="5"/>
       <c r="R416" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C417" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D417" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="D417" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="E417" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F417" s="5"/>
       <c r="G417" s="6" t="n">
-        <v>2.2</v>
+        <v>18.3</v>
       </c>
       <c r="H417" s="5"/>
       <c r="I417" s="5"/>
       <c r="J417" s="5"/>
       <c r="K417" s="6" t="n">
-        <v>3.7</v>
+        <v>17.4</v>
       </c>
       <c r="L417" s="5"/>
       <c r="M417" s="5"/>
       <c r="N417" s="5"/>
       <c r="O417" s="6" t="n">
-        <v>3</v>
+        <v>17.4</v>
       </c>
       <c r="P417" s="5"/>
       <c r="Q417" s="5"/>
       <c r="R417" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D418" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E418" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F418" s="5"/>
       <c r="G418" s="6" t="n">
-        <v>18.3</v>
+        <v>28.7</v>
       </c>
       <c r="H418" s="5"/>
       <c r="I418" s="5"/>
       <c r="J418" s="5"/>
       <c r="K418" s="6" t="n">
-        <v>17.4</v>
+        <v>24.6</v>
       </c>
       <c r="L418" s="5"/>
       <c r="M418" s="5"/>
       <c r="N418" s="5"/>
       <c r="O418" s="6" t="n">
-        <v>17.4</v>
+        <v>26.1</v>
       </c>
       <c r="P418" s="5"/>
       <c r="Q418" s="5"/>
       <c r="R418" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D419" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E419" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F419" s="5"/>
       <c r="G419" s="6" t="n">
-        <v>28.7</v>
+        <v>35.7</v>
       </c>
       <c r="H419" s="5"/>
       <c r="I419" s="5"/>
       <c r="J419" s="5"/>
       <c r="K419" s="6" t="n">
-        <v>24.6</v>
+        <v>33.3</v>
       </c>
       <c r="L419" s="5"/>
       <c r="M419" s="5"/>
       <c r="N419" s="5"/>
       <c r="O419" s="6" t="n">
-        <v>26.1</v>
+        <v>29.8</v>
       </c>
       <c r="P419" s="5"/>
       <c r="Q419" s="5"/>
       <c r="R419" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D420" s="5" t="s">
-        <v>503</v>
+        <v>36</v>
       </c>
       <c r="E420" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F420" s="5"/>
       <c r="G420" s="6" t="n">
-        <v>35.7</v>
+        <v>15.2</v>
       </c>
       <c r="H420" s="5"/>
       <c r="I420" s="5"/>
       <c r="J420" s="5"/>
       <c r="K420" s="6" t="n">
-        <v>33.3</v>
+        <v>21.1</v>
       </c>
       <c r="L420" s="5"/>
       <c r="M420" s="5"/>
       <c r="N420" s="5"/>
       <c r="O420" s="6" t="n">
-        <v>29.8</v>
+        <v>23.7</v>
       </c>
       <c r="P420" s="5"/>
       <c r="Q420" s="5"/>
       <c r="R420" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>36</v>
+        <v>498</v>
       </c>
       <c r="E421" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F421" s="5"/>
-      <c r="G421" s="6" t="n">
-        <v>15.2</v>
+      <c r="G421" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="H421" s="5"/>
       <c r="I421" s="5"/>
       <c r="J421" s="5"/>
-      <c r="K421" s="6" t="n">
-        <v>21.1</v>
+      <c r="K421" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L421" s="5"/>
       <c r="M421" s="5"/>
       <c r="N421" s="5"/>
-      <c r="O421" s="6" t="n">
-        <v>23.7</v>
+      <c r="O421" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="P421" s="5"/>
       <c r="Q421" s="5"/>
       <c r="R421" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E422" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F422" s="5"/>
       <c r="G422" s="8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H422" s="5"/>
       <c r="I422" s="5"/>
       <c r="J422" s="5"/>
       <c r="K422" s="8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L422" s="5"/>
       <c r="M422" s="5"/>
       <c r="N422" s="5"/>
       <c r="O422" s="8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P422" s="5"/>
       <c r="Q422" s="5"/>
       <c r="R422" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D423" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E423" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F423" s="5"/>
       <c r="G423" s="8" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H423" s="5"/>
       <c r="I423" s="5"/>
       <c r="J423" s="5"/>
       <c r="K423" s="8" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L423" s="5"/>
       <c r="M423" s="5"/>
       <c r="N423" s="5"/>
       <c r="O423" s="8" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P423" s="5"/>
       <c r="Q423" s="5"/>
       <c r="R423" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D424" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E424" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F424" s="5"/>
       <c r="G424" s="8" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H424" s="5"/>
       <c r="I424" s="5"/>
       <c r="J424" s="5"/>
       <c r="K424" s="8" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L424" s="5"/>
       <c r="M424" s="5"/>
       <c r="N424" s="5"/>
       <c r="O424" s="8" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="P424" s="5"/>
       <c r="Q424" s="5"/>
       <c r="R424" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D425" s="5" t="s">
-        <v>503</v>
+        <v>36</v>
       </c>
       <c r="E425" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F425" s="5"/>
       <c r="G425" s="8" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H425" s="5"/>
       <c r="I425" s="5"/>
       <c r="J425" s="5"/>
       <c r="K425" s="8" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L425" s="5"/>
       <c r="M425" s="5"/>
       <c r="N425" s="5"/>
       <c r="O425" s="8" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P425" s="5"/>
       <c r="Q425" s="5"/>
       <c r="R425" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C426" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C426" s="4"/>
+      <c r="D426" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="K426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="N426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="O426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="P426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q426" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="R426" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="D426" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E426" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F426" s="5"/>
-      <c r="G426" s="8" t="n">
-        <v>32</v>
-      </c>
-      <c r="H426" s="5"/>
-      <c r="I426" s="5"/>
-      <c r="J426" s="5"/>
-      <c r="K426" s="8" t="n">
-        <v>37</v>
-      </c>
-      <c r="L426" s="5"/>
-      <c r="M426" s="5"/>
-      <c r="N426" s="5"/>
-      <c r="O426" s="8" t="n">
-        <v>47</v>
-      </c>
-      <c r="P426" s="5"/>
-      <c r="Q426" s="5"/>
-      <c r="R426" s="4" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B427" s="4" t="s">
         <v>505</v>
@@ -22057,47 +22055,31 @@
       <c r="E427" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="J427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="K427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="N427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="O427" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P427" s="8" t="n">
-        <v>100</v>
-      </c>
+      <c r="F427" s="5"/>
+      <c r="G427" s="6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H427" s="5"/>
+      <c r="I427" s="5"/>
+      <c r="J427" s="5"/>
+      <c r="K427" s="6" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="L427" s="5"/>
+      <c r="M427" s="5"/>
+      <c r="N427" s="6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O427" s="5"/>
+      <c r="P427" s="5"/>
       <c r="Q427" s="5"/>
       <c r="R427" s="4" t="s">
-        <v>506</v>
+        <v>23</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>507</v>
@@ -22109,34 +22091,50 @@
       <c r="E428" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F428" s="5"/>
+      <c r="F428" s="6" t="n">
+        <v>17.3</v>
+      </c>
       <c r="G428" s="6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H428" s="5"/>
-      <c r="I428" s="5"/>
-      <c r="J428" s="5"/>
+        <v>17.7</v>
+      </c>
+      <c r="H428" s="6" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I428" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="J428" s="6" t="n">
+        <v>16.6</v>
+      </c>
       <c r="K428" s="6" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="L428" s="5"/>
-      <c r="M428" s="5"/>
+        <v>16.1</v>
+      </c>
+      <c r="L428" s="6" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="M428" s="6" t="n">
+        <v>17.6</v>
+      </c>
       <c r="N428" s="6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O428" s="5"/>
-      <c r="P428" s="5"/>
+        <v>17.9</v>
+      </c>
+      <c r="O428" s="6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="P428" s="6" t="n">
+        <v>18.1</v>
+      </c>
       <c r="Q428" s="5"/>
       <c r="R428" s="4" t="s">
-        <v>23</v>
+        <v>367</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B429" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="B429" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="C429" s="4"/>
       <c r="D429" s="5" t="s">
@@ -22146,37 +22144,37 @@
         <v>22</v>
       </c>
       <c r="F429" s="6" t="n">
-        <v>17.3</v>
+        <v>88.9</v>
       </c>
       <c r="G429" s="6" t="n">
-        <v>17.7</v>
+        <v>87.6</v>
       </c>
       <c r="H429" s="6" t="n">
-        <v>17.7</v>
+        <v>86.3</v>
       </c>
       <c r="I429" s="6" t="n">
-        <v>17</v>
+        <v>86.6</v>
       </c>
       <c r="J429" s="6" t="n">
-        <v>16.6</v>
+        <v>89.9</v>
       </c>
       <c r="K429" s="6" t="n">
-        <v>16.1</v>
+        <v>89.8</v>
       </c>
       <c r="L429" s="6" t="n">
-        <v>16.9</v>
+        <v>86.8</v>
       </c>
       <c r="M429" s="6" t="n">
-        <v>17.6</v>
+        <v>90</v>
       </c>
       <c r="N429" s="6" t="n">
-        <v>17.9</v>
+        <v>91.9</v>
       </c>
       <c r="O429" s="6" t="n">
-        <v>17.5</v>
+        <v>91.7</v>
       </c>
       <c r="P429" s="6" t="n">
-        <v>18.1</v>
+        <v>88.2</v>
       </c>
       <c r="Q429" s="5"/>
       <c r="R429" s="4" t="s">
@@ -22185,104 +22183,106 @@
     </row>
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B430" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C430" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C430" s="4"/>
       <c r="D430" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E430" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F430" s="6" t="n">
-        <v>88.9</v>
-      </c>
-      <c r="G430" s="6" t="n">
-        <v>87.6</v>
-      </c>
-      <c r="H430" s="6" t="n">
-        <v>86.3</v>
-      </c>
-      <c r="I430" s="6" t="n">
-        <v>86.6</v>
-      </c>
-      <c r="J430" s="6" t="n">
-        <v>89.9</v>
-      </c>
-      <c r="K430" s="6" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="L430" s="6" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="M430" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="N430" s="6" t="n">
-        <v>91.9</v>
-      </c>
-      <c r="O430" s="6" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="P430" s="6" t="n">
-        <v>88.2</v>
+      <c r="F430" s="7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G430" s="7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H430" s="7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I430" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J430" s="7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K430" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L430" s="7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M430" s="7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N430" s="7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O430" s="7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P430" s="7" t="n">
+        <v>0.14</v>
       </c>
       <c r="Q430" s="5"/>
       <c r="R430" s="4" t="s">
-        <v>367</v>
+        <v>92</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B431" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D431" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C431" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D431" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E431" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F431" s="7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G431" s="7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H431" s="7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I431" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J431" s="7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K431" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L431" s="7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M431" s="7" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N431" s="7" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O431" s="7" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="P431" s="7" t="n">
-        <v>0.14</v>
+      <c r="F431" s="11" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="G431" s="11" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="H431" s="11" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="I431" s="11" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="J431" s="11" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="K431" s="11" t="n">
+        <v>0.0096</v>
+      </c>
+      <c r="L431" s="11" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="M431" s="11" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="N431" s="11" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="O431" s="11" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="P431" s="11" t="n">
+        <v>0.0024</v>
       </c>
       <c r="Q431" s="5"/>
       <c r="R431" s="4" t="s">
@@ -22291,61 +22291,59 @@
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="C432" s="4" t="s">
         <v>512</v>
       </c>
+      <c r="C432" s="4"/>
       <c r="D432" s="5" t="s">
-        <v>513</v>
+        <v>21</v>
       </c>
       <c r="E432" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F432" s="11" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="G432" s="11" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="H432" s="11" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="I432" s="11" t="n">
-        <v>0.0092</v>
-      </c>
-      <c r="J432" s="11" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="K432" s="11" t="n">
-        <v>0.0096</v>
-      </c>
-      <c r="L432" s="11" t="n">
-        <v>0.0159</v>
-      </c>
-      <c r="M432" s="11" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="N432" s="11" t="n">
-        <v>0.0133</v>
-      </c>
-      <c r="O432" s="11" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="P432" s="11" t="n">
-        <v>0.0024</v>
+      <c r="F432" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G432" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H432" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I432" s="6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J432" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K432" s="6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L432" s="6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M432" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N432" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O432" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P432" s="6" t="n">
+        <v>0.8</v>
       </c>
       <c r="Q432" s="5"/>
       <c r="R432" s="4" t="s">
-        <v>92</v>
+        <v>513</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>514</v>
@@ -22358,49 +22356,49 @@
         <v>22</v>
       </c>
       <c r="F433" s="6" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="G433" s="6" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H433" s="6" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="I433" s="6" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="J433" s="6" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="K433" s="6" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="L433" s="6" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="M433" s="6" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="N433" s="6" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="O433" s="6" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="P433" s="6" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="Q433" s="5"/>
       <c r="R433" s="4" t="s">
-        <v>515</v>
+        <v>310</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="5" t="s">
@@ -22410,143 +22408,145 @@
         <v>22</v>
       </c>
       <c r="F434" s="6" t="n">
-        <v>1.6</v>
+        <v>5.9</v>
       </c>
       <c r="G434" s="6" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H434" s="6" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="I434" s="6" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="J434" s="6" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="K434" s="6" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="L434" s="6" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="M434" s="6" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="N434" s="6" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="O434" s="6" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="P434" s="6" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q434" s="5"/>
       <c r="R434" s="4" t="s">
-        <v>310</v>
+        <v>516</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C435" s="4"/>
+      <c r="C435" s="4" t="s">
+        <v>518</v>
+      </c>
       <c r="D435" s="5" t="s">
-        <v>21</v>
+        <v>519</v>
       </c>
       <c r="E435" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F435" s="6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="G435" s="6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H435" s="6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I435" s="6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J435" s="6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K435" s="6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L435" s="6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M435" s="6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N435" s="6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O435" s="6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P435" s="6" t="n">
-        <v>2.3</v>
+        <v>45</v>
+      </c>
+      <c r="F435" s="7" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="G435" s="7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="H435" s="7" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="I435" s="7" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="J435" s="7" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="K435" s="7" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="L435" s="7" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="M435" s="7" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="N435" s="7" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O435" s="7" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="P435" s="7" t="n">
+        <v>4.46</v>
       </c>
       <c r="Q435" s="5"/>
       <c r="R435" s="4" t="s">
-        <v>518</v>
+        <v>241</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C436" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D436" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="D436" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="E436" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F436" s="7" t="n">
-        <v>11.34</v>
+        <v>0.15</v>
       </c>
       <c r="G436" s="7" t="n">
-        <v>11.75</v>
+        <v>0.36</v>
       </c>
       <c r="H436" s="7" t="n">
-        <v>11.82</v>
+        <v>1.41</v>
       </c>
       <c r="I436" s="7" t="n">
-        <v>11.31</v>
+        <v>2.52</v>
       </c>
       <c r="J436" s="7" t="n">
-        <v>10.67</v>
+        <v>3.3</v>
       </c>
       <c r="K436" s="7" t="n">
-        <v>9.41</v>
+        <v>4.05</v>
       </c>
       <c r="L436" s="7" t="n">
-        <v>8.12</v>
+        <v>4.57</v>
       </c>
       <c r="M436" s="7" t="n">
-        <v>6.68</v>
+        <v>4.54</v>
       </c>
       <c r="N436" s="7" t="n">
-        <v>5.56</v>
+        <v>3.45</v>
       </c>
       <c r="O436" s="7" t="n">
-        <v>5.18</v>
+        <v>3.9</v>
       </c>
       <c r="P436" s="7" t="n">
-        <v>4.46</v>
+        <v>3.53</v>
       </c>
       <c r="Q436" s="5"/>
       <c r="R436" s="4" t="s">
@@ -22555,52 +22555,52 @@
     </row>
     <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E437" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F437" s="7" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="G437" s="7" t="n">
-        <v>0.36</v>
+        <v>0.09</v>
       </c>
       <c r="H437" s="7" t="n">
-        <v>1.41</v>
+        <v>0.18</v>
       </c>
       <c r="I437" s="7" t="n">
-        <v>2.52</v>
+        <v>0.35</v>
       </c>
       <c r="J437" s="7" t="n">
-        <v>3.3</v>
+        <v>0.79</v>
       </c>
       <c r="K437" s="7" t="n">
-        <v>4.05</v>
+        <v>1.66</v>
       </c>
       <c r="L437" s="7" t="n">
-        <v>4.57</v>
+        <v>2.7</v>
       </c>
       <c r="M437" s="7" t="n">
-        <v>4.54</v>
+        <v>4.23</v>
       </c>
       <c r="N437" s="7" t="n">
-        <v>3.45</v>
+        <v>6.77</v>
       </c>
       <c r="O437" s="7" t="n">
-        <v>3.9</v>
+        <v>9.22</v>
       </c>
       <c r="P437" s="7" t="n">
-        <v>3.53</v>
+        <v>11.26</v>
       </c>
       <c r="Q437" s="5"/>
       <c r="R437" s="4" t="s">
@@ -22609,315 +22609,315 @@
     </row>
     <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="C438" s="4" t="s">
-        <v>520</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C438" s="4"/>
       <c r="D438" s="5" t="s">
-        <v>523</v>
+        <v>21</v>
       </c>
       <c r="E438" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F438" s="7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G438" s="7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H438" s="7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I438" s="7" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J438" s="7" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K438" s="7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="L438" s="7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M438" s="7" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="N438" s="7" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="O438" s="7" t="n">
-        <v>9.22</v>
-      </c>
-      <c r="P438" s="7" t="n">
-        <v>11.26</v>
+        <v>22</v>
+      </c>
+      <c r="F438" s="6" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="G438" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="H438" s="6" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="I438" s="6" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="J438" s="6" t="n">
+        <v>66.6</v>
+      </c>
+      <c r="K438" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="L438" s="6" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="M438" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="N438" s="6" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="O438" s="6" t="n">
+        <v>80.4</v>
+      </c>
+      <c r="P438" s="6" t="n">
+        <v>83.2</v>
       </c>
       <c r="Q438" s="5"/>
       <c r="R438" s="4" t="s">
-        <v>241</v>
+        <v>23</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C439" s="4"/>
       <c r="D439" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E439" s="5" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F439" s="6" t="n">
-        <v>58.8</v>
+        <v>383.5</v>
       </c>
       <c r="G439" s="6" t="n">
-        <v>62</v>
+        <v>424.9</v>
       </c>
       <c r="H439" s="6" t="n">
-        <v>62.3</v>
+        <v>438.7</v>
       </c>
       <c r="I439" s="6" t="n">
-        <v>62.8</v>
+        <v>506.2</v>
       </c>
       <c r="J439" s="6" t="n">
-        <v>66.6</v>
+        <v>473.1</v>
       </c>
       <c r="K439" s="6" t="n">
-        <v>68</v>
+        <v>465.6</v>
       </c>
       <c r="L439" s="6" t="n">
-        <v>73.3</v>
+        <v>688.7</v>
       </c>
       <c r="M439" s="6" t="n">
-        <v>76</v>
+        <v>705.6</v>
       </c>
       <c r="N439" s="6" t="n">
-        <v>77.5</v>
+        <v>766</v>
       </c>
       <c r="O439" s="6" t="n">
-        <v>80.4</v>
+        <v>776.6</v>
       </c>
       <c r="P439" s="6" t="n">
-        <v>83.2</v>
+        <v>837.3</v>
       </c>
       <c r="Q439" s="5"/>
       <c r="R439" s="4" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E440" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F440" s="6" t="n">
-        <v>383.5</v>
-      </c>
-      <c r="G440" s="6" t="n">
-        <v>424.9</v>
-      </c>
-      <c r="H440" s="6" t="n">
-        <v>438.7</v>
-      </c>
-      <c r="I440" s="6" t="n">
-        <v>506.2</v>
-      </c>
-      <c r="J440" s="6" t="n">
-        <v>473.1</v>
-      </c>
-      <c r="K440" s="6" t="n">
-        <v>465.6</v>
-      </c>
-      <c r="L440" s="6" t="n">
-        <v>688.7</v>
-      </c>
-      <c r="M440" s="6" t="n">
-        <v>705.6</v>
-      </c>
-      <c r="N440" s="6" t="n">
-        <v>766</v>
-      </c>
-      <c r="O440" s="6" t="n">
-        <v>776.6</v>
-      </c>
-      <c r="P440" s="6" t="n">
-        <v>837.3</v>
+        <v>22</v>
+      </c>
+      <c r="F440" s="7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G440" s="7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H440" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I440" s="7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J440" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K440" s="7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L440" s="7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M440" s="7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N440" s="7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O440" s="7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P440" s="7" t="n">
+        <v>1.26</v>
       </c>
       <c r="Q440" s="5"/>
       <c r="R440" s="4" t="s">
-        <v>92</v>
+        <v>367</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="5" t="s">
-        <v>21</v>
+        <v>526</v>
       </c>
       <c r="E441" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F441" s="7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G441" s="7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="H441" s="7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I441" s="7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J441" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K441" s="7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="L441" s="7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M441" s="7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="N441" s="7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="O441" s="7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P441" s="7" t="n">
-        <v>1.26</v>
+        <v>280</v>
+      </c>
+      <c r="F441" s="8" t="n">
+        <v>37564</v>
+      </c>
+      <c r="G441" s="8" t="n">
+        <v>40628</v>
+      </c>
+      <c r="H441" s="8" t="n">
+        <v>42130</v>
+      </c>
+      <c r="I441" s="8" t="n">
+        <v>42770</v>
+      </c>
+      <c r="J441" s="8" t="n">
+        <v>44466</v>
+      </c>
+      <c r="K441" s="8" t="n">
+        <v>46837</v>
+      </c>
+      <c r="L441" s="8" t="n">
+        <v>48494</v>
+      </c>
+      <c r="M441" s="8" t="n">
+        <v>51789</v>
+      </c>
+      <c r="N441" s="8" t="n">
+        <v>55230</v>
+      </c>
+      <c r="O441" s="8" t="n">
+        <v>59741</v>
+      </c>
+      <c r="P441" s="8" t="n">
+        <v>60984</v>
       </c>
       <c r="Q441" s="5"/>
       <c r="R441" s="4" t="s">
-        <v>367</v>
+        <v>23</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E442" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F442" s="8" t="n">
-        <v>37564</v>
-      </c>
-      <c r="G442" s="8" t="n">
-        <v>40628</v>
-      </c>
-      <c r="H442" s="8" t="n">
-        <v>42130</v>
-      </c>
-      <c r="I442" s="8" t="n">
-        <v>42770</v>
-      </c>
-      <c r="J442" s="8" t="n">
-        <v>44466</v>
-      </c>
-      <c r="K442" s="8" t="n">
-        <v>46837</v>
-      </c>
-      <c r="L442" s="8" t="n">
-        <v>48494</v>
-      </c>
-      <c r="M442" s="8" t="n">
-        <v>51789</v>
-      </c>
-      <c r="N442" s="8" t="n">
-        <v>55230</v>
-      </c>
-      <c r="O442" s="8" t="n">
-        <v>59741</v>
-      </c>
-      <c r="P442" s="8" t="n">
-        <v>60663</v>
-      </c>
-      <c r="Q442" s="5"/>
+      <c r="F442" s="6" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="G442" s="6" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="H442" s="6" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="I442" s="6" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="J442" s="6" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="K442" s="6" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="L442" s="6" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="M442" s="6" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="N442" s="6" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="O442" s="6" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="P442" s="6" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="Q442" s="6" t="n">
+        <v>105.9</v>
+      </c>
       <c r="R442" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E443" s="5" t="s">
         <v>280</v>
       </c>
       <c r="F443" s="6" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="G443" s="6" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="H443" s="6" t="n">
         <v>103.7</v>
       </c>
-      <c r="G443" s="6" t="n">
-        <v>104.8</v>
-      </c>
-      <c r="H443" s="6" t="n">
-        <v>101.3</v>
-      </c>
       <c r="I443" s="6" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="J443" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="K443" s="6" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="L443" s="6" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="M443" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="N443" s="6" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="O443" s="6" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="P443" s="6" t="n">
         <v>103.4</v>
       </c>
-      <c r="K443" s="6" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="L443" s="6" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="M443" s="6" t="n">
-        <v>104.8</v>
-      </c>
-      <c r="N443" s="6" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="O443" s="6" t="n">
-        <v>104.7</v>
-      </c>
-      <c r="P443" s="6" t="n">
-        <v>97.5</v>
-      </c>
       <c r="Q443" s="6" t="n">
-        <v>105.7</v>
+        <v>105.1</v>
       </c>
       <c r="R443" s="4" t="s">
         <v>23</v>
@@ -22925,53 +22925,53 @@
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E444" s="5" t="s">
         <v>280</v>
       </c>
       <c r="F444" s="6" t="n">
-        <v>102.6</v>
+        <v>20.3</v>
       </c>
       <c r="G444" s="6" t="n">
-        <v>104.3</v>
+        <v>20.7</v>
       </c>
       <c r="H444" s="6" t="n">
-        <v>103.7</v>
+        <v>19.9</v>
       </c>
       <c r="I444" s="6" t="n">
-        <v>100.9</v>
+        <v>18.9</v>
       </c>
       <c r="J444" s="6" t="n">
-        <v>100</v>
+        <v>19.8</v>
       </c>
       <c r="K444" s="6" t="n">
-        <v>99.1</v>
+        <v>20.1</v>
       </c>
       <c r="L444" s="6" t="n">
-        <v>99.4</v>
+        <v>18</v>
       </c>
       <c r="M444" s="6" t="n">
-        <v>102</v>
+        <v>17.5</v>
       </c>
       <c r="N444" s="6" t="n">
-        <v>101.6</v>
+        <v>18.2</v>
       </c>
       <c r="O444" s="6" t="n">
-        <v>102.3</v>
+        <v>18.3</v>
       </c>
       <c r="P444" s="6" t="n">
-        <v>103.4</v>
+        <v>17.2</v>
       </c>
       <c r="Q444" s="6" t="n">
-        <v>105.1</v>
+        <v>16.6</v>
       </c>
       <c r="R444" s="4" t="s">
         <v>23</v>
@@ -22979,53 +22979,53 @@
     </row>
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E445" s="5" t="s">
         <v>280</v>
       </c>
       <c r="F445" s="6" t="n">
-        <v>20.3</v>
+        <v>53.5</v>
       </c>
       <c r="G445" s="6" t="n">
-        <v>20.7</v>
+        <v>54.7</v>
       </c>
       <c r="H445" s="6" t="n">
-        <v>19.9</v>
+        <v>54.4</v>
       </c>
       <c r="I445" s="6" t="n">
-        <v>18.9</v>
+        <v>56.5</v>
       </c>
       <c r="J445" s="6" t="n">
-        <v>19.8</v>
+        <v>51.1</v>
       </c>
       <c r="K445" s="6" t="n">
-        <v>20.1</v>
+        <v>51.3</v>
       </c>
       <c r="L445" s="6" t="n">
-        <v>18</v>
+        <v>54.2</v>
       </c>
       <c r="M445" s="6" t="n">
-        <v>17.5</v>
+        <v>50.6</v>
       </c>
       <c r="N445" s="6" t="n">
-        <v>18.2</v>
+        <v>48.8</v>
       </c>
       <c r="O445" s="6" t="n">
-        <v>18.3</v>
+        <v>45.6</v>
       </c>
       <c r="P445" s="6" t="n">
-        <v>16.6</v>
+        <v>57.1</v>
       </c>
       <c r="Q445" s="6" t="n">
-        <v>16.6</v>
+        <v>53.8</v>
       </c>
       <c r="R445" s="4" t="s">
         <v>23</v>
@@ -23033,114 +23033,104 @@
     </row>
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C446" s="4"/>
       <c r="D446" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E446" s="5" t="s">
         <v>280</v>
       </c>
       <c r="F446" s="6" t="n">
-        <v>53.5</v>
+        <v>-7.4</v>
       </c>
       <c r="G446" s="6" t="n">
-        <v>54.7</v>
+        <v>-5</v>
       </c>
       <c r="H446" s="6" t="n">
-        <v>54.4</v>
+        <v>-3.8</v>
       </c>
       <c r="I446" s="6" t="n">
-        <v>56.5</v>
+        <v>-4.2</v>
       </c>
       <c r="J446" s="6" t="n">
-        <v>51.1</v>
+        <v>-3.6</v>
       </c>
       <c r="K446" s="6" t="n">
-        <v>51.3</v>
+        <v>-2.6</v>
       </c>
       <c r="L446" s="6" t="n">
-        <v>54.2</v>
+        <v>-2.4</v>
       </c>
       <c r="M446" s="6" t="n">
-        <v>50.6</v>
+        <v>-1.5</v>
       </c>
       <c r="N446" s="6" t="n">
-        <v>48.8</v>
+        <v>-0.2</v>
       </c>
       <c r="O446" s="6" t="n">
-        <v>45.6</v>
+        <v>-0.7</v>
       </c>
       <c r="P446" s="6" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="Q446" s="5"/>
+        <v>-6.9</v>
+      </c>
+      <c r="Q446" s="6" t="n">
+        <v>-1.9</v>
+      </c>
       <c r="R446" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="5" t="s">
-        <v>533</v>
+        <v>21</v>
       </c>
       <c r="E447" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F447" s="6" t="n">
-        <v>-7.4</v>
-      </c>
-      <c r="G447" s="6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="H447" s="6" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="I447" s="6" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="J447" s="6" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="K447" s="6" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="L447" s="6" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="M447" s="6" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="N447" s="6" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="O447" s="6" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="P447" s="6" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="Q447" s="5"/>
+        <v>186</v>
+      </c>
+      <c r="F447" s="5"/>
+      <c r="G447" s="5"/>
+      <c r="H447" s="5"/>
+      <c r="I447" s="5"/>
+      <c r="J447" s="5"/>
+      <c r="K447" s="5"/>
+      <c r="L447" s="5"/>
+      <c r="M447" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N447" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O447" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P447" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q447" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="R447" s="4" t="s">
-        <v>23</v>
+        <v>429</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="5" t="s">
@@ -23149,13 +23139,27 @@
       <c r="E448" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F448" s="5"/>
-      <c r="G448" s="5"/>
-      <c r="H448" s="5"/>
-      <c r="I448" s="5"/>
-      <c r="J448" s="5"/>
-      <c r="K448" s="5"/>
-      <c r="L448" s="5"/>
+      <c r="F448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L448" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="M448" s="8" t="n">
         <v>1</v>
       </c>
@@ -23168,17 +23172,19 @@
       <c r="P448" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="Q448" s="5"/>
+      <c r="Q448" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="R448" s="4" t="s">
-        <v>429</v>
+        <v>23</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="5" t="s">
@@ -23229,113 +23235,95 @@
     </row>
     <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E450" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P450" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q450" s="8" t="n">
-        <v>1</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="F450" s="5"/>
+      <c r="G450" s="5"/>
+      <c r="H450" s="5"/>
+      <c r="I450" s="7" t="n">
+        <v>88.58</v>
+      </c>
+      <c r="J450" s="7" t="n">
+        <v>231.33</v>
+      </c>
+      <c r="K450" s="7" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="L450" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M450" s="7" t="n">
+        <v>102.65</v>
+      </c>
+      <c r="N450" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O450" s="7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="P450" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q450" s="5"/>
       <c r="R450" s="4" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B451" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C451" s="4"/>
+      <c r="C451" s="4" t="s">
+        <v>538</v>
+      </c>
       <c r="D451" s="5" t="s">
-        <v>21</v>
+        <v>539</v>
       </c>
       <c r="E451" s="5" t="s">
-        <v>538</v>
+        <v>186</v>
       </c>
       <c r="F451" s="5"/>
-      <c r="G451" s="5"/>
+      <c r="G451" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="H451" s="5"/>
-      <c r="I451" s="7" t="n">
-        <v>88.58</v>
-      </c>
-      <c r="J451" s="7" t="n">
-        <v>231.33</v>
-      </c>
-      <c r="K451" s="7" t="n">
-        <v>80.16</v>
-      </c>
-      <c r="L451" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M451" s="7" t="n">
-        <v>102.65</v>
-      </c>
-      <c r="N451" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O451" s="7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="P451" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q451" s="5"/>
+      <c r="I451" s="5"/>
+      <c r="J451" s="5"/>
+      <c r="K451" s="5"/>
+      <c r="L451" s="5"/>
+      <c r="M451" s="5"/>
+      <c r="N451" s="5"/>
+      <c r="O451" s="5"/>
+      <c r="P451" s="5"/>
+      <c r="Q451" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="R451" s="4" t="s">
-        <v>92</v>
+        <v>540</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>541</v>
@@ -23343,38 +23331,58 @@
       <c r="E452" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F452" s="5"/>
+      <c r="F452" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="G452" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="H452" s="5"/>
-      <c r="I452" s="5"/>
-      <c r="J452" s="5"/>
-      <c r="K452" s="5"/>
-      <c r="L452" s="5"/>
-      <c r="M452" s="5"/>
-      <c r="N452" s="5"/>
-      <c r="O452" s="5"/>
-      <c r="P452" s="5"/>
+      <c r="H452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O452" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P452" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="Q452" s="8" t="n">
         <v>1</v>
       </c>
       <c r="R452" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E453" s="5" t="s">
         <v>186</v>
@@ -23416,79 +23424,22 @@
         <v>1</v>
       </c>
       <c r="R453" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="B454" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="C454" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D454" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="E454" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q454" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R454" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="0.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A457" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="B457" s="12"/>
+    </row>
+    <row r="454" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A455" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="B455" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B454"/>
+  <autoFilter ref="A3:B453"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="A455:B455"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="sdg.gov.pl"/>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7056"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Cele_1-17" sheetId="1" r:id="rId1"/>
@@ -1390,7 +1390,7 @@
     <t>15.1.1 Udział powierzchni gruntów leśnych w powierzchni lądowej kraju</t>
   </si>
   <si>
-    <t>15.2.1 Postęp w kierunku zrównoważonej gospodarki leśnej - ZASTĘPCZY!</t>
+    <t>15.2.1 Postęp w kierunku zrównoważonej gospodarki leśnej</t>
   </si>
   <si>
     <t>15.3.1 Udział gruntów zdewastowanych i zdegradowanych wymagających rekultywacji w powierzchni ogółem - ZASTĘPCZY!</t>
@@ -1660,7 +1660,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 31-05-2022, 08:14</t>
+    <t>Ostatnia aktualizacja: 07-06-2022, 09:56</t>
   </si>
 </sst>
 </file>
@@ -2212,32 +2212,32 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="17" width="6.44140625" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="17" width="6.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="99" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="99" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="99" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>65</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>65</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>65</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>65</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>65</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>65</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>65</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>93</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>93</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>93</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>93</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>93</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>93</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>93</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>93</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>93</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>93</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>93</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>93</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>93</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>93</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>93</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>93</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>93</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>93</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>93</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>93</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>93</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>93</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>93</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>93</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>93</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>93</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>93</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>93</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>93</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>93</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>93</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>93</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>93</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>93</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>93</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>93</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>93</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>93</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>93</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>93</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>148</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>148</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>148</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>148</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>148</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>148</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>148</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>148</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>148</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>148</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>148</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>148</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>148</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>148</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>148</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>148</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>148</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>148</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>148</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>148</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>148</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>148</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>148</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>203</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>203</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>203</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>203</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>203</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>203</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>203</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>203</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>203</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>203</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>203</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>203</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>203</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>203</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>203</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>203</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>203</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>203</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>203</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>203</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>203</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>203</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>203</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>203</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>203</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>203</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>203</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>203</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>203</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>203</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>203</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>203</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>203</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>203</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>203</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>203</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>203</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>203</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>203</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>203</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>242</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>242</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>242</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>242</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>242</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>242</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>242</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>242</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>242</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>242</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>242</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>263</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>263</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>263</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>263</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>269</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>269</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>269</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>269</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>269</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>269</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>269</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>269</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>269</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>269</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>269</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>269</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>269</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>269</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>269</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>269</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>269</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>269</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>269</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>269</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>269</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>269</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>269</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>269</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>269</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>269</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>269</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>269</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>269</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>269</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>269</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>269</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>269</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>269</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>269</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>269</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>269</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>269</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>269</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>269</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="256" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>269</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>269</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>269</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>269</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>269</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="261" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>269</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>269</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>269</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>269</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="265" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>269</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="266" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>269</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="267" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>269</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>269</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>312</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>312</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>312</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>312</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>312</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>312</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>312</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>312</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>312</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>312</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>312</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>312</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>312</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>312</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>312</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="284" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>312</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="285" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>312</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="286" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>312</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="287" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>312</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="288" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>312</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="289" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>312</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="290" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>312</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>312</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>312</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="293" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>312</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>312</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="295" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>312</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="296" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>344</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>344</v>
       </c>
@@ -15951,7 +15951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>344</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>344</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>344</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="301" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>344</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>344</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="303" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>344</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>344</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>344</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>344</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>344</v>
       </c>
@@ -16475,7 +16475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>344</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>344</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="310" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>344</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="311" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>344</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="312" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>344</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="313" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>344</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="314" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>344</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="315" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>344</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="316" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>344</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="317" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>344</v>
       </c>
@@ -17015,7 +17015,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="318" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>344</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="319" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>344</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="320" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>344</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="321" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>344</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="322" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>344</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>344</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="324" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>344</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="325" spans="1:18" ht="96" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>344</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="326" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>344</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="327" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>344</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="328" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>344</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="329" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>344</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="330" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>344</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="331" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>344</v>
       </c>
@@ -17771,7 +17771,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="332" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>344</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="333" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>383</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>383</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>383</v>
       </c>
@@ -17987,7 +17987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>383</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="337" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>383</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="338" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>383</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>383</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="340" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>383</v>
       </c>
@@ -18257,7 +18257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>383</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="342" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>383</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="343" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>383</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="344" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>383</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>383</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="346" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>383</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="347" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>383</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="348" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>383</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="349" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>383</v>
       </c>
@@ -18743,7 +18743,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="350" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>383</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="351" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>383</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="352" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>383</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="353" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>383</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="354" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>383</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="355" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>383</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="356" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>383</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="357" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>383</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="358" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>383</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="359" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>383</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>383</v>
       </c>
@@ -19335,7 +19335,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="361" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>383</v>
       </c>
@@ -19389,7 +19389,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="362" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>383</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="363" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>383</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="364" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>383</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="365" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>383</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="366" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>383</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="367" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>383</v>
       </c>
@@ -19713,7 +19713,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="368" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>383</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="369" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>383</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="370" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>383</v>
       </c>
@@ -19875,7 +19875,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="371" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>383</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="372" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>383</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="373" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>383</v>
       </c>
@@ -20037,7 +20037,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="374" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>416</v>
       </c>
@@ -20091,7 +20091,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="375" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>416</v>
       </c>
@@ -20145,7 +20145,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="376" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>416</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="377" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>416</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="378" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>416</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="379" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>416</v>
       </c>
@@ -20337,7 +20337,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="380" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>416</v>
       </c>
@@ -20379,7 +20379,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="381" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>416</v>
       </c>
@@ -20431,7 +20431,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="382" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>416</v>
       </c>
@@ -20471,7 +20471,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="383" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>416</v>
       </c>
@@ -20527,7 +20527,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="384" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>416</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="385" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>433</v>
       </c>
@@ -20637,7 +20637,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="386" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>433</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="387" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>433</v>
       </c>
@@ -20747,7 +20747,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="388" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>433</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="389" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>433</v>
       </c>
@@ -20855,7 +20855,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="390" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>433</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="391" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>443</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="392" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>443</v>
       </c>
@@ -21011,7 +21011,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="393" spans="1:18" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>443</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="394" spans="1:18" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>443</v>
       </c>
@@ -21119,7 +21119,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="395" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>443</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="396" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>453</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="397" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>453</v>
       </c>
@@ -21281,7 +21281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="398" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>453</v>
       </c>
@@ -21335,7 +21335,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="399" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>453</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="400" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>453</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="401" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>453</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="402" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>453</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="403" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>453</v>
       </c>
@@ -21507,7 +21507,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="404" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>453</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="405" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>453</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="406" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>453</v>
       </c>
@@ -21639,7 +21639,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="407" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>453</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="408" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>453</v>
       </c>
@@ -21749,7 +21749,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="409" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>453</v>
       </c>
@@ -21797,7 +21797,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="410" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>453</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="411" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>453</v>
       </c>
@@ -21899,7 +21899,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="412" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>473</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="413" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>473</v>
       </c>
@@ -22009,7 +22009,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="414" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>473</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="415" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>473</v>
       </c>
@@ -22101,7 +22101,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="416" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>473</v>
       </c>
@@ -22143,7 +22143,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="417" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>473</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="418" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>473</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="419" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>473</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="420" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>473</v>
       </c>
@@ -22311,7 +22311,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="421" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>473</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="422" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>473</v>
       </c>
@@ -22395,7 +22395,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="423" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>473</v>
       </c>
@@ -22437,7 +22437,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="424" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>473</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="425" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>473</v>
       </c>
@@ -22521,7 +22521,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="426" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>473</v>
       </c>
@@ -22575,7 +22575,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="427" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>473</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="428" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>473</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="429" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>473</v>
       </c>
@@ -22737,7 +22737,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="430" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>473</v>
       </c>
@@ -22791,7 +22791,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="431" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>473</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="432" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>473</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="433" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>473</v>
       </c>
@@ -22921,7 +22921,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="434" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>473</v>
       </c>
@@ -22959,7 +22959,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="435" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>473</v>
       </c>
@@ -22997,7 +22997,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="436" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>473</v>
       </c>
@@ -23035,7 +23035,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="437" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>473</v>
       </c>
@@ -23073,7 +23073,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="438" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>473</v>
       </c>
@@ -23111,7 +23111,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="439" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>473</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="440" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>473</v>
       </c>
@@ -23187,7 +23187,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="441" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>473</v>
       </c>
@@ -23225,7 +23225,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="442" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>473</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="443" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>473</v>
       </c>
@@ -23301,7 +23301,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="444" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>473</v>
       </c>
@@ -23357,7 +23357,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="445" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>473</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="446" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>508</v>
       </c>
@@ -23449,7 +23449,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="447" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>508</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="448" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>508</v>
       </c>
@@ -23557,7 +23557,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="449" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>508</v>
       </c>
@@ -23611,7 +23611,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="450" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>508</v>
       </c>
@@ -23665,7 +23665,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="451" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>508</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="452" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>508</v>
       </c>
@@ -23773,7 +23773,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="453" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>508</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="454" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>508</v>
       </c>
@@ -23881,7 +23881,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="455" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>508</v>
       </c>
@@ -23935,7 +23935,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="456" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>508</v>
       </c>
@@ -23989,7 +23989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="457" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>508</v>
       </c>
@@ -24043,7 +24043,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="458" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>508</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="459" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>508</v>
       </c>
@@ -24151,7 +24151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="460" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>508</v>
       </c>
@@ -24207,7 +24207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="461" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>508</v>
       </c>
@@ -24263,7 +24263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="462" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>508</v>
       </c>
@@ -24319,7 +24319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="463" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>508</v>
       </c>
@@ -24375,7 +24375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="464" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>508</v>
       </c>
@@ -24431,7 +24431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="465" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>508</v>
       </c>
@@ -24473,7 +24473,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="466" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>508</v>
       </c>
@@ -24529,7 +24529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="467" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>508</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="468" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>508</v>
       </c>
@@ -24633,7 +24633,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="469" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>508</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="470" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>508</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="471" spans="1:18" ht="48" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>508</v>
       </c>
@@ -24781,9 +24781,9 @@
         <v>542</v>
       </c>
     </row>
-    <row r="472" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="12" t="s">
         <v>545</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="547">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -1282,6 +1282,9 @@
     <t>12.2.2 Krajowa Konsumpcja Materialna (DMC)</t>
   </si>
   <si>
+    <t>tys. ton, tony</t>
+  </si>
+  <si>
     <t>12.4.1 Liczba krajów będących stroną wielostronnych umów środowiskowych dotyczących odpadów niebezpiecznych i innych substancji chemicznych, w związku z którymi należy wypełniać zobowiązania w zakresie przekazywania informacji wymaganych odpowiednimi umowami.</t>
   </si>
   <si>
@@ -1660,7 +1663,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 07-06-2022, 09:56</t>
+    <t>Ostatnia aktualizacja: 06-07-2022, 07:59</t>
   </si>
 </sst>
 </file>
@@ -20105,7 +20108,7 @@
         <v>22</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>277</v>
+        <v>419</v>
       </c>
       <c r="F375" s="4">
         <v>644835</v>
@@ -20159,7 +20162,7 @@
         <v>278</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>277</v>
+        <v>419</v>
       </c>
       <c r="F376" s="5">
         <v>16.95</v>
@@ -20204,7 +20207,7 @@
         <v>416</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>21</v>
@@ -20250,7 +20253,7 @@
       </c>
       <c r="Q377" s="3"/>
       <c r="R377" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="378" spans="1:18" ht="36" x14ac:dyDescent="0.25">
@@ -20258,16 +20261,16 @@
         <v>416</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F378" s="6">
         <v>39</v>
@@ -20292,7 +20295,7 @@
       <c r="P378" s="3"/>
       <c r="Q378" s="3"/>
       <c r="R378" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="379" spans="1:18" ht="36" x14ac:dyDescent="0.25">
@@ -20300,16 +20303,16 @@
         <v>416</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F379" s="6">
         <v>75</v>
@@ -20334,7 +20337,7 @@
       <c r="P379" s="3"/>
       <c r="Q379" s="3"/>
       <c r="R379" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="380" spans="1:18" ht="36" x14ac:dyDescent="0.25">
@@ -20342,16 +20345,16 @@
         <v>416</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F380" s="6">
         <v>21</v>
@@ -20376,7 +20379,7 @@
       <c r="P380" s="3"/>
       <c r="Q380" s="3"/>
       <c r="R380" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="381" spans="1:18" ht="36" x14ac:dyDescent="0.25">
@@ -20384,7 +20387,7 @@
         <v>416</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>21</v>
@@ -20428,7 +20431,7 @@
       <c r="P381" s="3"/>
       <c r="Q381" s="3"/>
       <c r="R381" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="382" spans="1:18" ht="36" x14ac:dyDescent="0.25">
@@ -20436,7 +20439,7 @@
         <v>416</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>21</v>
@@ -20468,7 +20471,7 @@
       </c>
       <c r="Q382" s="3"/>
       <c r="R382" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="383" spans="1:18" ht="36" x14ac:dyDescent="0.25">
@@ -20476,7 +20479,7 @@
         <v>416</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>21</v>
@@ -20524,7 +20527,7 @@
         <v>1</v>
       </c>
       <c r="R383" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="384" spans="1:18" ht="36" x14ac:dyDescent="0.25">
@@ -20532,7 +20535,7 @@
         <v>416</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>21</v>
@@ -20585,10 +20588,10 @@
     </row>
     <row r="385" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>45</v>
@@ -20639,10 +20642,10 @@
     </row>
     <row r="386" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>45</v>
@@ -20693,10 +20696,10 @@
     </row>
     <row r="387" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>21</v>
@@ -20744,15 +20747,15 @@
         <v>1</v>
       </c>
       <c r="R387" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="388" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>21</v>
@@ -20761,7 +20764,7 @@
         <v>22</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F388" s="5">
         <v>413501.55</v>
@@ -20796,15 +20799,15 @@
       <c r="P388" s="3"/>
       <c r="Q388" s="3"/>
       <c r="R388" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="389" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>21</v>
@@ -20813,7 +20816,7 @@
         <v>22</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F389" s="6">
         <v>1</v>
@@ -20857,10 +20860,10 @@
     </row>
     <row r="390" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>21</v>
@@ -20905,16 +20908,16 @@
     </row>
     <row r="391" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>23</v>
@@ -20954,21 +20957,21 @@
       </c>
       <c r="Q391" s="3"/>
       <c r="R391" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="392" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E392" s="3" t="s">
         <v>23</v>
@@ -21008,21 +21011,21 @@
       </c>
       <c r="Q392" s="3"/>
       <c r="R392" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="393" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>23</v>
@@ -21062,21 +21065,21 @@
       </c>
       <c r="Q393" s="3"/>
       <c r="R393" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="394" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E394" s="3" t="s">
         <v>23</v>
@@ -21116,15 +21119,15 @@
       </c>
       <c r="Q394" s="3"/>
       <c r="R394" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="395" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>21</v>
@@ -21170,15 +21173,15 @@
       </c>
       <c r="Q395" s="3"/>
       <c r="R395" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="396" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>21</v>
@@ -21229,10 +21232,10 @@
     </row>
     <row r="397" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>21</v>
@@ -21283,10 +21286,10 @@
     </row>
     <row r="398" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>21</v>
@@ -21332,18 +21335,18 @@
       </c>
       <c r="Q398" s="3"/>
       <c r="R398" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="399" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>22</v>
@@ -21370,21 +21373,21 @@
         <v>95</v>
       </c>
       <c r="R399" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="400" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>23</v>
@@ -21402,21 +21405,21 @@
       <c r="P400" s="3"/>
       <c r="Q400" s="3"/>
       <c r="R400" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="401" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>23</v>
@@ -21434,21 +21437,21 @@
       <c r="P401" s="3"/>
       <c r="Q401" s="3"/>
       <c r="R401" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="402" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>23</v>
@@ -21466,21 +21469,21 @@
       <c r="P402" s="3"/>
       <c r="Q402" s="3"/>
       <c r="R402" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="403" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>23</v>
@@ -21504,21 +21507,21 @@
         <v>66.599999999999994</v>
       </c>
       <c r="R403" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="404" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>23</v>
@@ -21542,21 +21545,21 @@
         <v>99.2</v>
       </c>
       <c r="R404" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="405" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>23</v>
@@ -21580,15 +21583,15 @@
         <v>94.4</v>
       </c>
       <c r="R405" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="406" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>21</v>
@@ -21636,15 +21639,15 @@
         <v>1</v>
       </c>
       <c r="R406" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="407" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>21</v>
@@ -21695,10 +21698,10 @@
     </row>
     <row r="408" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>21</v>
@@ -21746,15 +21749,15 @@
         <v>1</v>
       </c>
       <c r="R408" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="409" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>21</v>
@@ -21799,10 +21802,10 @@
     </row>
     <row r="410" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>21</v>
@@ -21847,10 +21850,10 @@
     </row>
     <row r="411" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>21</v>
@@ -21901,10 +21904,10 @@
     </row>
     <row r="412" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>21</v>
@@ -21955,10 +21958,10 @@
     </row>
     <row r="413" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>21</v>
@@ -22006,15 +22009,15 @@
         <v>0</v>
       </c>
       <c r="R413" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="414" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>21</v>
@@ -22053,10 +22056,10 @@
     </row>
     <row r="415" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>21</v>
@@ -22098,24 +22101,24 @@
       </c>
       <c r="Q415" s="3"/>
       <c r="R415" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="416" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
@@ -22140,24 +22143,24 @@
       </c>
       <c r="Q416" s="3"/>
       <c r="R416" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="417" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
@@ -22182,24 +22185,24 @@
       </c>
       <c r="Q417" s="3"/>
       <c r="R417" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="418" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
@@ -22224,24 +22227,24 @@
       </c>
       <c r="Q418" s="3"/>
       <c r="R418" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="419" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
@@ -22266,24 +22269,24 @@
       </c>
       <c r="Q419" s="3"/>
       <c r="R419" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="420" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
@@ -22308,24 +22311,24 @@
       </c>
       <c r="Q420" s="3"/>
       <c r="R420" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="421" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
@@ -22350,24 +22353,24 @@
       </c>
       <c r="Q421" s="3"/>
       <c r="R421" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="422" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
@@ -22392,24 +22395,24 @@
       </c>
       <c r="Q422" s="3"/>
       <c r="R422" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="423" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
@@ -22434,24 +22437,24 @@
       </c>
       <c r="Q423" s="3"/>
       <c r="R423" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="424" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
@@ -22476,24 +22479,24 @@
       </c>
       <c r="Q424" s="3"/>
       <c r="R424" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="425" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
@@ -22518,15 +22521,15 @@
       </c>
       <c r="Q425" s="3"/>
       <c r="R425" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="426" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>29</v>
@@ -22572,15 +22575,15 @@
       </c>
       <c r="Q426" s="3"/>
       <c r="R426" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="427" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>29</v>
@@ -22626,15 +22629,15 @@
       </c>
       <c r="Q427" s="3"/>
       <c r="R427" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="428" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>29</v>
@@ -22680,21 +22683,21 @@
       </c>
       <c r="Q428" s="3"/>
       <c r="R428" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="429" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E429" s="3" t="s">
         <v>23</v>
@@ -22734,21 +22737,21 @@
       </c>
       <c r="Q429" s="3"/>
       <c r="R429" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="430" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E430" s="3" t="s">
         <v>23</v>
@@ -22788,15 +22791,15 @@
       </c>
       <c r="Q430" s="3"/>
       <c r="R430" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="431" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>21</v>
@@ -22805,7 +22808,7 @@
         <v>22</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F431" s="6">
         <v>12487</v>
@@ -22842,18 +22845,18 @@
       </c>
       <c r="Q431" s="3"/>
       <c r="R431" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="432" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>217</v>
@@ -22880,18 +22883,18 @@
       <c r="P432" s="3"/>
       <c r="Q432" s="3"/>
       <c r="R432" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="433" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D433" s="3" t="s">
         <v>219</v>
@@ -22918,21 +22921,21 @@
       <c r="P433" s="3"/>
       <c r="Q433" s="3"/>
       <c r="R433" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="434" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E434" s="3" t="s">
         <v>23</v>
@@ -22956,21 +22959,21 @@
       <c r="P434" s="3"/>
       <c r="Q434" s="3"/>
       <c r="R434" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="435" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>23</v>
@@ -22994,21 +22997,21 @@
       <c r="P435" s="3"/>
       <c r="Q435" s="3"/>
       <c r="R435" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="436" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E436" s="3" t="s">
         <v>23</v>
@@ -23032,21 +23035,21 @@
       <c r="P436" s="3"/>
       <c r="Q436" s="3"/>
       <c r="R436" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="437" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>23</v>
@@ -23070,18 +23073,18 @@
       <c r="P437" s="3"/>
       <c r="Q437" s="3"/>
       <c r="R437" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="438" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>37</v>
@@ -23108,21 +23111,21 @@
       <c r="P438" s="3"/>
       <c r="Q438" s="3"/>
       <c r="R438" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="439" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>23</v>
@@ -23146,21 +23149,21 @@
       <c r="P439" s="3"/>
       <c r="Q439" s="3"/>
       <c r="R439" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="440" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E440" s="3" t="s">
         <v>23</v>
@@ -23184,21 +23187,21 @@
       <c r="P440" s="3"/>
       <c r="Q440" s="3"/>
       <c r="R440" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="441" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E441" s="3" t="s">
         <v>23</v>
@@ -23222,21 +23225,21 @@
       <c r="P441" s="3"/>
       <c r="Q441" s="3"/>
       <c r="R441" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="442" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C442" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D442" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="E442" s="3" t="s">
         <v>23</v>
@@ -23260,18 +23263,18 @@
       <c r="P442" s="3"/>
       <c r="Q442" s="3"/>
       <c r="R442" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="443" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>37</v>
@@ -23298,15 +23301,15 @@
       <c r="P443" s="3"/>
       <c r="Q443" s="3"/>
       <c r="R443" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="444" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>21</v>
@@ -23354,15 +23357,15 @@
         <v>100</v>
       </c>
       <c r="R444" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="445" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>21</v>
@@ -23397,10 +23400,10 @@
     </row>
     <row r="446" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>21</v>
@@ -23451,10 +23454,10 @@
     </row>
     <row r="447" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>21</v>
@@ -23505,13 +23508,13 @@
     </row>
     <row r="448" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>22</v>
@@ -23559,16 +23562,16 @@
     </row>
     <row r="449" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E449" s="3" t="s">
         <v>23</v>
@@ -23613,10 +23616,10 @@
     </row>
     <row r="450" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>21</v>
@@ -23662,15 +23665,15 @@
       </c>
       <c r="Q450" s="3"/>
       <c r="R450" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="451" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>21</v>
@@ -23721,10 +23724,10 @@
     </row>
     <row r="452" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>21</v>
@@ -23770,21 +23773,21 @@
       </c>
       <c r="Q452" s="3"/>
       <c r="R452" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="453" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E453" s="3" t="s">
         <v>46</v>
@@ -23829,16 +23832,16 @@
     </row>
     <row r="454" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E454" s="3" t="s">
         <v>46</v>
@@ -23883,16 +23886,16 @@
     </row>
     <row r="455" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E455" s="3" t="s">
         <v>46</v>
@@ -23937,10 +23940,10 @@
     </row>
     <row r="456" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>21</v>
@@ -23991,10 +23994,10 @@
     </row>
     <row r="457" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>21</v>
@@ -24045,10 +24048,10 @@
     </row>
     <row r="458" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>21</v>
@@ -24099,16 +24102,16 @@
     </row>
     <row r="459" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E459" s="3" t="s">
         <v>280</v>
@@ -24153,16 +24156,16 @@
     </row>
     <row r="460" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E460" s="3" t="s">
         <v>280</v>
@@ -24209,16 +24212,16 @@
     </row>
     <row r="461" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E461" s="3" t="s">
         <v>280</v>
@@ -24265,16 +24268,16 @@
     </row>
     <row r="462" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E462" s="3" t="s">
         <v>280</v>
@@ -24321,16 +24324,16 @@
     </row>
     <row r="463" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>280</v>
@@ -24377,16 +24380,16 @@
     </row>
     <row r="464" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E464" s="3" t="s">
         <v>280</v>
@@ -24433,10 +24436,10 @@
     </row>
     <row r="465" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>21</v>
@@ -24470,15 +24473,15 @@
         <v>1</v>
       </c>
       <c r="R465" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="466" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>21</v>
@@ -24531,10 +24534,10 @@
     </row>
     <row r="467" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>21</v>
@@ -24587,10 +24590,10 @@
     </row>
     <row r="468" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>21</v>
@@ -24599,7 +24602,7 @@
         <v>22</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
@@ -24635,16 +24638,16 @@
     </row>
     <row r="469" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E469" s="3" t="s">
         <v>186</v>
@@ -24666,21 +24669,21 @@
         <v>1</v>
       </c>
       <c r="R469" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="470" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E470" s="3" t="s">
         <v>186</v>
@@ -24722,21 +24725,21 @@
         <v>1</v>
       </c>
       <c r="R470" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="471" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E471" s="3" t="s">
         <v>186</v>
@@ -24778,14 +24781,14 @@
         <v>1</v>
       </c>
       <c r="R471" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="472" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="473" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="474" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B474" s="10"/>
     </row>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1663,7 +1663,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 06-07-2022, 07:59</t>
+    <t>Ostatnia aktualizacja: 12-07-2022, 09:11</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1672,7 +1672,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 30-08-2022, 14:24</t>
+    <t>Ostatnia aktualizacja: 06-09-2022, 11:45</t>
   </si>
 </sst>
 </file>
@@ -2224,7 +2224,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1672,7 +1672,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 06-09-2022, 11:45</t>
+    <t>Ostatnia aktualizacja: 20-09-2022, 13:33</t>
   </si>
 </sst>
 </file>
@@ -2224,7 +2224,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1672,7 +1672,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 20-09-2022, 13:33</t>
+    <t>Ostatnia aktualizacja: 11-10-2022, 10:20</t>
   </si>
 </sst>
 </file>
@@ -2223,8 +2223,8 @@
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5342,7 +5342,7 @@
         <v>24</v>
       </c>
       <c r="P61" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q61" s="6">
         <v>15</v>
@@ -5399,9 +5399,11 @@
         <v>4</v>
       </c>
       <c r="P62" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>2</v>
+      </c>
       <c r="R62" s="3"/>
       <c r="S62" s="2" t="s">
         <v>100</v>
@@ -5456,7 +5458,9 @@
       <c r="P63" s="6">
         <v>6</v>
       </c>
-      <c r="Q63" s="3"/>
+      <c r="Q63" s="6">
+        <v>13</v>
+      </c>
       <c r="R63" s="3"/>
       <c r="S63" s="2" t="s">
         <v>100</v>
@@ -5623,7 +5627,9 @@
       <c r="P66" s="6">
         <v>19</v>
       </c>
-      <c r="Q66" s="3"/>
+      <c r="Q66" s="6">
+        <v>21</v>
+      </c>
       <c r="R66" s="3"/>
       <c r="S66" s="2" t="s">
         <v>100</v>
@@ -5678,7 +5684,9 @@
       <c r="P67" s="6">
         <v>9</v>
       </c>
-      <c r="Q67" s="3"/>
+      <c r="Q67" s="6">
+        <v>9</v>
+      </c>
       <c r="R67" s="3"/>
       <c r="S67" s="2" t="s">
         <v>100</v>
@@ -6868,7 +6876,9 @@
       <c r="P91" s="5">
         <v>1.93</v>
       </c>
-      <c r="Q91" s="3"/>
+      <c r="Q91" s="5">
+        <v>56.63</v>
+      </c>
       <c r="R91" s="3"/>
       <c r="S91" s="2" t="s">
         <v>93</v>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1672,7 +1672,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 11-10-2022, 10:20</t>
+    <t>Ostatnia aktualizacja: 25-10-2022, 11:30</t>
   </si>
 </sst>
 </file>
@@ -2223,8 +2223,8 @@
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3327,7 +3327,9 @@
       <c r="P22" s="5">
         <v>2.33</v>
       </c>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="5">
+        <v>2.25</v>
+      </c>
       <c r="R22" s="3"/>
       <c r="S22" s="2" t="s">
         <v>48</v>
@@ -3382,7 +3384,9 @@
       <c r="P23" s="5">
         <v>0.47</v>
       </c>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="5">
+        <v>0.68</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="2" t="s">
         <v>48</v>
@@ -3883,7 +3887,9 @@
       <c r="O33" s="4">
         <v>2.5</v>
       </c>
-      <c r="P33" s="3"/>
+      <c r="P33" s="4">
+        <v>2.5</v>
+      </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="2" t="s">
@@ -3926,7 +3932,9 @@
       <c r="O34" s="4">
         <v>5.8</v>
       </c>
-      <c r="P34" s="3"/>
+      <c r="P34" s="4">
+        <v>7.4</v>
+      </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="2" t="s">
@@ -3969,7 +3977,9 @@
       <c r="O35" s="4">
         <v>6.6</v>
       </c>
-      <c r="P35" s="3"/>
+      <c r="P35" s="4">
+        <v>8.4</v>
+      </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="2" t="s">
@@ -4012,7 +4022,9 @@
       <c r="O36" s="4">
         <v>3.9</v>
       </c>
-      <c r="P36" s="3"/>
+      <c r="P36" s="4">
+        <v>5.3</v>
+      </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="2" t="s">
@@ -4055,7 +4067,9 @@
       <c r="O37" s="4">
         <v>0.5</v>
       </c>
-      <c r="P37" s="3"/>
+      <c r="P37" s="4">
+        <v>0.9</v>
+      </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="2" t="s">
@@ -4096,9 +4110,11 @@
         <v>0.5</v>
       </c>
       <c r="O38" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="P38" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="2" t="s">
@@ -4141,7 +4157,9 @@
       <c r="O39" s="4">
         <v>0.5</v>
       </c>
-      <c r="P39" s="3"/>
+      <c r="P39" s="4">
+        <v>0.9</v>
+      </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="2" t="s">
@@ -6124,9 +6142,11 @@
         <v>11</v>
       </c>
       <c r="P75" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="Q75" s="3"/>
+        <v>10.9</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>11</v>
+      </c>
       <c r="R75" s="3"/>
       <c r="S75" s="2" t="s">
         <v>25</v>
@@ -7860,7 +7880,9 @@
       <c r="P113" s="4">
         <v>28.4</v>
       </c>
-      <c r="Q113" s="3"/>
+      <c r="Q113" s="4">
+        <v>28.4</v>
+      </c>
       <c r="R113" s="3"/>
       <c r="S113" s="2" t="s">
         <v>25</v>
@@ -7905,7 +7927,9 @@
       <c r="P114" s="4">
         <v>53.1</v>
       </c>
-      <c r="Q114" s="3"/>
+      <c r="Q114" s="4">
+        <v>51.4</v>
+      </c>
       <c r="R114" s="3"/>
       <c r="S114" s="2" t="s">
         <v>25</v>
@@ -7950,7 +7974,9 @@
       <c r="P115" s="4">
         <v>38.200000000000003</v>
       </c>
-      <c r="Q115" s="3"/>
+      <c r="Q115" s="4">
+        <v>35.799999999999997</v>
+      </c>
       <c r="R115" s="3"/>
       <c r="S115" s="2" t="s">
         <v>25</v>
@@ -7995,7 +8021,9 @@
       <c r="P116" s="4">
         <v>28</v>
       </c>
-      <c r="Q116" s="3"/>
+      <c r="Q116" s="4">
+        <v>33.9</v>
+      </c>
       <c r="R116" s="3"/>
       <c r="S116" s="2" t="s">
         <v>25</v>
@@ -8040,7 +8068,9 @@
       <c r="P117" s="4">
         <v>65.900000000000006</v>
       </c>
-      <c r="Q117" s="3"/>
+      <c r="Q117" s="4">
+        <v>68.3</v>
+      </c>
       <c r="R117" s="3"/>
       <c r="S117" s="2" t="s">
         <v>25</v>
@@ -8130,7 +8160,9 @@
       <c r="P119" s="4">
         <v>53.2</v>
       </c>
-      <c r="Q119" s="3"/>
+      <c r="Q119" s="4">
+        <v>55.2</v>
+      </c>
       <c r="R119" s="3"/>
       <c r="S119" s="2" t="s">
         <v>25</v>
@@ -8175,7 +8207,9 @@
       <c r="P120" s="4">
         <v>90.4</v>
       </c>
-      <c r="Q120" s="3"/>
+      <c r="Q120" s="4">
+        <v>87.5</v>
+      </c>
       <c r="R120" s="3"/>
       <c r="S120" s="2" t="s">
         <v>25</v>
@@ -8220,7 +8254,9 @@
       <c r="P121" s="4">
         <v>70.5</v>
       </c>
-      <c r="Q121" s="3"/>
+      <c r="Q121" s="4">
+        <v>69.8</v>
+      </c>
       <c r="R121" s="3"/>
       <c r="S121" s="2" t="s">
         <v>25</v>
@@ -8265,7 +8301,9 @@
       <c r="P122" s="4">
         <v>69.5</v>
       </c>
-      <c r="Q122" s="3"/>
+      <c r="Q122" s="4">
+        <v>72.7</v>
+      </c>
       <c r="R122" s="3"/>
       <c r="S122" s="2" t="s">
         <v>25</v>
@@ -8310,7 +8348,9 @@
       <c r="P123" s="4">
         <v>92.7</v>
       </c>
-      <c r="Q123" s="3"/>
+      <c r="Q123" s="4">
+        <v>91.5</v>
+      </c>
       <c r="R123" s="3"/>
       <c r="S123" s="2" t="s">
         <v>25</v>
@@ -9731,7 +9771,9 @@
       <c r="P156" s="6">
         <v>122</v>
       </c>
-      <c r="Q156" s="3"/>
+      <c r="Q156" s="6">
+        <v>117</v>
+      </c>
       <c r="R156" s="3"/>
       <c r="S156" s="2" t="s">
         <v>25</v>
@@ -11520,7 +11562,9 @@
       <c r="P199" s="4">
         <v>92.3</v>
       </c>
-      <c r="Q199" s="3"/>
+      <c r="Q199" s="4">
+        <v>62.4</v>
+      </c>
       <c r="R199" s="3"/>
       <c r="S199" s="2" t="s">
         <v>25</v>
@@ -11575,7 +11619,9 @@
       <c r="P200" s="4">
         <v>71.5</v>
       </c>
-      <c r="Q200" s="3"/>
+      <c r="Q200" s="4">
+        <v>71.900000000000006</v>
+      </c>
       <c r="R200" s="3"/>
       <c r="S200" s="2" t="s">
         <v>25</v>
@@ -11752,7 +11798,9 @@
       <c r="O204" s="4">
         <v>51.2</v>
       </c>
-      <c r="P204" s="3"/>
+      <c r="P204" s="4">
+        <v>53.4</v>
+      </c>
       <c r="Q204" s="3"/>
       <c r="R204" s="3"/>
       <c r="S204" s="2" t="s">
@@ -12233,39 +12281,41 @@
         <v>24</v>
       </c>
       <c r="F214" s="4">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G214" s="4">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H214" s="4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="I214" s="4">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="J214" s="4">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K214" s="4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L214" s="4">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M214" s="4">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="N214" s="4">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="O214" s="4">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="P214" s="4">
-        <v>-2.1</v>
-      </c>
-      <c r="Q214" s="3"/>
+        <v>-1.5</v>
+      </c>
+      <c r="Q214" s="4">
+        <v>7.4</v>
+      </c>
       <c r="R214" s="3"/>
       <c r="S214" s="2" t="s">
         <v>25</v>
@@ -12288,40 +12338,40 @@
         <v>24</v>
       </c>
       <c r="F215" s="4">
-        <v>10.4</v>
+        <v>13.8</v>
       </c>
       <c r="G215" s="4">
         <v>5.9</v>
       </c>
       <c r="H215" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I215" s="4">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="J215" s="4">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K215" s="4">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L215" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="M215" s="4">
         <v>3.4</v>
       </c>
-      <c r="M215" s="4">
-        <v>3.7</v>
-      </c>
       <c r="N215" s="4">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="O215" s="4">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="P215" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Q215" s="4">
-        <v>8.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="R215" s="3"/>
       <c r="S215" s="2" t="s">
@@ -14291,39 +14341,41 @@
         <v>24</v>
       </c>
       <c r="F256" s="5">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="G256" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H256" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="I256" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H256" s="5">
+      <c r="J256" s="5">
         <v>0.11</v>
       </c>
-      <c r="I256" s="5">
+      <c r="K256" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L256" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="M256" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="N256" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="O256" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="P256" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q256" s="5">
         <v>0.1</v>
       </c>
-      <c r="J256" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="K256" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="L256" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="M256" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="N256" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="O256" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="P256" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="Q256" s="3"/>
       <c r="R256" s="3"/>
       <c r="S256" s="2" t="s">
         <v>25</v>
@@ -14378,7 +14430,9 @@
       <c r="P257" s="4">
         <v>83</v>
       </c>
-      <c r="Q257" s="3"/>
+      <c r="Q257" s="4">
+        <v>78.8</v>
+      </c>
       <c r="R257" s="3"/>
       <c r="S257" s="2" t="s">
         <v>309</v>
@@ -14764,7 +14818,9 @@
       <c r="P267" s="6">
         <v>208651</v>
       </c>
-      <c r="Q267" s="3"/>
+      <c r="Q267" s="6">
+        <v>244874</v>
+      </c>
       <c r="R267" s="3"/>
       <c r="S267" s="2" t="s">
         <v>25</v>
@@ -14819,7 +14875,9 @@
       <c r="P268" s="6">
         <v>159700</v>
       </c>
-      <c r="Q268" s="3"/>
+      <c r="Q268" s="6">
+        <v>168619</v>
+      </c>
       <c r="R268" s="3"/>
       <c r="S268" s="2" t="s">
         <v>25</v>
@@ -14874,7 +14932,9 @@
       <c r="P269" s="6">
         <v>572</v>
       </c>
-      <c r="Q269" s="3"/>
+      <c r="Q269" s="6">
+        <v>674</v>
+      </c>
       <c r="R269" s="3"/>
       <c r="S269" s="2" t="s">
         <v>25</v>
@@ -14929,7 +14989,9 @@
       <c r="P270" s="6">
         <v>682</v>
       </c>
-      <c r="Q270" s="3"/>
+      <c r="Q270" s="6">
+        <v>986</v>
+      </c>
       <c r="R270" s="3"/>
       <c r="S270" s="2" t="s">
         <v>25</v>
@@ -14984,7 +15046,9 @@
       <c r="P271" s="6">
         <v>3629</v>
       </c>
-      <c r="Q271" s="3"/>
+      <c r="Q271" s="6">
+        <v>6996</v>
+      </c>
       <c r="R271" s="3"/>
       <c r="S271" s="2" t="s">
         <v>25</v>
@@ -15039,7 +15103,9 @@
       <c r="P272" s="6">
         <v>218381</v>
       </c>
-      <c r="Q272" s="3"/>
+      <c r="Q272" s="6">
+        <v>237915</v>
+      </c>
       <c r="R272" s="3"/>
       <c r="S272" s="2" t="s">
         <v>25</v>
@@ -15092,9 +15158,11 @@
         <v>1921073</v>
       </c>
       <c r="P273" s="6">
-        <v>2331758</v>
-      </c>
-      <c r="Q273" s="3"/>
+        <v>1919193</v>
+      </c>
+      <c r="Q273" s="6">
+        <v>1952465</v>
+      </c>
       <c r="R273" s="3"/>
       <c r="S273" s="2" t="s">
         <v>25</v>
@@ -15149,7 +15217,9 @@
       <c r="P274" s="6">
         <v>51489</v>
       </c>
-      <c r="Q274" s="3"/>
+      <c r="Q274" s="6">
+        <v>49855</v>
+      </c>
       <c r="R274" s="3"/>
       <c r="S274" s="2" t="s">
         <v>25</v>
@@ -15204,7 +15274,9 @@
       <c r="P275" s="6">
         <v>8135</v>
       </c>
-      <c r="Q275" s="3"/>
+      <c r="Q275" s="6">
+        <v>9587</v>
+      </c>
       <c r="R275" s="3"/>
       <c r="S275" s="2" t="s">
         <v>25</v>
@@ -15259,7 +15331,9 @@
       <c r="P276" s="6">
         <v>3991</v>
       </c>
-      <c r="Q276" s="3"/>
+      <c r="Q276" s="6">
+        <v>3465</v>
+      </c>
       <c r="R276" s="3"/>
       <c r="S276" s="2" t="s">
         <v>25</v>
@@ -15314,7 +15388,9 @@
       <c r="P277" s="6">
         <v>63</v>
       </c>
-      <c r="Q277" s="3"/>
+      <c r="Q277" s="6">
+        <v>91</v>
+      </c>
       <c r="R277" s="3"/>
       <c r="S277" s="2" t="s">
         <v>25</v>
@@ -15337,40 +15413,40 @@
         <v>24</v>
       </c>
       <c r="F278" s="4">
-        <v>15.3</v>
+        <v>16.3</v>
       </c>
       <c r="G278" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="H278" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="I278" s="4">
         <v>15.7</v>
       </c>
-      <c r="H278" s="4">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="I278" s="4">
-        <v>15.6</v>
-      </c>
       <c r="J278" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K278" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L278" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="M278" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="N278" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="O278" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="P278" s="4">
         <v>16.5</v>
       </c>
-      <c r="K278" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="L278" s="4">
-        <v>18</v>
-      </c>
-      <c r="M278" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="N278" s="4">
+      <c r="Q278" s="4">
         <v>16.7</v>
-      </c>
-      <c r="O278" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="P278" s="4">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="Q278" s="4">
-        <v>17.3</v>
       </c>
       <c r="R278" s="3"/>
       <c r="S278" s="2" t="s">
@@ -18427,7 +18503,9 @@
       <c r="P334" s="5">
         <v>2.33</v>
       </c>
-      <c r="Q334" s="3"/>
+      <c r="Q334" s="5">
+        <v>2.25</v>
+      </c>
       <c r="R334" s="3"/>
       <c r="S334" s="2" t="s">
         <v>388</v>
@@ -18482,7 +18560,9 @@
       <c r="P335" s="5">
         <v>0.47</v>
       </c>
-      <c r="Q335" s="3"/>
+      <c r="Q335" s="5">
+        <v>0.68</v>
+      </c>
       <c r="R335" s="3"/>
       <c r="S335" s="2" t="s">
         <v>388</v>
@@ -18537,7 +18617,9 @@
       <c r="P336" s="5">
         <v>26.68</v>
       </c>
-      <c r="Q336" s="3"/>
+      <c r="Q336" s="5">
+        <v>26.92</v>
+      </c>
       <c r="R336" s="3"/>
       <c r="S336" s="2" t="s">
         <v>25</v>
@@ -18592,7 +18674,9 @@
       <c r="P337" s="5">
         <v>12.03</v>
       </c>
-      <c r="Q337" s="3"/>
+      <c r="Q337" s="5">
+        <v>13.34</v>
+      </c>
       <c r="R337" s="3"/>
       <c r="S337" s="2" t="s">
         <v>25</v>
@@ -18647,7 +18731,9 @@
       <c r="P338" s="5">
         <v>21.52</v>
       </c>
-      <c r="Q338" s="3"/>
+      <c r="Q338" s="5">
+        <v>21.01</v>
+      </c>
       <c r="R338" s="3"/>
       <c r="S338" s="2" t="s">
         <v>25</v>
@@ -18702,7 +18788,9 @@
       <c r="P339" s="5">
         <v>39.78</v>
       </c>
-      <c r="Q339" s="3"/>
+      <c r="Q339" s="5">
+        <v>38.729999999999997</v>
+      </c>
       <c r="R339" s="3"/>
       <c r="S339" s="2" t="s">
         <v>25</v>
@@ -20073,9 +20161,11 @@
         <v>98.17</v>
       </c>
       <c r="P364" s="5">
-        <v>98.29</v>
-      </c>
-      <c r="Q364" s="3"/>
+        <v>98.41</v>
+      </c>
+      <c r="Q364" s="5">
+        <v>98.52</v>
+      </c>
       <c r="R364" s="3"/>
       <c r="S364" s="2" t="s">
         <v>413</v>
@@ -20130,7 +20220,9 @@
       <c r="P365" s="5">
         <v>100</v>
       </c>
-      <c r="Q365" s="3"/>
+      <c r="Q365" s="5">
+        <v>100</v>
+      </c>
       <c r="R365" s="3"/>
       <c r="S365" s="2" t="s">
         <v>413</v>
@@ -20183,9 +20275,11 @@
         <v>94.4</v>
       </c>
       <c r="P366" s="5">
-        <v>94.71</v>
-      </c>
-      <c r="Q366" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="Q366" s="5">
+        <v>95.35</v>
+      </c>
       <c r="R366" s="3"/>
       <c r="S366" s="2" t="s">
         <v>413</v>
@@ -20238,9 +20332,11 @@
         <v>98.97</v>
       </c>
       <c r="P367" s="5">
-        <v>99.11</v>
-      </c>
-      <c r="Q367" s="3"/>
+        <v>99.29</v>
+      </c>
+      <c r="Q367" s="5">
+        <v>99.32</v>
+      </c>
       <c r="R367" s="3"/>
       <c r="S367" s="2" t="s">
         <v>413</v>
@@ -20295,7 +20391,9 @@
       <c r="P368" s="4">
         <v>99.9</v>
       </c>
-      <c r="Q368" s="3"/>
+      <c r="Q368" s="4">
+        <v>99.9</v>
+      </c>
       <c r="R368" s="3"/>
       <c r="S368" s="2" t="s">
         <v>413</v>
@@ -20350,7 +20448,9 @@
       <c r="P369" s="4">
         <v>100</v>
       </c>
-      <c r="Q369" s="3"/>
+      <c r="Q369" s="4">
+        <v>100</v>
+      </c>
       <c r="R369" s="3"/>
       <c r="S369" s="2" t="s">
         <v>413</v>
@@ -20405,7 +20505,9 @@
       <c r="P370" s="4">
         <v>99.8</v>
       </c>
-      <c r="Q370" s="3"/>
+      <c r="Q370" s="4">
+        <v>99.8</v>
+      </c>
       <c r="R370" s="3"/>
       <c r="S370" s="2" t="s">
         <v>413</v>
@@ -20460,7 +20562,9 @@
       <c r="P371" s="4">
         <v>99.9</v>
       </c>
-      <c r="Q371" s="3"/>
+      <c r="Q371" s="4">
+        <v>99.9</v>
+      </c>
       <c r="R371" s="3"/>
       <c r="S371" s="2" t="s">
         <v>413</v>
@@ -20728,7 +20832,9 @@
         <v>100</v>
       </c>
       <c r="O376" s="3"/>
-      <c r="P376" s="3"/>
+      <c r="P376" s="6">
+        <v>59</v>
+      </c>
       <c r="Q376" s="3"/>
       <c r="R376" s="3"/>
       <c r="S376" s="2" t="s">
@@ -20752,26 +20858,28 @@
         <v>426</v>
       </c>
       <c r="F377" s="6">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G377" s="3"/>
       <c r="H377" s="6">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="I377" s="3"/>
       <c r="J377" s="6">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="K377" s="3"/>
       <c r="L377" s="6">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M377" s="3"/>
       <c r="N377" s="6">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O377" s="3"/>
-      <c r="P377" s="3"/>
+      <c r="P377" s="6">
+        <v>36</v>
+      </c>
       <c r="Q377" s="3"/>
       <c r="R377" s="3"/>
       <c r="S377" s="2" t="s">
@@ -20795,26 +20903,28 @@
         <v>426</v>
       </c>
       <c r="F378" s="6">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G378" s="3"/>
       <c r="H378" s="6">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I378" s="3"/>
       <c r="J378" s="6">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K378" s="3"/>
       <c r="L378" s="6">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M378" s="3"/>
       <c r="N378" s="6">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="O378" s="3"/>
-      <c r="P378" s="3"/>
+      <c r="P378" s="6">
+        <v>42</v>
+      </c>
       <c r="Q378" s="3"/>
       <c r="R378" s="3"/>
       <c r="S378" s="2" t="s">
@@ -21082,7 +21192,9 @@
       <c r="P383" s="5">
         <v>2.33</v>
       </c>
-      <c r="Q383" s="3"/>
+      <c r="Q383" s="5">
+        <v>2.25</v>
+      </c>
       <c r="R383" s="3"/>
       <c r="S383" s="2" t="s">
         <v>388</v>
@@ -21137,7 +21249,9 @@
       <c r="P384" s="5">
         <v>0.47</v>
       </c>
-      <c r="Q384" s="3"/>
+      <c r="Q384" s="5">
+        <v>0.68</v>
+      </c>
       <c r="R384" s="3"/>
       <c r="S384" s="2" t="s">
         <v>388</v>
@@ -21414,7 +21528,9 @@
       <c r="P389" s="6">
         <v>60</v>
       </c>
-      <c r="Q389" s="3"/>
+      <c r="Q389" s="6">
+        <v>67</v>
+      </c>
       <c r="R389" s="3"/>
       <c r="S389" s="2" t="s">
         <v>450</v>
@@ -21469,7 +21585,9 @@
       <c r="P390" s="6">
         <v>20</v>
       </c>
-      <c r="Q390" s="3"/>
+      <c r="Q390" s="6">
+        <v>17</v>
+      </c>
       <c r="R390" s="3"/>
       <c r="S390" s="2" t="s">
         <v>450</v>
@@ -21524,7 +21642,9 @@
       <c r="P391" s="6">
         <v>40</v>
       </c>
-      <c r="Q391" s="3"/>
+      <c r="Q391" s="6">
+        <v>17</v>
+      </c>
       <c r="R391" s="3"/>
       <c r="S391" s="2" t="s">
         <v>450</v>
@@ -21579,7 +21699,9 @@
       <c r="P392" s="6">
         <v>40</v>
       </c>
-      <c r="Q392" s="3"/>
+      <c r="Q392" s="6">
+        <v>33</v>
+      </c>
       <c r="R392" s="3"/>
       <c r="S392" s="2" t="s">
         <v>450</v>
@@ -22168,7 +22290,9 @@
       <c r="P405" s="6">
         <v>20950</v>
       </c>
-      <c r="Q405" s="3"/>
+      <c r="Q405" s="6">
+        <v>20928</v>
+      </c>
       <c r="R405" s="3"/>
       <c r="S405" s="2" t="s">
         <v>369</v>
@@ -22382,7 +22506,9 @@
       <c r="P409" s="6">
         <v>20950</v>
       </c>
-      <c r="Q409" s="3"/>
+      <c r="Q409" s="6">
+        <v>20928</v>
+      </c>
       <c r="R409" s="3"/>
       <c r="S409" s="2" t="s">
         <v>369</v>
@@ -24103,7 +24229,9 @@
       <c r="P446" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q446" s="3"/>
+      <c r="Q446" s="5">
+        <v>0.15</v>
+      </c>
       <c r="R446" s="3"/>
       <c r="S446" s="2" t="s">
         <v>93</v>
@@ -24557,7 +24685,9 @@
       <c r="P454" s="4">
         <v>83.2</v>
       </c>
-      <c r="Q454" s="3"/>
+      <c r="Q454" s="4">
+        <v>85.4</v>
+      </c>
       <c r="R454" s="3"/>
       <c r="S454" s="2" t="s">
         <v>25</v>
@@ -24694,40 +24824,40 @@
         <v>281</v>
       </c>
       <c r="F457" s="6">
-        <v>37564</v>
+        <v>37240</v>
       </c>
       <c r="G457" s="6">
-        <v>40628</v>
+        <v>40327</v>
       </c>
       <c r="H457" s="6">
-        <v>42130</v>
+        <v>41852</v>
       </c>
       <c r="I457" s="6">
-        <v>42770</v>
+        <v>42339</v>
       </c>
       <c r="J457" s="6">
-        <v>44466</v>
+        <v>44189</v>
       </c>
       <c r="K457" s="6">
-        <v>46837</v>
+        <v>46768</v>
       </c>
       <c r="L457" s="6">
-        <v>48494</v>
+        <v>48227</v>
       </c>
       <c r="M457" s="6">
-        <v>51789</v>
+        <v>51606</v>
       </c>
       <c r="N457" s="6">
-        <v>55230</v>
+        <v>55359</v>
       </c>
       <c r="O457" s="6">
-        <v>59741</v>
+        <v>59618</v>
       </c>
       <c r="P457" s="6">
-        <v>60984</v>
+        <v>61231</v>
       </c>
       <c r="Q457" s="6">
-        <v>68712</v>
+        <v>69069</v>
       </c>
       <c r="R457" s="3"/>
       <c r="S457" s="2" t="s">
@@ -24751,40 +24881,40 @@
         <v>281</v>
       </c>
       <c r="F458" s="4">
-        <v>103.7</v>
+        <v>103.4</v>
       </c>
       <c r="G458" s="4">
-        <v>104.8</v>
+        <v>105</v>
       </c>
       <c r="H458" s="4">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="I458" s="4">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="J458" s="4">
-        <v>103.4</v>
+        <v>103.8</v>
       </c>
       <c r="K458" s="4">
-        <v>104.2</v>
+        <v>104.4</v>
       </c>
       <c r="L458" s="4">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="M458" s="4">
-        <v>104.8</v>
+        <v>105.1</v>
       </c>
       <c r="N458" s="4">
-        <v>105.4</v>
+        <v>105.9</v>
       </c>
       <c r="O458" s="4">
-        <v>104.7</v>
+        <v>104.5</v>
       </c>
       <c r="P458" s="4">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="Q458" s="4">
-        <v>105.9</v>
+        <v>106.8</v>
       </c>
       <c r="R458" s="3"/>
       <c r="S458" s="2" t="s">
@@ -24865,40 +24995,40 @@
         <v>281</v>
       </c>
       <c r="F460" s="4">
-        <v>20.3</v>
+        <v>19.7</v>
       </c>
       <c r="G460" s="4">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="H460" s="4">
-        <v>19.899999999999999</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I460" s="4">
+        <v>19</v>
+      </c>
+      <c r="J460" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K460" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L460" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="M460" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N460" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="O460" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="J460" s="4">
-        <v>19.8</v>
-      </c>
-      <c r="K460" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="L460" s="4">
-        <v>18</v>
-      </c>
-      <c r="M460" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="N460" s="4">
-        <v>18.2</v>
-      </c>
-      <c r="O460" s="4">
+      <c r="P460" s="4">
         <v>18.3</v>
       </c>
-      <c r="P460" s="4">
-        <v>17.2</v>
-      </c>
       <c r="Q460" s="4">
-        <v>16.600000000000001</v>
+        <v>17</v>
       </c>
       <c r="R460" s="3"/>
       <c r="S460" s="2" t="s">
@@ -24946,13 +25076,13 @@
         <v>50.6</v>
       </c>
       <c r="N461" s="4">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="O461" s="4">
-        <v>45.6</v>
+        <v>45.7</v>
       </c>
       <c r="P461" s="4">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="Q461" s="4">
         <v>53.8</v>
@@ -25012,7 +25142,7 @@
         <v>-6.9</v>
       </c>
       <c r="Q462" s="4">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="R462" s="3"/>
       <c r="S462" s="2" t="s">

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1672,13 +1667,13 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 25-10-2022, 11:30</t>
+    <t>Ostatnia aktualizacja: 15-11-2022, 08:47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
@@ -1687,7 +1682,7 @@
     <numFmt numFmtId="168" formatCode="[$-10415]0.000;\-0.000;0.000"/>
     <numFmt numFmtId="169" formatCode="[$-10415]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1885,14 +1880,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1913,7 +1900,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1976,7 +1963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2008,10 +1995,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2043,7 +2029,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2219,7 +2204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2227,7 +2212,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2239,17 +2224,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2308,7 +2293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2363,7 +2348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2418,7 +2403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2473,7 +2458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2528,7 +2513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2583,7 +2568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2638,7 +2623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2693,7 +2678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2748,7 +2733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2803,7 +2788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2858,7 +2843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2913,7 +2898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2968,7 +2953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="19.5">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3007,7 +2992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="19.5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3064,7 +3049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="107.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3117,7 +3102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="107.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3170,7 +3155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="107.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3223,7 +3208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3278,7 +3263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="39">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3335,7 +3320,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="39">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3392,7 +3377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="39">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3437,7 +3422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="68.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3482,7 +3467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="29.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3527,7 +3512,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="29.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3572,7 +3557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="29.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3621,7 +3606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="39">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3676,7 +3661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="39">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3731,7 +3716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="39">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3786,7 +3771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="39">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3841,7 +3826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3896,7 +3881,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="39">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3941,7 +3926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="39">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -3986,7 +3971,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="39">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4031,7 +4016,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4076,7 +4061,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="29.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4121,7 +4106,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4166,7 +4151,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="48.75">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4205,7 +4190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="68.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4262,7 +4247,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="68.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4319,7 +4304,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="68.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4376,7 +4361,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="68.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4433,7 +4418,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="68.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4490,7 +4475,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="68.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4547,7 +4532,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="29.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4594,7 +4579,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="29.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4641,7 +4626,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4696,7 +4681,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="19.5">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4747,7 +4732,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4802,7 +4787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4859,7 +4844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4916,7 +4901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -4973,7 +4958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -5030,7 +5015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -5087,7 +5072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -5144,7 +5129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -5201,7 +5186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="39">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -5258,7 +5243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -5313,7 +5298,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="39">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -5370,7 +5355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="39">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
@@ -5427,7 +5412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="39">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
@@ -5484,7 +5469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -5539,7 +5524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="39">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
@@ -5596,7 +5581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="39">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -5653,7 +5638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="39">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -5710,7 +5695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="29.25">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5765,7 +5750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="29.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5820,7 +5805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="29.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -5875,7 +5860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -5930,7 +5915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -5985,7 +5970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -6040,7 +6025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -6095,7 +6080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -6152,7 +6137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29.25">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
@@ -6207,7 +6192,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="29.25">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -6246,7 +6231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -6303,7 +6288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -6360,7 +6345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -6417,7 +6402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -6456,7 +6441,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -6501,7 +6486,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29.25">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -6546,7 +6531,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="39">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -6581,7 +6566,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="39">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -6616,7 +6601,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -6671,7 +6656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -6710,7 +6695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="29.25">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -6763,7 +6748,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="29.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -6816,7 +6801,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="29.25">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -6853,7 +6838,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="19.5">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -6904,7 +6889,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -6959,7 +6944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -7014,7 +6999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -7069,7 +7054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -7120,7 +7105,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="29.25">
       <c r="A96" s="2" t="s">
         <v>149</v>
       </c>
@@ -7157,7 +7142,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="29.25">
       <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
@@ -7194,7 +7179,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="29.25">
       <c r="A98" s="2" t="s">
         <v>149</v>
       </c>
@@ -7231,7 +7216,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="29.25">
       <c r="A99" s="2" t="s">
         <v>149</v>
       </c>
@@ -7272,7 +7257,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="29.25">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -7313,7 +7298,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="29.25">
       <c r="A101" s="2" t="s">
         <v>149</v>
       </c>
@@ -7354,7 +7339,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="29.25">
       <c r="A102" s="2" t="s">
         <v>149</v>
       </c>
@@ -7395,7 +7380,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="29.25">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -7436,7 +7421,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="29.25">
       <c r="A104" s="2" t="s">
         <v>149</v>
       </c>
@@ -7477,7 +7462,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="29.25">
       <c r="A105" s="2" t="s">
         <v>149</v>
       </c>
@@ -7514,7 +7499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>149</v>
       </c>
@@ -7571,7 +7556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -7628,7 +7613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -7685,7 +7670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="29.25">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -7722,7 +7707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="29.25">
       <c r="A110" s="2" t="s">
         <v>149</v>
       </c>
@@ -7759,7 +7744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="29.25">
       <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
@@ -7796,7 +7781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="39">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
@@ -7841,7 +7826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="29.25">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -7888,7 +7873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="58.5">
       <c r="A114" s="2" t="s">
         <v>149</v>
       </c>
@@ -7935,7 +7920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="58.5">
       <c r="A115" s="2" t="s">
         <v>149</v>
       </c>
@@ -7982,7 +7967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="68.25">
       <c r="A116" s="2" t="s">
         <v>149</v>
       </c>
@@ -8029,7 +8014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -8076,7 +8061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="39">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -8121,7 +8106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="29.25">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -8168,7 +8153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="58.5">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
@@ -8215,7 +8200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="58.5">
       <c r="A121" s="2" t="s">
         <v>149</v>
       </c>
@@ -8262,7 +8247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="68.25">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -8309,7 +8294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="29.25">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
@@ -8356,7 +8341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="39">
       <c r="A124" s="2" t="s">
         <v>149</v>
       </c>
@@ -8395,7 +8380,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="39">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -8434,7 +8419,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="39">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -8491,7 +8476,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="29.25">
       <c r="A127" s="2" t="s">
         <v>149</v>
       </c>
@@ -8526,7 +8511,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="29.25">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -8561,7 +8546,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -8596,7 +8581,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -8631,7 +8616,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8666,7 +8651,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="29.25">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -8701,7 +8686,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="29.25">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -8736,7 +8721,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="29.25">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -8771,7 +8756,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="29.25">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -8806,7 +8791,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="29.25">
       <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
@@ -8841,7 +8826,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="29.25">
       <c r="A137" s="2" t="s">
         <v>149</v>
       </c>
@@ -8876,7 +8861,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="29.25">
       <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
@@ -8911,7 +8896,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="29.25">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
@@ -8946,7 +8931,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="29.25">
       <c r="A140" s="2" t="s">
         <v>149</v>
       </c>
@@ -8981,7 +8966,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="29.25">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -9016,7 +9001,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="29.25">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -9051,7 +9036,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="48.75">
       <c r="A143" s="2" t="s">
         <v>149</v>
       </c>
@@ -9110,7 +9095,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="68.25">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -9169,7 +9154,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="68.25">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -9204,7 +9189,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="68.25">
       <c r="A146" s="2" t="s">
         <v>149</v>
       </c>
@@ -9239,7 +9224,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="68.25">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -9298,7 +9283,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="68.25">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -9357,7 +9342,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="68.25">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -9416,7 +9401,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="19.5">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -9467,7 +9452,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="48.75">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -9522,7 +9507,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="48.75">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -9577,7 +9562,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="48.75">
       <c r="A153" s="2" t="s">
         <v>149</v>
       </c>
@@ -9632,7 +9617,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="48.75">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -9687,7 +9672,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="39">
       <c r="A155" s="2" t="s">
         <v>204</v>
       </c>
@@ -9722,7 +9707,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="29.25">
       <c r="A156" s="2" t="s">
         <v>204</v>
       </c>
@@ -9779,7 +9764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="29.25">
       <c r="A157" s="2" t="s">
         <v>204</v>
       </c>
@@ -9814,7 +9799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="29.25">
       <c r="A158" s="2" t="s">
         <v>204</v>
       </c>
@@ -9849,7 +9834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="29.25">
       <c r="A159" s="2" t="s">
         <v>204</v>
       </c>
@@ -9884,7 +9869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="29.25">
       <c r="A160" s="2" t="s">
         <v>204</v>
       </c>
@@ -9919,7 +9904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="29.25">
       <c r="A161" s="2" t="s">
         <v>204</v>
       </c>
@@ -9954,7 +9939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="19.5">
       <c r="A162" s="2" t="s">
         <v>204</v>
       </c>
@@ -9989,7 +9974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="19.5">
       <c r="A163" s="2" t="s">
         <v>204</v>
       </c>
@@ -10024,7 +10009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="19.5">
       <c r="A164" s="2" t="s">
         <v>204</v>
       </c>
@@ -10059,7 +10044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="19.5">
       <c r="A165" s="2" t="s">
         <v>204</v>
       </c>
@@ -10094,7 +10079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="19.5">
       <c r="A166" s="2" t="s">
         <v>204</v>
       </c>
@@ -10129,7 +10114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="19.5">
       <c r="A167" s="2" t="s">
         <v>204</v>
       </c>
@@ -10164,7 +10149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>204</v>
       </c>
@@ -10199,7 +10184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>204</v>
       </c>
@@ -10234,7 +10219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="39">
       <c r="A170" s="2" t="s">
         <v>204</v>
       </c>
@@ -10273,7 +10258,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="39">
       <c r="A171" s="2" t="s">
         <v>204</v>
       </c>
@@ -10312,7 +10297,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="39">
       <c r="A172" s="2" t="s">
         <v>204</v>
       </c>
@@ -10367,7 +10352,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="39">
       <c r="A173" s="2" t="s">
         <v>204</v>
       </c>
@@ -10422,7 +10407,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="39">
       <c r="A174" s="2" t="s">
         <v>204</v>
       </c>
@@ -10477,7 +10462,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="39">
       <c r="A175" s="2" t="s">
         <v>204</v>
       </c>
@@ -10532,7 +10517,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="39">
       <c r="A176" s="2" t="s">
         <v>204</v>
       </c>
@@ -10587,7 +10572,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="39">
       <c r="A177" s="2" t="s">
         <v>204</v>
       </c>
@@ -10632,7 +10617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="68.25">
       <c r="A178" s="2" t="s">
         <v>204</v>
       </c>
@@ -10677,7 +10662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="48.75">
       <c r="A179" s="2" t="s">
         <v>204</v>
       </c>
@@ -10722,7 +10707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="39">
       <c r="A180" s="2" t="s">
         <v>204</v>
       </c>
@@ -10767,7 +10752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="39">
       <c r="A181" s="2" t="s">
         <v>204</v>
       </c>
@@ -10812,7 +10797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="39">
       <c r="A182" s="2" t="s">
         <v>204</v>
       </c>
@@ -10857,7 +10842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="68.25">
       <c r="A183" s="2" t="s">
         <v>204</v>
       </c>
@@ -10902,7 +10887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="39">
       <c r="A184" s="2" t="s">
         <v>204</v>
       </c>
@@ -10941,7 +10926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="39">
       <c r="A185" s="2" t="s">
         <v>204</v>
       </c>
@@ -10980,7 +10965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="39">
       <c r="A186" s="2" t="s">
         <v>204</v>
       </c>
@@ -11019,7 +11004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="39">
       <c r="A187" s="2" t="s">
         <v>204</v>
       </c>
@@ -11058,7 +11043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="39">
       <c r="A188" s="2" t="s">
         <v>204</v>
       </c>
@@ -11097,7 +11082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="39">
       <c r="A189" s="2" t="s">
         <v>204</v>
       </c>
@@ -11136,7 +11121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="39">
       <c r="A190" s="2" t="s">
         <v>204</v>
       </c>
@@ -11175,7 +11160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="39">
       <c r="A191" s="2" t="s">
         <v>204</v>
       </c>
@@ -11214,7 +11199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="39">
       <c r="A192" s="2" t="s">
         <v>204</v>
       </c>
@@ -11253,7 +11238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="39">
       <c r="A193" s="2" t="s">
         <v>204</v>
       </c>
@@ -11292,7 +11277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="39">
       <c r="A194" s="2" t="s">
         <v>204</v>
       </c>
@@ -11331,7 +11316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="39">
       <c r="A195" s="2" t="s">
         <v>204</v>
       </c>
@@ -11370,7 +11355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="29.25">
       <c r="A196" s="2" t="s">
         <v>204</v>
       </c>
@@ -11411,7 +11396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="19.5">
       <c r="A197" s="2" t="s">
         <v>204</v>
       </c>
@@ -11462,7 +11447,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="19.5">
       <c r="A198" s="2" t="s">
         <v>204</v>
       </c>
@@ -11513,7 +11498,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="19.5">
       <c r="A199" s="2" t="s">
         <v>243</v>
       </c>
@@ -11570,7 +11555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>243</v>
       </c>
@@ -11627,7 +11612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="19.5">
       <c r="A201" s="2" t="s">
         <v>243</v>
       </c>
@@ -11682,7 +11667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="19.5">
       <c r="A202" s="2" t="s">
         <v>243</v>
       </c>
@@ -11717,7 +11702,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="19.5">
       <c r="A203" s="2" t="s">
         <v>243</v>
       </c>
@@ -11752,7 +11737,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>243</v>
       </c>
@@ -11807,7 +11792,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="19.5">
       <c r="A205" s="2" t="s">
         <v>243</v>
       </c>
@@ -11862,7 +11847,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="29.25">
       <c r="A206" s="2" t="s">
         <v>243</v>
       </c>
@@ -11907,7 +11892,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="19.5">
       <c r="A207" s="2" t="s">
         <v>243</v>
       </c>
@@ -11962,7 +11947,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>243</v>
       </c>
@@ -12013,7 +11998,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="48.75">
       <c r="A209" s="2" t="s">
         <v>243</v>
       </c>
@@ -12068,7 +12053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="19.5">
       <c r="A210" s="2" t="s">
         <v>264</v>
       </c>
@@ -12103,7 +12088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="19.5">
       <c r="A211" s="2" t="s">
         <v>264</v>
       </c>
@@ -12158,7 +12143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="39">
       <c r="A212" s="2" t="s">
         <v>264</v>
       </c>
@@ -12213,7 +12198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="19.5">
       <c r="A213" s="2" t="s">
         <v>264</v>
       </c>
@@ -12264,7 +12249,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>270</v>
       </c>
@@ -12321,7 +12306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>270</v>
       </c>
@@ -12378,7 +12363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>270</v>
       </c>
@@ -12417,7 +12402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>270</v>
       </c>
@@ -12456,7 +12441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="29.25">
       <c r="A218" s="2" t="s">
         <v>270</v>
       </c>
@@ -12495,7 +12480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>270</v>
       </c>
@@ -12552,7 +12537,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>270</v>
       </c>
@@ -12609,7 +12594,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>270</v>
       </c>
@@ -12666,7 +12651,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>270</v>
       </c>
@@ -12711,7 +12696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>270</v>
       </c>
@@ -12756,7 +12741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>270</v>
       </c>
@@ -12801,7 +12786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="58.5">
       <c r="A225" s="2" t="s">
         <v>270</v>
       </c>
@@ -12846,7 +12831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>270</v>
       </c>
@@ -12891,7 +12876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>270</v>
       </c>
@@ -12936,7 +12921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>270</v>
       </c>
@@ -12981,7 +12966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>270</v>
       </c>
@@ -13026,7 +13011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="39">
       <c r="A230" s="2" t="s">
         <v>270</v>
       </c>
@@ -13071,7 +13056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>270</v>
       </c>
@@ -13116,7 +13101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="39">
       <c r="A232" s="2" t="s">
         <v>270</v>
       </c>
@@ -13161,7 +13146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>270</v>
       </c>
@@ -13206,7 +13191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>270</v>
       </c>
@@ -13251,7 +13236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>270</v>
       </c>
@@ -13296,7 +13281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>270</v>
       </c>
@@ -13341,7 +13326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>270</v>
       </c>
@@ -13386,7 +13371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>270</v>
       </c>
@@ -13431,7 +13416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>270</v>
       </c>
@@ -13476,7 +13461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>270</v>
       </c>
@@ -13521,7 +13506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>270</v>
       </c>
@@ -13578,7 +13563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>270</v>
       </c>
@@ -13635,7 +13620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>270</v>
       </c>
@@ -13692,7 +13677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>270</v>
       </c>
@@ -13749,7 +13734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>270</v>
       </c>
@@ -13806,7 +13791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>270</v>
       </c>
@@ -13863,7 +13848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>270</v>
       </c>
@@ -13920,7 +13905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>270</v>
       </c>
@@ -13977,7 +13962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>270</v>
       </c>
@@ -14034,7 +14019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>270</v>
       </c>
@@ -14091,7 +14076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>270</v>
       </c>
@@ -14146,7 +14131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>270</v>
       </c>
@@ -14201,7 +14186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="39">
       <c r="A253" s="2" t="s">
         <v>270</v>
       </c>
@@ -14242,7 +14227,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="39">
       <c r="A254" s="2" t="s">
         <v>270</v>
       </c>
@@ -14283,7 +14268,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="39">
       <c r="A255" s="2" t="s">
         <v>270</v>
       </c>
@@ -14324,7 +14309,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="29.25">
       <c r="A256" s="2" t="s">
         <v>270</v>
       </c>
@@ -14381,7 +14366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="39">
       <c r="A257" s="2" t="s">
         <v>270</v>
       </c>
@@ -14438,7 +14423,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="29.25">
       <c r="A258" s="2" t="s">
         <v>270</v>
       </c>
@@ -14473,7 +14458,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="29.25">
       <c r="A259" s="2" t="s">
         <v>270</v>
       </c>
@@ -14508,7 +14493,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="29.25">
       <c r="A260" s="2" t="s">
         <v>270</v>
       </c>
@@ -14543,7 +14528,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="29.25">
       <c r="A261" s="2" t="s">
         <v>270</v>
       </c>
@@ -14578,7 +14563,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="29.25">
       <c r="A262" s="2" t="s">
         <v>270</v>
       </c>
@@ -14613,7 +14598,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="29.25">
       <c r="A263" s="2" t="s">
         <v>270</v>
       </c>
@@ -14648,7 +14633,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="29.25">
       <c r="A264" s="2" t="s">
         <v>270</v>
       </c>
@@ -14683,7 +14668,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="29.25">
       <c r="A265" s="2" t="s">
         <v>270</v>
       </c>
@@ -14718,7 +14703,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="29.25">
       <c r="A266" s="2" t="s">
         <v>270</v>
       </c>
@@ -14769,7 +14754,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="39">
       <c r="A267" s="2" t="s">
         <v>314</v>
       </c>
@@ -14826,7 +14811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="39">
       <c r="A268" s="2" t="s">
         <v>314</v>
       </c>
@@ -14883,7 +14868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="39">
       <c r="A269" s="2" t="s">
         <v>314</v>
       </c>
@@ -14940,7 +14925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="39">
       <c r="A270" s="2" t="s">
         <v>314</v>
       </c>
@@ -14997,7 +14982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="39">
       <c r="A271" s="2" t="s">
         <v>314</v>
       </c>
@@ -15054,7 +15039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="39">
       <c r="A272" s="2" t="s">
         <v>314</v>
       </c>
@@ -15111,7 +15096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="39">
       <c r="A273" s="2" t="s">
         <v>314</v>
       </c>
@@ -15168,7 +15153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="39">
       <c r="A274" s="2" t="s">
         <v>314</v>
       </c>
@@ -15225,7 +15210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="39">
       <c r="A275" s="2" t="s">
         <v>314</v>
       </c>
@@ -15282,7 +15267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="39">
       <c r="A276" s="2" t="s">
         <v>314</v>
       </c>
@@ -15339,7 +15324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="39">
       <c r="A277" s="2" t="s">
         <v>314</v>
       </c>
@@ -15396,7 +15381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="39">
       <c r="A278" s="2" t="s">
         <v>314</v>
       </c>
@@ -15453,7 +15438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="39">
       <c r="A279" s="2" t="s">
         <v>314</v>
       </c>
@@ -15508,7 +15493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="39">
       <c r="A280" s="2" t="s">
         <v>314</v>
       </c>
@@ -15563,7 +15548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="39">
       <c r="A281" s="2" t="s">
         <v>314</v>
       </c>
@@ -15618,7 +15603,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="39">
       <c r="A282" s="2" t="s">
         <v>314</v>
       </c>
@@ -15673,7 +15658,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="39">
       <c r="A283" s="2" t="s">
         <v>314</v>
       </c>
@@ -15728,7 +15713,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="39">
       <c r="A284" s="2" t="s">
         <v>314</v>
       </c>
@@ -15783,7 +15768,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="39">
       <c r="A285" s="2" t="s">
         <v>314</v>
       </c>
@@ -15838,7 +15823,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="39">
       <c r="A286" s="2" t="s">
         <v>314</v>
       </c>
@@ -15893,7 +15878,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="39">
       <c r="A287" s="2" t="s">
         <v>314</v>
       </c>
@@ -15944,7 +15929,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="39">
       <c r="A288" s="2" t="s">
         <v>314</v>
       </c>
@@ -15999,7 +15984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="39">
       <c r="A289" s="2" t="s">
         <v>314</v>
       </c>
@@ -16054,7 +16039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="39">
       <c r="A290" s="2" t="s">
         <v>314</v>
       </c>
@@ -16105,7 +16090,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="39">
       <c r="A291" s="2" t="s">
         <v>314</v>
       </c>
@@ -16158,7 +16143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="48.75">
       <c r="A292" s="2" t="s">
         <v>314</v>
       </c>
@@ -16207,7 +16192,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="48.75">
       <c r="A293" s="2" t="s">
         <v>314</v>
       </c>
@@ -16256,7 +16241,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="19.5">
       <c r="A294" s="2" t="s">
         <v>346</v>
       </c>
@@ -16311,7 +16296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="58.5">
       <c r="A295" s="2" t="s">
         <v>346</v>
       </c>
@@ -16366,7 +16351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="19.5">
       <c r="A296" s="2" t="s">
         <v>346</v>
       </c>
@@ -16421,7 +16406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="19.5">
       <c r="A297" s="2" t="s">
         <v>346</v>
       </c>
@@ -16476,7 +16461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>346</v>
       </c>
@@ -16531,7 +16516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="19.5">
       <c r="A299" s="2" t="s">
         <v>346</v>
       </c>
@@ -16586,7 +16571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="19.5">
       <c r="A300" s="2" t="s">
         <v>346</v>
       </c>
@@ -16641,7 +16626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="19.5">
       <c r="A301" s="2" t="s">
         <v>346</v>
       </c>
@@ -16696,7 +16681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="19.5">
       <c r="A302" s="2" t="s">
         <v>346</v>
       </c>
@@ -16751,7 +16736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="19.5">
       <c r="A303" s="2" t="s">
         <v>346</v>
       </c>
@@ -16806,7 +16791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="19.5">
       <c r="A304" s="2" t="s">
         <v>346</v>
       </c>
@@ -16861,7 +16846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="19.5">
       <c r="A305" s="2" t="s">
         <v>346</v>
       </c>
@@ -16900,7 +16885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="19.5">
       <c r="A306" s="2" t="s">
         <v>346</v>
       </c>
@@ -16955,7 +16940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="78">
       <c r="A307" s="2" t="s">
         <v>346</v>
       </c>
@@ -17010,7 +16995,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="48.75">
       <c r="A308" s="2" t="s">
         <v>346</v>
       </c>
@@ -17065,7 +17050,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="78">
       <c r="A309" s="2" t="s">
         <v>346</v>
       </c>
@@ -17120,7 +17105,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="48.75">
       <c r="A310" s="2" t="s">
         <v>346</v>
       </c>
@@ -17175,7 +17160,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="48.75">
       <c r="A311" s="2" t="s">
         <v>346</v>
       </c>
@@ -17230,7 +17215,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="58.5">
       <c r="A312" s="2" t="s">
         <v>346</v>
       </c>
@@ -17285,7 +17270,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="39">
       <c r="A313" s="2" t="s">
         <v>346</v>
       </c>
@@ -17340,7 +17325,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="39">
       <c r="A314" s="2" t="s">
         <v>346</v>
       </c>
@@ -17395,7 +17380,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="58.5">
       <c r="A315" s="2" t="s">
         <v>346</v>
       </c>
@@ -17450,7 +17435,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="58.5">
       <c r="A316" s="2" t="s">
         <v>346</v>
       </c>
@@ -17505,7 +17490,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="39">
       <c r="A317" s="2" t="s">
         <v>346</v>
       </c>
@@ -17560,7 +17545,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="48.75">
       <c r="A318" s="2" t="s">
         <v>346</v>
       </c>
@@ -17615,7 +17600,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="29.25">
       <c r="A319" s="2" t="s">
         <v>346</v>
       </c>
@@ -17672,7 +17657,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="48.75">
       <c r="A320" s="2" t="s">
         <v>346</v>
       </c>
@@ -17729,7 +17714,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="48.75">
       <c r="A321" s="2" t="s">
         <v>346</v>
       </c>
@@ -17786,7 +17771,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="78">
       <c r="A322" s="2" t="s">
         <v>346</v>
       </c>
@@ -17843,7 +17828,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="97.5">
       <c r="A323" s="2" t="s">
         <v>346</v>
       </c>
@@ -17900,7 +17885,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="78">
       <c r="A324" s="2" t="s">
         <v>346</v>
       </c>
@@ -17957,7 +17942,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="87.75">
       <c r="A325" s="2" t="s">
         <v>346</v>
       </c>
@@ -18014,7 +17999,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="48.75">
       <c r="A326" s="2" t="s">
         <v>346</v>
       </c>
@@ -18069,7 +18054,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="78">
       <c r="A327" s="2" t="s">
         <v>346</v>
       </c>
@@ -18124,7 +18109,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="87.75">
       <c r="A328" s="2" t="s">
         <v>346</v>
       </c>
@@ -18179,7 +18164,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="78">
       <c r="A329" s="2" t="s">
         <v>346</v>
       </c>
@@ -18234,7 +18219,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="87.75">
       <c r="A330" s="2" t="s">
         <v>346</v>
       </c>
@@ -18289,7 +18274,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="39">
       <c r="A331" s="2" t="s">
         <v>385</v>
       </c>
@@ -18344,7 +18329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="39">
       <c r="A332" s="2" t="s">
         <v>385</v>
       </c>
@@ -18399,7 +18384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="39">
       <c r="A333" s="2" t="s">
         <v>385</v>
       </c>
@@ -18454,7 +18439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="39">
       <c r="A334" s="2" t="s">
         <v>385</v>
       </c>
@@ -18511,7 +18496,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="39">
       <c r="A335" s="2" t="s">
         <v>385</v>
       </c>
@@ -18568,7 +18553,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="39">
       <c r="A336" s="2" t="s">
         <v>385</v>
       </c>
@@ -18625,7 +18610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="39">
       <c r="A337" s="2" t="s">
         <v>385</v>
       </c>
@@ -18682,7 +18667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="39">
       <c r="A338" s="2" t="s">
         <v>385</v>
       </c>
@@ -18739,7 +18724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="39">
       <c r="A339" s="2" t="s">
         <v>385</v>
       </c>
@@ -18796,7 +18781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="39">
       <c r="A340" s="2" t="s">
         <v>385</v>
       </c>
@@ -18851,7 +18836,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="39">
       <c r="A341" s="2" t="s">
         <v>385</v>
       </c>
@@ -18906,7 +18891,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="39">
       <c r="A342" s="2" t="s">
         <v>385</v>
       </c>
@@ -18961,7 +18946,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="39">
       <c r="A343" s="2" t="s">
         <v>385</v>
       </c>
@@ -19016,7 +19001,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="39">
       <c r="A344" s="2" t="s">
         <v>385</v>
       </c>
@@ -19071,7 +19056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="39">
       <c r="A345" s="2" t="s">
         <v>385</v>
       </c>
@@ -19126,7 +19111,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="39">
       <c r="A346" s="2" t="s">
         <v>385</v>
       </c>
@@ -19181,7 +19166,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="39">
       <c r="A347" s="2" t="s">
         <v>385</v>
       </c>
@@ -19236,7 +19221,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="39">
       <c r="A348" s="2" t="s">
         <v>385</v>
       </c>
@@ -19291,7 +19276,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="39">
       <c r="A349" s="2" t="s">
         <v>385</v>
       </c>
@@ -19346,7 +19331,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="39">
       <c r="A350" s="2" t="s">
         <v>385</v>
       </c>
@@ -19401,7 +19386,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="39">
       <c r="A351" s="2" t="s">
         <v>385</v>
       </c>
@@ -19456,7 +19441,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="39">
       <c r="A352" s="2" t="s">
         <v>385</v>
       </c>
@@ -19511,7 +19496,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="39">
       <c r="A353" s="2" t="s">
         <v>385</v>
       </c>
@@ -19566,7 +19551,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="39">
       <c r="A354" s="2" t="s">
         <v>385</v>
       </c>
@@ -19621,7 +19606,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="39">
       <c r="A355" s="2" t="s">
         <v>385</v>
       </c>
@@ -19676,7 +19661,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="39">
       <c r="A356" s="2" t="s">
         <v>385</v>
       </c>
@@ -19731,7 +19716,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="39">
       <c r="A357" s="2" t="s">
         <v>385</v>
       </c>
@@ -19786,7 +19771,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="39">
       <c r="A358" s="2" t="s">
         <v>385</v>
       </c>
@@ -19839,7 +19824,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="39">
       <c r="A359" s="2" t="s">
         <v>385</v>
       </c>
@@ -19894,7 +19879,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="39">
       <c r="A360" s="2" t="s">
         <v>385</v>
       </c>
@@ -19949,7 +19934,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="39">
       <c r="A361" s="2" t="s">
         <v>385</v>
       </c>
@@ -20004,7 +19989,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="39">
       <c r="A362" s="2" t="s">
         <v>385</v>
       </c>
@@ -20059,7 +20044,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="39">
       <c r="A363" s="2" t="s">
         <v>385</v>
       </c>
@@ -20114,7 +20099,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="39">
       <c r="A364" s="2" t="s">
         <v>385</v>
       </c>
@@ -20171,7 +20156,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="39">
       <c r="A365" s="2" t="s">
         <v>385</v>
       </c>
@@ -20228,7 +20213,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="39">
       <c r="A366" s="2" t="s">
         <v>385</v>
       </c>
@@ -20285,7 +20270,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="39">
       <c r="A367" s="2" t="s">
         <v>385</v>
       </c>
@@ -20342,7 +20327,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="39">
       <c r="A368" s="2" t="s">
         <v>385</v>
       </c>
@@ -20399,7 +20384,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="39">
       <c r="A369" s="2" t="s">
         <v>385</v>
       </c>
@@ -20456,7 +20441,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="39">
       <c r="A370" s="2" t="s">
         <v>385</v>
       </c>
@@ -20513,7 +20498,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="39">
       <c r="A371" s="2" t="s">
         <v>385</v>
       </c>
@@ -20570,7 +20555,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="39">
       <c r="A372" s="2" t="s">
         <v>418</v>
       </c>
@@ -20627,7 +20612,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="39">
       <c r="A373" s="2" t="s">
         <v>418</v>
       </c>
@@ -20684,7 +20669,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="39">
       <c r="A374" s="2" t="s">
         <v>418</v>
       </c>
@@ -20741,7 +20726,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="58.5">
       <c r="A375" s="2" t="s">
         <v>418</v>
       </c>
@@ -20796,7 +20781,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="39">
       <c r="A376" s="2" t="s">
         <v>418</v>
       </c>
@@ -20841,7 +20826,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="39">
       <c r="A377" s="2" t="s">
         <v>418</v>
       </c>
@@ -20886,7 +20871,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="39">
       <c r="A378" s="2" t="s">
         <v>418</v>
       </c>
@@ -20931,7 +20916,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="39">
       <c r="A379" s="2" t="s">
         <v>418</v>
       </c>
@@ -20984,7 +20969,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="39">
       <c r="A380" s="2" t="s">
         <v>418</v>
       </c>
@@ -21027,7 +21012,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="39">
       <c r="A381" s="2" t="s">
         <v>418</v>
       </c>
@@ -21084,7 +21069,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="48.75">
       <c r="A382" s="2" t="s">
         <v>418</v>
       </c>
@@ -21143,7 +21128,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="39">
       <c r="A383" s="2" t="s">
         <v>436</v>
       </c>
@@ -21200,7 +21185,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="39">
       <c r="A384" s="2" t="s">
         <v>436</v>
       </c>
@@ -21257,7 +21242,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="48.75">
       <c r="A385" s="2" t="s">
         <v>436</v>
       </c>
@@ -21314,7 +21299,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="48.75">
       <c r="A386" s="2" t="s">
         <v>436</v>
       </c>
@@ -21369,7 +21354,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="48.75">
       <c r="A387" s="2" t="s">
         <v>436</v>
       </c>
@@ -21428,7 +21413,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="19.5">
       <c r="A388" s="2" t="s">
         <v>436</v>
       </c>
@@ -21479,7 +21464,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="68.25">
       <c r="A389" s="2" t="s">
         <v>446</v>
       </c>
@@ -21536,7 +21521,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="78">
       <c r="A390" s="2" t="s">
         <v>446</v>
       </c>
@@ -21593,7 +21578,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="78">
       <c r="A391" s="2" t="s">
         <v>446</v>
       </c>
@@ -21650,7 +21635,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="68.25">
       <c r="A392" s="2" t="s">
         <v>446</v>
       </c>
@@ -21707,7 +21692,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="48.75">
       <c r="A393" s="2" t="s">
         <v>446</v>
       </c>
@@ -21762,7 +21747,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="19.5">
       <c r="A394" s="2" t="s">
         <v>456</v>
       </c>
@@ -21817,7 +21802,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="19.5">
       <c r="A395" s="2" t="s">
         <v>456</v>
       </c>
@@ -21872,7 +21857,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="39">
       <c r="A396" s="2" t="s">
         <v>456</v>
       </c>
@@ -21929,7 +21914,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="19.5">
       <c r="A397" s="2" t="s">
         <v>456</v>
       </c>
@@ -21968,7 +21953,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="19.5">
       <c r="A398" s="2" t="s">
         <v>456</v>
       </c>
@@ -22001,7 +21986,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="19.5">
       <c r="A399" s="2" t="s">
         <v>456</v>
       </c>
@@ -22034,7 +22019,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="19.5">
       <c r="A400" s="2" t="s">
         <v>456</v>
       </c>
@@ -22067,7 +22052,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="19.5">
       <c r="A401" s="2" t="s">
         <v>456</v>
       </c>
@@ -22106,7 +22091,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="19.5">
       <c r="A402" s="2" t="s">
         <v>456</v>
       </c>
@@ -22145,7 +22130,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="19.5">
       <c r="A403" s="2" t="s">
         <v>456</v>
       </c>
@@ -22184,7 +22169,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="39">
       <c r="A404" s="2" t="s">
         <v>456</v>
       </c>
@@ -22241,7 +22226,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="19.5">
       <c r="A405" s="2" t="s">
         <v>456</v>
       </c>
@@ -22298,7 +22283,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="29.25">
       <c r="A406" s="2" t="s">
         <v>456</v>
       </c>
@@ -22355,7 +22340,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="29.25">
       <c r="A407" s="2" t="s">
         <v>456</v>
       </c>
@@ -22406,7 +22391,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="29.25">
       <c r="A408" s="2" t="s">
         <v>456</v>
       </c>
@@ -22457,7 +22442,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="19.5">
       <c r="A409" s="2" t="s">
         <v>456</v>
       </c>
@@ -22514,7 +22499,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="29.25">
       <c r="A410" s="2" t="s">
         <v>477</v>
       </c>
@@ -22569,7 +22554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="29.25">
       <c r="A411" s="2" t="s">
         <v>477</v>
       </c>
@@ -22626,7 +22611,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="29.25">
       <c r="A412" s="2" t="s">
         <v>477</v>
       </c>
@@ -22669,7 +22654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="29.25">
       <c r="A413" s="2" t="s">
         <v>477</v>
       </c>
@@ -22720,7 +22705,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="29.25">
       <c r="A414" s="2" t="s">
         <v>477</v>
       </c>
@@ -22765,7 +22750,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="29.25">
       <c r="A415" s="2" t="s">
         <v>477</v>
       </c>
@@ -22810,7 +22795,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="29.25">
       <c r="A416" s="2" t="s">
         <v>477</v>
       </c>
@@ -22855,7 +22840,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="29.25">
       <c r="A417" s="2" t="s">
         <v>477</v>
       </c>
@@ -22900,7 +22885,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="29.25">
       <c r="A418" s="2" t="s">
         <v>477</v>
       </c>
@@ -22945,7 +22930,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="29.25">
       <c r="A419" s="2" t="s">
         <v>477</v>
       </c>
@@ -22990,7 +22975,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="39">
       <c r="A420" s="2" t="s">
         <v>477</v>
       </c>
@@ -23035,7 +23020,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="39">
       <c r="A421" s="2" t="s">
         <v>477</v>
       </c>
@@ -23080,7 +23065,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="39">
       <c r="A422" s="2" t="s">
         <v>477</v>
       </c>
@@ -23125,7 +23110,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="39">
       <c r="A423" s="2" t="s">
         <v>477</v>
       </c>
@@ -23170,7 +23155,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="39">
       <c r="A424" s="2" t="s">
         <v>477</v>
       </c>
@@ -23225,7 +23210,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="39">
       <c r="A425" s="2" t="s">
         <v>477</v>
       </c>
@@ -23280,7 +23265,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="39">
       <c r="A426" s="2" t="s">
         <v>477</v>
       </c>
@@ -23335,7 +23320,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="39">
       <c r="A427" s="2" t="s">
         <v>477</v>
       </c>
@@ -23390,7 +23375,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="39">
       <c r="A428" s="2" t="s">
         <v>477</v>
       </c>
@@ -23445,7 +23430,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="29.25">
       <c r="A429" s="2" t="s">
         <v>477</v>
       </c>
@@ -23502,7 +23487,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="29.25">
       <c r="A430" s="2" t="s">
         <v>477</v>
       </c>
@@ -23541,7 +23526,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="29.25">
       <c r="A431" s="2" t="s">
         <v>477</v>
       </c>
@@ -23580,7 +23565,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="29.25">
       <c r="A432" s="2" t="s">
         <v>477</v>
       </c>
@@ -23619,7 +23604,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="29.25">
       <c r="A433" s="2" t="s">
         <v>477</v>
       </c>
@@ -23658,7 +23643,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="29.25">
       <c r="A434" s="2" t="s">
         <v>477</v>
       </c>
@@ -23697,7 +23682,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="29.25">
       <c r="A435" s="2" t="s">
         <v>477</v>
       </c>
@@ -23736,7 +23721,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="29.25">
       <c r="A436" s="2" t="s">
         <v>477</v>
       </c>
@@ -23775,7 +23760,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="29.25">
       <c r="A437" s="2" t="s">
         <v>477</v>
       </c>
@@ -23814,7 +23799,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="29.25">
       <c r="A438" s="2" t="s">
         <v>477</v>
       </c>
@@ -23853,7 +23838,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="29.25">
       <c r="A439" s="2" t="s">
         <v>477</v>
       </c>
@@ -23892,7 +23877,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="29.25">
       <c r="A440" s="2" t="s">
         <v>477</v>
       </c>
@@ -23931,7 +23916,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="29.25">
       <c r="A441" s="2" t="s">
         <v>477</v>
       </c>
@@ -23970,7 +23955,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="29.25">
       <c r="A442" s="2" t="s">
         <v>477</v>
       </c>
@@ -24027,7 +24012,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="29.25">
       <c r="A443" s="2" t="s">
         <v>477</v>
       </c>
@@ -24066,7 +24051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="19.5">
       <c r="A444" s="2" t="s">
         <v>512</v>
       </c>
@@ -24123,7 +24108,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="19.5">
       <c r="A445" s="2" t="s">
         <v>512</v>
       </c>
@@ -24180,7 +24165,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="19.5">
       <c r="A446" s="2" t="s">
         <v>512</v>
       </c>
@@ -24237,7 +24222,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="29.25">
       <c r="A447" s="2" t="s">
         <v>512</v>
       </c>
@@ -24294,7 +24279,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="29.25">
       <c r="A448" s="2" t="s">
         <v>512</v>
       </c>
@@ -24351,7 +24336,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="19.5">
       <c r="A449" s="2" t="s">
         <v>512</v>
       </c>
@@ -24408,7 +24393,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="29.25">
       <c r="A450" s="2" t="s">
         <v>512</v>
       </c>
@@ -24465,7 +24450,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="29.25">
       <c r="A451" s="2" t="s">
         <v>512</v>
       </c>
@@ -24522,7 +24507,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="29.25">
       <c r="A452" s="2" t="s">
         <v>512</v>
       </c>
@@ -24579,7 +24564,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="29.25">
       <c r="A453" s="2" t="s">
         <v>512</v>
       </c>
@@ -24636,7 +24621,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="19.5">
       <c r="A454" s="2" t="s">
         <v>512</v>
       </c>
@@ -24693,7 +24678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="19.5">
       <c r="A455" s="2" t="s">
         <v>512</v>
       </c>
@@ -24750,7 +24735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="19.5">
       <c r="A456" s="2" t="s">
         <v>512</v>
       </c>
@@ -24807,7 +24792,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="29.25">
       <c r="A457" s="2" t="s">
         <v>512</v>
       </c>
@@ -24864,7 +24849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="29.25">
       <c r="A458" s="2" t="s">
         <v>512</v>
       </c>
@@ -24921,7 +24906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="39">
       <c r="A459" s="2" t="s">
         <v>512</v>
       </c>
@@ -24978,7 +24963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="19.5">
       <c r="A460" s="2" t="s">
         <v>512</v>
       </c>
@@ -25035,7 +25020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="58.5">
       <c r="A461" s="2" t="s">
         <v>512</v>
       </c>
@@ -25092,7 +25077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="58.5">
       <c r="A462" s="2" t="s">
         <v>512</v>
       </c>
@@ -25149,7 +25134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="29.25">
       <c r="A463" s="2" t="s">
         <v>512</v>
       </c>
@@ -25192,7 +25177,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="29.25">
       <c r="A464" s="2" t="s">
         <v>512</v>
       </c>
@@ -25249,7 +25234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="29.25">
       <c r="A465" s="2" t="s">
         <v>512</v>
       </c>
@@ -25306,7 +25291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="29.25">
       <c r="A466" s="2" t="s">
         <v>512</v>
       </c>
@@ -25357,7 +25342,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="48.75">
       <c r="A467" s="2" t="s">
         <v>512</v>
       </c>
@@ -25394,7 +25379,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="48.75">
       <c r="A468" s="2" t="s">
         <v>512</v>
       </c>
@@ -25451,7 +25436,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="48.75">
       <c r="A469" s="2" t="s">
         <v>512</v>
       </c>
@@ -25508,9 +25493,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A472" s="12" t="s">
         <v>549</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1667,7 +1667,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 15-11-2022, 08:47</t>
+    <t>Ostatnia aktualizacja: 13-12-2022, 09:50</t>
   </si>
 </sst>
 </file>
@@ -3600,7 +3600,9 @@
       <c r="P28" s="7">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="Q28" s="3"/>
+      <c r="Q28" s="7">
+        <v>9.0000000000000006E-5</v>
+      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="2" t="s">
         <v>60</v>
@@ -11521,7 +11523,7 @@
         <v>87.6</v>
       </c>
       <c r="H199" s="4">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="I199" s="4">
         <v>88</v>
@@ -11539,16 +11541,16 @@
         <v>92</v>
       </c>
       <c r="N199" s="4">
-        <v>92.1</v>
+        <v>92</v>
       </c>
       <c r="O199" s="4">
         <v>92.2</v>
       </c>
       <c r="P199" s="4">
-        <v>92.3</v>
+        <v>92.7</v>
       </c>
       <c r="Q199" s="4">
-        <v>62.4</v>
+        <v>92.8</v>
       </c>
       <c r="R199" s="3"/>
       <c r="S199" s="2" t="s">

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\sdg_z_githuba\trunk\assets\excel\pl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="549">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -1394,9 +1399,6 @@
     <t>15.1.1 Udział powierzchni gruntów leśnych w powierzchni lądowej kraju</t>
   </si>
   <si>
-    <t>Urząd Statystyczny w Białymstoku</t>
-  </si>
-  <si>
     <t>15.2.1 Postęp w kierunku zrównoważonej gospodarki leśnej</t>
   </si>
   <si>
@@ -1667,13 +1669,13 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 13-12-2022, 09:50</t>
+    <t>Ostatnia aktualizacja: 10-01-2023, 11:03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
@@ -1682,7 +1684,7 @@
     <numFmt numFmtId="168" formatCode="[$-10415]0.000;\-0.000;0.000"/>
     <numFmt numFmtId="169" formatCode="[$-10415]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1880,6 +1882,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1900,7 +1910,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1963,7 +1973,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1995,9 +2005,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2029,6 +2040,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2204,7 +2216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2212,7 +2224,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2224,17 +2236,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="25.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2293,7 +2305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.5">
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2403,7 +2415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.5">
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2458,7 +2470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="19.5">
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2513,7 +2525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="19.5">
+    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.5">
+    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2623,7 +2635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="19.5">
+    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="19.5">
+    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2733,7 +2745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="19.5">
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2788,7 +2800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="19.5">
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2843,7 +2855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.5">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2898,7 +2910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.5">
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2953,7 +2965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="19.5">
+    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2992,7 +3004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="19.5">
+    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="107.25">
+    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3102,7 +3114,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="107.25">
+    <row r="19" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3155,7 +3167,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="107.25">
+    <row r="20" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3208,7 +3220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19.5">
+    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3263,7 +3275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="39">
+    <row r="22" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3320,7 +3332,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="39">
+    <row r="23" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3377,7 +3389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="39">
+    <row r="24" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3422,7 +3434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="68.25">
+    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3467,7 +3479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="29.25">
+    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3512,7 +3524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="29.25">
+    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="29.25">
+    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3608,7 +3620,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="39">
+    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3663,7 +3675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="39">
+    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3718,7 +3730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="39">
+    <row r="31" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3773,7 +3785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="39">
+    <row r="32" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3828,7 +3840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3883,7 +3895,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="39">
+    <row r="34" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3928,7 +3940,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="39">
+    <row r="35" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -3973,7 +3985,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="39">
+    <row r="36" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4018,7 +4030,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="29.25">
+    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4063,7 +4075,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="29.25">
+    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4108,7 +4120,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="29.25">
+    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4153,7 +4165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="48.75">
+    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4192,7 +4204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="68.25">
+    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4249,7 +4261,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="68.25">
+    <row r="42" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4306,7 +4318,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="68.25">
+    <row r="43" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4363,7 +4375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="68.25">
+    <row r="44" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4420,7 +4432,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="68.25">
+    <row r="45" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4477,7 +4489,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="68.25">
+    <row r="46" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4534,7 +4546,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="29.25">
+    <row r="47" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4581,7 +4593,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="29.25">
+    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4628,7 +4640,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.5">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4683,7 +4695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="19.5">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4734,7 +4746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.5">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4789,7 +4801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.5">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4846,7 +4858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.5">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4903,7 +4915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.5">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -4960,7 +4972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.5">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -5017,7 +5029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.5">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -5074,7 +5086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.5">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -5131,7 +5143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.5">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -5188,7 +5200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="39">
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -5245,7 +5257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.5">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -5300,7 +5312,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="39">
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -5357,7 +5369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="39">
+    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
@@ -5414,7 +5426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="39">
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
@@ -5471,7 +5483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.5">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -5526,7 +5538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="39">
+    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
@@ -5583,7 +5595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="39">
+    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -5640,7 +5652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="39">
+    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -5697,7 +5709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="29.25">
+    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5752,7 +5764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="29.25">
+    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5807,7 +5819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="29.25">
+    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -5862,7 +5874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="29.25">
+    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -5917,7 +5929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.5">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -5972,7 +5984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.5">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -6027,7 +6039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.5">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -6082,7 +6094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.5">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -6139,7 +6151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="29.25">
+    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
@@ -6194,7 +6206,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="29.25">
+    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -6233,7 +6245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.5">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -6290,7 +6302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.5">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -6347,7 +6359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.5">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -6404,7 +6416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.5">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -6443,7 +6455,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="29.25">
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -6488,7 +6500,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="29.25">
+    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -6533,7 +6545,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="39">
+    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -6568,7 +6580,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="39">
+    <row r="85" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -6603,7 +6615,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.5">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -6658,7 +6670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.5">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -6697,7 +6709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="29.25">
+    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -6750,7 +6762,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="29.25">
+    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -6803,7 +6815,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="29.25">
+    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -6840,7 +6852,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="19.5">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -6891,7 +6903,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.5">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -6907,46 +6919,30 @@
       <c r="E92" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F92" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="G92" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="H92" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="I92" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="J92" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="K92" s="4">
-        <v>23</v>
-      </c>
-      <c r="L92" s="4">
-        <v>23.9</v>
-      </c>
-      <c r="M92" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="N92" s="4">
-        <v>23.3</v>
-      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
       <c r="O92" s="4">
-        <v>23.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="P92" s="4">
-        <v>24.1</v>
-      </c>
-      <c r="Q92" s="3"/>
+        <v>33.1</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>34.299999999999997</v>
+      </c>
       <c r="R92" s="3"/>
       <c r="S92" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.5">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -6962,46 +6958,30 @@
       <c r="E93" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F93" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="G93" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="H93" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="I93" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="J93" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="K93" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="L93" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="M93" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="N93" s="4">
-        <v>3.4</v>
-      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
       <c r="O93" s="4">
-        <v>3.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P93" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="Q93" s="3"/>
+        <v>8.9</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="R93" s="3"/>
       <c r="S93" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="19.5">
+    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -7017,46 +6997,30 @@
       <c r="E94" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F94" s="4">
-        <v>53.7</v>
-      </c>
-      <c r="G94" s="4">
-        <v>54.2</v>
-      </c>
-      <c r="H94" s="4">
-        <v>61.2</v>
-      </c>
-      <c r="I94" s="4">
-        <v>58</v>
-      </c>
-      <c r="J94" s="4">
-        <v>57.6</v>
-      </c>
-      <c r="K94" s="4">
-        <v>57.2</v>
-      </c>
-      <c r="L94" s="4">
-        <v>56.9</v>
-      </c>
-      <c r="M94" s="4">
-        <v>56.3</v>
-      </c>
-      <c r="N94" s="4">
-        <v>56.2</v>
-      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
       <c r="O94" s="4">
-        <v>56.3</v>
+        <v>63</v>
       </c>
       <c r="P94" s="4">
-        <v>56</v>
-      </c>
-      <c r="Q94" s="3"/>
+        <v>62.6</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>64.099999999999994</v>
+      </c>
       <c r="R94" s="3"/>
       <c r="S94" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.5">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -7107,7 +7071,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="29.25">
+    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>149</v>
       </c>
@@ -7144,7 +7108,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="29.25">
+    <row r="97" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
@@ -7181,7 +7145,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="29.25">
+    <row r="98" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>149</v>
       </c>
@@ -7218,7 +7182,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="29.25">
+    <row r="99" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>149</v>
       </c>
@@ -7259,7 +7223,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="29.25">
+    <row r="100" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -7300,7 +7264,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="29.25">
+    <row r="101" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>149</v>
       </c>
@@ -7341,7 +7305,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="29.25">
+    <row r="102" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>149</v>
       </c>
@@ -7382,7 +7346,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="29.25">
+    <row r="103" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>149</v>
       </c>
@@ -7423,7 +7387,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="29.25">
+    <row r="104" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>149</v>
       </c>
@@ -7464,7 +7428,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="29.25">
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>149</v>
       </c>
@@ -7501,7 +7465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="19.5">
+    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>149</v>
       </c>
@@ -7558,7 +7522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="19.5">
+    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -7615,7 +7579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="19.5">
+    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -7672,7 +7636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="29.25">
+    <row r="109" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
@@ -7709,7 +7673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="29.25">
+    <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>149</v>
       </c>
@@ -7746,7 +7710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="29.25">
+    <row r="111" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
@@ -7783,7 +7747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="39">
+    <row r="112" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
@@ -7828,7 +7792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="29.25">
+    <row r="113" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
@@ -7875,7 +7839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="58.5">
+    <row r="114" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>149</v>
       </c>
@@ -7922,7 +7886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="58.5">
+    <row r="115" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>149</v>
       </c>
@@ -7969,7 +7933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="68.25">
+    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>149</v>
       </c>
@@ -8016,7 +7980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="29.25">
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>149</v>
       </c>
@@ -8063,7 +8027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="39">
+    <row r="118" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>149</v>
       </c>
@@ -8108,7 +8072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="29.25">
+    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -8155,7 +8119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="58.5">
+    <row r="120" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>149</v>
       </c>
@@ -8202,7 +8166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="58.5">
+    <row r="121" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>149</v>
       </c>
@@ -8249,7 +8213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="68.25">
+    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>149</v>
       </c>
@@ -8296,7 +8260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="29.25">
+    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
@@ -8343,7 +8307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="39">
+    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>149</v>
       </c>
@@ -8382,7 +8346,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="39">
+    <row r="125" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -8421,7 +8385,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="39">
+    <row r="126" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -8478,7 +8442,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="29.25">
+    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>149</v>
       </c>
@@ -8513,7 +8477,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="29.25">
+    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
@@ -8548,7 +8512,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="29.25">
+    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -8583,7 +8547,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="29.25">
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -8618,7 +8582,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="29.25">
+    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8653,7 +8617,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="29.25">
+    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -8688,7 +8652,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="29.25">
+    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>149</v>
       </c>
@@ -8723,7 +8687,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="29.25">
+    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -8758,7 +8722,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="29.25">
+    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>149</v>
       </c>
@@ -8793,7 +8757,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="29.25">
+    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>149</v>
       </c>
@@ -8828,7 +8792,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="29.25">
+    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>149</v>
       </c>
@@ -8863,7 +8827,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="29.25">
+    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
@@ -8898,7 +8862,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="29.25">
+    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
@@ -8933,7 +8897,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="29.25">
+    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>149</v>
       </c>
@@ -8968,7 +8932,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="29.25">
+    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
@@ -9003,7 +8967,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="29.25">
+    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -9038,7 +9002,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="48.75">
+    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>149</v>
       </c>
@@ -9097,7 +9061,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="68.25">
+    <row r="144" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -9156,7 +9120,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="68.25">
+    <row r="145" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>149</v>
       </c>
@@ -9191,7 +9155,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="68.25">
+    <row r="146" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>149</v>
       </c>
@@ -9226,7 +9190,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="68.25">
+    <row r="147" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -9285,7 +9249,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="68.25">
+    <row r="148" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -9344,7 +9308,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="68.25">
+    <row r="149" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -9403,7 +9367,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="19.5">
+    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -9454,7 +9418,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="48.75">
+    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -9509,7 +9473,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="48.75">
+    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -9564,7 +9528,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="48.75">
+    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>149</v>
       </c>
@@ -9619,7 +9583,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="48.75">
+    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -9674,7 +9638,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="39">
+    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>204</v>
       </c>
@@ -9709,7 +9673,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="29.25">
+    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>204</v>
       </c>
@@ -9766,7 +9730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="29.25">
+    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>204</v>
       </c>
@@ -9801,7 +9765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="29.25">
+    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>204</v>
       </c>
@@ -9836,7 +9800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="29.25">
+    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>204</v>
       </c>
@@ -9871,7 +9835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="29.25">
+    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>204</v>
       </c>
@@ -9906,7 +9870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="29.25">
+    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>204</v>
       </c>
@@ -9941,7 +9905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="19.5">
+    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>204</v>
       </c>
@@ -9976,7 +9940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="19.5">
+    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>204</v>
       </c>
@@ -10011,7 +9975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="19.5">
+    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>204</v>
       </c>
@@ -10046,7 +10010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="19.5">
+    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>204</v>
       </c>
@@ -10081,7 +10045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="19.5">
+    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>204</v>
       </c>
@@ -10116,7 +10080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="19.5">
+    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>204</v>
       </c>
@@ -10151,7 +10115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="19.5">
+    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>204</v>
       </c>
@@ -10186,7 +10150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="19.5">
+    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>204</v>
       </c>
@@ -10221,7 +10185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="39">
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>204</v>
       </c>
@@ -10260,7 +10224,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="39">
+    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>204</v>
       </c>
@@ -10299,7 +10263,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="39">
+    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>204</v>
       </c>
@@ -10354,7 +10318,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="39">
+    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>204</v>
       </c>
@@ -10409,7 +10373,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="39">
+    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>204</v>
       </c>
@@ -10464,7 +10428,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="39">
+    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>204</v>
       </c>
@@ -10519,7 +10483,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="39">
+    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>204</v>
       </c>
@@ -10574,7 +10538,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="39">
+    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>204</v>
       </c>
@@ -10619,7 +10583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="68.25">
+    <row r="178" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>204</v>
       </c>
@@ -10664,7 +10628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="48.75">
+    <row r="179" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>204</v>
       </c>
@@ -10709,7 +10673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="39">
+    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>204</v>
       </c>
@@ -10754,7 +10718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="39">
+    <row r="181" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>204</v>
       </c>
@@ -10799,7 +10763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="39">
+    <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>204</v>
       </c>
@@ -10844,7 +10808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="68.25">
+    <row r="183" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>204</v>
       </c>
@@ -10889,7 +10853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="39">
+    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>204</v>
       </c>
@@ -10928,7 +10892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="39">
+    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>204</v>
       </c>
@@ -10967,7 +10931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="39">
+    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>204</v>
       </c>
@@ -11006,7 +10970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="39">
+    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>204</v>
       </c>
@@ -11045,7 +11009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="39">
+    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>204</v>
       </c>
@@ -11084,7 +11048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="39">
+    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>204</v>
       </c>
@@ -11123,7 +11087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="39">
+    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>204</v>
       </c>
@@ -11162,7 +11126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="39">
+    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>204</v>
       </c>
@@ -11201,7 +11165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="39">
+    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>204</v>
       </c>
@@ -11240,7 +11204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="39">
+    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>204</v>
       </c>
@@ -11279,7 +11243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="39">
+    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>204</v>
       </c>
@@ -11318,7 +11282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="39">
+    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>204</v>
       </c>
@@ -11357,7 +11321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="29.25">
+    <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>204</v>
       </c>
@@ -11398,7 +11362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="19.5">
+    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>204</v>
       </c>
@@ -11449,7 +11413,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="19.5">
+    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>204</v>
       </c>
@@ -11500,7 +11464,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="19.5">
+    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>243</v>
       </c>
@@ -11557,7 +11521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="29.25">
+    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>243</v>
       </c>
@@ -11614,7 +11578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="19.5">
+    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>243</v>
       </c>
@@ -11669,7 +11633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="19.5">
+    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>243</v>
       </c>
@@ -11704,7 +11668,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="19.5">
+    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>243</v>
       </c>
@@ -11739,7 +11703,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="29.25">
+    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>243</v>
       </c>
@@ -11794,7 +11758,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="19.5">
+    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>243</v>
       </c>
@@ -11849,7 +11813,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="29.25">
+    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>243</v>
       </c>
@@ -11894,7 +11858,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="19.5">
+    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>243</v>
       </c>
@@ -11949,7 +11913,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="29.25">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>243</v>
       </c>
@@ -12000,7 +11964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="48.75">
+    <row r="209" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>243</v>
       </c>
@@ -12055,7 +12019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="19.5">
+    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>264</v>
       </c>
@@ -12090,7 +12054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="19.5">
+    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>264</v>
       </c>
@@ -12145,7 +12109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="39">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>264</v>
       </c>
@@ -12200,7 +12164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="19.5">
+    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>264</v>
       </c>
@@ -12251,7 +12215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="29.25">
+    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>270</v>
       </c>
@@ -12308,7 +12272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="29.25">
+    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>270</v>
       </c>
@@ -12365,7 +12329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="29.25">
+    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>270</v>
       </c>
@@ -12404,7 +12368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="29.25">
+    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>270</v>
       </c>
@@ -12443,7 +12407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="29.25">
+    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>270</v>
       </c>
@@ -12482,7 +12446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="29.25">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>270</v>
       </c>
@@ -12539,7 +12503,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="29.25">
+    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>270</v>
       </c>
@@ -12596,7 +12560,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="29.25">
+    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>270</v>
       </c>
@@ -12653,7 +12617,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="29.25">
+    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>270</v>
       </c>
@@ -12698,7 +12662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="29.25">
+    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>270</v>
       </c>
@@ -12743,7 +12707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="29.25">
+    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>270</v>
       </c>
@@ -12788,7 +12752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="58.5">
+    <row r="225" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>270</v>
       </c>
@@ -12833,7 +12797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="29.25">
+    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>270</v>
       </c>
@@ -12878,7 +12842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="29.25">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>270</v>
       </c>
@@ -12923,7 +12887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="29.25">
+    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>270</v>
       </c>
@@ -12968,7 +12932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="29.25">
+    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>270</v>
       </c>
@@ -13013,7 +12977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="39">
+    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>270</v>
       </c>
@@ -13058,7 +13022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="29.25">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>270</v>
       </c>
@@ -13103,7 +13067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="39">
+    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>270</v>
       </c>
@@ -13148,7 +13112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="29.25">
+    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>270</v>
       </c>
@@ -13193,7 +13157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="29.25">
+    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>270</v>
       </c>
@@ -13238,7 +13202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="29.25">
+    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>270</v>
       </c>
@@ -13283,7 +13247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="29.25">
+    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>270</v>
       </c>
@@ -13328,7 +13292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="29.25">
+    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>270</v>
       </c>
@@ -13373,7 +13337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="29.25">
+    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>270</v>
       </c>
@@ -13418,7 +13382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="29.25">
+    <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>270</v>
       </c>
@@ -13463,7 +13427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="29.25">
+    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>270</v>
       </c>
@@ -13508,7 +13472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="29.25">
+    <row r="241" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>270</v>
       </c>
@@ -13565,7 +13529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="29.25">
+    <row r="242" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>270</v>
       </c>
@@ -13622,7 +13586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="29.25">
+    <row r="243" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>270</v>
       </c>
@@ -13679,7 +13643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="29.25">
+    <row r="244" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>270</v>
       </c>
@@ -13736,7 +13700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="29.25">
+    <row r="245" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>270</v>
       </c>
@@ -13793,7 +13757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="29.25">
+    <row r="246" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>270</v>
       </c>
@@ -13850,7 +13814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="29.25">
+    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>270</v>
       </c>
@@ -13907,7 +13871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="29.25">
+    <row r="248" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>270</v>
       </c>
@@ -13964,7 +13928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="29.25">
+    <row r="249" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>270</v>
       </c>
@@ -14021,7 +13985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="29.25">
+    <row r="250" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>270</v>
       </c>
@@ -14078,7 +14042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="29.25">
+    <row r="251" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>270</v>
       </c>
@@ -14133,7 +14097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="29.25">
+    <row r="252" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>270</v>
       </c>
@@ -14188,7 +14152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="39">
+    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>270</v>
       </c>
@@ -14229,7 +14193,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="39">
+    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>270</v>
       </c>
@@ -14270,7 +14234,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="39">
+    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>270</v>
       </c>
@@ -14311,7 +14275,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="29.25">
+    <row r="256" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>270</v>
       </c>
@@ -14368,7 +14332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="39">
+    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>270</v>
       </c>
@@ -14425,7 +14389,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="29.25">
+    <row r="258" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>270</v>
       </c>
@@ -14460,7 +14424,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="29.25">
+    <row r="259" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>270</v>
       </c>
@@ -14495,7 +14459,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="29.25">
+    <row r="260" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>270</v>
       </c>
@@ -14530,7 +14494,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="29.25">
+    <row r="261" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>270</v>
       </c>
@@ -14565,7 +14529,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="29.25">
+    <row r="262" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>270</v>
       </c>
@@ -14600,7 +14564,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="29.25">
+    <row r="263" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>270</v>
       </c>
@@ -14635,7 +14599,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="29.25">
+    <row r="264" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>270</v>
       </c>
@@ -14670,7 +14634,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="29.25">
+    <row r="265" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>270</v>
       </c>
@@ -14705,7 +14669,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="29.25">
+    <row r="266" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>270</v>
       </c>
@@ -14756,7 +14720,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="39">
+    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>314</v>
       </c>
@@ -14813,7 +14777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="39">
+    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>314</v>
       </c>
@@ -14870,7 +14834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="39">
+    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>314</v>
       </c>
@@ -14927,7 +14891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="39">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>314</v>
       </c>
@@ -14984,7 +14948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="39">
+    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>314</v>
       </c>
@@ -15041,7 +15005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="39">
+    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>314</v>
       </c>
@@ -15098,7 +15062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="39">
+    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>314</v>
       </c>
@@ -15155,7 +15119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="39">
+    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>314</v>
       </c>
@@ -15212,7 +15176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="39">
+    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>314</v>
       </c>
@@ -15269,7 +15233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="39">
+    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>314</v>
       </c>
@@ -15326,7 +15290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="39">
+    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>314</v>
       </c>
@@ -15383,7 +15347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="39">
+    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>314</v>
       </c>
@@ -15440,7 +15404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="39">
+    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>314</v>
       </c>
@@ -15495,7 +15459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="39">
+    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>314</v>
       </c>
@@ -15550,7 +15514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="39">
+    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>314</v>
       </c>
@@ -15605,7 +15569,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="39">
+    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>314</v>
       </c>
@@ -15660,7 +15624,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="39">
+    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>314</v>
       </c>
@@ -15715,7 +15679,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="39">
+    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>314</v>
       </c>
@@ -15770,7 +15734,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="39">
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>314</v>
       </c>
@@ -15825,7 +15789,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="39">
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>314</v>
       </c>
@@ -15880,7 +15844,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="39">
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>314</v>
       </c>
@@ -15931,7 +15895,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="39">
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>314</v>
       </c>
@@ -15986,7 +15950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="39">
+    <row r="289" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>314</v>
       </c>
@@ -16041,7 +16005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="39">
+    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>314</v>
       </c>
@@ -16092,7 +16056,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="39">
+    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>314</v>
       </c>
@@ -16145,7 +16109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="48.75">
+    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>314</v>
       </c>
@@ -16194,7 +16158,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="48.75">
+    <row r="293" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>314</v>
       </c>
@@ -16243,7 +16207,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="19.5">
+    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>346</v>
       </c>
@@ -16298,7 +16262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="58.5">
+    <row r="295" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>346</v>
       </c>
@@ -16353,7 +16317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="19.5">
+    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>346</v>
       </c>
@@ -16408,7 +16372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="19.5">
+    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>346</v>
       </c>
@@ -16463,7 +16427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="19.5">
+    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>346</v>
       </c>
@@ -16518,7 +16482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="19.5">
+    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>346</v>
       </c>
@@ -16573,7 +16537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="19.5">
+    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>346</v>
       </c>
@@ -16628,7 +16592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="19.5">
+    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>346</v>
       </c>
@@ -16683,7 +16647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="19.5">
+    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>346</v>
       </c>
@@ -16738,7 +16702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="19.5">
+    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>346</v>
       </c>
@@ -16793,7 +16757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="19.5">
+    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>346</v>
       </c>
@@ -16848,7 +16812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="19.5">
+    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>346</v>
       </c>
@@ -16887,7 +16851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="19.5">
+    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>346</v>
       </c>
@@ -16942,7 +16906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="78">
+    <row r="307" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>346</v>
       </c>
@@ -16997,7 +16961,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="48.75">
+    <row r="308" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>346</v>
       </c>
@@ -17052,7 +17016,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="78">
+    <row r="309" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>346</v>
       </c>
@@ -17107,7 +17071,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="48.75">
+    <row r="310" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>346</v>
       </c>
@@ -17162,7 +17126,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="48.75">
+    <row r="311" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>346</v>
       </c>
@@ -17217,7 +17181,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="58.5">
+    <row r="312" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>346</v>
       </c>
@@ -17272,7 +17236,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="39">
+    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>346</v>
       </c>
@@ -17327,7 +17291,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="39">
+    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>346</v>
       </c>
@@ -17382,7 +17346,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="58.5">
+    <row r="315" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>346</v>
       </c>
@@ -17437,7 +17401,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="58.5">
+    <row r="316" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>346</v>
       </c>
@@ -17492,7 +17456,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="39">
+    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>346</v>
       </c>
@@ -17547,7 +17511,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="48.75">
+    <row r="318" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>346</v>
       </c>
@@ -17602,7 +17566,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="29.25">
+    <row r="319" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>346</v>
       </c>
@@ -17659,7 +17623,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="48.75">
+    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>346</v>
       </c>
@@ -17716,7 +17680,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="48.75">
+    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>346</v>
       </c>
@@ -17773,7 +17737,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="78">
+    <row r="322" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>346</v>
       </c>
@@ -17830,7 +17794,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="97.5">
+    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>346</v>
       </c>
@@ -17887,7 +17851,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="78">
+    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>346</v>
       </c>
@@ -17944,7 +17908,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="87.75">
+    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>346</v>
       </c>
@@ -18001,7 +17965,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="48.75">
+    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>346</v>
       </c>
@@ -18056,7 +18020,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="78">
+    <row r="327" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>346</v>
       </c>
@@ -18111,7 +18075,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="87.75">
+    <row r="328" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>346</v>
       </c>
@@ -18166,7 +18130,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="78">
+    <row r="329" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>346</v>
       </c>
@@ -18221,7 +18185,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="87.75">
+    <row r="330" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>346</v>
       </c>
@@ -18276,7 +18240,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="39">
+    <row r="331" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>385</v>
       </c>
@@ -18331,7 +18295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="39">
+    <row r="332" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>385</v>
       </c>
@@ -18386,7 +18350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="39">
+    <row r="333" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>385</v>
       </c>
@@ -18441,7 +18405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="39">
+    <row r="334" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>385</v>
       </c>
@@ -18498,7 +18462,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="39">
+    <row r="335" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>385</v>
       </c>
@@ -18555,7 +18519,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="39">
+    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>385</v>
       </c>
@@ -18612,7 +18576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="39">
+    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>385</v>
       </c>
@@ -18669,7 +18633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="39">
+    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>385</v>
       </c>
@@ -18726,7 +18690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="39">
+    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>385</v>
       </c>
@@ -18783,7 +18747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="39">
+    <row r="340" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>385</v>
       </c>
@@ -18838,7 +18802,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="39">
+    <row r="341" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>385</v>
       </c>
@@ -18893,7 +18857,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="39">
+    <row r="342" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>385</v>
       </c>
@@ -18948,7 +18912,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="39">
+    <row r="343" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>385</v>
       </c>
@@ -19003,7 +18967,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="39">
+    <row r="344" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>385</v>
       </c>
@@ -19058,7 +19022,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="39">
+    <row r="345" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>385</v>
       </c>
@@ -19113,7 +19077,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="39">
+    <row r="346" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>385</v>
       </c>
@@ -19168,7 +19132,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="39">
+    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>385</v>
       </c>
@@ -19223,7 +19187,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="39">
+    <row r="348" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>385</v>
       </c>
@@ -19278,7 +19242,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="39">
+    <row r="349" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>385</v>
       </c>
@@ -19333,7 +19297,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="39">
+    <row r="350" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>385</v>
       </c>
@@ -19388,7 +19352,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="39">
+    <row r="351" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>385</v>
       </c>
@@ -19443,7 +19407,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="39">
+    <row r="352" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>385</v>
       </c>
@@ -19498,7 +19462,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="39">
+    <row r="353" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>385</v>
       </c>
@@ -19553,7 +19517,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="39">
+    <row r="354" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>385</v>
       </c>
@@ -19608,7 +19572,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="39">
+    <row r="355" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>385</v>
       </c>
@@ -19663,7 +19627,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="39">
+    <row r="356" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>385</v>
       </c>
@@ -19718,7 +19682,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="39">
+    <row r="357" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>385</v>
       </c>
@@ -19773,7 +19737,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="39">
+    <row r="358" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>385</v>
       </c>
@@ -19826,7 +19790,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="39">
+    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>385</v>
       </c>
@@ -19881,7 +19845,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="39">
+    <row r="360" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>385</v>
       </c>
@@ -19936,7 +19900,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="39">
+    <row r="361" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>385</v>
       </c>
@@ -19991,7 +19955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="39">
+    <row r="362" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>385</v>
       </c>
@@ -20046,7 +20010,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="39">
+    <row r="363" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>385</v>
       </c>
@@ -20101,7 +20065,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="39">
+    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>385</v>
       </c>
@@ -20158,7 +20122,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="39">
+    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>385</v>
       </c>
@@ -20215,7 +20179,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="39">
+    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>385</v>
       </c>
@@ -20272,7 +20236,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="39">
+    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>385</v>
       </c>
@@ -20329,7 +20293,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="39">
+    <row r="368" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>385</v>
       </c>
@@ -20386,7 +20350,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="39">
+    <row r="369" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>385</v>
       </c>
@@ -20443,7 +20407,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="39">
+    <row r="370" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>385</v>
       </c>
@@ -20500,7 +20464,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="39">
+    <row r="371" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>385</v>
       </c>
@@ -20557,7 +20521,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="39">
+    <row r="372" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>418</v>
       </c>
@@ -20614,7 +20578,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="39">
+    <row r="373" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>418</v>
       </c>
@@ -20671,7 +20635,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="39">
+    <row r="374" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>418</v>
       </c>
@@ -20728,7 +20692,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="58.5">
+    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>418</v>
       </c>
@@ -20783,7 +20747,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="39">
+    <row r="376" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>418</v>
       </c>
@@ -20828,7 +20792,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="39">
+    <row r="377" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>418</v>
       </c>
@@ -20873,7 +20837,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="39">
+    <row r="378" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>418</v>
       </c>
@@ -20918,7 +20882,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="39">
+    <row r="379" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>418</v>
       </c>
@@ -20971,7 +20935,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="39">
+    <row r="380" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>418</v>
       </c>
@@ -21014,7 +20978,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="39">
+    <row r="381" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>418</v>
       </c>
@@ -21071,7 +21035,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="48.75">
+    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>418</v>
       </c>
@@ -21130,7 +21094,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="39">
+    <row r="383" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>436</v>
       </c>
@@ -21187,7 +21151,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="39">
+    <row r="384" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>436</v>
       </c>
@@ -21244,7 +21208,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="48.75">
+    <row r="385" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>436</v>
       </c>
@@ -21301,7 +21265,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="48.75">
+    <row r="386" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>436</v>
       </c>
@@ -21356,7 +21320,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="48.75">
+    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>436</v>
       </c>
@@ -21415,7 +21379,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="19.5">
+    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>436</v>
       </c>
@@ -21466,7 +21430,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="68.25">
+    <row r="389" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>446</v>
       </c>
@@ -21523,7 +21487,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="78">
+    <row r="390" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>446</v>
       </c>
@@ -21580,7 +21544,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="78">
+    <row r="391" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>446</v>
       </c>
@@ -21637,7 +21601,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="68.25">
+    <row r="392" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>446</v>
       </c>
@@ -21694,7 +21658,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="48.75">
+    <row r="393" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>446</v>
       </c>
@@ -21749,7 +21713,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="19.5">
+    <row r="394" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>456</v>
       </c>
@@ -21801,15 +21765,15 @@
       <c r="Q394" s="3"/>
       <c r="R394" s="3"/>
       <c r="S394" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="395" spans="1:19" ht="19.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="395" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>22</v>
@@ -21856,15 +21820,15 @@
       <c r="Q395" s="3"/>
       <c r="R395" s="3"/>
       <c r="S395" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="396" spans="1:19" ht="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>22</v>
@@ -21913,18 +21877,18 @@
       </c>
       <c r="R396" s="3"/>
       <c r="S396" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="397" spans="1:19" ht="19.5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B397" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>23</v>
@@ -21952,21 +21916,21 @@
       </c>
       <c r="R397" s="3"/>
       <c r="S397" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="398" spans="1:19" ht="19.5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B398" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C398" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="D398" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>24</v>
@@ -21985,21 +21949,21 @@
       <c r="Q398" s="3"/>
       <c r="R398" s="3"/>
       <c r="S398" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="399" spans="1:19" ht="19.5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B399" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C399" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C399" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="D399" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E399" s="3" t="s">
         <v>24</v>
@@ -22018,21 +21982,21 @@
       <c r="Q399" s="3"/>
       <c r="R399" s="3"/>
       <c r="S399" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="400" spans="1:19" ht="19.5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B400" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="D400" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>24</v>
@@ -22051,21 +22015,21 @@
       <c r="Q400" s="3"/>
       <c r="R400" s="3"/>
       <c r="S400" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="401" spans="1:19" ht="19.5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B401" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C401" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C401" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="D401" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>24</v>
@@ -22090,21 +22054,21 @@
       </c>
       <c r="R401" s="3"/>
       <c r="S401" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="402" spans="1:19" ht="19.5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B402" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C402" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C402" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="D402" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>24</v>
@@ -22129,21 +22093,21 @@
       </c>
       <c r="R402" s="3"/>
       <c r="S402" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="403" spans="1:19" ht="19.5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B403" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C403" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="D403" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>24</v>
@@ -22168,15 +22132,15 @@
       </c>
       <c r="R403" s="3"/>
       <c r="S403" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="404" spans="1:19" ht="39">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="404" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>22</v>
@@ -22228,12 +22192,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="19.5">
+    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>22</v>
@@ -22285,12 +22249,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="29.25">
+    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>22</v>
@@ -22342,12 +22306,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="29.25">
+    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>22</v>
@@ -22393,12 +22357,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="29.25">
+    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>22</v>
@@ -22444,12 +22408,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="19.5">
+    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>22</v>
@@ -22501,12 +22465,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="29.25">
+    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>22</v>
@@ -22556,12 +22520,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="29.25">
+    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>22</v>
@@ -22610,15 +22574,15 @@
       </c>
       <c r="R411" s="3"/>
       <c r="S411" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>480</v>
-      </c>
-    </row>
-    <row r="412" spans="1:19" ht="29.25">
-      <c r="A412" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>22</v>
@@ -22656,12 +22620,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="29.25">
+    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>22</v>
@@ -22704,24 +22668,24 @@
       <c r="Q413" s="3"/>
       <c r="R413" s="3"/>
       <c r="S413" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="414" spans="1:19" ht="29.25">
-      <c r="A414" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B414" s="2" t="s">
+      <c r="C414" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
@@ -22749,24 +22713,24 @@
       </c>
       <c r="R414" s="3"/>
       <c r="S414" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="415" spans="1:19" ht="29.25">
-      <c r="A415" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B415" s="2" t="s">
+      <c r="C415" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
@@ -22794,24 +22758,24 @@
       </c>
       <c r="R415" s="3"/>
       <c r="S415" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B416" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="416" spans="1:19" ht="29.25">
-      <c r="A416" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B416" s="2" t="s">
+      <c r="C416" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
@@ -22839,24 +22803,24 @@
       </c>
       <c r="R416" s="3"/>
       <c r="S416" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="417" spans="1:19" ht="29.25">
-      <c r="A417" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C417" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
@@ -22884,24 +22848,24 @@
       </c>
       <c r="R417" s="3"/>
       <c r="S417" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="418" spans="1:19" ht="29.25">
-      <c r="A418" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C418" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
@@ -22929,24 +22893,24 @@
       </c>
       <c r="R418" s="3"/>
       <c r="S418" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="419" spans="1:19" ht="29.25">
-      <c r="A419" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C419" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
@@ -22974,24 +22938,24 @@
       </c>
       <c r="R419" s="3"/>
       <c r="S419" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B420" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="420" spans="1:19" ht="39">
-      <c r="A420" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C420" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D420" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D420" s="3" t="s">
-        <v>489</v>
-      </c>
       <c r="E420" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
@@ -23019,24 +22983,24 @@
       </c>
       <c r="R420" s="3"/>
       <c r="S420" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="421" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="421" spans="1:19" ht="39">
-      <c r="A421" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C421" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
@@ -23064,24 +23028,24 @@
       </c>
       <c r="R421" s="3"/>
       <c r="S421" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="422" spans="1:19" ht="39">
-      <c r="A422" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C422" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
@@ -23109,24 +23073,24 @@
       </c>
       <c r="R422" s="3"/>
       <c r="S422" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B423" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="423" spans="1:19" ht="39">
-      <c r="A423" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C423" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
@@ -23154,15 +23118,15 @@
       </c>
       <c r="R423" s="3"/>
       <c r="S423" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="424" spans="1:19" ht="39">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>30</v>
@@ -23209,15 +23173,15 @@
       <c r="Q424" s="3"/>
       <c r="R424" s="3"/>
       <c r="S424" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="425" spans="1:19" ht="39">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>30</v>
@@ -23264,15 +23228,15 @@
       <c r="Q425" s="3"/>
       <c r="R425" s="3"/>
       <c r="S425" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="426" spans="1:19" ht="39">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>30</v>
@@ -23319,21 +23283,21 @@
       <c r="Q426" s="3"/>
       <c r="R426" s="3"/>
       <c r="S426" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="427" spans="1:19" ht="39">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>24</v>
@@ -23374,21 +23338,21 @@
       <c r="Q427" s="3"/>
       <c r="R427" s="3"/>
       <c r="S427" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="428" spans="1:19" ht="39">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E428" s="3" t="s">
         <v>24</v>
@@ -23429,15 +23393,15 @@
       <c r="Q428" s="3"/>
       <c r="R428" s="3"/>
       <c r="S428" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="429" spans="1:19" ht="29.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>22</v>
@@ -23446,7 +23410,7 @@
         <v>23</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F429" s="6">
         <v>12487</v>
@@ -23486,18 +23450,18 @@
       </c>
       <c r="R429" s="3"/>
       <c r="S429" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="430" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B430" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="430" spans="1:19" ht="29.25">
-      <c r="A430" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B430" s="2" t="s">
+      <c r="C430" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>218</v>
@@ -23525,18 +23489,18 @@
       <c r="Q430" s="3"/>
       <c r="R430" s="3"/>
       <c r="S430" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="431" spans="1:19" ht="29.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="431" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B431" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C431" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>220</v>
@@ -23564,21 +23528,21 @@
       <c r="Q431" s="3"/>
       <c r="R431" s="3"/>
       <c r="S431" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="432" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="432" spans="1:19" ht="29.25">
-      <c r="A432" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C432" s="2" t="s">
+      <c r="D432" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="D432" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="E432" s="3" t="s">
         <v>24</v>
@@ -23603,21 +23567,21 @@
       <c r="Q432" s="3"/>
       <c r="R432" s="3"/>
       <c r="S432" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="433" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C433" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="433" spans="1:19" ht="29.25">
-      <c r="A433" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="D433" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>24</v>
@@ -23642,21 +23606,21 @@
       <c r="Q433" s="3"/>
       <c r="R433" s="3"/>
       <c r="S433" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="434" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C434" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="434" spans="1:19" ht="29.25">
-      <c r="A434" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="D434" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E434" s="3" t="s">
         <v>24</v>
@@ -23681,21 +23645,21 @@
       <c r="Q434" s="3"/>
       <c r="R434" s="3"/>
       <c r="S434" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="435" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="435" spans="1:19" ht="29.25">
-      <c r="A435" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="D435" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>24</v>
@@ -23720,18 +23684,18 @@
       <c r="Q435" s="3"/>
       <c r="R435" s="3"/>
       <c r="S435" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="436" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="436" spans="1:19" ht="29.25">
-      <c r="A436" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>38</v>
@@ -23759,21 +23723,21 @@
       <c r="Q436" s="3"/>
       <c r="R436" s="3"/>
       <c r="S436" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="437" spans="1:19" ht="29.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="437" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>24</v>
@@ -23798,21 +23762,21 @@
       <c r="Q437" s="3"/>
       <c r="R437" s="3"/>
       <c r="S437" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="438" spans="1:19" ht="29.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="438" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E438" s="3" t="s">
         <v>24</v>
@@ -23837,21 +23801,21 @@
       <c r="Q438" s="3"/>
       <c r="R438" s="3"/>
       <c r="S438" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="439" spans="1:19" ht="29.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="439" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>24</v>
@@ -23876,21 +23840,21 @@
       <c r="Q439" s="3"/>
       <c r="R439" s="3"/>
       <c r="S439" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="440" spans="1:19" ht="29.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="440" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E440" s="3" t="s">
         <v>24</v>
@@ -23915,18 +23879,18 @@
       <c r="Q440" s="3"/>
       <c r="R440" s="3"/>
       <c r="S440" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="441" spans="1:19" ht="29.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="441" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D441" s="3" t="s">
         <v>38</v>
@@ -23954,15 +23918,15 @@
       <c r="Q441" s="3"/>
       <c r="R441" s="3"/>
       <c r="S441" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="442" spans="1:19" ht="29.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>22</v>
@@ -24011,15 +23975,15 @@
       </c>
       <c r="R442" s="3"/>
       <c r="S442" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B443" s="2" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="443" spans="1:19" ht="29.25">
-      <c r="A443" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>22</v>
@@ -24053,12 +24017,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="19.5">
+    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B444" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>22</v>
@@ -24110,12 +24074,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="19.5">
+    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>22</v>
@@ -24167,15 +24131,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="19.5">
+    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>23</v>
@@ -24224,18 +24188,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="29.25">
+    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C447" s="2" t="s">
+      <c r="D447" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="D447" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>24</v>
@@ -24281,12 +24245,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="29.25">
+    <row r="448" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>22</v>
@@ -24335,15 +24299,15 @@
       </c>
       <c r="R448" s="3"/>
       <c r="S448" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B449" s="2" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="449" spans="1:19" ht="19.5">
-      <c r="A449" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>22</v>
@@ -24395,12 +24359,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="29.25">
+    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>22</v>
@@ -24449,21 +24413,21 @@
       </c>
       <c r="R450" s="3"/>
       <c r="S450" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="451" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B451" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="451" spans="1:19" ht="29.25">
-      <c r="A451" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B451" s="2" t="s">
+      <c r="C451" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C451" s="2" t="s">
+      <c r="D451" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="E451" s="3" t="s">
         <v>47</v>
@@ -24509,18 +24473,18 @@
         <v>242</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="29.25">
+    <row r="452" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B452" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="D452" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E452" s="3" t="s">
         <v>47</v>
@@ -24566,18 +24530,18 @@
         <v>242</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="29.25">
+    <row r="453" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B453" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C453" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C453" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="D453" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E453" s="3" t="s">
         <v>47</v>
@@ -24623,12 +24587,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="19.5">
+    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>22</v>
@@ -24680,12 +24644,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="19.5">
+    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>22</v>
@@ -24737,12 +24701,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="19.5">
+    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>22</v>
@@ -24794,18 +24758,18 @@
         <v>369</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="29.25">
+    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E457" s="3" t="s">
         <v>281</v>
@@ -24851,18 +24815,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="29.25">
+    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E458" s="3" t="s">
         <v>281</v>
@@ -24908,18 +24872,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="39">
+    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E459" s="3" t="s">
         <v>281</v>
@@ -24965,18 +24929,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="19.5">
+    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E460" s="3" t="s">
         <v>281</v>
@@ -25022,18 +24986,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="58.5">
+    <row r="461" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E461" s="3" t="s">
         <v>281</v>
@@ -25079,18 +25043,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="58.5">
+    <row r="462" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E462" s="3" t="s">
         <v>281</v>
@@ -25136,12 +25100,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="29.25">
+    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>22</v>
@@ -25179,12 +25143,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="29.25">
+    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>22</v>
@@ -25236,12 +25200,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="29.25">
+    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>22</v>
@@ -25293,12 +25257,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="29.25">
+    <row r="466" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>22</v>
@@ -25307,7 +25271,7 @@
         <v>23</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
@@ -25344,18 +25308,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="48.75">
+    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B467" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C467" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C467" s="2" t="s">
+      <c r="D467" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="D467" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="E467" s="3" t="s">
         <v>187</v>
@@ -25378,21 +25342,21 @@
       </c>
       <c r="R467" s="3"/>
       <c r="S467" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D468" s="3" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="468" spans="1:19" ht="48.75">
-      <c r="A468" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="E468" s="3" t="s">
         <v>187</v>
@@ -25435,21 +25399,21 @@
       </c>
       <c r="R468" s="3"/>
       <c r="S468" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="469" spans="1:19" ht="48.75">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B469" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C469" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C469" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="D469" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E469" s="3" t="s">
         <v>187</v>
@@ -25492,14 +25456,14 @@
       </c>
       <c r="R469" s="3"/>
       <c r="S469" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B472" s="10"/>
     </row>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1666,7 +1666,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 31-01-2023, 13:21</t>
+    <t>Ostatnia aktualizacja: 02-02-2023, 14:25</t>
   </si>
 </sst>
 </file>
@@ -4445,7 +4445,7 @@
         <v>8150</v>
       </c>
       <c r="R44" s="6">
-        <v>8134</v>
+        <v>8135</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>76</v>
@@ -17811,7 +17811,7 @@
         <v>776.56</v>
       </c>
       <c r="P320" s="5">
-        <v>829.27</v>
+        <v>829</v>
       </c>
       <c r="Q320" s="5">
         <v>983.51</v>
@@ -21691,7 +21691,9 @@
       <c r="Q389" s="6">
         <v>67</v>
       </c>
-      <c r="R389" s="3"/>
+      <c r="R389" s="6">
+        <v>50</v>
+      </c>
       <c r="S389" s="2" t="s">
         <v>449</v>
       </c>
@@ -21748,7 +21750,9 @@
       <c r="Q390" s="6">
         <v>17</v>
       </c>
-      <c r="R390" s="3"/>
+      <c r="R390" s="6">
+        <v>0</v>
+      </c>
       <c r="S390" s="2" t="s">
         <v>449</v>
       </c>
@@ -21805,7 +21809,9 @@
       <c r="Q391" s="6">
         <v>17</v>
       </c>
-      <c r="R391" s="3"/>
+      <c r="R391" s="6">
+        <v>17</v>
+      </c>
       <c r="S391" s="2" t="s">
         <v>449</v>
       </c>
@@ -21862,7 +21868,9 @@
       <c r="Q392" s="6">
         <v>33</v>
       </c>
-      <c r="R392" s="3"/>
+      <c r="R392" s="6">
+        <v>50</v>
+      </c>
       <c r="S392" s="2" t="s">
         <v>449</v>
       </c>
@@ -22785,7 +22793,9 @@
       <c r="Q411" s="6">
         <v>0</v>
       </c>
-      <c r="R411" s="3"/>
+      <c r="R411" s="6">
+        <v>1</v>
+      </c>
       <c r="S411" s="2" t="s">
         <v>478</v>
       </c>
@@ -24918,7 +24928,7 @@
         <v>776.6</v>
       </c>
       <c r="P455" s="4">
-        <v>837.3</v>
+        <v>829</v>
       </c>
       <c r="Q455" s="4">
         <v>983.5</v>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1666,13 +1661,13 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 02-02-2023, 14:25</t>
+    <t>Ostatnia aktualizacja: 07-02-2023, 10:18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
@@ -1681,7 +1676,7 @@
     <numFmt numFmtId="168" formatCode="[$-10415]0.000;\-0.000;0.000"/>
     <numFmt numFmtId="169" formatCode="[$-10415]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1879,14 +1874,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1907,7 +1894,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1970,7 +1957,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2002,10 +1989,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2037,7 +2023,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2213,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2221,7 +2206,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2233,17 +2218,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2302,7 +2287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2357,7 +2342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2412,7 +2397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2467,7 +2452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2522,7 +2507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2577,7 +2562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2632,7 +2617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2687,7 +2672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2742,7 +2727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2797,7 +2782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2852,7 +2837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2907,7 +2892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2962,7 +2947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="19.5">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3001,7 +2986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="19.5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3058,7 +3043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="107.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3113,7 +3098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="107.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3168,7 +3153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="107.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3223,7 +3208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3278,7 +3263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="39">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3335,7 +3320,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="39">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3392,7 +3377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="39">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3437,7 +3422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="68.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3482,7 +3467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="29.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3527,7 +3512,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="29.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3572,7 +3557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="29.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3623,7 +3608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="39">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3680,7 +3665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="39">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3737,7 +3722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="39">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3794,7 +3779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="39">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3851,7 +3836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3906,7 +3891,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="39">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3951,7 +3936,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="39">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -3996,7 +3981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="39">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4041,7 +4026,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4086,7 +4071,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="29.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4131,7 +4116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4176,7 +4161,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="48.75">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4215,7 +4200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="68.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4274,7 +4259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="68.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4333,7 +4318,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="68.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4392,7 +4377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="68.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4451,7 +4436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="68.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4510,7 +4495,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="68.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4569,7 +4554,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="29.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4618,7 +4603,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="29.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4667,7 +4652,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4722,7 +4707,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="19.5">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4773,7 +4758,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4828,7 +4813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4885,7 +4870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4942,7 +4927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -4999,7 +4984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -5056,7 +5041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -5113,7 +5098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -5170,7 +5155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -5227,7 +5212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="39">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -5284,7 +5269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -5341,7 +5326,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="39">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -5398,7 +5383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="39">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
@@ -5455,7 +5440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="39">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
@@ -5512,7 +5497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -5569,7 +5554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="39">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
@@ -5626,7 +5611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="39">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -5683,7 +5668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="39">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -5740,7 +5725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="29.25">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5795,7 +5780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="29.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5850,7 +5835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="29.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -5905,7 +5890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -5960,7 +5945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -6015,7 +6000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -6070,7 +6055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -6125,7 +6110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -6182,7 +6167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29.25">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
@@ -6239,7 +6224,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="29.25">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -6278,7 +6263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -6335,7 +6320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -6392,7 +6377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -6449,7 +6434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -6490,7 +6475,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -6535,7 +6520,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29.25">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -6580,7 +6565,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="39">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -6615,7 +6600,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="39">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -6650,7 +6635,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -6705,7 +6690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -6744,7 +6729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="29.25">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -6801,7 +6786,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="29.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -6858,7 +6843,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="29.25">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -6899,7 +6884,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="19.5">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -6950,7 +6935,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -6989,7 +6974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -7028,7 +7013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -7067,7 +7052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -7120,7 +7105,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="29.25">
       <c r="A96" s="2" t="s">
         <v>148</v>
       </c>
@@ -7157,7 +7142,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="29.25">
       <c r="A97" s="2" t="s">
         <v>148</v>
       </c>
@@ -7194,7 +7179,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="29.25">
       <c r="A98" s="2" t="s">
         <v>148</v>
       </c>
@@ -7231,7 +7216,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="29.25">
       <c r="A99" s="2" t="s">
         <v>148</v>
       </c>
@@ -7272,7 +7257,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="29.25">
       <c r="A100" s="2" t="s">
         <v>148</v>
       </c>
@@ -7313,7 +7298,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="29.25">
       <c r="A101" s="2" t="s">
         <v>148</v>
       </c>
@@ -7354,7 +7339,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="29.25">
       <c r="A102" s="2" t="s">
         <v>148</v>
       </c>
@@ -7395,7 +7380,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="29.25">
       <c r="A103" s="2" t="s">
         <v>148</v>
       </c>
@@ -7436,7 +7421,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="29.25">
       <c r="A104" s="2" t="s">
         <v>148</v>
       </c>
@@ -7477,7 +7462,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="29.25">
       <c r="A105" s="2" t="s">
         <v>148</v>
       </c>
@@ -7514,7 +7499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>148</v>
       </c>
@@ -7571,7 +7556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>148</v>
       </c>
@@ -7628,7 +7613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>148</v>
       </c>
@@ -7685,7 +7670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="29.25">
       <c r="A109" s="2" t="s">
         <v>148</v>
       </c>
@@ -7722,7 +7707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="29.25">
       <c r="A110" s="2" t="s">
         <v>148</v>
       </c>
@@ -7759,7 +7744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="29.25">
       <c r="A111" s="2" t="s">
         <v>148</v>
       </c>
@@ -7796,7 +7781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="39">
       <c r="A112" s="2" t="s">
         <v>148</v>
       </c>
@@ -7841,7 +7826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="29.25">
       <c r="A113" s="2" t="s">
         <v>148</v>
       </c>
@@ -7888,7 +7873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="58.5">
       <c r="A114" s="2" t="s">
         <v>148</v>
       </c>
@@ -7935,7 +7920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="58.5">
       <c r="A115" s="2" t="s">
         <v>148</v>
       </c>
@@ -7982,7 +7967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="68.25">
       <c r="A116" s="2" t="s">
         <v>148</v>
       </c>
@@ -8029,7 +8014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>148</v>
       </c>
@@ -8076,7 +8061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="39">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -8121,7 +8106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="29.25">
       <c r="A119" s="2" t="s">
         <v>148</v>
       </c>
@@ -8168,7 +8153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="58.5">
       <c r="A120" s="2" t="s">
         <v>148</v>
       </c>
@@ -8215,7 +8200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="58.5">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -8262,7 +8247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="68.25">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -8309,7 +8294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="29.25">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8356,7 +8341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="39">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8395,7 +8380,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="39">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8434,7 +8419,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="39">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8491,7 +8476,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="29.25">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8526,7 +8511,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="29.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8561,7 +8546,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8596,7 +8581,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8631,7 +8616,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8666,7 +8651,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="29.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8701,7 +8686,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="29.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8736,7 +8721,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="29.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8771,7 +8756,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="29.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8806,7 +8791,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="29.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8841,7 +8826,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="29.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8876,7 +8861,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="29.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8911,7 +8896,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="29.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8946,7 +8931,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="29.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -8981,7 +8966,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="29.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9016,7 +9001,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="29.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9051,7 +9036,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="48.75">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9110,7 +9095,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="68.25">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9169,7 +9154,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="68.25">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9204,7 +9189,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="68.25">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9239,7 +9224,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="68.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9298,7 +9283,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="68.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9357,7 +9342,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="68.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9416,7 +9401,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="19.5">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9467,7 +9452,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="48.75">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9522,7 +9507,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="48.75">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9577,7 +9562,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="48.75">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9632,7 +9617,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="48.75">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9687,7 +9672,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="39">
       <c r="A155" s="2" t="s">
         <v>203</v>
       </c>
@@ -9722,7 +9707,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="29.25">
       <c r="A156" s="2" t="s">
         <v>203</v>
       </c>
@@ -9779,7 +9764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="29.25">
       <c r="A157" s="2" t="s">
         <v>203</v>
       </c>
@@ -9814,7 +9799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="29.25">
       <c r="A158" s="2" t="s">
         <v>203</v>
       </c>
@@ -9849,7 +9834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="29.25">
       <c r="A159" s="2" t="s">
         <v>203</v>
       </c>
@@ -9884,7 +9869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="29.25">
       <c r="A160" s="2" t="s">
         <v>203</v>
       </c>
@@ -9919,7 +9904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="29.25">
       <c r="A161" s="2" t="s">
         <v>203</v>
       </c>
@@ -9954,7 +9939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="19.5">
       <c r="A162" s="2" t="s">
         <v>203</v>
       </c>
@@ -9989,7 +9974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="19.5">
       <c r="A163" s="2" t="s">
         <v>203</v>
       </c>
@@ -10024,7 +10009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="19.5">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -10059,7 +10044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="19.5">
       <c r="A165" s="2" t="s">
         <v>203</v>
       </c>
@@ -10094,7 +10079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="19.5">
       <c r="A166" s="2" t="s">
         <v>203</v>
       </c>
@@ -10129,7 +10114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="19.5">
       <c r="A167" s="2" t="s">
         <v>203</v>
       </c>
@@ -10164,7 +10149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>203</v>
       </c>
@@ -10199,7 +10184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -10234,7 +10219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="39">
       <c r="A170" s="2" t="s">
         <v>203</v>
       </c>
@@ -10273,7 +10258,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="39">
       <c r="A171" s="2" t="s">
         <v>203</v>
       </c>
@@ -10312,7 +10297,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="39">
       <c r="A172" s="2" t="s">
         <v>203</v>
       </c>
@@ -10369,7 +10354,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="39">
       <c r="A173" s="2" t="s">
         <v>203</v>
       </c>
@@ -10426,7 +10411,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="39">
       <c r="A174" s="2" t="s">
         <v>203</v>
       </c>
@@ -10483,7 +10468,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="39">
       <c r="A175" s="2" t="s">
         <v>203</v>
       </c>
@@ -10540,7 +10525,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="39">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -10597,7 +10582,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="39">
       <c r="A177" s="2" t="s">
         <v>203</v>
       </c>
@@ -10642,7 +10627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="68.25">
       <c r="A178" s="2" t="s">
         <v>203</v>
       </c>
@@ -10687,7 +10672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="48.75">
       <c r="A179" s="2" t="s">
         <v>203</v>
       </c>
@@ -10732,7 +10717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="39">
       <c r="A180" s="2" t="s">
         <v>203</v>
       </c>
@@ -10777,7 +10762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="39">
       <c r="A181" s="2" t="s">
         <v>203</v>
       </c>
@@ -10822,7 +10807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="39">
       <c r="A182" s="2" t="s">
         <v>203</v>
       </c>
@@ -10867,7 +10852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="68.25">
       <c r="A183" s="2" t="s">
         <v>203</v>
       </c>
@@ -10912,7 +10897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="39">
       <c r="A184" s="2" t="s">
         <v>203</v>
       </c>
@@ -10951,7 +10936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="39">
       <c r="A185" s="2" t="s">
         <v>203</v>
       </c>
@@ -10990,7 +10975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="39">
       <c r="A186" s="2" t="s">
         <v>203</v>
       </c>
@@ -11029,7 +11014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="39">
       <c r="A187" s="2" t="s">
         <v>203</v>
       </c>
@@ -11068,7 +11053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="39">
       <c r="A188" s="2" t="s">
         <v>203</v>
       </c>
@@ -11107,7 +11092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="39">
       <c r="A189" s="2" t="s">
         <v>203</v>
       </c>
@@ -11146,7 +11131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="39">
       <c r="A190" s="2" t="s">
         <v>203</v>
       </c>
@@ -11185,7 +11170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="39">
       <c r="A191" s="2" t="s">
         <v>203</v>
       </c>
@@ -11224,7 +11209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="39">
       <c r="A192" s="2" t="s">
         <v>203</v>
       </c>
@@ -11263,7 +11248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="39">
       <c r="A193" s="2" t="s">
         <v>203</v>
       </c>
@@ -11302,7 +11287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="39">
       <c r="A194" s="2" t="s">
         <v>203</v>
       </c>
@@ -11341,7 +11326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="39">
       <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
@@ -11380,7 +11365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="29.25">
       <c r="A196" s="2" t="s">
         <v>203</v>
       </c>
@@ -11421,7 +11406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="19.5">
       <c r="A197" s="2" t="s">
         <v>203</v>
       </c>
@@ -11476,7 +11461,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="19.5">
       <c r="A198" s="2" t="s">
         <v>203</v>
       </c>
@@ -11531,7 +11516,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="19.5">
       <c r="A199" s="2" t="s">
         <v>242</v>
       </c>
@@ -11588,7 +11573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>242</v>
       </c>
@@ -11645,7 +11630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="19.5">
       <c r="A201" s="2" t="s">
         <v>242</v>
       </c>
@@ -11702,7 +11687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="19.5">
       <c r="A202" s="2" t="s">
         <v>242</v>
       </c>
@@ -11737,7 +11722,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="19.5">
       <c r="A203" s="2" t="s">
         <v>242</v>
       </c>
@@ -11772,7 +11757,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>242</v>
       </c>
@@ -11827,7 +11812,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="19.5">
       <c r="A205" s="2" t="s">
         <v>242</v>
       </c>
@@ -11882,7 +11867,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="29.25">
       <c r="A206" s="2" t="s">
         <v>242</v>
       </c>
@@ -11927,7 +11912,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="19.5">
       <c r="A207" s="2" t="s">
         <v>242</v>
       </c>
@@ -11982,7 +11967,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>242</v>
       </c>
@@ -12033,7 +12018,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="48.75">
       <c r="A209" s="2" t="s">
         <v>242</v>
       </c>
@@ -12090,7 +12075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="19.5">
       <c r="A210" s="2" t="s">
         <v>263</v>
       </c>
@@ -12125,7 +12110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="19.5">
       <c r="A211" s="2" t="s">
         <v>263</v>
       </c>
@@ -12180,7 +12165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="39">
       <c r="A212" s="2" t="s">
         <v>263</v>
       </c>
@@ -12235,7 +12220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="19.5">
       <c r="A213" s="2" t="s">
         <v>263</v>
       </c>
@@ -12286,7 +12271,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>269</v>
       </c>
@@ -12343,7 +12328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>269</v>
       </c>
@@ -12400,7 +12385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>269</v>
       </c>
@@ -12439,7 +12424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>269</v>
       </c>
@@ -12478,7 +12463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="29.25">
       <c r="A218" s="2" t="s">
         <v>269</v>
       </c>
@@ -12517,7 +12502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>269</v>
       </c>
@@ -12574,7 +12559,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>269</v>
       </c>
@@ -12631,7 +12616,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>269</v>
       </c>
@@ -12688,7 +12673,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>269</v>
       </c>
@@ -12733,7 +12718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>269</v>
       </c>
@@ -12778,7 +12763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>269</v>
       </c>
@@ -12823,7 +12808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="58.5">
       <c r="A225" s="2" t="s">
         <v>269</v>
       </c>
@@ -12868,7 +12853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>269</v>
       </c>
@@ -12913,7 +12898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>269</v>
       </c>
@@ -12958,7 +12943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>269</v>
       </c>
@@ -13003,7 +12988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>269</v>
       </c>
@@ -13048,7 +13033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="39">
       <c r="A230" s="2" t="s">
         <v>269</v>
       </c>
@@ -13093,7 +13078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>269</v>
       </c>
@@ -13138,7 +13123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="39">
       <c r="A232" s="2" t="s">
         <v>269</v>
       </c>
@@ -13183,7 +13168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>269</v>
       </c>
@@ -13228,7 +13213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>269</v>
       </c>
@@ -13273,7 +13258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>269</v>
       </c>
@@ -13318,7 +13303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>269</v>
       </c>
@@ -13363,7 +13348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>269</v>
       </c>
@@ -13408,7 +13393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>269</v>
       </c>
@@ -13453,7 +13438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>269</v>
       </c>
@@ -13498,7 +13483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>269</v>
       </c>
@@ -13543,7 +13528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>269</v>
       </c>
@@ -13600,7 +13585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>269</v>
       </c>
@@ -13657,7 +13642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>269</v>
       </c>
@@ -13714,7 +13699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>269</v>
       </c>
@@ -13771,7 +13756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>269</v>
       </c>
@@ -13828,7 +13813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>269</v>
       </c>
@@ -13885,7 +13870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>269</v>
       </c>
@@ -13942,7 +13927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>269</v>
       </c>
@@ -13999,7 +13984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>269</v>
       </c>
@@ -14056,7 +14041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>269</v>
       </c>
@@ -14113,7 +14098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>269</v>
       </c>
@@ -14170,7 +14155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>269</v>
       </c>
@@ -14227,7 +14212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="39">
       <c r="A253" s="2" t="s">
         <v>269</v>
       </c>
@@ -14268,7 +14253,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="39">
       <c r="A254" s="2" t="s">
         <v>269</v>
       </c>
@@ -14309,7 +14294,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="39">
       <c r="A255" s="2" t="s">
         <v>269</v>
       </c>
@@ -14350,7 +14335,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="29.25">
       <c r="A256" s="2" t="s">
         <v>269</v>
       </c>
@@ -14407,7 +14392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="39">
       <c r="A257" s="2" t="s">
         <v>269</v>
       </c>
@@ -14464,7 +14449,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="29.25">
       <c r="A258" s="2" t="s">
         <v>269</v>
       </c>
@@ -14499,7 +14484,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="29.25">
       <c r="A259" s="2" t="s">
         <v>269</v>
       </c>
@@ -14534,7 +14519,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="29.25">
       <c r="A260" s="2" t="s">
         <v>269</v>
       </c>
@@ -14569,7 +14554,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="29.25">
       <c r="A261" s="2" t="s">
         <v>269</v>
       </c>
@@ -14604,7 +14589,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="29.25">
       <c r="A262" s="2" t="s">
         <v>269</v>
       </c>
@@ -14639,7 +14624,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="29.25">
       <c r="A263" s="2" t="s">
         <v>269</v>
       </c>
@@ -14674,7 +14659,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="29.25">
       <c r="A264" s="2" t="s">
         <v>269</v>
       </c>
@@ -14709,7 +14694,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="29.25">
       <c r="A265" s="2" t="s">
         <v>269</v>
       </c>
@@ -14744,7 +14729,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="29.25">
       <c r="A266" s="2" t="s">
         <v>269</v>
       </c>
@@ -14795,7 +14780,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="39">
       <c r="A267" s="2" t="s">
         <v>313</v>
       </c>
@@ -14852,7 +14837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="39">
       <c r="A268" s="2" t="s">
         <v>313</v>
       </c>
@@ -14909,7 +14894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="39">
       <c r="A269" s="2" t="s">
         <v>313</v>
       </c>
@@ -14966,7 +14951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="39">
       <c r="A270" s="2" t="s">
         <v>313</v>
       </c>
@@ -15023,7 +15008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="39">
       <c r="A271" s="2" t="s">
         <v>313</v>
       </c>
@@ -15080,7 +15065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="39">
       <c r="A272" s="2" t="s">
         <v>313</v>
       </c>
@@ -15137,7 +15122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="39">
       <c r="A273" s="2" t="s">
         <v>313</v>
       </c>
@@ -15194,7 +15179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="39">
       <c r="A274" s="2" t="s">
         <v>313</v>
       </c>
@@ -15251,7 +15236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="39">
       <c r="A275" s="2" t="s">
         <v>313</v>
       </c>
@@ -15308,7 +15293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="39">
       <c r="A276" s="2" t="s">
         <v>313</v>
       </c>
@@ -15365,7 +15350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="39">
       <c r="A277" s="2" t="s">
         <v>313</v>
       </c>
@@ -15422,7 +15407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="39">
       <c r="A278" s="2" t="s">
         <v>313</v>
       </c>
@@ -15479,7 +15464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="39">
       <c r="A279" s="2" t="s">
         <v>313</v>
       </c>
@@ -15536,7 +15521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="39">
       <c r="A280" s="2" t="s">
         <v>313</v>
       </c>
@@ -15593,7 +15578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="39">
       <c r="A281" s="2" t="s">
         <v>313</v>
       </c>
@@ -15650,7 +15635,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="39">
       <c r="A282" s="2" t="s">
         <v>313</v>
       </c>
@@ -15707,7 +15692,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="39">
       <c r="A283" s="2" t="s">
         <v>313</v>
       </c>
@@ -15764,7 +15749,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="39">
       <c r="A284" s="2" t="s">
         <v>313</v>
       </c>
@@ -15821,7 +15806,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="39">
       <c r="A285" s="2" t="s">
         <v>313</v>
       </c>
@@ -15878,7 +15863,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="39">
       <c r="A286" s="2" t="s">
         <v>313</v>
       </c>
@@ -15935,7 +15920,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="39">
       <c r="A287" s="2" t="s">
         <v>313</v>
       </c>
@@ -15986,7 +15971,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="39">
       <c r="A288" s="2" t="s">
         <v>313</v>
       </c>
@@ -16043,7 +16028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="39">
       <c r="A289" s="2" t="s">
         <v>313</v>
       </c>
@@ -16100,7 +16085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="39">
       <c r="A290" s="2" t="s">
         <v>313</v>
       </c>
@@ -16151,7 +16136,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="39">
       <c r="A291" s="2" t="s">
         <v>313</v>
       </c>
@@ -16204,7 +16189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="48.75">
       <c r="A292" s="2" t="s">
         <v>313</v>
       </c>
@@ -16253,7 +16238,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="48.75">
       <c r="A293" s="2" t="s">
         <v>313</v>
       </c>
@@ -16302,7 +16287,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="19.5">
       <c r="A294" s="2" t="s">
         <v>345</v>
       </c>
@@ -16359,7 +16344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="58.5">
       <c r="A295" s="2" t="s">
         <v>345</v>
       </c>
@@ -16416,7 +16401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="19.5">
       <c r="A296" s="2" t="s">
         <v>345</v>
       </c>
@@ -16473,7 +16458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="19.5">
       <c r="A297" s="2" t="s">
         <v>345</v>
       </c>
@@ -16530,7 +16515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>345</v>
       </c>
@@ -16587,7 +16572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="19.5">
       <c r="A299" s="2" t="s">
         <v>345</v>
       </c>
@@ -16644,7 +16629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="19.5">
       <c r="A300" s="2" t="s">
         <v>345</v>
       </c>
@@ -16701,7 +16686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="19.5">
       <c r="A301" s="2" t="s">
         <v>345</v>
       </c>
@@ -16758,7 +16743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="19.5">
       <c r="A302" s="2" t="s">
         <v>345</v>
       </c>
@@ -16815,7 +16800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="19.5">
       <c r="A303" s="2" t="s">
         <v>345</v>
       </c>
@@ -16872,7 +16857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="19.5">
       <c r="A304" s="2" t="s">
         <v>345</v>
       </c>
@@ -16929,7 +16914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="19.5">
       <c r="A305" s="2" t="s">
         <v>345</v>
       </c>
@@ -16968,7 +16953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="19.5">
       <c r="A306" s="2" t="s">
         <v>345</v>
       </c>
@@ -17025,7 +17010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="78">
       <c r="A307" s="2" t="s">
         <v>345</v>
       </c>
@@ -17082,7 +17067,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="48.75">
       <c r="A308" s="2" t="s">
         <v>345</v>
       </c>
@@ -17139,7 +17124,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="78">
       <c r="A309" s="2" t="s">
         <v>345</v>
       </c>
@@ -17196,7 +17181,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="48.75">
       <c r="A310" s="2" t="s">
         <v>345</v>
       </c>
@@ -17253,7 +17238,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="48.75">
       <c r="A311" s="2" t="s">
         <v>345</v>
       </c>
@@ -17310,7 +17295,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="58.5">
       <c r="A312" s="2" t="s">
         <v>345</v>
       </c>
@@ -17365,7 +17350,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="39">
       <c r="A313" s="2" t="s">
         <v>345</v>
       </c>
@@ -17422,7 +17407,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="39">
       <c r="A314" s="2" t="s">
         <v>345</v>
       </c>
@@ -17479,7 +17464,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="58.5">
       <c r="A315" s="2" t="s">
         <v>345</v>
       </c>
@@ -17536,7 +17521,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="58.5">
       <c r="A316" s="2" t="s">
         <v>345</v>
       </c>
@@ -17593,7 +17578,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="39">
       <c r="A317" s="2" t="s">
         <v>345</v>
       </c>
@@ -17650,7 +17635,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="48.75">
       <c r="A318" s="2" t="s">
         <v>345</v>
       </c>
@@ -17707,7 +17692,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="29.25">
       <c r="A319" s="2" t="s">
         <v>345</v>
       </c>
@@ -17764,7 +17749,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="48.75">
       <c r="A320" s="2" t="s">
         <v>345</v>
       </c>
@@ -17821,7 +17806,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="48.75">
       <c r="A321" s="2" t="s">
         <v>345</v>
       </c>
@@ -17878,7 +17863,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="78">
       <c r="A322" s="2" t="s">
         <v>345</v>
       </c>
@@ -17935,7 +17920,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="97.5">
       <c r="A323" s="2" t="s">
         <v>345</v>
       </c>
@@ -17992,7 +17977,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="78">
       <c r="A324" s="2" t="s">
         <v>345</v>
       </c>
@@ -18049,7 +18034,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="87.75">
       <c r="A325" s="2" t="s">
         <v>345</v>
       </c>
@@ -18106,7 +18091,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="48.75">
       <c r="A326" s="2" t="s">
         <v>345</v>
       </c>
@@ -18163,7 +18148,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="78">
       <c r="A327" s="2" t="s">
         <v>345</v>
       </c>
@@ -18220,7 +18205,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="87.75">
       <c r="A328" s="2" t="s">
         <v>345</v>
       </c>
@@ -18277,7 +18262,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="78">
       <c r="A329" s="2" t="s">
         <v>345</v>
       </c>
@@ -18334,7 +18319,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="87.75">
       <c r="A330" s="2" t="s">
         <v>345</v>
       </c>
@@ -18391,7 +18376,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="39">
       <c r="A331" s="2" t="s">
         <v>384</v>
       </c>
@@ -18446,7 +18431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="39">
       <c r="A332" s="2" t="s">
         <v>384</v>
       </c>
@@ -18501,7 +18486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="39">
       <c r="A333" s="2" t="s">
         <v>384</v>
       </c>
@@ -18556,7 +18541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="39">
       <c r="A334" s="2" t="s">
         <v>384</v>
       </c>
@@ -18613,7 +18598,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="39">
       <c r="A335" s="2" t="s">
         <v>384</v>
       </c>
@@ -18670,7 +18655,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="39">
       <c r="A336" s="2" t="s">
         <v>384</v>
       </c>
@@ -18727,7 +18712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="39">
       <c r="A337" s="2" t="s">
         <v>384</v>
       </c>
@@ -18784,7 +18769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="39">
       <c r="A338" s="2" t="s">
         <v>384</v>
       </c>
@@ -18841,7 +18826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="39">
       <c r="A339" s="2" t="s">
         <v>384</v>
       </c>
@@ -18898,7 +18883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="39">
       <c r="A340" s="2" t="s">
         <v>384</v>
       </c>
@@ -18948,14 +18933,14 @@
         <v>20.7</v>
       </c>
       <c r="Q340" s="4">
-        <v>1</v>
+        <v>22.5</v>
       </c>
       <c r="R340" s="3"/>
       <c r="S340" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="39">
       <c r="A341" s="2" t="s">
         <v>384</v>
       </c>
@@ -19012,7 +18997,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="39">
       <c r="A342" s="2" t="s">
         <v>384</v>
       </c>
@@ -19069,7 +19054,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="39">
       <c r="A343" s="2" t="s">
         <v>384</v>
       </c>
@@ -19126,7 +19111,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="39">
       <c r="A344" s="2" t="s">
         <v>384</v>
       </c>
@@ -19183,7 +19168,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="39">
       <c r="A345" s="2" t="s">
         <v>384</v>
       </c>
@@ -19240,7 +19225,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="39">
       <c r="A346" s="2" t="s">
         <v>384</v>
       </c>
@@ -19297,7 +19282,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="39">
       <c r="A347" s="2" t="s">
         <v>384</v>
       </c>
@@ -19354,7 +19339,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="39">
       <c r="A348" s="2" t="s">
         <v>384</v>
       </c>
@@ -19411,7 +19396,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="39">
       <c r="A349" s="2" t="s">
         <v>384</v>
       </c>
@@ -19468,7 +19453,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="39">
       <c r="A350" s="2" t="s">
         <v>384</v>
       </c>
@@ -19525,7 +19510,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="39">
       <c r="A351" s="2" t="s">
         <v>384</v>
       </c>
@@ -19582,7 +19567,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="39">
       <c r="A352" s="2" t="s">
         <v>384</v>
       </c>
@@ -19639,7 +19624,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="39">
       <c r="A353" s="2" t="s">
         <v>384</v>
       </c>
@@ -19696,7 +19681,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="39">
       <c r="A354" s="2" t="s">
         <v>384</v>
       </c>
@@ -19753,7 +19738,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="39">
       <c r="A355" s="2" t="s">
         <v>384</v>
       </c>
@@ -19810,7 +19795,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="39">
       <c r="A356" s="2" t="s">
         <v>384</v>
       </c>
@@ -19867,7 +19852,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="39">
       <c r="A357" s="2" t="s">
         <v>384</v>
       </c>
@@ -19924,7 +19909,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="39">
       <c r="A358" s="2" t="s">
         <v>384</v>
       </c>
@@ -19979,7 +19964,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="39">
       <c r="A359" s="2" t="s">
         <v>384</v>
       </c>
@@ -20036,7 +20021,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="39">
       <c r="A360" s="2" t="s">
         <v>384</v>
       </c>
@@ -20093,7 +20078,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="39">
       <c r="A361" s="2" t="s">
         <v>384</v>
       </c>
@@ -20150,7 +20135,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="39">
       <c r="A362" s="2" t="s">
         <v>384</v>
       </c>
@@ -20207,7 +20192,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="39">
       <c r="A363" s="2" t="s">
         <v>384</v>
       </c>
@@ -20264,7 +20249,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="39">
       <c r="A364" s="2" t="s">
         <v>384</v>
       </c>
@@ -20321,7 +20306,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="39">
       <c r="A365" s="2" t="s">
         <v>384</v>
       </c>
@@ -20378,7 +20363,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="39">
       <c r="A366" s="2" t="s">
         <v>384</v>
       </c>
@@ -20435,7 +20420,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="39">
       <c r="A367" s="2" t="s">
         <v>384</v>
       </c>
@@ -20492,7 +20477,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="39">
       <c r="A368" s="2" t="s">
         <v>384</v>
       </c>
@@ -20549,7 +20534,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="39">
       <c r="A369" s="2" t="s">
         <v>384</v>
       </c>
@@ -20606,7 +20591,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="39">
       <c r="A370" s="2" t="s">
         <v>384</v>
       </c>
@@ -20663,7 +20648,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="39">
       <c r="A371" s="2" t="s">
         <v>384</v>
       </c>
@@ -20720,7 +20705,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="39">
       <c r="A372" s="2" t="s">
         <v>417</v>
       </c>
@@ -20777,7 +20762,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="39">
       <c r="A373" s="2" t="s">
         <v>417</v>
       </c>
@@ -20834,7 +20819,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="39">
       <c r="A374" s="2" t="s">
         <v>417</v>
       </c>
@@ -20891,7 +20876,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="58.5">
       <c r="A375" s="2" t="s">
         <v>417</v>
       </c>
@@ -20950,7 +20935,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="39">
       <c r="A376" s="2" t="s">
         <v>417</v>
       </c>
@@ -20995,7 +20980,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="39">
       <c r="A377" s="2" t="s">
         <v>417</v>
       </c>
@@ -21040,7 +21025,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="39">
       <c r="A378" s="2" t="s">
         <v>417</v>
       </c>
@@ -21085,7 +21070,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="39">
       <c r="A379" s="2" t="s">
         <v>417</v>
       </c>
@@ -21138,7 +21123,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="39">
       <c r="A380" s="2" t="s">
         <v>417</v>
       </c>
@@ -21183,7 +21168,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="39">
       <c r="A381" s="2" t="s">
         <v>417</v>
       </c>
@@ -21242,7 +21227,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="48.75">
       <c r="A382" s="2" t="s">
         <v>417</v>
       </c>
@@ -21301,7 +21286,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="39">
       <c r="A383" s="2" t="s">
         <v>435</v>
       </c>
@@ -21358,7 +21343,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="39">
       <c r="A384" s="2" t="s">
         <v>435</v>
       </c>
@@ -21415,7 +21400,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="48.75">
       <c r="A385" s="2" t="s">
         <v>435</v>
       </c>
@@ -21474,7 +21459,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="48.75">
       <c r="A386" s="2" t="s">
         <v>435</v>
       </c>
@@ -21529,7 +21514,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="48.75">
       <c r="A387" s="2" t="s">
         <v>435</v>
       </c>
@@ -21588,7 +21573,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="19.5">
       <c r="A388" s="2" t="s">
         <v>435</v>
       </c>
@@ -21639,7 +21624,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="68.25">
       <c r="A389" s="2" t="s">
         <v>445</v>
       </c>
@@ -21698,7 +21683,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="78">
       <c r="A390" s="2" t="s">
         <v>445</v>
       </c>
@@ -21757,7 +21742,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="78">
       <c r="A391" s="2" t="s">
         <v>445</v>
       </c>
@@ -21816,7 +21801,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="68.25">
       <c r="A392" s="2" t="s">
         <v>445</v>
       </c>
@@ -21875,7 +21860,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="48.75">
       <c r="A393" s="2" t="s">
         <v>445</v>
       </c>
@@ -21930,7 +21915,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="19.5">
       <c r="A394" s="2" t="s">
         <v>455</v>
       </c>
@@ -21985,7 +21970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="19.5">
       <c r="A395" s="2" t="s">
         <v>455</v>
       </c>
@@ -22040,7 +22025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="39">
       <c r="A396" s="2" t="s">
         <v>455</v>
       </c>
@@ -22097,7 +22082,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="19.5">
       <c r="A397" s="2" t="s">
         <v>455</v>
       </c>
@@ -22136,7 +22121,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="19.5">
       <c r="A398" s="2" t="s">
         <v>455</v>
       </c>
@@ -22169,7 +22154,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="19.5">
       <c r="A399" s="2" t="s">
         <v>455</v>
       </c>
@@ -22202,7 +22187,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="19.5">
       <c r="A400" s="2" t="s">
         <v>455</v>
       </c>
@@ -22235,7 +22220,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="19.5">
       <c r="A401" s="2" t="s">
         <v>455</v>
       </c>
@@ -22274,7 +22259,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="19.5">
       <c r="A402" s="2" t="s">
         <v>455</v>
       </c>
@@ -22313,7 +22298,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="19.5">
       <c r="A403" s="2" t="s">
         <v>455</v>
       </c>
@@ -22352,7 +22337,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="39">
       <c r="A404" s="2" t="s">
         <v>455</v>
       </c>
@@ -22411,7 +22396,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="19.5">
       <c r="A405" s="2" t="s">
         <v>455</v>
       </c>
@@ -22468,7 +22453,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="29.25">
       <c r="A406" s="2" t="s">
         <v>455</v>
       </c>
@@ -22527,7 +22512,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="29.25">
       <c r="A407" s="2" t="s">
         <v>455</v>
       </c>
@@ -22578,7 +22563,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="29.25">
       <c r="A408" s="2" t="s">
         <v>455</v>
       </c>
@@ -22629,7 +22614,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="19.5">
       <c r="A409" s="2" t="s">
         <v>455</v>
       </c>
@@ -22686,7 +22671,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="29.25">
       <c r="A410" s="2" t="s">
         <v>475</v>
       </c>
@@ -22741,7 +22726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="29.25">
       <c r="A411" s="2" t="s">
         <v>475</v>
       </c>
@@ -22800,7 +22785,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="29.25">
       <c r="A412" s="2" t="s">
         <v>475</v>
       </c>
@@ -22843,7 +22828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="29.25">
       <c r="A413" s="2" t="s">
         <v>475</v>
       </c>
@@ -22896,7 +22881,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="29.25">
       <c r="A414" s="2" t="s">
         <v>475</v>
       </c>
@@ -22941,7 +22926,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="29.25">
       <c r="A415" s="2" t="s">
         <v>475</v>
       </c>
@@ -22986,7 +22971,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="29.25">
       <c r="A416" s="2" t="s">
         <v>475</v>
       </c>
@@ -23031,7 +23016,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="29.25">
       <c r="A417" s="2" t="s">
         <v>475</v>
       </c>
@@ -23076,7 +23061,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="29.25">
       <c r="A418" s="2" t="s">
         <v>475</v>
       </c>
@@ -23121,7 +23106,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="29.25">
       <c r="A419" s="2" t="s">
         <v>475</v>
       </c>
@@ -23166,7 +23151,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="39">
       <c r="A420" s="2" t="s">
         <v>475</v>
       </c>
@@ -23211,7 +23196,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="39">
       <c r="A421" s="2" t="s">
         <v>475</v>
       </c>
@@ -23256,7 +23241,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="39">
       <c r="A422" s="2" t="s">
         <v>475</v>
       </c>
@@ -23301,7 +23286,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="39">
       <c r="A423" s="2" t="s">
         <v>475</v>
       </c>
@@ -23346,7 +23331,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="39">
       <c r="A424" s="2" t="s">
         <v>475</v>
       </c>
@@ -23403,7 +23388,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="39">
       <c r="A425" s="2" t="s">
         <v>475</v>
       </c>
@@ -23458,7 +23443,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="39">
       <c r="A426" s="2" t="s">
         <v>475</v>
       </c>
@@ -23513,7 +23498,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="39">
       <c r="A427" s="2" t="s">
         <v>475</v>
       </c>
@@ -23568,7 +23553,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="39">
       <c r="A428" s="2" t="s">
         <v>475</v>
       </c>
@@ -23625,7 +23610,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="29.25">
       <c r="A429" s="2" t="s">
         <v>475</v>
       </c>
@@ -23682,7 +23667,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="29.25">
       <c r="A430" s="2" t="s">
         <v>475</v>
       </c>
@@ -23721,7 +23706,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="29.25">
       <c r="A431" s="2" t="s">
         <v>475</v>
       </c>
@@ -23760,7 +23745,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="29.25">
       <c r="A432" s="2" t="s">
         <v>475</v>
       </c>
@@ -23799,7 +23784,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="29.25">
       <c r="A433" s="2" t="s">
         <v>475</v>
       </c>
@@ -23838,7 +23823,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="29.25">
       <c r="A434" s="2" t="s">
         <v>475</v>
       </c>
@@ -23877,7 +23862,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="29.25">
       <c r="A435" s="2" t="s">
         <v>475</v>
       </c>
@@ -23916,7 +23901,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="29.25">
       <c r="A436" s="2" t="s">
         <v>475</v>
       </c>
@@ -23955,7 +23940,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="29.25">
       <c r="A437" s="2" t="s">
         <v>475</v>
       </c>
@@ -23994,7 +23979,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="29.25">
       <c r="A438" s="2" t="s">
         <v>475</v>
       </c>
@@ -24033,7 +24018,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="29.25">
       <c r="A439" s="2" t="s">
         <v>475</v>
       </c>
@@ -24072,7 +24057,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="29.25">
       <c r="A440" s="2" t="s">
         <v>475</v>
       </c>
@@ -24111,7 +24096,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="29.25">
       <c r="A441" s="2" t="s">
         <v>475</v>
       </c>
@@ -24150,7 +24135,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="29.25">
       <c r="A442" s="2" t="s">
         <v>475</v>
       </c>
@@ -24209,7 +24194,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="29.25">
       <c r="A443" s="2" t="s">
         <v>475</v>
       </c>
@@ -24248,7 +24233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="19.5">
       <c r="A444" s="2" t="s">
         <v>510</v>
       </c>
@@ -24305,7 +24290,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="19.5">
       <c r="A445" s="2" t="s">
         <v>510</v>
       </c>
@@ -24362,7 +24347,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="19.5">
       <c r="A446" s="2" t="s">
         <v>510</v>
       </c>
@@ -24419,7 +24404,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="29.25">
       <c r="A447" s="2" t="s">
         <v>510</v>
       </c>
@@ -24476,7 +24461,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="29.25">
       <c r="A448" s="2" t="s">
         <v>510</v>
       </c>
@@ -24533,7 +24518,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="19.5">
       <c r="A449" s="2" t="s">
         <v>510</v>
       </c>
@@ -24590,7 +24575,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="29.25">
       <c r="A450" s="2" t="s">
         <v>510</v>
       </c>
@@ -24647,7 +24632,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="29.25">
       <c r="A451" s="2" t="s">
         <v>510</v>
       </c>
@@ -24706,7 +24691,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="29.25">
       <c r="A452" s="2" t="s">
         <v>510</v>
       </c>
@@ -24765,7 +24750,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="29.25">
       <c r="A453" s="2" t="s">
         <v>510</v>
       </c>
@@ -24824,7 +24809,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="19.5">
       <c r="A454" s="2" t="s">
         <v>510</v>
       </c>
@@ -24881,7 +24866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="19.5">
       <c r="A455" s="2" t="s">
         <v>510</v>
       </c>
@@ -24938,7 +24923,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="19.5">
       <c r="A456" s="2" t="s">
         <v>510</v>
       </c>
@@ -24995,7 +24980,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="29.25">
       <c r="A457" s="2" t="s">
         <v>510</v>
       </c>
@@ -25052,7 +25037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="29.25">
       <c r="A458" s="2" t="s">
         <v>510</v>
       </c>
@@ -25111,7 +25096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="39">
       <c r="A459" s="2" t="s">
         <v>510</v>
       </c>
@@ -25170,7 +25155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="19.5">
       <c r="A460" s="2" t="s">
         <v>510</v>
       </c>
@@ -25229,7 +25214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="58.5">
       <c r="A461" s="2" t="s">
         <v>510</v>
       </c>
@@ -25286,7 +25271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="58.5">
       <c r="A462" s="2" t="s">
         <v>510</v>
       </c>
@@ -25343,7 +25328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="29.25">
       <c r="A463" s="2" t="s">
         <v>510</v>
       </c>
@@ -25386,7 +25371,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="29.25">
       <c r="A464" s="2" t="s">
         <v>510</v>
       </c>
@@ -25445,7 +25430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="29.25">
       <c r="A465" s="2" t="s">
         <v>510</v>
       </c>
@@ -25504,7 +25489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="29.25">
       <c r="A466" s="2" t="s">
         <v>510</v>
       </c>
@@ -25555,7 +25540,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="48.75">
       <c r="A467" s="2" t="s">
         <v>510</v>
       </c>
@@ -25592,7 +25577,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="48.75">
       <c r="A468" s="2" t="s">
         <v>510</v>
       </c>
@@ -25649,7 +25634,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="48.75">
       <c r="A469" s="2" t="s">
         <v>510</v>
       </c>
@@ -25706,9 +25691,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A472" s="12" t="s">
         <v>547</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1661,7 +1661,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 07-02-2023, 10:18</t>
+    <t>Ostatnia aktualizacja: 07-02-2023, 13:43</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1661,13 +1666,13 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 07-02-2023, 13:43</t>
+    <t>Ostatnia aktualizacja: 28-02-2023, 10:06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
@@ -1676,7 +1681,7 @@
     <numFmt numFmtId="168" formatCode="[$-10415]0.000;\-0.000;0.000"/>
     <numFmt numFmtId="169" formatCode="[$-10415]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1874,6 +1879,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1894,7 +1907,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1957,7 +1970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1989,9 +2002,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2023,6 +2037,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2198,15 +2213,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2218,17 +2233,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="25.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2287,7 +2302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2342,7 +2357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.5">
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2397,7 +2412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.5">
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2452,7 +2467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="19.5">
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2507,7 +2522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="19.5">
+    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2562,7 +2577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.5">
+    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2617,7 +2632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="19.5">
+    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2672,7 +2687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="19.5">
+    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2727,7 +2742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="19.5">
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2782,7 +2797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="19.5">
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2837,7 +2852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.5">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2892,7 +2907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.5">
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2947,7 +2962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="19.5">
+    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2986,7 +3001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="19.5">
+    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3043,7 +3058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="107.25">
+    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3098,7 +3113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="107.25">
+    <row r="19" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3153,7 +3168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="107.25">
+    <row r="20" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3208,7 +3223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19.5">
+    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3263,7 +3278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="39">
+    <row r="22" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3320,7 +3335,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="39">
+    <row r="23" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3377,7 +3392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="39">
+    <row r="24" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3422,7 +3437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="68.25">
+    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3467,7 +3482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="29.25">
+    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3512,7 +3527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="29.25">
+    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3557,7 +3572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="29.25">
+    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3608,7 +3623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="39">
+    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3665,7 +3680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="39">
+    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3722,7 +3737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="39">
+    <row r="31" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3779,7 +3794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="39">
+    <row r="32" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3836,7 +3851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3891,7 +3906,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="39">
+    <row r="34" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3936,7 +3951,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="39">
+    <row r="35" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -3981,7 +3996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="39">
+    <row r="36" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4026,7 +4041,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="29.25">
+    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4071,7 +4086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="29.25">
+    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4116,7 +4131,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="29.25">
+    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4161,7 +4176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="48.75">
+    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4200,7 +4215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="68.25">
+    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4259,7 +4274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="68.25">
+    <row r="42" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4318,7 +4333,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="68.25">
+    <row r="43" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4377,7 +4392,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="68.25">
+    <row r="44" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4436,7 +4451,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="68.25">
+    <row r="45" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4495,7 +4510,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="68.25">
+    <row r="46" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4554,7 +4569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="29.25">
+    <row r="47" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4603,7 +4618,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="29.25">
+    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4652,7 +4667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.5">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4707,7 +4722,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="19.5">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4758,7 +4773,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.5">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4813,7 +4828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.5">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4870,7 +4885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.5">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4927,7 +4942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.5">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -4984,7 +4999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.5">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -5041,7 +5056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.5">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -5098,7 +5113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.5">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -5155,7 +5170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.5">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -5212,7 +5227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="39">
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -5269,7 +5284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.5">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -5326,7 +5341,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="39">
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -5383,7 +5398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="39">
+    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
@@ -5440,7 +5455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="39">
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
@@ -5497,7 +5512,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.5">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -5554,7 +5569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="39">
+    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
@@ -5611,7 +5626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="39">
+    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -5668,7 +5683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="39">
+    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -5725,7 +5740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="29.25">
+    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5772,15 +5787,17 @@
         <v>421</v>
       </c>
       <c r="P68" s="4">
-        <v>455.1</v>
-      </c>
-      <c r="Q68" s="3"/>
+        <v>457.2</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>475.8</v>
+      </c>
       <c r="R68" s="3"/>
       <c r="S68" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="29.25">
+    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5827,15 +5844,17 @@
         <v>24.2</v>
       </c>
       <c r="P69" s="4">
-        <v>31.7</v>
-      </c>
-      <c r="Q69" s="3"/>
+        <v>31.9</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>28.5</v>
+      </c>
       <c r="R69" s="3"/>
       <c r="S69" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="29.25">
+    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -5882,15 +5901,17 @@
         <v>261.3</v>
       </c>
       <c r="P70" s="4">
-        <v>260.39999999999998</v>
-      </c>
-      <c r="Q70" s="3"/>
+        <v>261.60000000000002</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>246.5</v>
+      </c>
       <c r="R70" s="3"/>
       <c r="S70" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="29.25">
+    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -5937,15 +5958,17 @@
         <v>22.6</v>
       </c>
       <c r="P71" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="Q71" s="3"/>
+        <v>22.9</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>25.4</v>
+      </c>
       <c r="R71" s="3"/>
       <c r="S71" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.5">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -6000,7 +6023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.5">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -6055,7 +6078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.5">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -6110,7 +6133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.5">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -6167,7 +6190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="29.25">
+    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
@@ -6224,7 +6247,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="29.25">
+    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -6263,7 +6286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.5">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -6320,7 +6343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.5">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -6377,7 +6400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.5">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -6434,7 +6457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.5">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -6475,7 +6498,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="29.25">
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -6520,7 +6543,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="29.25">
+    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -6565,7 +6588,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="39">
+    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -6600,7 +6623,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="39">
+    <row r="85" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -6635,7 +6658,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.5">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -6690,7 +6713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.5">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -6729,7 +6752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="29.25">
+    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -6786,7 +6809,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="29.25">
+    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -6843,7 +6866,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="29.25">
+    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -6884,7 +6907,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="19.5">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -6935,7 +6958,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.5">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -6974,7 +6997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.5">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -7013,7 +7036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="19.5">
+    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -7052,7 +7075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.5">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -7105,7 +7128,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="29.25">
+    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>148</v>
       </c>
@@ -7142,7 +7165,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="29.25">
+    <row r="97" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>148</v>
       </c>
@@ -7179,7 +7202,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="29.25">
+    <row r="98" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>148</v>
       </c>
@@ -7216,7 +7239,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="29.25">
+    <row r="99" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>148</v>
       </c>
@@ -7257,7 +7280,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="29.25">
+    <row r="100" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>148</v>
       </c>
@@ -7298,7 +7321,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="29.25">
+    <row r="101" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>148</v>
       </c>
@@ -7339,7 +7362,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="29.25">
+    <row r="102" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>148</v>
       </c>
@@ -7380,7 +7403,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="29.25">
+    <row r="103" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>148</v>
       </c>
@@ -7421,7 +7444,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="29.25">
+    <row r="104" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>148</v>
       </c>
@@ -7462,7 +7485,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="29.25">
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>148</v>
       </c>
@@ -7499,7 +7522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="19.5">
+    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>148</v>
       </c>
@@ -7556,7 +7579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="19.5">
+    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>148</v>
       </c>
@@ -7613,7 +7636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="19.5">
+    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>148</v>
       </c>
@@ -7670,7 +7693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="29.25">
+    <row r="109" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>148</v>
       </c>
@@ -7707,7 +7730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="29.25">
+    <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>148</v>
       </c>
@@ -7744,7 +7767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="29.25">
+    <row r="111" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>148</v>
       </c>
@@ -7781,7 +7804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="39">
+    <row r="112" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>148</v>
       </c>
@@ -7826,7 +7849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="29.25">
+    <row r="113" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>148</v>
       </c>
@@ -7873,7 +7896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="58.5">
+    <row r="114" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>148</v>
       </c>
@@ -7920,7 +7943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="58.5">
+    <row r="115" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>148</v>
       </c>
@@ -7967,7 +7990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="68.25">
+    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>148</v>
       </c>
@@ -8014,7 +8037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="29.25">
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>148</v>
       </c>
@@ -8061,7 +8084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="39">
+    <row r="118" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -8106,7 +8129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="29.25">
+    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>148</v>
       </c>
@@ -8153,7 +8176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="58.5">
+    <row r="120" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>148</v>
       </c>
@@ -8200,7 +8223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="58.5">
+    <row r="121" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -8247,7 +8270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="68.25">
+    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -8294,7 +8317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="29.25">
+    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8341,7 +8364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="39">
+    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8380,7 +8403,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="39">
+    <row r="125" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8419,7 +8442,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="39">
+    <row r="126" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8476,7 +8499,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="29.25">
+    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8511,7 +8534,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="29.25">
+    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8546,7 +8569,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="29.25">
+    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8581,7 +8604,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="29.25">
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8616,7 +8639,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="29.25">
+    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8651,7 +8674,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="29.25">
+    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8686,7 +8709,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="29.25">
+    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8721,7 +8744,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="29.25">
+    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8756,7 +8779,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="29.25">
+    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8791,7 +8814,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="29.25">
+    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8826,7 +8849,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="29.25">
+    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8861,7 +8884,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="29.25">
+    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8896,7 +8919,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="29.25">
+    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8931,7 +8954,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="29.25">
+    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -8966,7 +8989,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="29.25">
+    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9001,7 +9024,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="29.25">
+    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9036,7 +9059,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="48.75">
+    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9095,7 +9118,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="68.25">
+    <row r="144" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9154,7 +9177,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="68.25">
+    <row r="145" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9189,7 +9212,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="68.25">
+    <row r="146" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9224,7 +9247,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="68.25">
+    <row r="147" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9283,7 +9306,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="68.25">
+    <row r="148" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9342,7 +9365,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="68.25">
+    <row r="149" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9401,7 +9424,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="19.5">
+    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9452,7 +9475,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="48.75">
+    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9507,7 +9530,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="48.75">
+    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9562,7 +9585,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="48.75">
+    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9617,7 +9640,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="48.75">
+    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9672,7 +9695,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="39">
+    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>203</v>
       </c>
@@ -9707,7 +9730,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="29.25">
+    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>203</v>
       </c>
@@ -9764,7 +9787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="29.25">
+    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>203</v>
       </c>
@@ -9799,7 +9822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="29.25">
+    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>203</v>
       </c>
@@ -9834,7 +9857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="29.25">
+    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>203</v>
       </c>
@@ -9869,7 +9892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="29.25">
+    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>203</v>
       </c>
@@ -9904,7 +9927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="29.25">
+    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>203</v>
       </c>
@@ -9939,7 +9962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="19.5">
+    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>203</v>
       </c>
@@ -9974,7 +9997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="19.5">
+    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>203</v>
       </c>
@@ -10009,7 +10032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="19.5">
+    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -10044,7 +10067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="19.5">
+    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>203</v>
       </c>
@@ -10079,7 +10102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="19.5">
+    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>203</v>
       </c>
@@ -10114,7 +10137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="19.5">
+    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>203</v>
       </c>
@@ -10149,7 +10172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="19.5">
+    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>203</v>
       </c>
@@ -10184,7 +10207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="19.5">
+    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -10219,7 +10242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="39">
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>203</v>
       </c>
@@ -10258,7 +10281,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="39">
+    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>203</v>
       </c>
@@ -10297,7 +10320,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="39">
+    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>203</v>
       </c>
@@ -10354,7 +10377,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="39">
+    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>203</v>
       </c>
@@ -10411,7 +10434,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="39">
+    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>203</v>
       </c>
@@ -10468,7 +10491,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="39">
+    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>203</v>
       </c>
@@ -10525,7 +10548,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="39">
+    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -10582,7 +10605,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="39">
+    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>203</v>
       </c>
@@ -10627,7 +10650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="68.25">
+    <row r="178" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>203</v>
       </c>
@@ -10672,7 +10695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="48.75">
+    <row r="179" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>203</v>
       </c>
@@ -10717,7 +10740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="39">
+    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>203</v>
       </c>
@@ -10762,7 +10785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="39">
+    <row r="181" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>203</v>
       </c>
@@ -10807,7 +10830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="39">
+    <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>203</v>
       </c>
@@ -10852,7 +10875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="68.25">
+    <row r="183" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>203</v>
       </c>
@@ -10897,7 +10920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="39">
+    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>203</v>
       </c>
@@ -10936,7 +10959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="39">
+    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>203</v>
       </c>
@@ -10975,7 +10998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="39">
+    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>203</v>
       </c>
@@ -11014,7 +11037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="39">
+    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>203</v>
       </c>
@@ -11053,7 +11076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="39">
+    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>203</v>
       </c>
@@ -11092,7 +11115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="39">
+    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>203</v>
       </c>
@@ -11131,7 +11154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="39">
+    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>203</v>
       </c>
@@ -11170,7 +11193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="39">
+    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>203</v>
       </c>
@@ -11209,7 +11232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="39">
+    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>203</v>
       </c>
@@ -11248,7 +11271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="39">
+    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>203</v>
       </c>
@@ -11287,7 +11310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="39">
+    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>203</v>
       </c>
@@ -11326,7 +11349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="39">
+    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
@@ -11365,7 +11388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="29.25">
+    <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>203</v>
       </c>
@@ -11406,7 +11429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="19.5">
+    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>203</v>
       </c>
@@ -11461,7 +11484,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="19.5">
+    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>203</v>
       </c>
@@ -11516,7 +11539,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="19.5">
+    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>242</v>
       </c>
@@ -11573,7 +11596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="29.25">
+    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>242</v>
       </c>
@@ -11630,7 +11653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="19.5">
+    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>242</v>
       </c>
@@ -11687,7 +11710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="19.5">
+    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>242</v>
       </c>
@@ -11722,7 +11745,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="19.5">
+    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>242</v>
       </c>
@@ -11757,7 +11780,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="29.25">
+    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>242</v>
       </c>
@@ -11812,7 +11835,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="19.5">
+    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>242</v>
       </c>
@@ -11867,7 +11890,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="29.25">
+    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>242</v>
       </c>
@@ -11912,7 +11935,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="19.5">
+    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>242</v>
       </c>
@@ -11967,7 +11990,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="29.25">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>242</v>
       </c>
@@ -12018,7 +12041,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="48.75">
+    <row r="209" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>242</v>
       </c>
@@ -12075,7 +12098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="19.5">
+    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>263</v>
       </c>
@@ -12110,7 +12133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="19.5">
+    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>263</v>
       </c>
@@ -12165,7 +12188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="39">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>263</v>
       </c>
@@ -12220,7 +12243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="19.5">
+    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>263</v>
       </c>
@@ -12271,7 +12294,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="29.25">
+    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>269</v>
       </c>
@@ -12328,7 +12351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="29.25">
+    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>269</v>
       </c>
@@ -12385,7 +12408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="29.25">
+    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>269</v>
       </c>
@@ -12424,7 +12447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="29.25">
+    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>269</v>
       </c>
@@ -12463,7 +12486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="29.25">
+    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>269</v>
       </c>
@@ -12502,7 +12525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="29.25">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>269</v>
       </c>
@@ -12559,7 +12582,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="29.25">
+    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>269</v>
       </c>
@@ -12616,7 +12639,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="29.25">
+    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>269</v>
       </c>
@@ -12673,7 +12696,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="29.25">
+    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>269</v>
       </c>
@@ -12718,7 +12741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="29.25">
+    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>269</v>
       </c>
@@ -12763,7 +12786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="29.25">
+    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>269</v>
       </c>
@@ -12808,7 +12831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="58.5">
+    <row r="225" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>269</v>
       </c>
@@ -12853,7 +12876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="29.25">
+    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>269</v>
       </c>
@@ -12898,7 +12921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="29.25">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>269</v>
       </c>
@@ -12943,7 +12966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="29.25">
+    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>269</v>
       </c>
@@ -12988,7 +13011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="29.25">
+    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>269</v>
       </c>
@@ -13033,7 +13056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="39">
+    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>269</v>
       </c>
@@ -13078,7 +13101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="29.25">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>269</v>
       </c>
@@ -13123,7 +13146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="39">
+    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>269</v>
       </c>
@@ -13168,7 +13191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="29.25">
+    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>269</v>
       </c>
@@ -13213,7 +13236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="29.25">
+    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>269</v>
       </c>
@@ -13258,7 +13281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="29.25">
+    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>269</v>
       </c>
@@ -13303,7 +13326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="29.25">
+    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>269</v>
       </c>
@@ -13348,7 +13371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="29.25">
+    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>269</v>
       </c>
@@ -13393,7 +13416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="29.25">
+    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>269</v>
       </c>
@@ -13438,7 +13461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="29.25">
+    <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>269</v>
       </c>
@@ -13483,7 +13506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="29.25">
+    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>269</v>
       </c>
@@ -13528,7 +13551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="29.25">
+    <row r="241" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>269</v>
       </c>
@@ -13585,7 +13608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="29.25">
+    <row r="242" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>269</v>
       </c>
@@ -13642,7 +13665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="29.25">
+    <row r="243" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>269</v>
       </c>
@@ -13699,7 +13722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="29.25">
+    <row r="244" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>269</v>
       </c>
@@ -13756,7 +13779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="29.25">
+    <row r="245" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>269</v>
       </c>
@@ -13813,7 +13836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="29.25">
+    <row r="246" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>269</v>
       </c>
@@ -13870,7 +13893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="29.25">
+    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>269</v>
       </c>
@@ -13927,7 +13950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="29.25">
+    <row r="248" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>269</v>
       </c>
@@ -13984,7 +14007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="29.25">
+    <row r="249" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>269</v>
       </c>
@@ -14041,7 +14064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="29.25">
+    <row r="250" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>269</v>
       </c>
@@ -14098,7 +14121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="29.25">
+    <row r="251" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>269</v>
       </c>
@@ -14155,7 +14178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="29.25">
+    <row r="252" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>269</v>
       </c>
@@ -14212,7 +14235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="39">
+    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>269</v>
       </c>
@@ -14253,7 +14276,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="39">
+    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>269</v>
       </c>
@@ -14294,7 +14317,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="39">
+    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>269</v>
       </c>
@@ -14335,7 +14358,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="29.25">
+    <row r="256" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>269</v>
       </c>
@@ -14392,7 +14415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="39">
+    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>269</v>
       </c>
@@ -14449,7 +14472,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="29.25">
+    <row r="258" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>269</v>
       </c>
@@ -14484,7 +14507,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="29.25">
+    <row r="259" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>269</v>
       </c>
@@ -14519,7 +14542,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="29.25">
+    <row r="260" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>269</v>
       </c>
@@ -14554,7 +14577,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="29.25">
+    <row r="261" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>269</v>
       </c>
@@ -14589,7 +14612,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="29.25">
+    <row r="262" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>269</v>
       </c>
@@ -14624,7 +14647,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="29.25">
+    <row r="263" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>269</v>
       </c>
@@ -14659,7 +14682,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="29.25">
+    <row r="264" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>269</v>
       </c>
@@ -14694,7 +14717,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="29.25">
+    <row r="265" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>269</v>
       </c>
@@ -14729,7 +14752,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="29.25">
+    <row r="266" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>269</v>
       </c>
@@ -14780,7 +14803,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="39">
+    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>313</v>
       </c>
@@ -14837,7 +14860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="39">
+    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>313</v>
       </c>
@@ -14894,7 +14917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="39">
+    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>313</v>
       </c>
@@ -14951,7 +14974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="39">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>313</v>
       </c>
@@ -15008,7 +15031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="39">
+    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>313</v>
       </c>
@@ -15065,7 +15088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="39">
+    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>313</v>
       </c>
@@ -15122,7 +15145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="39">
+    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>313</v>
       </c>
@@ -15179,7 +15202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="39">
+    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>313</v>
       </c>
@@ -15236,7 +15259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="39">
+    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>313</v>
       </c>
@@ -15293,7 +15316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="39">
+    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>313</v>
       </c>
@@ -15350,7 +15373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="39">
+    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>313</v>
       </c>
@@ -15407,7 +15430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="39">
+    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>313</v>
       </c>
@@ -15464,7 +15487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="39">
+    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>313</v>
       </c>
@@ -15521,7 +15544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="39">
+    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>313</v>
       </c>
@@ -15578,7 +15601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="39">
+    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>313</v>
       </c>
@@ -15635,7 +15658,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="39">
+    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>313</v>
       </c>
@@ -15692,7 +15715,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="39">
+    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>313</v>
       </c>
@@ -15749,7 +15772,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="39">
+    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>313</v>
       </c>
@@ -15806,7 +15829,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="39">
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>313</v>
       </c>
@@ -15863,7 +15886,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="39">
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>313</v>
       </c>
@@ -15920,7 +15943,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="39">
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>313</v>
       </c>
@@ -15971,7 +15994,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="39">
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>313</v>
       </c>
@@ -16028,7 +16051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="39">
+    <row r="289" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>313</v>
       </c>
@@ -16085,7 +16108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="39">
+    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>313</v>
       </c>
@@ -16136,7 +16159,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="39">
+    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>313</v>
       </c>
@@ -16189,7 +16212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="48.75">
+    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>313</v>
       </c>
@@ -16238,7 +16261,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="48.75">
+    <row r="293" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>313</v>
       </c>
@@ -16287,7 +16310,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="19.5">
+    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>345</v>
       </c>
@@ -16344,7 +16367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="58.5">
+    <row r="295" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>345</v>
       </c>
@@ -16401,7 +16424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="19.5">
+    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>345</v>
       </c>
@@ -16458,7 +16481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="19.5">
+    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>345</v>
       </c>
@@ -16515,7 +16538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="19.5">
+    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>345</v>
       </c>
@@ -16572,7 +16595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="19.5">
+    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>345</v>
       </c>
@@ -16629,7 +16652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="19.5">
+    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>345</v>
       </c>
@@ -16686,7 +16709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="19.5">
+    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>345</v>
       </c>
@@ -16743,7 +16766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="19.5">
+    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>345</v>
       </c>
@@ -16800,7 +16823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="19.5">
+    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>345</v>
       </c>
@@ -16857,7 +16880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="19.5">
+    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>345</v>
       </c>
@@ -16914,7 +16937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="19.5">
+    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>345</v>
       </c>
@@ -16953,7 +16976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="19.5">
+    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>345</v>
       </c>
@@ -17010,7 +17033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="78">
+    <row r="307" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>345</v>
       </c>
@@ -17067,7 +17090,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="48.75">
+    <row r="308" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>345</v>
       </c>
@@ -17124,7 +17147,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="78">
+    <row r="309" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>345</v>
       </c>
@@ -17181,7 +17204,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="48.75">
+    <row r="310" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>345</v>
       </c>
@@ -17238,7 +17261,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="48.75">
+    <row r="311" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>345</v>
       </c>
@@ -17295,7 +17318,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="58.5">
+    <row r="312" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>345</v>
       </c>
@@ -17350,7 +17373,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="39">
+    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>345</v>
       </c>
@@ -17407,7 +17430,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="39">
+    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>345</v>
       </c>
@@ -17464,7 +17487,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="58.5">
+    <row r="315" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>345</v>
       </c>
@@ -17521,7 +17544,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="58.5">
+    <row r="316" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>345</v>
       </c>
@@ -17578,7 +17601,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="39">
+    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>345</v>
       </c>
@@ -17635,7 +17658,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="48.75">
+    <row r="318" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>345</v>
       </c>
@@ -17692,7 +17715,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="29.25">
+    <row r="319" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>345</v>
       </c>
@@ -17749,7 +17772,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="48.75">
+    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>345</v>
       </c>
@@ -17806,7 +17829,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="48.75">
+    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>345</v>
       </c>
@@ -17863,7 +17886,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="78">
+    <row r="322" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>345</v>
       </c>
@@ -17920,7 +17943,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="97.5">
+    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>345</v>
       </c>
@@ -17977,7 +18000,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="78">
+    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>345</v>
       </c>
@@ -18034,7 +18057,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="87.75">
+    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>345</v>
       </c>
@@ -18091,7 +18114,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="48.75">
+    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>345</v>
       </c>
@@ -18148,7 +18171,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="78">
+    <row r="327" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>345</v>
       </c>
@@ -18205,7 +18228,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="87.75">
+    <row r="328" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>345</v>
       </c>
@@ -18262,7 +18285,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="78">
+    <row r="329" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>345</v>
       </c>
@@ -18319,7 +18342,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="87.75">
+    <row r="330" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>345</v>
       </c>
@@ -18376,7 +18399,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="39">
+    <row r="331" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>384</v>
       </c>
@@ -18431,7 +18454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="39">
+    <row r="332" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>384</v>
       </c>
@@ -18486,7 +18509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="39">
+    <row r="333" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>384</v>
       </c>
@@ -18541,7 +18564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="39">
+    <row r="334" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>384</v>
       </c>
@@ -18598,7 +18621,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="39">
+    <row r="335" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>384</v>
       </c>
@@ -18655,7 +18678,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="39">
+    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>384</v>
       </c>
@@ -18712,7 +18735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="39">
+    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>384</v>
       </c>
@@ -18769,7 +18792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="39">
+    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>384</v>
       </c>
@@ -18826,7 +18849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="39">
+    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>384</v>
       </c>
@@ -18883,7 +18906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="39">
+    <row r="340" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>384</v>
       </c>
@@ -18940,7 +18963,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="39">
+    <row r="341" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>384</v>
       </c>
@@ -18997,7 +19020,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="39">
+    <row r="342" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>384</v>
       </c>
@@ -19054,7 +19077,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="39">
+    <row r="343" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>384</v>
       </c>
@@ -19111,7 +19134,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="39">
+    <row r="344" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>384</v>
       </c>
@@ -19168,7 +19191,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="39">
+    <row r="345" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>384</v>
       </c>
@@ -19225,7 +19248,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="39">
+    <row r="346" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>384</v>
       </c>
@@ -19282,7 +19305,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="39">
+    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>384</v>
       </c>
@@ -19339,7 +19362,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="39">
+    <row r="348" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>384</v>
       </c>
@@ -19396,7 +19419,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="39">
+    <row r="349" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>384</v>
       </c>
@@ -19453,7 +19476,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="39">
+    <row r="350" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>384</v>
       </c>
@@ -19510,7 +19533,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="39">
+    <row r="351" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>384</v>
       </c>
@@ -19567,7 +19590,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="39">
+    <row r="352" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>384</v>
       </c>
@@ -19624,7 +19647,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="39">
+    <row r="353" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>384</v>
       </c>
@@ -19681,7 +19704,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="39">
+    <row r="354" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>384</v>
       </c>
@@ -19738,7 +19761,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="39">
+    <row r="355" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>384</v>
       </c>
@@ -19795,7 +19818,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="39">
+    <row r="356" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>384</v>
       </c>
@@ -19852,7 +19875,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="39">
+    <row r="357" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>384</v>
       </c>
@@ -19909,7 +19932,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="39">
+    <row r="358" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>384</v>
       </c>
@@ -19964,7 +19987,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="39">
+    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>384</v>
       </c>
@@ -20021,7 +20044,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="39">
+    <row r="360" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>384</v>
       </c>
@@ -20078,7 +20101,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="39">
+    <row r="361" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>384</v>
       </c>
@@ -20135,7 +20158,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="39">
+    <row r="362" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>384</v>
       </c>
@@ -20192,7 +20215,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="39">
+    <row r="363" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>384</v>
       </c>
@@ -20249,7 +20272,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="39">
+    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>384</v>
       </c>
@@ -20306,7 +20329,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="39">
+    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>384</v>
       </c>
@@ -20363,7 +20386,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="39">
+    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>384</v>
       </c>
@@ -20420,7 +20443,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="39">
+    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>384</v>
       </c>
@@ -20477,7 +20500,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="39">
+    <row r="368" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>384</v>
       </c>
@@ -20534,7 +20557,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="39">
+    <row r="369" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>384</v>
       </c>
@@ -20591,7 +20614,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="39">
+    <row r="370" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>384</v>
       </c>
@@ -20648,7 +20671,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="39">
+    <row r="371" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>384</v>
       </c>
@@ -20705,7 +20728,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="39">
+    <row r="372" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>417</v>
       </c>
@@ -20762,7 +20785,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="39">
+    <row r="373" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>417</v>
       </c>
@@ -20819,7 +20842,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="39">
+    <row r="374" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>417</v>
       </c>
@@ -20876,7 +20899,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="58.5">
+    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>417</v>
       </c>
@@ -20935,7 +20958,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="39">
+    <row r="376" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>417</v>
       </c>
@@ -20980,7 +21003,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="39">
+    <row r="377" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>417</v>
       </c>
@@ -21025,7 +21048,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="39">
+    <row r="378" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>417</v>
       </c>
@@ -21070,7 +21093,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="39">
+    <row r="379" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>417</v>
       </c>
@@ -21123,7 +21146,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="39">
+    <row r="380" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>417</v>
       </c>
@@ -21168,7 +21191,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="39">
+    <row r="381" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>417</v>
       </c>
@@ -21227,7 +21250,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="48.75">
+    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>417</v>
       </c>
@@ -21286,7 +21309,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="39">
+    <row r="383" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>435</v>
       </c>
@@ -21343,7 +21366,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="39">
+    <row r="384" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>435</v>
       </c>
@@ -21400,7 +21423,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="48.75">
+    <row r="385" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>435</v>
       </c>
@@ -21459,7 +21482,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="48.75">
+    <row r="386" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>435</v>
       </c>
@@ -21514,7 +21537,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="48.75">
+    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>435</v>
       </c>
@@ -21573,7 +21596,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="19.5">
+    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>435</v>
       </c>
@@ -21624,7 +21647,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="68.25">
+    <row r="389" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>445</v>
       </c>
@@ -21683,7 +21706,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="78">
+    <row r="390" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>445</v>
       </c>
@@ -21742,7 +21765,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="78">
+    <row r="391" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>445</v>
       </c>
@@ -21801,7 +21824,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="68.25">
+    <row r="392" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>445</v>
       </c>
@@ -21860,7 +21883,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="48.75">
+    <row r="393" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>445</v>
       </c>
@@ -21915,7 +21938,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="19.5">
+    <row r="394" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>455</v>
       </c>
@@ -21970,7 +21993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="19.5">
+    <row r="395" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>455</v>
       </c>
@@ -22025,7 +22048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="39">
+    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>455</v>
       </c>
@@ -22082,7 +22105,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="19.5">
+    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>455</v>
       </c>
@@ -22121,7 +22144,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="19.5">
+    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>455</v>
       </c>
@@ -22154,7 +22177,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="19.5">
+    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>455</v>
       </c>
@@ -22187,7 +22210,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="19.5">
+    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>455</v>
       </c>
@@ -22220,7 +22243,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="19.5">
+    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>455</v>
       </c>
@@ -22259,7 +22282,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="19.5">
+    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>455</v>
       </c>
@@ -22298,7 +22321,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="19.5">
+    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>455</v>
       </c>
@@ -22337,7 +22360,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="39">
+    <row r="404" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>455</v>
       </c>
@@ -22396,7 +22419,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="19.5">
+    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>455</v>
       </c>
@@ -22453,7 +22476,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="29.25">
+    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>455</v>
       </c>
@@ -22512,7 +22535,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="29.25">
+    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>455</v>
       </c>
@@ -22563,7 +22586,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="29.25">
+    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>455</v>
       </c>
@@ -22614,7 +22637,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="19.5">
+    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>455</v>
       </c>
@@ -22671,7 +22694,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="29.25">
+    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>475</v>
       </c>
@@ -22726,7 +22749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="29.25">
+    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>475</v>
       </c>
@@ -22785,7 +22808,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="29.25">
+    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>475</v>
       </c>
@@ -22828,7 +22851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="29.25">
+    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>475</v>
       </c>
@@ -22881,7 +22904,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="29.25">
+    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>475</v>
       </c>
@@ -22926,7 +22949,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="29.25">
+    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>475</v>
       </c>
@@ -22971,7 +22994,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="29.25">
+    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>475</v>
       </c>
@@ -23016,7 +23039,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="29.25">
+    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>475</v>
       </c>
@@ -23061,7 +23084,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="29.25">
+    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>475</v>
       </c>
@@ -23106,7 +23129,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="29.25">
+    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>475</v>
       </c>
@@ -23151,7 +23174,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="39">
+    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>475</v>
       </c>
@@ -23196,7 +23219,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="39">
+    <row r="421" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>475</v>
       </c>
@@ -23241,7 +23264,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="39">
+    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>475</v>
       </c>
@@ -23286,7 +23309,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="39">
+    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>475</v>
       </c>
@@ -23331,7 +23354,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="39">
+    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>475</v>
       </c>
@@ -23388,7 +23411,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="39">
+    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>475</v>
       </c>
@@ -23443,7 +23466,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="39">
+    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>475</v>
       </c>
@@ -23498,7 +23521,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="39">
+    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>475</v>
       </c>
@@ -23553,7 +23576,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="39">
+    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>475</v>
       </c>
@@ -23610,7 +23633,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="29.25">
+    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>475</v>
       </c>
@@ -23667,7 +23690,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="29.25">
+    <row r="430" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>475</v>
       </c>
@@ -23706,7 +23729,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="29.25">
+    <row r="431" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>475</v>
       </c>
@@ -23745,7 +23768,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="29.25">
+    <row r="432" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>475</v>
       </c>
@@ -23784,7 +23807,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="29.25">
+    <row r="433" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>475</v>
       </c>
@@ -23823,7 +23846,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="29.25">
+    <row r="434" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>475</v>
       </c>
@@ -23862,7 +23885,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="29.25">
+    <row r="435" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>475</v>
       </c>
@@ -23901,7 +23924,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="29.25">
+    <row r="436" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>475</v>
       </c>
@@ -23940,7 +23963,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="29.25">
+    <row r="437" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>475</v>
       </c>
@@ -23979,7 +24002,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="29.25">
+    <row r="438" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>475</v>
       </c>
@@ -24018,7 +24041,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="29.25">
+    <row r="439" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>475</v>
       </c>
@@ -24057,7 +24080,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="29.25">
+    <row r="440" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>475</v>
       </c>
@@ -24096,7 +24119,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="29.25">
+    <row r="441" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>475</v>
       </c>
@@ -24135,7 +24158,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="29.25">
+    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>475</v>
       </c>
@@ -24194,7 +24217,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="29.25">
+    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>475</v>
       </c>
@@ -24233,7 +24256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="19.5">
+    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>510</v>
       </c>
@@ -24290,7 +24313,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="19.5">
+    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>510</v>
       </c>
@@ -24347,7 +24370,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="19.5">
+    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>510</v>
       </c>
@@ -24404,7 +24427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="29.25">
+    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>510</v>
       </c>
@@ -24461,7 +24484,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="29.25">
+    <row r="448" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>510</v>
       </c>
@@ -24518,7 +24541,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="19.5">
+    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>510</v>
       </c>
@@ -24575,7 +24598,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="29.25">
+    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>510</v>
       </c>
@@ -24632,7 +24655,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="29.25">
+    <row r="451" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>510</v>
       </c>
@@ -24691,7 +24714,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="29.25">
+    <row r="452" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>510</v>
       </c>
@@ -24750,7 +24773,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="29.25">
+    <row r="453" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>510</v>
       </c>
@@ -24809,7 +24832,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="19.5">
+    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>510</v>
       </c>
@@ -24866,7 +24889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="19.5">
+    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>510</v>
       </c>
@@ -24923,7 +24946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="19.5">
+    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>510</v>
       </c>
@@ -24980,7 +25003,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="29.25">
+    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>510</v>
       </c>
@@ -25037,7 +25060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="29.25">
+    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>510</v>
       </c>
@@ -25096,7 +25119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="39">
+    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>510</v>
       </c>
@@ -25155,7 +25178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="19.5">
+    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>510</v>
       </c>
@@ -25214,7 +25237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="58.5">
+    <row r="461" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>510</v>
       </c>
@@ -25271,7 +25294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="58.5">
+    <row r="462" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>510</v>
       </c>
@@ -25328,7 +25351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="29.25">
+    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>510</v>
       </c>
@@ -25371,7 +25394,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="29.25">
+    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>510</v>
       </c>
@@ -25430,7 +25453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="29.25">
+    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>510</v>
       </c>
@@ -25489,7 +25512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="29.25">
+    <row r="466" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>510</v>
       </c>
@@ -25540,7 +25563,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="48.75">
+    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>510</v>
       </c>
@@ -25577,7 +25600,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="48.75">
+    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>510</v>
       </c>
@@ -25634,7 +25657,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="48.75">
+    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>510</v>
       </c>
@@ -25691,9 +25714,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
         <v>547</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1666,7 +1666,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 28-02-2023, 10:06</t>
+    <t>Ostatnia aktualizacja: 07-03-2023, 11:34</t>
   </si>
 </sst>
 </file>
@@ -1677,8 +1677,8 @@
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10415]0;\-0;0"/>
-    <numFmt numFmtId="167" formatCode="[$-10415]0.000000;\-0.000000;0.000000"/>
-    <numFmt numFmtId="168" formatCode="[$-10415]0.000;\-0.000;0.000"/>
+    <numFmt numFmtId="167" formatCode="[$-10415]0.000;\-0.000;0.000"/>
+    <numFmt numFmtId="168" formatCode="[$-10415]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10415]0.0000;\-0.0000;0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -2351,7 +2351,9 @@
       <c r="P4" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="4">
+        <v>0.2</v>
+      </c>
       <c r="R4" s="3"/>
       <c r="S4" s="2" t="s">
         <v>25</v>
@@ -3431,8 +3433,12 @@
       <c r="P24" s="6">
         <v>1</v>
       </c>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="Q24" s="6">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6">
+        <v>1</v>
+      </c>
       <c r="S24" s="2" t="s">
         <v>53</v>
       </c>
@@ -3458,26 +3464,30 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="5">
+      <c r="K25" s="7">
         <v>0.8</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="7">
         <v>0.8</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="7">
         <v>0.8</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="7">
         <v>0.85</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="7">
         <v>0.85</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="7">
         <v>0.85</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="Q25" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.875</v>
+      </c>
       <c r="S25" s="2" t="s">
         <v>53</v>
       </c>
@@ -3521,8 +3531,12 @@
       <c r="P26" s="6">
         <v>16</v>
       </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="Q26" s="6">
+        <v>16</v>
+      </c>
+      <c r="R26" s="6">
+        <v>16</v>
+      </c>
       <c r="S26" s="2" t="s">
         <v>53</v>
       </c>
@@ -3566,8 +3580,12 @@
       <c r="P27" s="6">
         <v>100</v>
       </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="Q27" s="6">
+        <v>100</v>
+      </c>
+      <c r="R27" s="6">
+        <v>100</v>
+      </c>
       <c r="S27" s="2" t="s">
         <v>53</v>
       </c>
@@ -3591,31 +3609,31 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="8">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="8">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="8">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="8">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="8">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="R28" s="3"/>
@@ -12182,7 +12200,9 @@
       <c r="P211" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="Q211" s="3"/>
+      <c r="Q211" s="5">
+        <v>15.62</v>
+      </c>
       <c r="R211" s="3"/>
       <c r="S211" s="2" t="s">
         <v>25</v>
@@ -12204,37 +12224,37 @@
       <c r="E212" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F212" s="8">
+      <c r="F212" s="7">
         <v>0.36799999999999999</v>
       </c>
-      <c r="G212" s="8">
+      <c r="G212" s="7">
         <v>0.35399999999999998</v>
       </c>
-      <c r="H212" s="8">
+      <c r="H212" s="7">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I212" s="8">
+      <c r="I212" s="7">
         <v>0.33300000000000002</v>
       </c>
-      <c r="J212" s="8">
+      <c r="J212" s="7">
         <v>0.31</v>
       </c>
-      <c r="K212" s="8">
+      <c r="K212" s="7">
         <v>0.30099999999999999</v>
       </c>
-      <c r="L212" s="8">
+      <c r="L212" s="7">
         <v>0.30499999999999999</v>
       </c>
-      <c r="M212" s="8">
+      <c r="M212" s="7">
         <v>0.30499999999999999</v>
       </c>
-      <c r="N212" s="8">
+      <c r="N212" s="7">
         <v>0.30299999999999999</v>
       </c>
-      <c r="O212" s="8">
+      <c r="O212" s="7">
         <v>0.28199999999999997</v>
       </c>
-      <c r="P212" s="8">
+      <c r="P212" s="7">
         <v>0.27600000000000002</v>
       </c>
       <c r="Q212" s="3"/>
@@ -22064,40 +22084,40 @@
       <c r="E396" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F396" s="8">
+      <c r="F396" s="7">
         <v>0.19600000000000001</v>
       </c>
-      <c r="G396" s="8">
+      <c r="G396" s="7">
         <v>0.20499999999999999</v>
       </c>
-      <c r="H396" s="8">
+      <c r="H396" s="7">
         <v>0.20599999999999999</v>
       </c>
-      <c r="I396" s="8">
+      <c r="I396" s="7">
         <v>0.19800000000000001</v>
       </c>
-      <c r="J396" s="8">
+      <c r="J396" s="7">
         <v>0.20100000000000001</v>
       </c>
-      <c r="K396" s="8">
+      <c r="K396" s="7">
         <v>0.20300000000000001</v>
       </c>
-      <c r="L396" s="8">
+      <c r="L396" s="7">
         <v>0.20699999999999999</v>
       </c>
-      <c r="M396" s="8">
+      <c r="M396" s="7">
         <v>0.19800000000000001</v>
       </c>
-      <c r="N396" s="8">
+      <c r="N396" s="7">
         <v>0.19800000000000001</v>
       </c>
-      <c r="O396" s="8">
+      <c r="O396" s="7">
         <v>0.19900000000000001</v>
       </c>
-      <c r="P396" s="8">
+      <c r="P396" s="7">
         <v>0.2</v>
       </c>
-      <c r="Q396" s="8">
+      <c r="Q396" s="7">
         <v>0.19900000000000001</v>
       </c>
       <c r="R396" s="3"/>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1666,13 +1661,13 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 07-03-2023, 11:34</t>
+    <t>Ostatnia aktualizacja: 22-03-2023, 08:36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
@@ -1681,7 +1676,7 @@
     <numFmt numFmtId="168" formatCode="[$-10415]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10415]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1879,14 +1874,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1907,7 +1894,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1970,7 +1957,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2002,10 +1989,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2037,7 +2023,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2213,15 +2198,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2233,17 +2218,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2302,7 +2287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2359,7 +2344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2414,7 +2399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2469,7 +2454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2524,7 +2509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2579,7 +2564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2634,7 +2619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2689,7 +2674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2744,7 +2729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2799,7 +2784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2854,7 +2839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2909,7 +2894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2964,7 +2949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="19.5">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3003,7 +2988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="19.5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3060,7 +3045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="107.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3115,7 +3100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="107.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3170,7 +3155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="107.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3225,7 +3210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3280,7 +3265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="39">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3337,7 +3322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="39">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3394,7 +3379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="39">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3443,7 +3428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="68.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3492,7 +3477,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="29.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3541,7 +3526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="29.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3590,7 +3575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="29.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3641,7 +3626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="39">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3698,7 +3683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="39">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3755,7 +3740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="39">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3812,7 +3797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="39">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3869,7 +3854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3924,7 +3909,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="39">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3969,7 +3954,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="39">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4014,7 +3999,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="39">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4059,7 +4044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4104,7 +4089,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="29.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4149,7 +4134,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4194,7 +4179,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="48.75">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4233,7 +4218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="68.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4292,7 +4277,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="68.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4351,7 +4336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="68.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4410,7 +4395,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="68.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4469,7 +4454,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="68.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4528,7 +4513,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="68.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4587,7 +4572,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="29.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4636,7 +4621,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="29.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4685,7 +4670,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4740,7 +4725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="19.5">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4791,7 +4776,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4846,7 +4831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4903,7 +4888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4960,7 +4945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -5017,7 +5002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -5074,7 +5059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -5131,7 +5116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -5188,7 +5173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -5245,7 +5230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="39">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -5302,7 +5287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -5359,7 +5344,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="39">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -5416,7 +5401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="39">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
@@ -5473,7 +5458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="39">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
@@ -5530,7 +5515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -5587,7 +5572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="39">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
@@ -5644,7 +5629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="39">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -5701,7 +5686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="39">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -5758,7 +5743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="29.25">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5815,7 +5800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="29.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5872,7 +5857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="29.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -5929,7 +5914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -5986,7 +5971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -6041,7 +6026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -6096,7 +6081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -6151,7 +6136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -6208,7 +6193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29.25">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
@@ -6265,7 +6250,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="29.25">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -6304,7 +6289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -6361,7 +6346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -6418,7 +6403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -6475,7 +6460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -6516,7 +6501,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -6561,7 +6546,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29.25">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -6606,7 +6591,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="39">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -6641,7 +6626,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="39">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -6676,7 +6661,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -6731,7 +6716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -6770,7 +6755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="29.25">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -6827,7 +6812,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="29.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -6884,7 +6869,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="29.25">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -6925,7 +6910,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="19.5">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -6976,7 +6961,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -7015,7 +7000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -7054,7 +7039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -7093,7 +7078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -7146,7 +7131,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="29.25">
       <c r="A96" s="2" t="s">
         <v>148</v>
       </c>
@@ -7183,7 +7168,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="29.25">
       <c r="A97" s="2" t="s">
         <v>148</v>
       </c>
@@ -7220,7 +7205,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="29.25">
       <c r="A98" s="2" t="s">
         <v>148</v>
       </c>
@@ -7257,7 +7242,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="29.25">
       <c r="A99" s="2" t="s">
         <v>148</v>
       </c>
@@ -7298,7 +7283,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="29.25">
       <c r="A100" s="2" t="s">
         <v>148</v>
       </c>
@@ -7339,7 +7324,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="29.25">
       <c r="A101" s="2" t="s">
         <v>148</v>
       </c>
@@ -7380,7 +7365,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="29.25">
       <c r="A102" s="2" t="s">
         <v>148</v>
       </c>
@@ -7421,7 +7406,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="29.25">
       <c r="A103" s="2" t="s">
         <v>148</v>
       </c>
@@ -7462,7 +7447,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="29.25">
       <c r="A104" s="2" t="s">
         <v>148</v>
       </c>
@@ -7503,7 +7488,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="29.25">
       <c r="A105" s="2" t="s">
         <v>148</v>
       </c>
@@ -7540,7 +7525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>148</v>
       </c>
@@ -7597,7 +7582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>148</v>
       </c>
@@ -7654,7 +7639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>148</v>
       </c>
@@ -7711,7 +7696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="29.25">
       <c r="A109" s="2" t="s">
         <v>148</v>
       </c>
@@ -7748,7 +7733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="29.25">
       <c r="A110" s="2" t="s">
         <v>148</v>
       </c>
@@ -7785,7 +7770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="29.25">
       <c r="A111" s="2" t="s">
         <v>148</v>
       </c>
@@ -7822,7 +7807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="39">
       <c r="A112" s="2" t="s">
         <v>148</v>
       </c>
@@ -7867,7 +7852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="29.25">
       <c r="A113" s="2" t="s">
         <v>148</v>
       </c>
@@ -7914,7 +7899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="58.5">
       <c r="A114" s="2" t="s">
         <v>148</v>
       </c>
@@ -7961,7 +7946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="58.5">
       <c r="A115" s="2" t="s">
         <v>148</v>
       </c>
@@ -8008,7 +7993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="68.25">
       <c r="A116" s="2" t="s">
         <v>148</v>
       </c>
@@ -8055,7 +8040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>148</v>
       </c>
@@ -8102,7 +8087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="39">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -8147,7 +8132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="29.25">
       <c r="A119" s="2" t="s">
         <v>148</v>
       </c>
@@ -8194,7 +8179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="58.5">
       <c r="A120" s="2" t="s">
         <v>148</v>
       </c>
@@ -8241,7 +8226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="58.5">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -8288,7 +8273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="68.25">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -8335,7 +8320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="29.25">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8382,7 +8367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="39">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8421,7 +8406,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="39">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8460,7 +8445,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="39">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8517,7 +8502,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="29.25">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8552,7 +8537,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="29.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8587,7 +8572,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8622,7 +8607,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8657,7 +8642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8692,7 +8677,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="29.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8727,7 +8712,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="29.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8762,7 +8747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="29.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8797,7 +8782,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="29.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8832,7 +8817,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="29.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8867,7 +8852,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="29.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8902,7 +8887,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="29.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8937,7 +8922,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="29.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8972,7 +8957,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="29.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -9007,7 +8992,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="29.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9042,7 +9027,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="29.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9077,7 +9062,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="48.75">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9136,7 +9121,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="68.25">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9195,7 +9180,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="68.25">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9230,7 +9215,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="68.25">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9265,7 +9250,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="68.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9324,7 +9309,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="68.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9383,7 +9368,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="68.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9442,7 +9427,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="19.5">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9493,7 +9478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="48.75">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9548,7 +9533,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="48.75">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9603,7 +9588,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="48.75">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9658,7 +9643,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="48.75">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9713,7 +9698,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="39">
       <c r="A155" s="2" t="s">
         <v>203</v>
       </c>
@@ -9748,7 +9733,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="29.25">
       <c r="A156" s="2" t="s">
         <v>203</v>
       </c>
@@ -9805,7 +9790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="29.25">
       <c r="A157" s="2" t="s">
         <v>203</v>
       </c>
@@ -9840,7 +9825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="29.25">
       <c r="A158" s="2" t="s">
         <v>203</v>
       </c>
@@ -9875,7 +9860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="29.25">
       <c r="A159" s="2" t="s">
         <v>203</v>
       </c>
@@ -9910,7 +9895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="29.25">
       <c r="A160" s="2" t="s">
         <v>203</v>
       </c>
@@ -9945,7 +9930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="29.25">
       <c r="A161" s="2" t="s">
         <v>203</v>
       </c>
@@ -9980,7 +9965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="19.5">
       <c r="A162" s="2" t="s">
         <v>203</v>
       </c>
@@ -10015,7 +10000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="19.5">
       <c r="A163" s="2" t="s">
         <v>203</v>
       </c>
@@ -10050,7 +10035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="19.5">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -10085,7 +10070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="19.5">
       <c r="A165" s="2" t="s">
         <v>203</v>
       </c>
@@ -10120,7 +10105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="19.5">
       <c r="A166" s="2" t="s">
         <v>203</v>
       </c>
@@ -10155,7 +10140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="19.5">
       <c r="A167" s="2" t="s">
         <v>203</v>
       </c>
@@ -10190,7 +10175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>203</v>
       </c>
@@ -10225,7 +10210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -10260,7 +10245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="39">
       <c r="A170" s="2" t="s">
         <v>203</v>
       </c>
@@ -10299,7 +10284,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="39">
       <c r="A171" s="2" t="s">
         <v>203</v>
       </c>
@@ -10338,7 +10323,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="39">
       <c r="A172" s="2" t="s">
         <v>203</v>
       </c>
@@ -10395,7 +10380,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="39">
       <c r="A173" s="2" t="s">
         <v>203</v>
       </c>
@@ -10452,7 +10437,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="39">
       <c r="A174" s="2" t="s">
         <v>203</v>
       </c>
@@ -10509,7 +10494,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="39">
       <c r="A175" s="2" t="s">
         <v>203</v>
       </c>
@@ -10566,7 +10551,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="39">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -10623,7 +10608,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="39">
       <c r="A177" s="2" t="s">
         <v>203</v>
       </c>
@@ -10668,7 +10653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="68.25">
       <c r="A178" s="2" t="s">
         <v>203</v>
       </c>
@@ -10713,7 +10698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="48.75">
       <c r="A179" s="2" t="s">
         <v>203</v>
       </c>
@@ -10758,7 +10743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="39">
       <c r="A180" s="2" t="s">
         <v>203</v>
       </c>
@@ -10803,7 +10788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="39">
       <c r="A181" s="2" t="s">
         <v>203</v>
       </c>
@@ -10848,7 +10833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="39">
       <c r="A182" s="2" t="s">
         <v>203</v>
       </c>
@@ -10893,7 +10878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="68.25">
       <c r="A183" s="2" t="s">
         <v>203</v>
       </c>
@@ -10938,7 +10923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="39">
       <c r="A184" s="2" t="s">
         <v>203</v>
       </c>
@@ -10977,7 +10962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="39">
       <c r="A185" s="2" t="s">
         <v>203</v>
       </c>
@@ -11016,7 +11001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="39">
       <c r="A186" s="2" t="s">
         <v>203</v>
       </c>
@@ -11055,7 +11040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="39">
       <c r="A187" s="2" t="s">
         <v>203</v>
       </c>
@@ -11094,7 +11079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="39">
       <c r="A188" s="2" t="s">
         <v>203</v>
       </c>
@@ -11133,7 +11118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="39">
       <c r="A189" s="2" t="s">
         <v>203</v>
       </c>
@@ -11172,7 +11157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="39">
       <c r="A190" s="2" t="s">
         <v>203</v>
       </c>
@@ -11211,7 +11196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="39">
       <c r="A191" s="2" t="s">
         <v>203</v>
       </c>
@@ -11250,7 +11235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="39">
       <c r="A192" s="2" t="s">
         <v>203</v>
       </c>
@@ -11289,7 +11274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="39">
       <c r="A193" s="2" t="s">
         <v>203</v>
       </c>
@@ -11328,7 +11313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="39">
       <c r="A194" s="2" t="s">
         <v>203</v>
       </c>
@@ -11367,7 +11352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="39">
       <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
@@ -11406,7 +11391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="29.25">
       <c r="A196" s="2" t="s">
         <v>203</v>
       </c>
@@ -11447,7 +11432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="19.5">
       <c r="A197" s="2" t="s">
         <v>203</v>
       </c>
@@ -11502,7 +11487,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="19.5">
       <c r="A198" s="2" t="s">
         <v>203</v>
       </c>
@@ -11557,7 +11542,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="19.5">
       <c r="A199" s="2" t="s">
         <v>242</v>
       </c>
@@ -11614,7 +11599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>242</v>
       </c>
@@ -11671,7 +11656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="19.5">
       <c r="A201" s="2" t="s">
         <v>242</v>
       </c>
@@ -11728,7 +11713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="19.5">
       <c r="A202" s="2" t="s">
         <v>242</v>
       </c>
@@ -11763,7 +11748,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="19.5">
       <c r="A203" s="2" t="s">
         <v>242</v>
       </c>
@@ -11798,7 +11783,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>242</v>
       </c>
@@ -11853,7 +11838,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="19.5">
       <c r="A205" s="2" t="s">
         <v>242</v>
       </c>
@@ -11908,7 +11893,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="29.25">
       <c r="A206" s="2" t="s">
         <v>242</v>
       </c>
@@ -11953,7 +11938,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="19.5">
       <c r="A207" s="2" t="s">
         <v>242</v>
       </c>
@@ -12008,7 +11993,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>242</v>
       </c>
@@ -12059,7 +12044,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="48.75">
       <c r="A209" s="2" t="s">
         <v>242</v>
       </c>
@@ -12116,7 +12101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="19.5">
       <c r="A210" s="2" t="s">
         <v>263</v>
       </c>
@@ -12151,7 +12136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="19.5">
       <c r="A211" s="2" t="s">
         <v>263</v>
       </c>
@@ -12208,7 +12193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="39">
       <c r="A212" s="2" t="s">
         <v>263</v>
       </c>
@@ -12263,7 +12248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="19.5">
       <c r="A213" s="2" t="s">
         <v>263</v>
       </c>
@@ -12314,7 +12299,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>269</v>
       </c>
@@ -12371,7 +12356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>269</v>
       </c>
@@ -12428,7 +12413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>269</v>
       </c>
@@ -12467,7 +12452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>269</v>
       </c>
@@ -12506,7 +12491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="29.25">
       <c r="A218" s="2" t="s">
         <v>269</v>
       </c>
@@ -12545,7 +12530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>269</v>
       </c>
@@ -12602,7 +12587,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>269</v>
       </c>
@@ -12659,7 +12644,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>269</v>
       </c>
@@ -12716,7 +12701,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>269</v>
       </c>
@@ -12761,7 +12746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>269</v>
       </c>
@@ -12806,7 +12791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>269</v>
       </c>
@@ -12851,7 +12836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="58.5">
       <c r="A225" s="2" t="s">
         <v>269</v>
       </c>
@@ -12896,7 +12881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>269</v>
       </c>
@@ -12941,7 +12926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>269</v>
       </c>
@@ -12986,7 +12971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>269</v>
       </c>
@@ -13031,7 +13016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>269</v>
       </c>
@@ -13076,7 +13061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="39">
       <c r="A230" s="2" t="s">
         <v>269</v>
       </c>
@@ -13121,7 +13106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>269</v>
       </c>
@@ -13166,7 +13151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="39">
       <c r="A232" s="2" t="s">
         <v>269</v>
       </c>
@@ -13211,7 +13196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>269</v>
       </c>
@@ -13256,7 +13241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>269</v>
       </c>
@@ -13301,7 +13286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>269</v>
       </c>
@@ -13346,7 +13331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>269</v>
       </c>
@@ -13391,7 +13376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>269</v>
       </c>
@@ -13436,7 +13421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>269</v>
       </c>
@@ -13481,7 +13466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>269</v>
       </c>
@@ -13526,7 +13511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>269</v>
       </c>
@@ -13571,7 +13556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>269</v>
       </c>
@@ -13628,7 +13613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>269</v>
       </c>
@@ -13685,7 +13670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>269</v>
       </c>
@@ -13742,7 +13727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>269</v>
       </c>
@@ -13799,7 +13784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>269</v>
       </c>
@@ -13856,7 +13841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>269</v>
       </c>
@@ -13913,7 +13898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>269</v>
       </c>
@@ -13970,7 +13955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>269</v>
       </c>
@@ -14027,7 +14012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>269</v>
       </c>
@@ -14084,7 +14069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>269</v>
       </c>
@@ -14141,7 +14126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>269</v>
       </c>
@@ -14198,7 +14183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>269</v>
       </c>
@@ -14255,7 +14240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="39">
       <c r="A253" s="2" t="s">
         <v>269</v>
       </c>
@@ -14296,7 +14281,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="39">
       <c r="A254" s="2" t="s">
         <v>269</v>
       </c>
@@ -14337,7 +14322,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="39">
       <c r="A255" s="2" t="s">
         <v>269</v>
       </c>
@@ -14378,7 +14363,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="29.25">
       <c r="A256" s="2" t="s">
         <v>269</v>
       </c>
@@ -14435,7 +14420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="39">
       <c r="A257" s="2" t="s">
         <v>269</v>
       </c>
@@ -14492,7 +14477,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="29.25">
       <c r="A258" s="2" t="s">
         <v>269</v>
       </c>
@@ -14527,7 +14512,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="29.25">
       <c r="A259" s="2" t="s">
         <v>269</v>
       </c>
@@ -14562,7 +14547,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="29.25">
       <c r="A260" s="2" t="s">
         <v>269</v>
       </c>
@@ -14597,7 +14582,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="29.25">
       <c r="A261" s="2" t="s">
         <v>269</v>
       </c>
@@ -14632,7 +14617,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="29.25">
       <c r="A262" s="2" t="s">
         <v>269</v>
       </c>
@@ -14667,7 +14652,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="29.25">
       <c r="A263" s="2" t="s">
         <v>269</v>
       </c>
@@ -14702,7 +14687,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="29.25">
       <c r="A264" s="2" t="s">
         <v>269</v>
       </c>
@@ -14737,7 +14722,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="29.25">
       <c r="A265" s="2" t="s">
         <v>269</v>
       </c>
@@ -14772,7 +14757,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="29.25">
       <c r="A266" s="2" t="s">
         <v>269</v>
       </c>
@@ -14823,7 +14808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="39">
       <c r="A267" s="2" t="s">
         <v>313</v>
       </c>
@@ -14880,7 +14865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="39">
       <c r="A268" s="2" t="s">
         <v>313</v>
       </c>
@@ -14937,7 +14922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="39">
       <c r="A269" s="2" t="s">
         <v>313</v>
       </c>
@@ -14994,7 +14979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="39">
       <c r="A270" s="2" t="s">
         <v>313</v>
       </c>
@@ -15051,7 +15036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="39">
       <c r="A271" s="2" t="s">
         <v>313</v>
       </c>
@@ -15108,7 +15093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="39">
       <c r="A272" s="2" t="s">
         <v>313</v>
       </c>
@@ -15165,7 +15150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="39">
       <c r="A273" s="2" t="s">
         <v>313</v>
       </c>
@@ -15222,7 +15207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="39">
       <c r="A274" s="2" t="s">
         <v>313</v>
       </c>
@@ -15279,7 +15264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="39">
       <c r="A275" s="2" t="s">
         <v>313</v>
       </c>
@@ -15336,7 +15321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="39">
       <c r="A276" s="2" t="s">
         <v>313</v>
       </c>
@@ -15393,7 +15378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="39">
       <c r="A277" s="2" t="s">
         <v>313</v>
       </c>
@@ -15450,7 +15435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="39">
       <c r="A278" s="2" t="s">
         <v>313</v>
       </c>
@@ -15507,7 +15492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="39">
       <c r="A279" s="2" t="s">
         <v>313</v>
       </c>
@@ -15564,7 +15549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="39">
       <c r="A280" s="2" t="s">
         <v>313</v>
       </c>
@@ -15621,7 +15606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="39">
       <c r="A281" s="2" t="s">
         <v>313</v>
       </c>
@@ -15678,7 +15663,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="39">
       <c r="A282" s="2" t="s">
         <v>313</v>
       </c>
@@ -15735,7 +15720,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="39">
       <c r="A283" s="2" t="s">
         <v>313</v>
       </c>
@@ -15792,7 +15777,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="39">
       <c r="A284" s="2" t="s">
         <v>313</v>
       </c>
@@ -15849,7 +15834,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="39">
       <c r="A285" s="2" t="s">
         <v>313</v>
       </c>
@@ -15906,7 +15891,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="39">
       <c r="A286" s="2" t="s">
         <v>313</v>
       </c>
@@ -15963,7 +15948,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="39">
       <c r="A287" s="2" t="s">
         <v>313</v>
       </c>
@@ -16014,7 +15999,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="39">
       <c r="A288" s="2" t="s">
         <v>313</v>
       </c>
@@ -16071,7 +16056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="39">
       <c r="A289" s="2" t="s">
         <v>313</v>
       </c>
@@ -16128,7 +16113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="39">
       <c r="A290" s="2" t="s">
         <v>313</v>
       </c>
@@ -16179,7 +16164,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="39">
       <c r="A291" s="2" t="s">
         <v>313</v>
       </c>
@@ -16232,7 +16217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="48.75">
       <c r="A292" s="2" t="s">
         <v>313</v>
       </c>
@@ -16281,7 +16266,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="48.75">
       <c r="A293" s="2" t="s">
         <v>313</v>
       </c>
@@ -16330,7 +16315,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="19.5">
       <c r="A294" s="2" t="s">
         <v>345</v>
       </c>
@@ -16387,7 +16372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="58.5">
       <c r="A295" s="2" t="s">
         <v>345</v>
       </c>
@@ -16444,7 +16429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="19.5">
       <c r="A296" s="2" t="s">
         <v>345</v>
       </c>
@@ -16501,7 +16486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="19.5">
       <c r="A297" s="2" t="s">
         <v>345</v>
       </c>
@@ -16558,7 +16543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>345</v>
       </c>
@@ -16615,7 +16600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="19.5">
       <c r="A299" s="2" t="s">
         <v>345</v>
       </c>
@@ -16672,7 +16657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="19.5">
       <c r="A300" s="2" t="s">
         <v>345</v>
       </c>
@@ -16729,7 +16714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="19.5">
       <c r="A301" s="2" t="s">
         <v>345</v>
       </c>
@@ -16786,7 +16771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="19.5">
       <c r="A302" s="2" t="s">
         <v>345</v>
       </c>
@@ -16843,7 +16828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="19.5">
       <c r="A303" s="2" t="s">
         <v>345</v>
       </c>
@@ -16900,7 +16885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="19.5">
       <c r="A304" s="2" t="s">
         <v>345</v>
       </c>
@@ -16957,7 +16942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="19.5">
       <c r="A305" s="2" t="s">
         <v>345</v>
       </c>
@@ -16996,7 +16981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="19.5">
       <c r="A306" s="2" t="s">
         <v>345</v>
       </c>
@@ -17053,7 +17038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="78">
       <c r="A307" s="2" t="s">
         <v>345</v>
       </c>
@@ -17110,7 +17095,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="48.75">
       <c r="A308" s="2" t="s">
         <v>345</v>
       </c>
@@ -17167,7 +17152,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="78">
       <c r="A309" s="2" t="s">
         <v>345</v>
       </c>
@@ -17224,7 +17209,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="48.75">
       <c r="A310" s="2" t="s">
         <v>345</v>
       </c>
@@ -17281,7 +17266,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="48.75">
       <c r="A311" s="2" t="s">
         <v>345</v>
       </c>
@@ -17338,7 +17323,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="58.5">
       <c r="A312" s="2" t="s">
         <v>345</v>
       </c>
@@ -17393,7 +17378,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="39">
       <c r="A313" s="2" t="s">
         <v>345</v>
       </c>
@@ -17450,7 +17435,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="39">
       <c r="A314" s="2" t="s">
         <v>345</v>
       </c>
@@ -17507,7 +17492,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="58.5">
       <c r="A315" s="2" t="s">
         <v>345</v>
       </c>
@@ -17564,7 +17549,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="58.5">
       <c r="A316" s="2" t="s">
         <v>345</v>
       </c>
@@ -17621,7 +17606,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="39">
       <c r="A317" s="2" t="s">
         <v>345</v>
       </c>
@@ -17678,7 +17663,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="48.75">
       <c r="A318" s="2" t="s">
         <v>345</v>
       </c>
@@ -17735,7 +17720,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="29.25">
       <c r="A319" s="2" t="s">
         <v>345</v>
       </c>
@@ -17792,7 +17777,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="48.75">
       <c r="A320" s="2" t="s">
         <v>345</v>
       </c>
@@ -17849,7 +17834,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="48.75">
       <c r="A321" s="2" t="s">
         <v>345</v>
       </c>
@@ -17906,7 +17891,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="78">
       <c r="A322" s="2" t="s">
         <v>345</v>
       </c>
@@ -17963,7 +17948,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="97.5">
       <c r="A323" s="2" t="s">
         <v>345</v>
       </c>
@@ -18020,7 +18005,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="78">
       <c r="A324" s="2" t="s">
         <v>345</v>
       </c>
@@ -18077,7 +18062,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="87.75">
       <c r="A325" s="2" t="s">
         <v>345</v>
       </c>
@@ -18134,7 +18119,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="48.75">
       <c r="A326" s="2" t="s">
         <v>345</v>
       </c>
@@ -18191,7 +18176,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="78">
       <c r="A327" s="2" t="s">
         <v>345</v>
       </c>
@@ -18248,7 +18233,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="87.75">
       <c r="A328" s="2" t="s">
         <v>345</v>
       </c>
@@ -18305,7 +18290,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="78">
       <c r="A329" s="2" t="s">
         <v>345</v>
       </c>
@@ -18362,7 +18347,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="87.75">
       <c r="A330" s="2" t="s">
         <v>345</v>
       </c>
@@ -18419,7 +18404,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="39">
       <c r="A331" s="2" t="s">
         <v>384</v>
       </c>
@@ -18474,7 +18459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="39">
       <c r="A332" s="2" t="s">
         <v>384</v>
       </c>
@@ -18529,7 +18514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="39">
       <c r="A333" s="2" t="s">
         <v>384</v>
       </c>
@@ -18584,7 +18569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="39">
       <c r="A334" s="2" t="s">
         <v>384</v>
       </c>
@@ -18641,7 +18626,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="39">
       <c r="A335" s="2" t="s">
         <v>384</v>
       </c>
@@ -18698,7 +18683,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="39">
       <c r="A336" s="2" t="s">
         <v>384</v>
       </c>
@@ -18755,7 +18740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="39">
       <c r="A337" s="2" t="s">
         <v>384</v>
       </c>
@@ -18812,7 +18797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="39">
       <c r="A338" s="2" t="s">
         <v>384</v>
       </c>
@@ -18869,7 +18854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="39">
       <c r="A339" s="2" t="s">
         <v>384</v>
       </c>
@@ -18926,7 +18911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="39">
       <c r="A340" s="2" t="s">
         <v>384</v>
       </c>
@@ -18983,7 +18968,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="39">
       <c r="A341" s="2" t="s">
         <v>384</v>
       </c>
@@ -19040,7 +19025,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="39">
       <c r="A342" s="2" t="s">
         <v>384</v>
       </c>
@@ -19097,7 +19082,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="39">
       <c r="A343" s="2" t="s">
         <v>384</v>
       </c>
@@ -19154,7 +19139,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="39">
       <c r="A344" s="2" t="s">
         <v>384</v>
       </c>
@@ -19211,7 +19196,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="39">
       <c r="A345" s="2" t="s">
         <v>384</v>
       </c>
@@ -19268,7 +19253,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="39">
       <c r="A346" s="2" t="s">
         <v>384</v>
       </c>
@@ -19325,7 +19310,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="39">
       <c r="A347" s="2" t="s">
         <v>384</v>
       </c>
@@ -19382,7 +19367,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="39">
       <c r="A348" s="2" t="s">
         <v>384</v>
       </c>
@@ -19439,7 +19424,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="39">
       <c r="A349" s="2" t="s">
         <v>384</v>
       </c>
@@ -19496,7 +19481,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="39">
       <c r="A350" s="2" t="s">
         <v>384</v>
       </c>
@@ -19553,7 +19538,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="39">
       <c r="A351" s="2" t="s">
         <v>384</v>
       </c>
@@ -19610,7 +19595,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="39">
       <c r="A352" s="2" t="s">
         <v>384</v>
       </c>
@@ -19667,7 +19652,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="39">
       <c r="A353" s="2" t="s">
         <v>384</v>
       </c>
@@ -19724,7 +19709,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="39">
       <c r="A354" s="2" t="s">
         <v>384</v>
       </c>
@@ -19781,7 +19766,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="39">
       <c r="A355" s="2" t="s">
         <v>384</v>
       </c>
@@ -19838,7 +19823,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="39">
       <c r="A356" s="2" t="s">
         <v>384</v>
       </c>
@@ -19895,7 +19880,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="39">
       <c r="A357" s="2" t="s">
         <v>384</v>
       </c>
@@ -19952,7 +19937,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="39">
       <c r="A358" s="2" t="s">
         <v>384</v>
       </c>
@@ -20007,7 +19992,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="39">
       <c r="A359" s="2" t="s">
         <v>384</v>
       </c>
@@ -20064,7 +20049,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="39">
       <c r="A360" s="2" t="s">
         <v>384</v>
       </c>
@@ -20121,7 +20106,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="39">
       <c r="A361" s="2" t="s">
         <v>384</v>
       </c>
@@ -20178,7 +20163,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="39">
       <c r="A362" s="2" t="s">
         <v>384</v>
       </c>
@@ -20235,7 +20220,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="39">
       <c r="A363" s="2" t="s">
         <v>384</v>
       </c>
@@ -20292,7 +20277,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="39">
       <c r="A364" s="2" t="s">
         <v>384</v>
       </c>
@@ -20349,7 +20334,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="39">
       <c r="A365" s="2" t="s">
         <v>384</v>
       </c>
@@ -20406,7 +20391,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="39">
       <c r="A366" s="2" t="s">
         <v>384</v>
       </c>
@@ -20463,7 +20448,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="39">
       <c r="A367" s="2" t="s">
         <v>384</v>
       </c>
@@ -20520,7 +20505,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="39">
       <c r="A368" s="2" t="s">
         <v>384</v>
       </c>
@@ -20577,7 +20562,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="39">
       <c r="A369" s="2" t="s">
         <v>384</v>
       </c>
@@ -20634,7 +20619,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="39">
       <c r="A370" s="2" t="s">
         <v>384</v>
       </c>
@@ -20691,7 +20676,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="39">
       <c r="A371" s="2" t="s">
         <v>384</v>
       </c>
@@ -20748,7 +20733,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="39">
       <c r="A372" s="2" t="s">
         <v>417</v>
       </c>
@@ -20805,7 +20790,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="39">
       <c r="A373" s="2" t="s">
         <v>417</v>
       </c>
@@ -20862,7 +20847,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="39">
       <c r="A374" s="2" t="s">
         <v>417</v>
       </c>
@@ -20919,7 +20904,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="58.5">
       <c r="A375" s="2" t="s">
         <v>417</v>
       </c>
@@ -20978,7 +20963,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="39">
       <c r="A376" s="2" t="s">
         <v>417</v>
       </c>
@@ -21023,7 +21008,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="39">
       <c r="A377" s="2" t="s">
         <v>417</v>
       </c>
@@ -21068,7 +21053,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="39">
       <c r="A378" s="2" t="s">
         <v>417</v>
       </c>
@@ -21113,7 +21098,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="39">
       <c r="A379" s="2" t="s">
         <v>417</v>
       </c>
@@ -21166,7 +21151,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="39">
       <c r="A380" s="2" t="s">
         <v>417</v>
       </c>
@@ -21211,7 +21196,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="39">
       <c r="A381" s="2" t="s">
         <v>417</v>
       </c>
@@ -21270,7 +21255,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="48.75">
       <c r="A382" s="2" t="s">
         <v>417</v>
       </c>
@@ -21329,7 +21314,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="39">
       <c r="A383" s="2" t="s">
         <v>435</v>
       </c>
@@ -21386,7 +21371,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="39">
       <c r="A384" s="2" t="s">
         <v>435</v>
       </c>
@@ -21443,7 +21428,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="48.75">
       <c r="A385" s="2" t="s">
         <v>435</v>
       </c>
@@ -21502,7 +21487,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="48.75">
       <c r="A386" s="2" t="s">
         <v>435</v>
       </c>
@@ -21557,7 +21542,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="48.75">
       <c r="A387" s="2" t="s">
         <v>435</v>
       </c>
@@ -21616,7 +21601,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="19.5">
       <c r="A388" s="2" t="s">
         <v>435</v>
       </c>
@@ -21667,7 +21652,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="68.25">
       <c r="A389" s="2" t="s">
         <v>445</v>
       </c>
@@ -21726,7 +21711,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="78">
       <c r="A390" s="2" t="s">
         <v>445</v>
       </c>
@@ -21785,7 +21770,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="78">
       <c r="A391" s="2" t="s">
         <v>445</v>
       </c>
@@ -21844,7 +21829,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="68.25">
       <c r="A392" s="2" t="s">
         <v>445</v>
       </c>
@@ -21903,7 +21888,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="48.75">
       <c r="A393" s="2" t="s">
         <v>445</v>
       </c>
@@ -21958,7 +21943,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="19.5">
       <c r="A394" s="2" t="s">
         <v>455</v>
       </c>
@@ -22013,7 +21998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="19.5">
       <c r="A395" s="2" t="s">
         <v>455</v>
       </c>
@@ -22068,7 +22053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="39">
       <c r="A396" s="2" t="s">
         <v>455</v>
       </c>
@@ -22125,7 +22110,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="19.5">
       <c r="A397" s="2" t="s">
         <v>455</v>
       </c>
@@ -22164,7 +22149,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="19.5">
       <c r="A398" s="2" t="s">
         <v>455</v>
       </c>
@@ -22197,7 +22182,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="19.5">
       <c r="A399" s="2" t="s">
         <v>455</v>
       </c>
@@ -22230,7 +22215,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="19.5">
       <c r="A400" s="2" t="s">
         <v>455</v>
       </c>
@@ -22263,7 +22248,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="19.5">
       <c r="A401" s="2" t="s">
         <v>455</v>
       </c>
@@ -22302,7 +22287,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="19.5">
       <c r="A402" s="2" t="s">
         <v>455</v>
       </c>
@@ -22341,7 +22326,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="19.5">
       <c r="A403" s="2" t="s">
         <v>455</v>
       </c>
@@ -22380,7 +22365,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="39">
       <c r="A404" s="2" t="s">
         <v>455</v>
       </c>
@@ -22439,7 +22424,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="19.5">
       <c r="A405" s="2" t="s">
         <v>455</v>
       </c>
@@ -22496,7 +22481,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="29.25">
       <c r="A406" s="2" t="s">
         <v>455</v>
       </c>
@@ -22555,7 +22540,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="29.25">
       <c r="A407" s="2" t="s">
         <v>455</v>
       </c>
@@ -22606,7 +22591,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="29.25">
       <c r="A408" s="2" t="s">
         <v>455</v>
       </c>
@@ -22657,7 +22642,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="19.5">
       <c r="A409" s="2" t="s">
         <v>455</v>
       </c>
@@ -22714,7 +22699,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="29.25">
       <c r="A410" s="2" t="s">
         <v>475</v>
       </c>
@@ -22769,7 +22754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="29.25">
       <c r="A411" s="2" t="s">
         <v>475</v>
       </c>
@@ -22828,7 +22813,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="29.25">
       <c r="A412" s="2" t="s">
         <v>475</v>
       </c>
@@ -22871,7 +22856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="29.25">
       <c r="A413" s="2" t="s">
         <v>475</v>
       </c>
@@ -22924,7 +22909,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="29.25">
       <c r="A414" s="2" t="s">
         <v>475</v>
       </c>
@@ -22969,7 +22954,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="29.25">
       <c r="A415" s="2" t="s">
         <v>475</v>
       </c>
@@ -23014,7 +22999,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="29.25">
       <c r="A416" s="2" t="s">
         <v>475</v>
       </c>
@@ -23059,7 +23044,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="29.25">
       <c r="A417" s="2" t="s">
         <v>475</v>
       </c>
@@ -23104,7 +23089,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="29.25">
       <c r="A418" s="2" t="s">
         <v>475</v>
       </c>
@@ -23149,7 +23134,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="29.25">
       <c r="A419" s="2" t="s">
         <v>475</v>
       </c>
@@ -23194,7 +23179,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="39">
       <c r="A420" s="2" t="s">
         <v>475</v>
       </c>
@@ -23239,7 +23224,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="39">
       <c r="A421" s="2" t="s">
         <v>475</v>
       </c>
@@ -23284,7 +23269,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="39">
       <c r="A422" s="2" t="s">
         <v>475</v>
       </c>
@@ -23329,7 +23314,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="39">
       <c r="A423" s="2" t="s">
         <v>475</v>
       </c>
@@ -23374,7 +23359,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="39">
       <c r="A424" s="2" t="s">
         <v>475</v>
       </c>
@@ -23431,7 +23416,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="39">
       <c r="A425" s="2" t="s">
         <v>475</v>
       </c>
@@ -23486,7 +23471,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="39">
       <c r="A426" s="2" t="s">
         <v>475</v>
       </c>
@@ -23541,7 +23526,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="39">
       <c r="A427" s="2" t="s">
         <v>475</v>
       </c>
@@ -23596,7 +23581,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="39">
       <c r="A428" s="2" t="s">
         <v>475</v>
       </c>
@@ -23653,7 +23638,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="29.25">
       <c r="A429" s="2" t="s">
         <v>475</v>
       </c>
@@ -23710,7 +23695,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="29.25">
       <c r="A430" s="2" t="s">
         <v>475</v>
       </c>
@@ -23749,7 +23734,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="29.25">
       <c r="A431" s="2" t="s">
         <v>475</v>
       </c>
@@ -23788,7 +23773,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="29.25">
       <c r="A432" s="2" t="s">
         <v>475</v>
       </c>
@@ -23827,7 +23812,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="29.25">
       <c r="A433" s="2" t="s">
         <v>475</v>
       </c>
@@ -23866,7 +23851,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="29.25">
       <c r="A434" s="2" t="s">
         <v>475</v>
       </c>
@@ -23905,7 +23890,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="29.25">
       <c r="A435" s="2" t="s">
         <v>475</v>
       </c>
@@ -23944,7 +23929,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="29.25">
       <c r="A436" s="2" t="s">
         <v>475</v>
       </c>
@@ -23983,7 +23968,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="29.25">
       <c r="A437" s="2" t="s">
         <v>475</v>
       </c>
@@ -24022,7 +24007,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="29.25">
       <c r="A438" s="2" t="s">
         <v>475</v>
       </c>
@@ -24061,7 +24046,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="29.25">
       <c r="A439" s="2" t="s">
         <v>475</v>
       </c>
@@ -24100,7 +24085,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="29.25">
       <c r="A440" s="2" t="s">
         <v>475</v>
       </c>
@@ -24139,7 +24124,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="29.25">
       <c r="A441" s="2" t="s">
         <v>475</v>
       </c>
@@ -24178,7 +24163,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="29.25">
       <c r="A442" s="2" t="s">
         <v>475</v>
       </c>
@@ -24237,7 +24222,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="29.25">
       <c r="A443" s="2" t="s">
         <v>475</v>
       </c>
@@ -24276,7 +24261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="19.5">
       <c r="A444" s="2" t="s">
         <v>510</v>
       </c>
@@ -24333,7 +24318,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="19.5">
       <c r="A445" s="2" t="s">
         <v>510</v>
       </c>
@@ -24390,7 +24375,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="19.5">
       <c r="A446" s="2" t="s">
         <v>510</v>
       </c>
@@ -24447,7 +24432,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="29.25">
       <c r="A447" s="2" t="s">
         <v>510</v>
       </c>
@@ -24504,7 +24489,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="29.25">
       <c r="A448" s="2" t="s">
         <v>510</v>
       </c>
@@ -24561,7 +24546,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="19.5">
       <c r="A449" s="2" t="s">
         <v>510</v>
       </c>
@@ -24618,7 +24603,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="29.25">
       <c r="A450" s="2" t="s">
         <v>510</v>
       </c>
@@ -24675,7 +24660,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="29.25">
       <c r="A451" s="2" t="s">
         <v>510</v>
       </c>
@@ -24734,7 +24719,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="29.25">
       <c r="A452" s="2" t="s">
         <v>510</v>
       </c>
@@ -24793,7 +24778,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="29.25">
       <c r="A453" s="2" t="s">
         <v>510</v>
       </c>
@@ -24852,7 +24837,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="19.5">
       <c r="A454" s="2" t="s">
         <v>510</v>
       </c>
@@ -24909,7 +24894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="19.5">
       <c r="A455" s="2" t="s">
         <v>510</v>
       </c>
@@ -24966,7 +24951,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="19.5">
       <c r="A456" s="2" t="s">
         <v>510</v>
       </c>
@@ -25023,7 +25008,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="29.25">
       <c r="A457" s="2" t="s">
         <v>510</v>
       </c>
@@ -25080,7 +25065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="29.25">
       <c r="A458" s="2" t="s">
         <v>510</v>
       </c>
@@ -25139,7 +25124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="39">
       <c r="A459" s="2" t="s">
         <v>510</v>
       </c>
@@ -25198,7 +25183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="19.5">
       <c r="A460" s="2" t="s">
         <v>510</v>
       </c>
@@ -25257,7 +25242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="58.5">
       <c r="A461" s="2" t="s">
         <v>510</v>
       </c>
@@ -25314,7 +25299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="58.5">
       <c r="A462" s="2" t="s">
         <v>510</v>
       </c>
@@ -25371,7 +25356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="29.25">
       <c r="A463" s="2" t="s">
         <v>510</v>
       </c>
@@ -25414,7 +25399,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="29.25">
       <c r="A464" s="2" t="s">
         <v>510</v>
       </c>
@@ -25473,7 +25458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="29.25">
       <c r="A465" s="2" t="s">
         <v>510</v>
       </c>
@@ -25532,7 +25517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="29.25">
       <c r="A466" s="2" t="s">
         <v>510</v>
       </c>
@@ -25583,7 +25568,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="48.75">
       <c r="A467" s="2" t="s">
         <v>510</v>
       </c>
@@ -25620,7 +25605,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="48.75">
       <c r="A468" s="2" t="s">
         <v>510</v>
       </c>
@@ -25677,7 +25662,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="48.75">
       <c r="A469" s="2" t="s">
         <v>510</v>
       </c>
@@ -25734,9 +25719,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A472" s="12" t="s">
         <v>547</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1661,13 +1666,13 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 22-03-2023, 08:36</t>
+    <t>Ostatnia aktualizacja: 04-04-2023, 13:52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
@@ -1676,7 +1681,7 @@
     <numFmt numFmtId="168" formatCode="[$-10415]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10415]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1874,6 +1879,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1894,7 +1907,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1957,7 +1970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1989,9 +2002,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2023,6 +2037,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2198,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2206,7 +2221,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2218,17 +2233,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="25.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2287,7 +2302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2344,7 +2359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.5">
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2399,7 +2414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.5">
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2454,7 +2469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="19.5">
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2509,7 +2524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="19.5">
+    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2564,7 +2579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.5">
+    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2619,7 +2634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="19.5">
+    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2674,7 +2689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="19.5">
+    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2729,7 +2744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="19.5">
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2784,7 +2799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="19.5">
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2839,7 +2854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.5">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2894,7 +2909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.5">
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2949,7 +2964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="19.5">
+    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2988,7 +3003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="19.5">
+    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3045,7 +3060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="107.25">
+    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3100,7 +3115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="107.25">
+    <row r="19" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3155,7 +3170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="107.25">
+    <row r="20" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3210,7 +3225,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19.5">
+    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3265,7 +3280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="39">
+    <row r="22" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3322,7 +3337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="39">
+    <row r="23" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3379,7 +3394,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="39">
+    <row r="24" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3428,7 +3443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="68.25">
+    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3477,7 +3492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="29.25">
+    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3526,7 +3541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="29.25">
+    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3575,7 +3590,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="29.25">
+    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3626,7 +3641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="39">
+    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3683,7 +3698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="39">
+    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3740,7 +3755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="39">
+    <row r="31" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3797,7 +3812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="39">
+    <row r="32" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3854,7 +3869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3909,7 +3924,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="39">
+    <row r="34" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3954,7 +3969,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="39">
+    <row r="35" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -3999,7 +4014,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="39">
+    <row r="36" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4044,7 +4059,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="29.25">
+    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4089,7 +4104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="29.25">
+    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4134,7 +4149,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="29.25">
+    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4179,7 +4194,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="48.75">
+    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4218,7 +4233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="68.25">
+    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4277,7 +4292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="68.25">
+    <row r="42" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4336,7 +4351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="68.25">
+    <row r="43" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4395,7 +4410,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="68.25">
+    <row r="44" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4454,7 +4469,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="68.25">
+    <row r="45" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4513,7 +4528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="68.25">
+    <row r="46" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4572,7 +4587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="29.25">
+    <row r="47" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4621,7 +4636,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="29.25">
+    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4670,7 +4685,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.5">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4725,7 +4740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="19.5">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4776,7 +4791,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.5">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4831,7 +4846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.5">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4888,7 +4903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.5">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4945,7 +4960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.5">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -5002,7 +5017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.5">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -5059,7 +5074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.5">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -5116,7 +5131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.5">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -5173,7 +5188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.5">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -5230,7 +5245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="39">
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -5287,7 +5302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.5">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -5344,7 +5359,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="39">
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -5401,7 +5416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="39">
+    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
@@ -5458,7 +5473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="39">
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
@@ -5515,7 +5530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.5">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -5572,7 +5587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="39">
+    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
@@ -5629,7 +5644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="39">
+    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -5686,7 +5701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="39">
+    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -5743,7 +5758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="29.25">
+    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5800,7 +5815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="29.25">
+    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5857,7 +5872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="29.25">
+    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -5914,7 +5929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="29.25">
+    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -5971,7 +5986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.5">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -6026,7 +6041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.5">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -6081,7 +6096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.5">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -6136,7 +6151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.5">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -6193,7 +6208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="29.25">
+    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
@@ -6250,7 +6265,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="29.25">
+    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -6289,7 +6304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.5">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -6346,7 +6361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.5">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -6403,7 +6418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.5">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -6460,7 +6475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.5">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -6501,7 +6516,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="29.25">
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -6546,7 +6561,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="29.25">
+    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -6591,7 +6606,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="39">
+    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -6626,7 +6641,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="39">
+    <row r="85" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -6661,7 +6676,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.5">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -6716,7 +6731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.5">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -6755,7 +6770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="29.25">
+    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -6812,7 +6827,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="29.25">
+    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -6869,7 +6884,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="29.25">
+    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -6910,7 +6925,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="19.5">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -6961,7 +6976,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.5">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -7000,7 +7015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.5">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -7039,7 +7054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="19.5">
+    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -7078,7 +7093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.5">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -7131,7 +7146,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="29.25">
+    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>148</v>
       </c>
@@ -7168,7 +7183,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="29.25">
+    <row r="97" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>148</v>
       </c>
@@ -7205,7 +7220,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="29.25">
+    <row r="98" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>148</v>
       </c>
@@ -7242,7 +7257,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="29.25">
+    <row r="99" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>148</v>
       </c>
@@ -7283,7 +7298,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="29.25">
+    <row r="100" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>148</v>
       </c>
@@ -7324,7 +7339,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="29.25">
+    <row r="101" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>148</v>
       </c>
@@ -7365,7 +7380,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="29.25">
+    <row r="102" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>148</v>
       </c>
@@ -7406,7 +7421,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="29.25">
+    <row r="103" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>148</v>
       </c>
@@ -7447,7 +7462,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="29.25">
+    <row r="104" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>148</v>
       </c>
@@ -7488,7 +7503,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="29.25">
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>148</v>
       </c>
@@ -7525,7 +7540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="19.5">
+    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>148</v>
       </c>
@@ -7582,7 +7597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="19.5">
+    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>148</v>
       </c>
@@ -7639,7 +7654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="19.5">
+    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>148</v>
       </c>
@@ -7696,7 +7711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="29.25">
+    <row r="109" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>148</v>
       </c>
@@ -7733,7 +7748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="29.25">
+    <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>148</v>
       </c>
@@ -7770,7 +7785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="29.25">
+    <row r="111" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>148</v>
       </c>
@@ -7807,7 +7822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="39">
+    <row r="112" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>148</v>
       </c>
@@ -7852,7 +7867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="29.25">
+    <row r="113" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>148</v>
       </c>
@@ -7899,7 +7914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="58.5">
+    <row r="114" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>148</v>
       </c>
@@ -7946,7 +7961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="58.5">
+    <row r="115" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>148</v>
       </c>
@@ -7993,7 +8008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="68.25">
+    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>148</v>
       </c>
@@ -8040,7 +8055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="29.25">
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>148</v>
       </c>
@@ -8087,7 +8102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="39">
+    <row r="118" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -8132,7 +8147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="29.25">
+    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>148</v>
       </c>
@@ -8179,7 +8194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="58.5">
+    <row r="120" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>148</v>
       </c>
@@ -8226,7 +8241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="58.5">
+    <row r="121" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -8273,7 +8288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="68.25">
+    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -8320,7 +8335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="29.25">
+    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8367,7 +8382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="39">
+    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8406,7 +8421,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="39">
+    <row r="125" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8445,7 +8460,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="39">
+    <row r="126" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8502,7 +8517,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="29.25">
+    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8537,7 +8552,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="29.25">
+    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8572,7 +8587,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="29.25">
+    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8607,7 +8622,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="29.25">
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8642,7 +8657,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="29.25">
+    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8677,7 +8692,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="29.25">
+    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8712,7 +8727,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="29.25">
+    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8747,7 +8762,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="29.25">
+    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8782,7 +8797,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="29.25">
+    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8817,7 +8832,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="29.25">
+    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8852,7 +8867,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="29.25">
+    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8887,7 +8902,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="29.25">
+    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8922,7 +8937,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="29.25">
+    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8957,7 +8972,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="29.25">
+    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -8992,7 +9007,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="29.25">
+    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9027,7 +9042,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="29.25">
+    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9062,7 +9077,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="48.75">
+    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9121,7 +9136,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="68.25">
+    <row r="144" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9180,7 +9195,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="68.25">
+    <row r="145" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9215,7 +9230,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="68.25">
+    <row r="146" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9250,7 +9265,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="68.25">
+    <row r="147" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9309,7 +9324,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="68.25">
+    <row r="148" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9368,7 +9383,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="68.25">
+    <row r="149" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9427,7 +9442,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="19.5">
+    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9478,7 +9493,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="48.75">
+    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9533,7 +9548,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="48.75">
+    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9588,7 +9603,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="48.75">
+    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9643,7 +9658,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="48.75">
+    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9698,7 +9713,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="39">
+    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>203</v>
       </c>
@@ -9733,7 +9748,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="29.25">
+    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>203</v>
       </c>
@@ -9790,7 +9805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="29.25">
+    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>203</v>
       </c>
@@ -9825,7 +9840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="29.25">
+    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>203</v>
       </c>
@@ -9860,7 +9875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="29.25">
+    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>203</v>
       </c>
@@ -9895,7 +9910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="29.25">
+    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>203</v>
       </c>
@@ -9930,7 +9945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="29.25">
+    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>203</v>
       </c>
@@ -9965,7 +9980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="19.5">
+    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>203</v>
       </c>
@@ -10000,7 +10015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="19.5">
+    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>203</v>
       </c>
@@ -10035,7 +10050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="19.5">
+    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -10070,7 +10085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="19.5">
+    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>203</v>
       </c>
@@ -10105,7 +10120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="19.5">
+    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>203</v>
       </c>
@@ -10140,7 +10155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="19.5">
+    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>203</v>
       </c>
@@ -10175,7 +10190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="19.5">
+    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>203</v>
       </c>
@@ -10210,7 +10225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="19.5">
+    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -10245,7 +10260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="39">
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>203</v>
       </c>
@@ -10284,7 +10299,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="39">
+    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>203</v>
       </c>
@@ -10323,7 +10338,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="39">
+    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>203</v>
       </c>
@@ -10380,7 +10395,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="39">
+    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>203</v>
       </c>
@@ -10437,7 +10452,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="39">
+    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>203</v>
       </c>
@@ -10494,7 +10509,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="39">
+    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>203</v>
       </c>
@@ -10551,7 +10566,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="39">
+    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -10608,7 +10623,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="39">
+    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>203</v>
       </c>
@@ -10653,7 +10668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="68.25">
+    <row r="178" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>203</v>
       </c>
@@ -10698,7 +10713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="48.75">
+    <row r="179" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>203</v>
       </c>
@@ -10743,7 +10758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="39">
+    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>203</v>
       </c>
@@ -10788,7 +10803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="39">
+    <row r="181" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>203</v>
       </c>
@@ -10833,7 +10848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="39">
+    <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>203</v>
       </c>
@@ -10878,7 +10893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="68.25">
+    <row r="183" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>203</v>
       </c>
@@ -10923,7 +10938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="39">
+    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>203</v>
       </c>
@@ -10962,7 +10977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="39">
+    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>203</v>
       </c>
@@ -11001,7 +11016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="39">
+    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>203</v>
       </c>
@@ -11040,7 +11055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="39">
+    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>203</v>
       </c>
@@ -11079,7 +11094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="39">
+    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>203</v>
       </c>
@@ -11118,7 +11133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="39">
+    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>203</v>
       </c>
@@ -11157,7 +11172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="39">
+    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>203</v>
       </c>
@@ -11196,7 +11211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="39">
+    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>203</v>
       </c>
@@ -11235,7 +11250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="39">
+    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>203</v>
       </c>
@@ -11274,7 +11289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="39">
+    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>203</v>
       </c>
@@ -11313,7 +11328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="39">
+    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>203</v>
       </c>
@@ -11352,7 +11367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="39">
+    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
@@ -11391,7 +11406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="29.25">
+    <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>203</v>
       </c>
@@ -11432,7 +11447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="19.5">
+    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>203</v>
       </c>
@@ -11487,7 +11502,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="19.5">
+    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>203</v>
       </c>
@@ -11542,7 +11557,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="19.5">
+    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>242</v>
       </c>
@@ -11599,7 +11614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="29.25">
+    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>242</v>
       </c>
@@ -11656,7 +11671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="19.5">
+    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>242</v>
       </c>
@@ -11713,7 +11728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="19.5">
+    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>242</v>
       </c>
@@ -11748,7 +11763,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="19.5">
+    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>242</v>
       </c>
@@ -11783,7 +11798,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="29.25">
+    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>242</v>
       </c>
@@ -11838,7 +11853,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="19.5">
+    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>242</v>
       </c>
@@ -11893,7 +11908,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="29.25">
+    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>242</v>
       </c>
@@ -11938,7 +11953,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="19.5">
+    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>242</v>
       </c>
@@ -11993,7 +12008,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="29.25">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>242</v>
       </c>
@@ -12044,7 +12059,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="48.75">
+    <row r="209" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>242</v>
       </c>
@@ -12101,7 +12116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="19.5">
+    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>263</v>
       </c>
@@ -12136,7 +12151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="19.5">
+    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>263</v>
       </c>
@@ -12193,7 +12208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="39">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>263</v>
       </c>
@@ -12248,7 +12263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="19.5">
+    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>263</v>
       </c>
@@ -12299,7 +12314,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="29.25">
+    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>269</v>
       </c>
@@ -12356,7 +12371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="29.25">
+    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>269</v>
       </c>
@@ -12413,7 +12428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="29.25">
+    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>269</v>
       </c>
@@ -12452,7 +12467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="29.25">
+    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>269</v>
       </c>
@@ -12491,7 +12506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="29.25">
+    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>269</v>
       </c>
@@ -12530,7 +12545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="29.25">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>269</v>
       </c>
@@ -12587,7 +12602,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="29.25">
+    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>269</v>
       </c>
@@ -12644,7 +12659,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="29.25">
+    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>269</v>
       </c>
@@ -12701,7 +12716,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="29.25">
+    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>269</v>
       </c>
@@ -12746,7 +12761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="29.25">
+    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>269</v>
       </c>
@@ -12791,7 +12806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="29.25">
+    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>269</v>
       </c>
@@ -12836,7 +12851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="58.5">
+    <row r="225" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>269</v>
       </c>
@@ -12881,7 +12896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="29.25">
+    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>269</v>
       </c>
@@ -12926,7 +12941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="29.25">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>269</v>
       </c>
@@ -12971,7 +12986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="29.25">
+    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>269</v>
       </c>
@@ -13016,7 +13031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="29.25">
+    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>269</v>
       </c>
@@ -13061,7 +13076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="39">
+    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>269</v>
       </c>
@@ -13106,7 +13121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="29.25">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>269</v>
       </c>
@@ -13151,7 +13166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="39">
+    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>269</v>
       </c>
@@ -13196,7 +13211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="29.25">
+    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>269</v>
       </c>
@@ -13241,7 +13256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="29.25">
+    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>269</v>
       </c>
@@ -13286,7 +13301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="29.25">
+    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>269</v>
       </c>
@@ -13331,7 +13346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="29.25">
+    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>269</v>
       </c>
@@ -13376,7 +13391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="29.25">
+    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>269</v>
       </c>
@@ -13421,7 +13436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="29.25">
+    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>269</v>
       </c>
@@ -13466,7 +13481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="29.25">
+    <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>269</v>
       </c>
@@ -13511,7 +13526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="29.25">
+    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>269</v>
       </c>
@@ -13556,7 +13571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="29.25">
+    <row r="241" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>269</v>
       </c>
@@ -13613,7 +13628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="29.25">
+    <row r="242" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>269</v>
       </c>
@@ -13670,7 +13685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="29.25">
+    <row r="243" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>269</v>
       </c>
@@ -13727,7 +13742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="29.25">
+    <row r="244" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>269</v>
       </c>
@@ -13784,7 +13799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="29.25">
+    <row r="245" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>269</v>
       </c>
@@ -13841,7 +13856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="29.25">
+    <row r="246" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>269</v>
       </c>
@@ -13898,7 +13913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="29.25">
+    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>269</v>
       </c>
@@ -13955,7 +13970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="29.25">
+    <row r="248" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>269</v>
       </c>
@@ -14012,7 +14027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="29.25">
+    <row r="249" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>269</v>
       </c>
@@ -14069,7 +14084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="29.25">
+    <row r="250" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>269</v>
       </c>
@@ -14126,7 +14141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="29.25">
+    <row r="251" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>269</v>
       </c>
@@ -14183,7 +14198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="29.25">
+    <row r="252" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>269</v>
       </c>
@@ -14240,7 +14255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="39">
+    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>269</v>
       </c>
@@ -14281,7 +14296,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="39">
+    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>269</v>
       </c>
@@ -14322,7 +14337,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="39">
+    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>269</v>
       </c>
@@ -14363,7 +14378,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="29.25">
+    <row r="256" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>269</v>
       </c>
@@ -14420,7 +14435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="39">
+    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>269</v>
       </c>
@@ -14477,7 +14492,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="29.25">
+    <row r="258" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>269</v>
       </c>
@@ -14512,7 +14527,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="29.25">
+    <row r="259" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>269</v>
       </c>
@@ -14547,7 +14562,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="29.25">
+    <row r="260" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>269</v>
       </c>
@@ -14582,7 +14597,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="29.25">
+    <row r="261" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>269</v>
       </c>
@@ -14617,7 +14632,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="29.25">
+    <row r="262" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>269</v>
       </c>
@@ -14652,7 +14667,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="29.25">
+    <row r="263" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>269</v>
       </c>
@@ -14687,7 +14702,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="29.25">
+    <row r="264" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>269</v>
       </c>
@@ -14722,7 +14737,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="29.25">
+    <row r="265" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>269</v>
       </c>
@@ -14757,7 +14772,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="29.25">
+    <row r="266" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>269</v>
       </c>
@@ -14808,7 +14823,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="39">
+    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>313</v>
       </c>
@@ -14865,7 +14880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="39">
+    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>313</v>
       </c>
@@ -14922,7 +14937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="39">
+    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>313</v>
       </c>
@@ -14979,7 +14994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="39">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>313</v>
       </c>
@@ -15036,7 +15051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="39">
+    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>313</v>
       </c>
@@ -15093,7 +15108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="39">
+    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>313</v>
       </c>
@@ -15150,7 +15165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="39">
+    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>313</v>
       </c>
@@ -15207,7 +15222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="39">
+    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>313</v>
       </c>
@@ -15264,7 +15279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="39">
+    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>313</v>
       </c>
@@ -15321,7 +15336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="39">
+    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>313</v>
       </c>
@@ -15378,7 +15393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="39">
+    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>313</v>
       </c>
@@ -15435,7 +15450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="39">
+    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>313</v>
       </c>
@@ -15492,7 +15507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="39">
+    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>313</v>
       </c>
@@ -15549,7 +15564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="39">
+    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>313</v>
       </c>
@@ -15606,7 +15621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="39">
+    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>313</v>
       </c>
@@ -15663,7 +15678,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="39">
+    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>313</v>
       </c>
@@ -15720,7 +15735,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="39">
+    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>313</v>
       </c>
@@ -15777,7 +15792,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="39">
+    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>313</v>
       </c>
@@ -15834,7 +15849,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="39">
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>313</v>
       </c>
@@ -15891,7 +15906,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="39">
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>313</v>
       </c>
@@ -15948,7 +15963,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="39">
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>313</v>
       </c>
@@ -15999,7 +16014,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="39">
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>313</v>
       </c>
@@ -16056,7 +16071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="39">
+    <row r="289" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>313</v>
       </c>
@@ -16113,7 +16128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="39">
+    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>313</v>
       </c>
@@ -16164,7 +16179,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="39">
+    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>313</v>
       </c>
@@ -16217,7 +16232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="48.75">
+    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>313</v>
       </c>
@@ -16266,7 +16281,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="48.75">
+    <row r="293" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>313</v>
       </c>
@@ -16315,7 +16330,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="19.5">
+    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>345</v>
       </c>
@@ -16372,7 +16387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="58.5">
+    <row r="295" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>345</v>
       </c>
@@ -16429,7 +16444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="19.5">
+    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>345</v>
       </c>
@@ -16486,7 +16501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="19.5">
+    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>345</v>
       </c>
@@ -16543,7 +16558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="19.5">
+    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>345</v>
       </c>
@@ -16600,7 +16615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="19.5">
+    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>345</v>
       </c>
@@ -16657,7 +16672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="19.5">
+    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>345</v>
       </c>
@@ -16714,7 +16729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="19.5">
+    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>345</v>
       </c>
@@ -16771,7 +16786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="19.5">
+    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>345</v>
       </c>
@@ -16828,7 +16843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="19.5">
+    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>345</v>
       </c>
@@ -16885,7 +16900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="19.5">
+    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>345</v>
       </c>
@@ -16942,7 +16957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="19.5">
+    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>345</v>
       </c>
@@ -16981,7 +16996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="19.5">
+    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>345</v>
       </c>
@@ -17038,7 +17053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="78">
+    <row r="307" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>345</v>
       </c>
@@ -17095,7 +17110,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="48.75">
+    <row r="308" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>345</v>
       </c>
@@ -17152,7 +17167,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="78">
+    <row r="309" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>345</v>
       </c>
@@ -17209,7 +17224,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="48.75">
+    <row r="310" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>345</v>
       </c>
@@ -17266,7 +17281,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="48.75">
+    <row r="311" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>345</v>
       </c>
@@ -17323,7 +17338,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="58.5">
+    <row r="312" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>345</v>
       </c>
@@ -17378,7 +17393,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="39">
+    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>345</v>
       </c>
@@ -17435,7 +17450,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="39">
+    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>345</v>
       </c>
@@ -17492,7 +17507,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="58.5">
+    <row r="315" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>345</v>
       </c>
@@ -17549,7 +17564,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="58.5">
+    <row r="316" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>345</v>
       </c>
@@ -17606,7 +17621,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="39">
+    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>345</v>
       </c>
@@ -17663,7 +17678,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="48.75">
+    <row r="318" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>345</v>
       </c>
@@ -17720,7 +17735,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="29.25">
+    <row r="319" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>345</v>
       </c>
@@ -17777,7 +17792,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="48.75">
+    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>345</v>
       </c>
@@ -17834,7 +17849,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="48.75">
+    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>345</v>
       </c>
@@ -17891,7 +17906,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="78">
+    <row r="322" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>345</v>
       </c>
@@ -17948,7 +17963,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="97.5">
+    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>345</v>
       </c>
@@ -18005,7 +18020,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="78">
+    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>345</v>
       </c>
@@ -18062,7 +18077,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="87.75">
+    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>345</v>
       </c>
@@ -18119,7 +18134,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="48.75">
+    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>345</v>
       </c>
@@ -18176,7 +18191,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="78">
+    <row r="327" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>345</v>
       </c>
@@ -18233,7 +18248,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="87.75">
+    <row r="328" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>345</v>
       </c>
@@ -18290,7 +18305,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="78">
+    <row r="329" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>345</v>
       </c>
@@ -18347,7 +18362,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="87.75">
+    <row r="330" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>345</v>
       </c>
@@ -18404,7 +18419,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="39">
+    <row r="331" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>384</v>
       </c>
@@ -18459,7 +18474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="39">
+    <row r="332" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>384</v>
       </c>
@@ -18514,7 +18529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="39">
+    <row r="333" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>384</v>
       </c>
@@ -18569,7 +18584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="39">
+    <row r="334" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>384</v>
       </c>
@@ -18626,7 +18641,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="39">
+    <row r="335" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>384</v>
       </c>
@@ -18683,7 +18698,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="39">
+    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>384</v>
       </c>
@@ -18740,7 +18755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="39">
+    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>384</v>
       </c>
@@ -18797,7 +18812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="39">
+    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>384</v>
       </c>
@@ -18854,7 +18869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="39">
+    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>384</v>
       </c>
@@ -18911,7 +18926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="39">
+    <row r="340" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>384</v>
       </c>
@@ -18968,7 +18983,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="39">
+    <row r="341" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>384</v>
       </c>
@@ -19025,7 +19040,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="39">
+    <row r="342" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>384</v>
       </c>
@@ -19082,7 +19097,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="39">
+    <row r="343" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>384</v>
       </c>
@@ -19139,7 +19154,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="39">
+    <row r="344" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>384</v>
       </c>
@@ -19196,7 +19211,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="39">
+    <row r="345" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>384</v>
       </c>
@@ -19253,7 +19268,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="39">
+    <row r="346" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>384</v>
       </c>
@@ -19310,7 +19325,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="39">
+    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>384</v>
       </c>
@@ -19367,7 +19382,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="39">
+    <row r="348" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>384</v>
       </c>
@@ -19424,7 +19439,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="39">
+    <row r="349" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>384</v>
       </c>
@@ -19481,7 +19496,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="39">
+    <row r="350" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>384</v>
       </c>
@@ -19538,7 +19553,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="39">
+    <row r="351" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>384</v>
       </c>
@@ -19595,7 +19610,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="39">
+    <row r="352" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>384</v>
       </c>
@@ -19652,7 +19667,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="39">
+    <row r="353" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>384</v>
       </c>
@@ -19709,7 +19724,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="39">
+    <row r="354" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>384</v>
       </c>
@@ -19766,7 +19781,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="39">
+    <row r="355" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>384</v>
       </c>
@@ -19823,7 +19838,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="39">
+    <row r="356" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>384</v>
       </c>
@@ -19880,7 +19895,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="39">
+    <row r="357" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>384</v>
       </c>
@@ -19937,7 +19952,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="39">
+    <row r="358" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>384</v>
       </c>
@@ -19992,7 +20007,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="39">
+    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>384</v>
       </c>
@@ -20049,7 +20064,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="39">
+    <row r="360" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>384</v>
       </c>
@@ -20106,7 +20121,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="39">
+    <row r="361" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>384</v>
       </c>
@@ -20163,7 +20178,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="39">
+    <row r="362" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>384</v>
       </c>
@@ -20220,7 +20235,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="39">
+    <row r="363" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>384</v>
       </c>
@@ -20277,7 +20292,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="39">
+    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>384</v>
       </c>
@@ -20334,7 +20349,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="39">
+    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>384</v>
       </c>
@@ -20391,7 +20406,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="39">
+    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>384</v>
       </c>
@@ -20448,7 +20463,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="39">
+    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>384</v>
       </c>
@@ -20505,7 +20520,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="39">
+    <row r="368" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>384</v>
       </c>
@@ -20562,7 +20577,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="39">
+    <row r="369" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>384</v>
       </c>
@@ -20619,7 +20634,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="39">
+    <row r="370" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>384</v>
       </c>
@@ -20676,7 +20691,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="39">
+    <row r="371" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>384</v>
       </c>
@@ -20733,7 +20748,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="39">
+    <row r="372" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>417</v>
       </c>
@@ -20790,7 +20805,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="39">
+    <row r="373" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>417</v>
       </c>
@@ -20847,7 +20862,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="39">
+    <row r="374" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>417</v>
       </c>
@@ -20904,7 +20919,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="58.5">
+    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>417</v>
       </c>
@@ -20963,7 +20978,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="39">
+    <row r="376" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>417</v>
       </c>
@@ -21008,7 +21023,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="39">
+    <row r="377" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>417</v>
       </c>
@@ -21053,7 +21068,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="39">
+    <row r="378" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>417</v>
       </c>
@@ -21098,7 +21113,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="39">
+    <row r="379" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>417</v>
       </c>
@@ -21151,7 +21166,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="39">
+    <row r="380" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>417</v>
       </c>
@@ -21196,7 +21211,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="39">
+    <row r="381" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>417</v>
       </c>
@@ -21255,7 +21270,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="48.75">
+    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>417</v>
       </c>
@@ -21314,7 +21329,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="39">
+    <row r="383" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>435</v>
       </c>
@@ -21371,7 +21386,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="39">
+    <row r="384" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>435</v>
       </c>
@@ -21428,7 +21443,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="48.75">
+    <row r="385" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>435</v>
       </c>
@@ -21487,7 +21502,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="48.75">
+    <row r="386" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>435</v>
       </c>
@@ -21542,7 +21557,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="48.75">
+    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>435</v>
       </c>
@@ -21601,7 +21616,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="19.5">
+    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>435</v>
       </c>
@@ -21652,7 +21667,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="68.25">
+    <row r="389" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>445</v>
       </c>
@@ -21711,7 +21726,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="78">
+    <row r="390" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>445</v>
       </c>
@@ -21770,7 +21785,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="78">
+    <row r="391" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>445</v>
       </c>
@@ -21829,7 +21844,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="68.25">
+    <row r="392" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>445</v>
       </c>
@@ -21888,7 +21903,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="48.75">
+    <row r="393" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>445</v>
       </c>
@@ -21943,7 +21958,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="19.5">
+    <row r="394" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>455</v>
       </c>
@@ -21998,7 +22013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="19.5">
+    <row r="395" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>455</v>
       </c>
@@ -22053,7 +22068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="39">
+    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>455</v>
       </c>
@@ -22110,7 +22125,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="19.5">
+    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>455</v>
       </c>
@@ -22149,7 +22164,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="19.5">
+    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>455</v>
       </c>
@@ -22182,7 +22197,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="19.5">
+    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>455</v>
       </c>
@@ -22215,7 +22230,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="19.5">
+    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>455</v>
       </c>
@@ -22248,7 +22263,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="19.5">
+    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>455</v>
       </c>
@@ -22287,7 +22302,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="19.5">
+    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>455</v>
       </c>
@@ -22326,7 +22341,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="19.5">
+    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>455</v>
       </c>
@@ -22365,7 +22380,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="39">
+    <row r="404" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>455</v>
       </c>
@@ -22424,7 +22439,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="19.5">
+    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>455</v>
       </c>
@@ -22481,7 +22496,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="29.25">
+    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>455</v>
       </c>
@@ -22540,7 +22555,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="29.25">
+    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>455</v>
       </c>
@@ -22591,7 +22606,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="29.25">
+    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>455</v>
       </c>
@@ -22642,7 +22657,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="19.5">
+    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>455</v>
       </c>
@@ -22699,7 +22714,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="29.25">
+    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>475</v>
       </c>
@@ -22754,7 +22769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="29.25">
+    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>475</v>
       </c>
@@ -22813,7 +22828,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="29.25">
+    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>475</v>
       </c>
@@ -22856,7 +22871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="29.25">
+    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>475</v>
       </c>
@@ -22909,7 +22924,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="29.25">
+    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>475</v>
       </c>
@@ -22954,7 +22969,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="29.25">
+    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>475</v>
       </c>
@@ -22999,7 +23014,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="29.25">
+    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>475</v>
       </c>
@@ -23044,7 +23059,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="29.25">
+    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>475</v>
       </c>
@@ -23089,7 +23104,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="29.25">
+    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>475</v>
       </c>
@@ -23134,7 +23149,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="29.25">
+    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>475</v>
       </c>
@@ -23179,7 +23194,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="39">
+    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>475</v>
       </c>
@@ -23224,7 +23239,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="39">
+    <row r="421" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>475</v>
       </c>
@@ -23269,7 +23284,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="39">
+    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>475</v>
       </c>
@@ -23314,7 +23329,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="39">
+    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>475</v>
       </c>
@@ -23359,7 +23374,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="39">
+    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>475</v>
       </c>
@@ -23416,7 +23431,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="39">
+    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>475</v>
       </c>
@@ -23471,7 +23486,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="39">
+    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>475</v>
       </c>
@@ -23526,7 +23541,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="39">
+    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>475</v>
       </c>
@@ -23581,7 +23596,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="39">
+    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>475</v>
       </c>
@@ -23638,7 +23653,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="29.25">
+    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>475</v>
       </c>
@@ -23695,7 +23710,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="29.25">
+    <row r="430" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>475</v>
       </c>
@@ -23734,7 +23749,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="29.25">
+    <row r="431" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>475</v>
       </c>
@@ -23773,7 +23788,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="29.25">
+    <row r="432" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>475</v>
       </c>
@@ -23812,7 +23827,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="29.25">
+    <row r="433" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>475</v>
       </c>
@@ -23851,7 +23866,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="29.25">
+    <row r="434" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>475</v>
       </c>
@@ -23890,7 +23905,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="29.25">
+    <row r="435" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>475</v>
       </c>
@@ -23929,7 +23944,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="29.25">
+    <row r="436" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>475</v>
       </c>
@@ -23968,7 +23983,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="29.25">
+    <row r="437" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>475</v>
       </c>
@@ -24007,7 +24022,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="29.25">
+    <row r="438" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>475</v>
       </c>
@@ -24046,7 +24061,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="29.25">
+    <row r="439" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>475</v>
       </c>
@@ -24085,7 +24100,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="29.25">
+    <row r="440" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>475</v>
       </c>
@@ -24124,7 +24139,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="29.25">
+    <row r="441" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>475</v>
       </c>
@@ -24163,7 +24178,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="29.25">
+    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>475</v>
       </c>
@@ -24222,7 +24237,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="29.25">
+    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>475</v>
       </c>
@@ -24261,7 +24276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="19.5">
+    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>510</v>
       </c>
@@ -24318,7 +24333,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="19.5">
+    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>510</v>
       </c>
@@ -24375,7 +24390,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="19.5">
+    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>510</v>
       </c>
@@ -24432,7 +24447,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="29.25">
+    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>510</v>
       </c>
@@ -24489,7 +24504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="29.25">
+    <row r="448" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>510</v>
       </c>
@@ -24546,7 +24561,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="19.5">
+    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>510</v>
       </c>
@@ -24603,7 +24618,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="29.25">
+    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>510</v>
       </c>
@@ -24660,7 +24675,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="29.25">
+    <row r="451" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>510</v>
       </c>
@@ -24719,7 +24734,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="29.25">
+    <row r="452" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>510</v>
       </c>
@@ -24778,7 +24793,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="29.25">
+    <row r="453" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>510</v>
       </c>
@@ -24837,7 +24852,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="19.5">
+    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>510</v>
       </c>
@@ -24894,7 +24909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="19.5">
+    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>510</v>
       </c>
@@ -24951,7 +24966,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="19.5">
+    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>510</v>
       </c>
@@ -25008,7 +25023,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="29.25">
+    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>510</v>
       </c>
@@ -25065,7 +25080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="29.25">
+    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>510</v>
       </c>
@@ -25124,7 +25139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="39">
+    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>510</v>
       </c>
@@ -25183,7 +25198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="19.5">
+    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>510</v>
       </c>
@@ -25242,7 +25257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="58.5">
+    <row r="461" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>510</v>
       </c>
@@ -25299,7 +25314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="58.5">
+    <row r="462" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>510</v>
       </c>
@@ -25356,7 +25371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="29.25">
+    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>510</v>
       </c>
@@ -25399,7 +25414,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="29.25">
+    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>510</v>
       </c>
@@ -25458,7 +25473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="29.25">
+    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>510</v>
       </c>
@@ -25517,7 +25532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="29.25">
+    <row r="466" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>510</v>
       </c>
@@ -25568,7 +25583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="48.75">
+    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>510</v>
       </c>
@@ -25605,7 +25620,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="48.75">
+    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>510</v>
       </c>
@@ -25662,7 +25677,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="48.75">
+    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>510</v>
       </c>
@@ -25719,9 +25734,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
         <v>547</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1666,7 +1666,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 04-04-2023, 13:52</t>
+    <t>Ostatnia aktualizacja: 26-04-2023, 16:23</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2218,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,7 +2408,9 @@
       <c r="P5" s="4">
         <v>14.8</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="4">
+        <v>14.8</v>
+      </c>
       <c r="R5" s="3"/>
       <c r="S5" s="2" t="s">
         <v>25</v>
@@ -2463,7 +2465,9 @@
       <c r="P6" s="4">
         <v>10</v>
       </c>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="4">
+        <v>10.6</v>
+      </c>
       <c r="R6" s="3"/>
       <c r="S6" s="2" t="s">
         <v>25</v>
@@ -2518,7 +2522,9 @@
       <c r="P7" s="4">
         <v>21.9</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="4">
+        <v>20.8</v>
+      </c>
       <c r="R7" s="3"/>
       <c r="S7" s="2" t="s">
         <v>25</v>
@@ -2573,7 +2579,9 @@
       <c r="P8" s="4">
         <v>13.9</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="4">
+        <v>14.1</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="2" t="s">
         <v>25</v>
@@ -2628,7 +2636,9 @@
       <c r="P9" s="4">
         <v>15.7</v>
       </c>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="4">
+        <v>15.4</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="2" t="s">
         <v>25</v>
@@ -2683,7 +2693,9 @@
       <c r="P10" s="4">
         <v>12.1</v>
       </c>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="4">
+        <v>13</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="2" t="s">
         <v>25</v>
@@ -2738,7 +2750,9 @@
       <c r="P11" s="4">
         <v>13.5</v>
       </c>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="4">
+        <v>14.6</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="2" t="s">
         <v>25</v>
@@ -2793,7 +2807,9 @@
       <c r="P12" s="4">
         <v>19.5</v>
       </c>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="4">
+        <v>18</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="2" t="s">
         <v>25</v>
@@ -2848,7 +2864,9 @@
       <c r="P13" s="4">
         <v>14.2</v>
       </c>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="4">
+        <v>14</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="2" t="s">
         <v>25</v>
@@ -2903,7 +2921,9 @@
       <c r="P14" s="4">
         <v>18.3</v>
       </c>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="4">
+        <v>17.8</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="2" t="s">
         <v>25</v>
@@ -2958,7 +2978,9 @@
       <c r="P15" s="4">
         <v>18.2</v>
       </c>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="4">
+        <v>17.5</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="2" t="s">
         <v>25</v>
@@ -3055,7 +3077,9 @@
       <c r="Q17" s="4">
         <v>13.3</v>
       </c>
-      <c r="R17" s="3"/>
+      <c r="R17" s="4">
+        <v>14.2</v>
+      </c>
       <c r="S17" s="2" t="s">
         <v>25</v>
       </c>
@@ -4734,7 +4758,9 @@
       <c r="P49" s="5">
         <v>0.45</v>
       </c>
-      <c r="Q49" s="3"/>
+      <c r="Q49" s="5">
+        <v>0.41</v>
+      </c>
       <c r="R49" s="3"/>
       <c r="S49" s="2" t="s">
         <v>90</v>
@@ -4840,7 +4866,9 @@
       <c r="P51" s="4">
         <v>2.5</v>
       </c>
-      <c r="Q51" s="3"/>
+      <c r="Q51" s="4">
+        <v>2.1</v>
+      </c>
       <c r="R51" s="3"/>
       <c r="S51" s="2" t="s">
         <v>25</v>
@@ -5411,7 +5439,9 @@
       <c r="Q61" s="6">
         <v>15</v>
       </c>
-      <c r="R61" s="3"/>
+      <c r="R61" s="6">
+        <v>26</v>
+      </c>
       <c r="S61" s="2" t="s">
         <v>100</v>
       </c>
@@ -5468,7 +5498,9 @@
       <c r="Q62" s="6">
         <v>2</v>
       </c>
-      <c r="R62" s="3"/>
+      <c r="R62" s="6">
+        <v>11</v>
+      </c>
       <c r="S62" s="2" t="s">
         <v>100</v>
       </c>
@@ -5525,7 +5557,9 @@
       <c r="Q63" s="6">
         <v>13</v>
       </c>
-      <c r="R63" s="3"/>
+      <c r="R63" s="6">
+        <v>15</v>
+      </c>
       <c r="S63" s="2" t="s">
         <v>100</v>
       </c>
@@ -5639,7 +5673,9 @@
       <c r="Q65" s="6">
         <v>30</v>
       </c>
-      <c r="R65" s="3"/>
+      <c r="R65" s="6">
+        <v>72</v>
+      </c>
       <c r="S65" s="2" t="s">
         <v>100</v>
       </c>
@@ -5696,7 +5732,9 @@
       <c r="Q66" s="6">
         <v>21</v>
       </c>
-      <c r="R66" s="3"/>
+      <c r="R66" s="6">
+        <v>39</v>
+      </c>
       <c r="S66" s="2" t="s">
         <v>100</v>
       </c>
@@ -5753,7 +5791,9 @@
       <c r="Q67" s="6">
         <v>9</v>
       </c>
-      <c r="R67" s="3"/>
+      <c r="R67" s="6">
+        <v>33</v>
+      </c>
       <c r="S67" s="2" t="s">
         <v>100</v>
       </c>
@@ -6035,7 +6075,9 @@
       <c r="P72" s="4">
         <v>11.9</v>
       </c>
-      <c r="Q72" s="3"/>
+      <c r="Q72" s="4">
+        <v>12.1</v>
+      </c>
       <c r="R72" s="3"/>
       <c r="S72" s="2" t="s">
         <v>25</v>
@@ -6058,7 +6100,7 @@
         <v>47</v>
       </c>
       <c r="F73" s="4">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="G73" s="4">
         <v>28.7</v>
@@ -6088,9 +6130,11 @@
         <v>21.3</v>
       </c>
       <c r="P73" s="4">
-        <v>21.3</v>
-      </c>
-      <c r="Q73" s="3"/>
+        <v>21.4</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>21.4</v>
+      </c>
       <c r="R73" s="3"/>
       <c r="S73" s="2" t="s">
         <v>25</v>
@@ -6145,7 +6189,9 @@
       <c r="P74" s="4">
         <v>3</v>
       </c>
-      <c r="Q74" s="3"/>
+      <c r="Q74" s="4">
+        <v>3.3</v>
+      </c>
       <c r="R74" s="3"/>
       <c r="S74" s="2" t="s">
         <v>25</v>
@@ -6725,7 +6771,9 @@
       <c r="P86" s="4">
         <v>1.5</v>
       </c>
-      <c r="Q86" s="3"/>
+      <c r="Q86" s="4">
+        <v>1.3</v>
+      </c>
       <c r="R86" s="3"/>
       <c r="S86" s="2" t="s">
         <v>25</v>
@@ -11815,37 +11863,37 @@
         <v>252</v>
       </c>
       <c r="F204" s="4">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
       <c r="G204" s="4">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="H204" s="4">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="I204" s="4">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="J204" s="4">
         <v>35.5</v>
       </c>
       <c r="K204" s="4">
-        <v>37.799999999999997</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="L204" s="4">
-        <v>38.700000000000003</v>
+        <v>38.6</v>
       </c>
       <c r="M204" s="4">
         <v>42.5</v>
       </c>
       <c r="N204" s="4">
-        <v>46.2</v>
+        <v>46.5</v>
       </c>
       <c r="O204" s="4">
-        <v>51.2</v>
+        <v>51.4</v>
       </c>
       <c r="P204" s="4">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="Q204" s="3"/>
       <c r="R204" s="3"/>
@@ -12002,8 +12050,12 @@
       <c r="P207" s="6">
         <v>152964</v>
       </c>
-      <c r="Q207" s="3"/>
-      <c r="R207" s="3"/>
+      <c r="Q207" s="6">
+        <v>152963</v>
+      </c>
+      <c r="R207" s="6">
+        <v>152963</v>
+      </c>
       <c r="S207" s="2" t="s">
         <v>260</v>
       </c>
@@ -12361,10 +12413,10 @@
         <v>4.5</v>
       </c>
       <c r="P214" s="4">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
       <c r="Q214" s="4">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="R214" s="3"/>
       <c r="S214" s="2" t="s">
@@ -12421,7 +12473,7 @@
         <v>1.3</v>
       </c>
       <c r="Q215" s="4">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="R215" s="3"/>
       <c r="S215" s="2" t="s">
@@ -13591,7 +13643,7 @@
         <v>10</v>
       </c>
       <c r="G241" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="H241" s="4">
         <v>10.4</v>
@@ -13623,7 +13675,9 @@
       <c r="Q241" s="4">
         <v>3.4</v>
       </c>
-      <c r="R241" s="3"/>
+      <c r="R241" s="4">
+        <v>2.9</v>
+      </c>
       <c r="S241" s="2" t="s">
         <v>25</v>
       </c>
@@ -13680,7 +13734,9 @@
       <c r="Q242" s="4">
         <v>3.3</v>
       </c>
-      <c r="R242" s="3"/>
+      <c r="R242" s="4">
+        <v>2.8</v>
+      </c>
       <c r="S242" s="2" t="s">
         <v>25</v>
       </c>
@@ -13737,7 +13793,9 @@
       <c r="Q243" s="4">
         <v>3.4</v>
       </c>
-      <c r="R243" s="3"/>
+      <c r="R243" s="4">
+        <v>2.9</v>
+      </c>
       <c r="S243" s="2" t="s">
         <v>25</v>
       </c>
@@ -13794,7 +13852,9 @@
       <c r="Q244" s="4">
         <v>11.9</v>
       </c>
-      <c r="R244" s="3"/>
+      <c r="R244" s="4">
+        <v>10.8</v>
+      </c>
       <c r="S244" s="2" t="s">
         <v>25</v>
       </c>
@@ -13851,7 +13911,9 @@
       <c r="Q245" s="4">
         <v>3.9</v>
       </c>
-      <c r="R245" s="3"/>
+      <c r="R245" s="4">
+        <v>3.3</v>
+      </c>
       <c r="S245" s="2" t="s">
         <v>25</v>
       </c>
@@ -13908,7 +13970,9 @@
       <c r="Q246" s="4">
         <v>2.7</v>
       </c>
-      <c r="R246" s="3"/>
+      <c r="R246" s="4">
+        <v>2.1</v>
+      </c>
       <c r="S246" s="2" t="s">
         <v>25</v>
       </c>
@@ -13965,7 +14029,9 @@
       <c r="Q247" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R247" s="3"/>
+      <c r="R247" s="4">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="S247" s="2" t="s">
         <v>25</v>
       </c>
@@ -14022,7 +14088,9 @@
       <c r="Q248" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R248" s="3"/>
+      <c r="R248" s="4">
+        <v>1.7</v>
+      </c>
       <c r="S248" s="2" t="s">
         <v>25</v>
       </c>
@@ -14079,7 +14147,9 @@
       <c r="Q249" s="4">
         <v>6</v>
       </c>
-      <c r="R249" s="3"/>
+      <c r="R249" s="4">
+        <v>5.5</v>
+      </c>
       <c r="S249" s="2" t="s">
         <v>25</v>
       </c>
@@ -17387,7 +17457,9 @@
       <c r="P312" s="4">
         <v>96.8</v>
       </c>
-      <c r="Q312" s="3"/>
+      <c r="Q312" s="4">
+        <v>96</v>
+      </c>
       <c r="R312" s="3"/>
       <c r="S312" s="2" t="s">
         <v>355</v>
@@ -17752,10 +17824,10 @@
         <v>24</v>
       </c>
       <c r="F319" s="5">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="G319" s="5">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="H319" s="5">
         <v>2.5</v>
@@ -17770,7 +17842,7 @@
         <v>2.86</v>
       </c>
       <c r="L319" s="5">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
       <c r="M319" s="5">
         <v>3.38</v>
@@ -17782,12 +17854,14 @@
         <v>3.77</v>
       </c>
       <c r="P319" s="5">
-        <v>3.93</v>
+        <v>3.89</v>
       </c>
       <c r="Q319" s="5">
-        <v>4.01</v>
-      </c>
-      <c r="R319" s="3"/>
+        <v>3.99</v>
+      </c>
+      <c r="R319" s="5">
+        <v>4.12</v>
+      </c>
       <c r="S319" s="2" t="s">
         <v>368</v>
       </c>
@@ -17839,12 +17913,14 @@
         <v>776.56</v>
       </c>
       <c r="P320" s="5">
-        <v>829</v>
+        <v>829.27</v>
       </c>
       <c r="Q320" s="5">
         <v>983.51</v>
       </c>
-      <c r="R320" s="3"/>
+      <c r="R320" s="5">
+        <v>3378.18</v>
+      </c>
       <c r="S320" s="2" t="s">
         <v>372</v>
       </c>
@@ -17901,7 +17977,9 @@
       <c r="Q321" s="5">
         <v>296.20999999999998</v>
       </c>
-      <c r="R321" s="3"/>
+      <c r="R321" s="5">
+        <v>2558.85</v>
+      </c>
       <c r="S321" s="2" t="s">
         <v>372</v>
       </c>
@@ -17958,7 +18036,9 @@
       <c r="Q322" s="5">
         <v>34.299999999999997</v>
       </c>
-      <c r="R322" s="3"/>
+      <c r="R322" s="5">
+        <v>14.36</v>
+      </c>
       <c r="S322" s="2" t="s">
         <v>372</v>
       </c>
@@ -18015,7 +18095,9 @@
       <c r="Q323" s="5">
         <v>0.91</v>
       </c>
-      <c r="R323" s="3"/>
+      <c r="R323" s="5">
+        <v>1.25</v>
+      </c>
       <c r="S323" s="2" t="s">
         <v>372</v>
       </c>
@@ -18072,7 +18154,9 @@
       <c r="Q324" s="5">
         <v>143.81</v>
       </c>
-      <c r="R324" s="3"/>
+      <c r="R324" s="5">
+        <v>254.82</v>
+      </c>
       <c r="S324" s="2" t="s">
         <v>372</v>
       </c>
@@ -18124,12 +18208,14 @@
         <v>71.97</v>
       </c>
       <c r="P325" s="5">
-        <v>100.46</v>
+        <v>100.62</v>
       </c>
       <c r="Q325" s="5">
         <v>95.3</v>
       </c>
-      <c r="R325" s="3"/>
+      <c r="R325" s="5">
+        <v>100.34</v>
+      </c>
       <c r="S325" s="2" t="s">
         <v>372</v>
       </c>
@@ -21952,7 +22038,9 @@
       <c r="P393" s="5">
         <v>1.58</v>
       </c>
-      <c r="Q393" s="3"/>
+      <c r="Q393" s="5">
+        <v>1.58</v>
+      </c>
       <c r="R393" s="3"/>
       <c r="S393" s="2" t="s">
         <v>454</v>
@@ -22007,7 +22095,9 @@
       <c r="P394" s="4">
         <v>30.9</v>
       </c>
-      <c r="Q394" s="3"/>
+      <c r="Q394" s="4">
+        <v>30.9</v>
+      </c>
       <c r="R394" s="3"/>
       <c r="S394" s="2" t="s">
         <v>25</v>
@@ -22062,7 +22152,9 @@
       <c r="P395" s="4">
         <v>97.1</v>
       </c>
-      <c r="Q395" s="3"/>
+      <c r="Q395" s="4">
+        <v>97.5</v>
+      </c>
       <c r="R395" s="3"/>
       <c r="S395" s="2" t="s">
         <v>25</v>
@@ -22763,7 +22855,9 @@
       <c r="P410" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q410" s="3"/>
+      <c r="Q410" s="5">
+        <v>0.59</v>
+      </c>
       <c r="R410" s="3"/>
       <c r="S410" s="2" t="s">
         <v>25</v>
@@ -23480,7 +23574,9 @@
       <c r="P425" s="4">
         <v>14.8</v>
       </c>
-      <c r="Q425" s="3"/>
+      <c r="Q425" s="4">
+        <v>14.2</v>
+      </c>
       <c r="R425" s="3"/>
       <c r="S425" s="2" t="s">
         <v>492</v>
@@ -23535,7 +23631,9 @@
       <c r="P426" s="4">
         <v>12.7</v>
       </c>
-      <c r="Q426" s="3"/>
+      <c r="Q426" s="4">
+        <v>12.4</v>
+      </c>
       <c r="R426" s="3"/>
       <c r="S426" s="2" t="s">
         <v>492</v>
@@ -23590,7 +23688,9 @@
       <c r="P427" s="4">
         <v>12.2</v>
       </c>
-      <c r="Q427" s="3"/>
+      <c r="Q427" s="4">
+        <v>12.2</v>
+      </c>
       <c r="R427" s="3"/>
       <c r="S427" s="2" t="s">
         <v>492</v>
@@ -24556,7 +24656,9 @@
       <c r="Q448" s="4">
         <v>0.8</v>
       </c>
-      <c r="R448" s="3"/>
+      <c r="R448" s="4">
+        <v>3</v>
+      </c>
       <c r="S448" s="2" t="s">
         <v>517</v>
       </c>
@@ -24956,12 +25058,14 @@
         <v>776.6</v>
       </c>
       <c r="P455" s="4">
-        <v>829</v>
+        <v>829.3</v>
       </c>
       <c r="Q455" s="4">
         <v>983.5</v>
       </c>
-      <c r="R455" s="3"/>
+      <c r="R455" s="4">
+        <v>3378.2</v>
+      </c>
       <c r="S455" s="2" t="s">
         <v>93</v>
       </c>
@@ -25013,12 +25117,14 @@
         <v>1.41</v>
       </c>
       <c r="P456" s="5">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q456" s="5">
-        <v>1.43</v>
-      </c>
-      <c r="R456" s="3"/>
+        <v>1.44</v>
+      </c>
+      <c r="R456" s="5">
+        <v>1.29</v>
+      </c>
       <c r="S456" s="2" t="s">
         <v>368</v>
       </c>
@@ -25130,10 +25236,10 @@
         <v>98</v>
       </c>
       <c r="Q458" s="4">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="R458" s="4">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="S458" s="2" t="s">
         <v>25</v>
@@ -25307,9 +25413,11 @@
         <v>57.2</v>
       </c>
       <c r="Q461" s="4">
-        <v>53.8</v>
-      </c>
-      <c r="R461" s="3"/>
+        <v>53.6</v>
+      </c>
+      <c r="R461" s="4">
+        <v>49.1</v>
+      </c>
       <c r="S461" s="2" t="s">
         <v>25</v>
       </c>
@@ -25366,7 +25474,9 @@
       <c r="Q462" s="4">
         <v>-1.8</v>
       </c>
-      <c r="R462" s="3"/>
+      <c r="R462" s="4">
+        <v>-3.7</v>
+      </c>
       <c r="S462" s="2" t="s">
         <v>25</v>
       </c>
@@ -25672,7 +25782,9 @@
       <c r="Q468" s="6">
         <v>1</v>
       </c>
-      <c r="R468" s="3"/>
+      <c r="R468" s="6">
+        <v>1</v>
+      </c>
       <c r="S468" s="2" t="s">
         <v>544</v>
       </c>
@@ -25729,7 +25841,9 @@
       <c r="Q469" s="6">
         <v>1</v>
       </c>
-      <c r="R469" s="3"/>
+      <c r="R469" s="6">
+        <v>1</v>
+      </c>
       <c r="S469" s="2" t="s">
         <v>544</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1666,7 +1666,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 26-04-2023, 16:23</t>
+    <t>Ostatnia aktualizacja: 09-05-2023, 13:27</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1666,13 +1661,13 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 09-05-2023, 13:27</t>
+    <t>Ostatnia aktualizacja: 23-05-2023, 11:42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
@@ -1681,7 +1676,7 @@
     <numFmt numFmtId="168" formatCode="[$-10415]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10415]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1879,14 +1874,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1907,7 +1894,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1970,7 +1957,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2002,10 +1989,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2037,7 +2023,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2213,15 +2198,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2233,17 +2218,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2302,7 +2287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2359,7 +2344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2416,7 +2401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2473,7 +2458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2530,7 +2515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2587,7 +2572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2644,7 +2629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2701,7 +2686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2758,7 +2743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2815,7 +2800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2872,7 +2857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2929,7 +2914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2986,7 +2971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="19.5">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3025,7 +3010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="19.5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3084,7 +3069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="107.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3139,7 +3124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="107.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3194,7 +3179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="107.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3249,7 +3234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3304,7 +3289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="39">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3361,7 +3346,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="39">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3418,7 +3403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="39">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3467,7 +3452,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="68.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3516,7 +3501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="29.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3565,7 +3550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="29.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3614,7 +3599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="29.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3665,7 +3650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="39">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3722,7 +3707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="39">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3779,7 +3764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="39">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3836,7 +3821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="39">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3893,7 +3878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3948,7 +3933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="39">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3993,7 +3978,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="39">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4038,7 +4023,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="39">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4083,7 +4068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4128,7 +4113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="29.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4173,7 +4158,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4218,7 +4203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="48.75">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4257,7 +4242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="68.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4316,7 +4301,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="68.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4375,7 +4360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="68.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4434,7 +4419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="68.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4493,7 +4478,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="68.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4552,7 +4537,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="68.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4611,7 +4596,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="29.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4660,7 +4645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="29.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4709,7 +4694,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4766,7 +4751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="19.5">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4817,7 +4802,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4874,7 +4859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4931,7 +4916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4988,7 +4973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -5045,7 +5030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -5102,7 +5087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -5159,7 +5144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -5216,7 +5201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -5273,7 +5258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="39">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -5330,7 +5315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -5387,7 +5372,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="39">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -5446,7 +5431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="39">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
@@ -5505,7 +5490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="39">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
@@ -5564,7 +5549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -5621,7 +5606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="39">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
@@ -5680,7 +5665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="39">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -5739,7 +5724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="39">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -5798,7 +5783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="29.25">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5855,7 +5840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="29.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5912,7 +5897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="29.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -5969,7 +5954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -6026,7 +6011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -6083,7 +6068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -6140,7 +6125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -6197,7 +6182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -6254,7 +6239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29.25">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
@@ -6311,7 +6296,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="29.25">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -6350,7 +6335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -6407,7 +6392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -6464,7 +6449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -6521,7 +6506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -6562,7 +6547,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -6607,7 +6592,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29.25">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -6652,7 +6637,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="39">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -6687,7 +6672,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="39">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -6722,7 +6707,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -6779,7 +6764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -6818,7 +6803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="29.25">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -6875,7 +6860,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="29.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -6932,7 +6917,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="29.25">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -6973,7 +6958,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="19.5">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -7024,7 +7009,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -7063,7 +7048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -7102,7 +7087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -7141,7 +7126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -7194,7 +7179,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="29.25">
       <c r="A96" s="2" t="s">
         <v>148</v>
       </c>
@@ -7231,7 +7216,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="29.25">
       <c r="A97" s="2" t="s">
         <v>148</v>
       </c>
@@ -7268,7 +7253,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="29.25">
       <c r="A98" s="2" t="s">
         <v>148</v>
       </c>
@@ -7305,7 +7290,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="29.25">
       <c r="A99" s="2" t="s">
         <v>148</v>
       </c>
@@ -7346,7 +7331,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="29.25">
       <c r="A100" s="2" t="s">
         <v>148</v>
       </c>
@@ -7387,7 +7372,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="29.25">
       <c r="A101" s="2" t="s">
         <v>148</v>
       </c>
@@ -7428,7 +7413,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="29.25">
       <c r="A102" s="2" t="s">
         <v>148</v>
       </c>
@@ -7469,7 +7454,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="29.25">
       <c r="A103" s="2" t="s">
         <v>148</v>
       </c>
@@ -7510,7 +7495,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="29.25">
       <c r="A104" s="2" t="s">
         <v>148</v>
       </c>
@@ -7551,7 +7536,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="29.25">
       <c r="A105" s="2" t="s">
         <v>148</v>
       </c>
@@ -7588,7 +7573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>148</v>
       </c>
@@ -7645,7 +7630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>148</v>
       </c>
@@ -7702,7 +7687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>148</v>
       </c>
@@ -7759,7 +7744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="29.25">
       <c r="A109" s="2" t="s">
         <v>148</v>
       </c>
@@ -7796,7 +7781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="29.25">
       <c r="A110" s="2" t="s">
         <v>148</v>
       </c>
@@ -7833,7 +7818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="29.25">
       <c r="A111" s="2" t="s">
         <v>148</v>
       </c>
@@ -7870,7 +7855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="39">
       <c r="A112" s="2" t="s">
         <v>148</v>
       </c>
@@ -7915,7 +7900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="29.25">
       <c r="A113" s="2" t="s">
         <v>148</v>
       </c>
@@ -7962,7 +7947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="58.5">
       <c r="A114" s="2" t="s">
         <v>148</v>
       </c>
@@ -8009,7 +7994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="58.5">
       <c r="A115" s="2" t="s">
         <v>148</v>
       </c>
@@ -8056,7 +8041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="68.25">
       <c r="A116" s="2" t="s">
         <v>148</v>
       </c>
@@ -8103,7 +8088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>148</v>
       </c>
@@ -8150,7 +8135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="39">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -8195,7 +8180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="29.25">
       <c r="A119" s="2" t="s">
         <v>148</v>
       </c>
@@ -8242,7 +8227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="58.5">
       <c r="A120" s="2" t="s">
         <v>148</v>
       </c>
@@ -8289,7 +8274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="58.5">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -8336,7 +8321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="68.25">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -8383,7 +8368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="29.25">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8430,7 +8415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="39">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8469,7 +8454,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="39">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8508,7 +8493,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="39">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8565,7 +8550,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="29.25">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8600,7 +8585,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="29.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8635,7 +8620,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8670,7 +8655,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8705,7 +8690,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8740,7 +8725,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="29.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8775,7 +8760,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="29.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8810,7 +8795,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="29.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8845,7 +8830,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="29.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8880,7 +8865,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="29.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8915,7 +8900,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="29.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8950,7 +8935,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="29.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8985,7 +8970,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="29.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -9020,7 +9005,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="29.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -9055,7 +9040,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="29.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9090,7 +9075,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="29.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9125,7 +9110,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="48.75">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9184,7 +9169,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="68.25">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9243,7 +9228,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="68.25">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9278,7 +9263,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="68.25">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9313,7 +9298,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="68.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9372,7 +9357,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="68.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9431,7 +9416,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="68.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9490,7 +9475,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="19.5">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9541,7 +9526,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="48.75">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9596,7 +9581,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="48.75">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9651,7 +9636,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="48.75">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9706,7 +9691,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="48.75">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9761,7 +9746,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="39">
       <c r="A155" s="2" t="s">
         <v>203</v>
       </c>
@@ -9796,7 +9781,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="29.25">
       <c r="A156" s="2" t="s">
         <v>203</v>
       </c>
@@ -9853,7 +9838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="29.25">
       <c r="A157" s="2" t="s">
         <v>203</v>
       </c>
@@ -9888,7 +9873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="29.25">
       <c r="A158" s="2" t="s">
         <v>203</v>
       </c>
@@ -9923,7 +9908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="29.25">
       <c r="A159" s="2" t="s">
         <v>203</v>
       </c>
@@ -9958,7 +9943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="29.25">
       <c r="A160" s="2" t="s">
         <v>203</v>
       </c>
@@ -9993,7 +9978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="29.25">
       <c r="A161" s="2" t="s">
         <v>203</v>
       </c>
@@ -10028,7 +10013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="19.5">
       <c r="A162" s="2" t="s">
         <v>203</v>
       </c>
@@ -10063,7 +10048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="19.5">
       <c r="A163" s="2" t="s">
         <v>203</v>
       </c>
@@ -10098,7 +10083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="19.5">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -10133,7 +10118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="19.5">
       <c r="A165" s="2" t="s">
         <v>203</v>
       </c>
@@ -10168,7 +10153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="19.5">
       <c r="A166" s="2" t="s">
         <v>203</v>
       </c>
@@ -10203,7 +10188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="19.5">
       <c r="A167" s="2" t="s">
         <v>203</v>
       </c>
@@ -10238,7 +10223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>203</v>
       </c>
@@ -10273,7 +10258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -10308,7 +10293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="39">
       <c r="A170" s="2" t="s">
         <v>203</v>
       </c>
@@ -10347,7 +10332,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="39">
       <c r="A171" s="2" t="s">
         <v>203</v>
       </c>
@@ -10386,7 +10371,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="39">
       <c r="A172" s="2" t="s">
         <v>203</v>
       </c>
@@ -10443,7 +10428,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="39">
       <c r="A173" s="2" t="s">
         <v>203</v>
       </c>
@@ -10500,7 +10485,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="39">
       <c r="A174" s="2" t="s">
         <v>203</v>
       </c>
@@ -10557,7 +10542,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="39">
       <c r="A175" s="2" t="s">
         <v>203</v>
       </c>
@@ -10614,7 +10599,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="39">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -10671,7 +10656,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="39">
       <c r="A177" s="2" t="s">
         <v>203</v>
       </c>
@@ -10716,7 +10701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="68.25">
       <c r="A178" s="2" t="s">
         <v>203</v>
       </c>
@@ -10761,7 +10746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="48.75">
       <c r="A179" s="2" t="s">
         <v>203</v>
       </c>
@@ -10806,7 +10791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="39">
       <c r="A180" s="2" t="s">
         <v>203</v>
       </c>
@@ -10851,7 +10836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="39">
       <c r="A181" s="2" t="s">
         <v>203</v>
       </c>
@@ -10896,7 +10881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="39">
       <c r="A182" s="2" t="s">
         <v>203</v>
       </c>
@@ -10941,7 +10926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="68.25">
       <c r="A183" s="2" t="s">
         <v>203</v>
       </c>
@@ -10986,7 +10971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="39">
       <c r="A184" s="2" t="s">
         <v>203</v>
       </c>
@@ -11025,7 +11010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="39">
       <c r="A185" s="2" t="s">
         <v>203</v>
       </c>
@@ -11064,7 +11049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="39">
       <c r="A186" s="2" t="s">
         <v>203</v>
       </c>
@@ -11103,7 +11088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="39">
       <c r="A187" s="2" t="s">
         <v>203</v>
       </c>
@@ -11142,7 +11127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="39">
       <c r="A188" s="2" t="s">
         <v>203</v>
       </c>
@@ -11181,7 +11166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="39">
       <c r="A189" s="2" t="s">
         <v>203</v>
       </c>
@@ -11220,7 +11205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="39">
       <c r="A190" s="2" t="s">
         <v>203</v>
       </c>
@@ -11259,7 +11244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="39">
       <c r="A191" s="2" t="s">
         <v>203</v>
       </c>
@@ -11298,7 +11283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="39">
       <c r="A192" s="2" t="s">
         <v>203</v>
       </c>
@@ -11337,7 +11322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="39">
       <c r="A193" s="2" t="s">
         <v>203</v>
       </c>
@@ -11376,7 +11361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="39">
       <c r="A194" s="2" t="s">
         <v>203</v>
       </c>
@@ -11415,7 +11400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="39">
       <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
@@ -11454,7 +11439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="29.25">
       <c r="A196" s="2" t="s">
         <v>203</v>
       </c>
@@ -11495,7 +11480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="19.5">
       <c r="A197" s="2" t="s">
         <v>203</v>
       </c>
@@ -11550,7 +11535,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="19.5">
       <c r="A198" s="2" t="s">
         <v>203</v>
       </c>
@@ -11605,7 +11590,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="19.5">
       <c r="A199" s="2" t="s">
         <v>242</v>
       </c>
@@ -11662,7 +11647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>242</v>
       </c>
@@ -11719,7 +11704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="19.5">
       <c r="A201" s="2" t="s">
         <v>242</v>
       </c>
@@ -11776,7 +11761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="19.5">
       <c r="A202" s="2" t="s">
         <v>242</v>
       </c>
@@ -11811,7 +11796,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="19.5">
       <c r="A203" s="2" t="s">
         <v>242</v>
       </c>
@@ -11846,7 +11831,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>242</v>
       </c>
@@ -11901,7 +11886,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="19.5">
       <c r="A205" s="2" t="s">
         <v>242</v>
       </c>
@@ -11956,7 +11941,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="29.25">
       <c r="A206" s="2" t="s">
         <v>242</v>
       </c>
@@ -12001,7 +11986,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="19.5">
       <c r="A207" s="2" t="s">
         <v>242</v>
       </c>
@@ -12060,7 +12045,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>242</v>
       </c>
@@ -12111,7 +12096,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="48.75">
       <c r="A209" s="2" t="s">
         <v>242</v>
       </c>
@@ -12168,7 +12153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="19.5">
       <c r="A210" s="2" t="s">
         <v>263</v>
       </c>
@@ -12203,7 +12188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="19.5">
       <c r="A211" s="2" t="s">
         <v>263</v>
       </c>
@@ -12260,7 +12245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="39">
       <c r="A212" s="2" t="s">
         <v>263</v>
       </c>
@@ -12315,7 +12300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="19.5">
       <c r="A213" s="2" t="s">
         <v>263</v>
       </c>
@@ -12366,7 +12351,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>269</v>
       </c>
@@ -12423,7 +12408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>269</v>
       </c>
@@ -12480,7 +12465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>269</v>
       </c>
@@ -12519,7 +12504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>269</v>
       </c>
@@ -12558,7 +12543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="29.25">
       <c r="A218" s="2" t="s">
         <v>269</v>
       </c>
@@ -12597,7 +12582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>269</v>
       </c>
@@ -12654,7 +12639,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>269</v>
       </c>
@@ -12711,7 +12696,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>269</v>
       </c>
@@ -12768,7 +12753,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>269</v>
       </c>
@@ -12813,7 +12798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>269</v>
       </c>
@@ -12858,7 +12843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>269</v>
       </c>
@@ -12903,7 +12888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="58.5">
       <c r="A225" s="2" t="s">
         <v>269</v>
       </c>
@@ -12948,7 +12933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>269</v>
       </c>
@@ -12993,7 +12978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>269</v>
       </c>
@@ -13038,7 +13023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>269</v>
       </c>
@@ -13083,7 +13068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>269</v>
       </c>
@@ -13128,7 +13113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="39">
       <c r="A230" s="2" t="s">
         <v>269</v>
       </c>
@@ -13173,7 +13158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>269</v>
       </c>
@@ -13218,7 +13203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="39">
       <c r="A232" s="2" t="s">
         <v>269</v>
       </c>
@@ -13263,7 +13248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>269</v>
       </c>
@@ -13308,7 +13293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>269</v>
       </c>
@@ -13353,7 +13338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>269</v>
       </c>
@@ -13398,7 +13383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>269</v>
       </c>
@@ -13443,7 +13428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>269</v>
       </c>
@@ -13488,7 +13473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>269</v>
       </c>
@@ -13533,7 +13518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>269</v>
       </c>
@@ -13578,7 +13563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>269</v>
       </c>
@@ -13623,7 +13608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>269</v>
       </c>
@@ -13682,7 +13667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>269</v>
       </c>
@@ -13741,7 +13726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>269</v>
       </c>
@@ -13800,7 +13785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>269</v>
       </c>
@@ -13859,7 +13844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>269</v>
       </c>
@@ -13918,7 +13903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>269</v>
       </c>
@@ -13977,7 +13962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>269</v>
       </c>
@@ -14036,7 +14021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>269</v>
       </c>
@@ -14095,7 +14080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>269</v>
       </c>
@@ -14154,7 +14139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>269</v>
       </c>
@@ -14211,7 +14196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>269</v>
       </c>
@@ -14268,7 +14253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>269</v>
       </c>
@@ -14325,7 +14310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="39">
       <c r="A253" s="2" t="s">
         <v>269</v>
       </c>
@@ -14366,7 +14351,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="39">
       <c r="A254" s="2" t="s">
         <v>269</v>
       </c>
@@ -14407,7 +14392,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="39">
       <c r="A255" s="2" t="s">
         <v>269</v>
       </c>
@@ -14448,7 +14433,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="29.25">
       <c r="A256" s="2" t="s">
         <v>269</v>
       </c>
@@ -14505,7 +14490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="39">
       <c r="A257" s="2" t="s">
         <v>269</v>
       </c>
@@ -14562,7 +14547,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="29.25">
       <c r="A258" s="2" t="s">
         <v>269</v>
       </c>
@@ -14597,7 +14582,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="29.25">
       <c r="A259" s="2" t="s">
         <v>269</v>
       </c>
@@ -14632,7 +14617,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="29.25">
       <c r="A260" s="2" t="s">
         <v>269</v>
       </c>
@@ -14667,7 +14652,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="29.25">
       <c r="A261" s="2" t="s">
         <v>269</v>
       </c>
@@ -14702,7 +14687,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="29.25">
       <c r="A262" s="2" t="s">
         <v>269</v>
       </c>
@@ -14737,7 +14722,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="29.25">
       <c r="A263" s="2" t="s">
         <v>269</v>
       </c>
@@ -14772,7 +14757,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="29.25">
       <c r="A264" s="2" t="s">
         <v>269</v>
       </c>
@@ -14807,7 +14792,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="29.25">
       <c r="A265" s="2" t="s">
         <v>269</v>
       </c>
@@ -14842,7 +14827,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="29.25">
       <c r="A266" s="2" t="s">
         <v>269</v>
       </c>
@@ -14893,7 +14878,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="39">
       <c r="A267" s="2" t="s">
         <v>313</v>
       </c>
@@ -14950,7 +14935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="39">
       <c r="A268" s="2" t="s">
         <v>313</v>
       </c>
@@ -15007,7 +14992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="39">
       <c r="A269" s="2" t="s">
         <v>313</v>
       </c>
@@ -15064,7 +15049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="39">
       <c r="A270" s="2" t="s">
         <v>313</v>
       </c>
@@ -15121,7 +15106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="39">
       <c r="A271" s="2" t="s">
         <v>313</v>
       </c>
@@ -15178,7 +15163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="39">
       <c r="A272" s="2" t="s">
         <v>313</v>
       </c>
@@ -15235,7 +15220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="39">
       <c r="A273" s="2" t="s">
         <v>313</v>
       </c>
@@ -15292,7 +15277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="39">
       <c r="A274" s="2" t="s">
         <v>313</v>
       </c>
@@ -15349,7 +15334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="39">
       <c r="A275" s="2" t="s">
         <v>313</v>
       </c>
@@ -15406,7 +15391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="39">
       <c r="A276" s="2" t="s">
         <v>313</v>
       </c>
@@ -15463,7 +15448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="39">
       <c r="A277" s="2" t="s">
         <v>313</v>
       </c>
@@ -15520,7 +15505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="39">
       <c r="A278" s="2" t="s">
         <v>313</v>
       </c>
@@ -15577,7 +15562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="39">
       <c r="A279" s="2" t="s">
         <v>313</v>
       </c>
@@ -15634,7 +15619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="39">
       <c r="A280" s="2" t="s">
         <v>313</v>
       </c>
@@ -15691,7 +15676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="39">
       <c r="A281" s="2" t="s">
         <v>313</v>
       </c>
@@ -15748,7 +15733,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="39">
       <c r="A282" s="2" t="s">
         <v>313</v>
       </c>
@@ -15805,7 +15790,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="39">
       <c r="A283" s="2" t="s">
         <v>313</v>
       </c>
@@ -15862,7 +15847,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="39">
       <c r="A284" s="2" t="s">
         <v>313</v>
       </c>
@@ -15919,7 +15904,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="39">
       <c r="A285" s="2" t="s">
         <v>313</v>
       </c>
@@ -15976,7 +15961,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="39">
       <c r="A286" s="2" t="s">
         <v>313</v>
       </c>
@@ -16033,7 +16018,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="39">
       <c r="A287" s="2" t="s">
         <v>313</v>
       </c>
@@ -16084,7 +16069,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="39">
       <c r="A288" s="2" t="s">
         <v>313</v>
       </c>
@@ -16141,7 +16126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="39">
       <c r="A289" s="2" t="s">
         <v>313</v>
       </c>
@@ -16198,7 +16183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="39">
       <c r="A290" s="2" t="s">
         <v>313</v>
       </c>
@@ -16249,7 +16234,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="39">
       <c r="A291" s="2" t="s">
         <v>313</v>
       </c>
@@ -16302,7 +16287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="48.75">
       <c r="A292" s="2" t="s">
         <v>313</v>
       </c>
@@ -16351,7 +16336,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="48.75">
       <c r="A293" s="2" t="s">
         <v>313</v>
       </c>
@@ -16400,7 +16385,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="19.5">
       <c r="A294" s="2" t="s">
         <v>345</v>
       </c>
@@ -16457,7 +16442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="58.5">
       <c r="A295" s="2" t="s">
         <v>345</v>
       </c>
@@ -16514,7 +16499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="19.5">
       <c r="A296" s="2" t="s">
         <v>345</v>
       </c>
@@ -16571,7 +16556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="19.5">
       <c r="A297" s="2" t="s">
         <v>345</v>
       </c>
@@ -16628,7 +16613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>345</v>
       </c>
@@ -16685,7 +16670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="19.5">
       <c r="A299" s="2" t="s">
         <v>345</v>
       </c>
@@ -16742,7 +16727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="19.5">
       <c r="A300" s="2" t="s">
         <v>345</v>
       </c>
@@ -16799,7 +16784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="19.5">
       <c r="A301" s="2" t="s">
         <v>345</v>
       </c>
@@ -16856,7 +16841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="19.5">
       <c r="A302" s="2" t="s">
         <v>345</v>
       </c>
@@ -16913,7 +16898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="19.5">
       <c r="A303" s="2" t="s">
         <v>345</v>
       </c>
@@ -16970,7 +16955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="19.5">
       <c r="A304" s="2" t="s">
         <v>345</v>
       </c>
@@ -17027,7 +17012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="19.5">
       <c r="A305" s="2" t="s">
         <v>345</v>
       </c>
@@ -17066,7 +17051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="19.5">
       <c r="A306" s="2" t="s">
         <v>345</v>
       </c>
@@ -17123,7 +17108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="78">
       <c r="A307" s="2" t="s">
         <v>345</v>
       </c>
@@ -17180,7 +17165,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="48.75">
       <c r="A308" s="2" t="s">
         <v>345</v>
       </c>
@@ -17237,7 +17222,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="78">
       <c r="A309" s="2" t="s">
         <v>345</v>
       </c>
@@ -17294,7 +17279,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="48.75">
       <c r="A310" s="2" t="s">
         <v>345</v>
       </c>
@@ -17351,7 +17336,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="48.75">
       <c r="A311" s="2" t="s">
         <v>345</v>
       </c>
@@ -17408,7 +17393,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="58.5">
       <c r="A312" s="2" t="s">
         <v>345</v>
       </c>
@@ -17465,7 +17450,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" ht="39">
       <c r="A313" s="2" t="s">
         <v>345</v>
       </c>
@@ -17522,7 +17507,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" ht="39">
       <c r="A314" s="2" t="s">
         <v>345</v>
       </c>
@@ -17579,7 +17564,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" ht="58.5">
       <c r="A315" s="2" t="s">
         <v>345</v>
       </c>
@@ -17636,7 +17621,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" ht="58.5">
       <c r="A316" s="2" t="s">
         <v>345</v>
       </c>
@@ -17693,7 +17678,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" ht="39">
       <c r="A317" s="2" t="s">
         <v>345</v>
       </c>
@@ -17750,7 +17735,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" ht="48.75">
       <c r="A318" s="2" t="s">
         <v>345</v>
       </c>
@@ -17807,7 +17792,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" ht="29.25">
       <c r="A319" s="2" t="s">
         <v>345</v>
       </c>
@@ -17866,7 +17851,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" ht="48.75">
       <c r="A320" s="2" t="s">
         <v>345</v>
       </c>
@@ -17925,7 +17910,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" ht="48.75">
       <c r="A321" s="2" t="s">
         <v>345</v>
       </c>
@@ -17984,7 +17969,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" ht="78">
       <c r="A322" s="2" t="s">
         <v>345</v>
       </c>
@@ -18043,7 +18028,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" ht="97.5">
       <c r="A323" s="2" t="s">
         <v>345</v>
       </c>
@@ -18102,7 +18087,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" ht="78">
       <c r="A324" s="2" t="s">
         <v>345</v>
       </c>
@@ -18161,7 +18146,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" ht="87.75">
       <c r="A325" s="2" t="s">
         <v>345</v>
       </c>
@@ -18220,7 +18205,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" ht="48.75">
       <c r="A326" s="2" t="s">
         <v>345</v>
       </c>
@@ -18277,7 +18262,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" ht="78">
       <c r="A327" s="2" t="s">
         <v>345</v>
       </c>
@@ -18334,7 +18319,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" ht="87.75">
       <c r="A328" s="2" t="s">
         <v>345</v>
       </c>
@@ -18391,7 +18376,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" ht="78">
       <c r="A329" s="2" t="s">
         <v>345</v>
       </c>
@@ -18448,7 +18433,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" ht="87.75">
       <c r="A330" s="2" t="s">
         <v>345</v>
       </c>
@@ -18505,7 +18490,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" ht="39">
       <c r="A331" s="2" t="s">
         <v>384</v>
       </c>
@@ -18560,7 +18545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" ht="39">
       <c r="A332" s="2" t="s">
         <v>384</v>
       </c>
@@ -18615,7 +18600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" ht="39">
       <c r="A333" s="2" t="s">
         <v>384</v>
       </c>
@@ -18670,7 +18655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" ht="39">
       <c r="A334" s="2" t="s">
         <v>384</v>
       </c>
@@ -18727,7 +18712,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" ht="39">
       <c r="A335" s="2" t="s">
         <v>384</v>
       </c>
@@ -18784,7 +18769,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" ht="39">
       <c r="A336" s="2" t="s">
         <v>384</v>
       </c>
@@ -18841,7 +18826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" ht="39">
       <c r="A337" s="2" t="s">
         <v>384</v>
       </c>
@@ -18898,7 +18883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" ht="39">
       <c r="A338" s="2" t="s">
         <v>384</v>
       </c>
@@ -18955,7 +18940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" ht="39">
       <c r="A339" s="2" t="s">
         <v>384</v>
       </c>
@@ -19012,7 +18997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" ht="39">
       <c r="A340" s="2" t="s">
         <v>384</v>
       </c>
@@ -19069,7 +19054,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" ht="39">
       <c r="A341" s="2" t="s">
         <v>384</v>
       </c>
@@ -19126,7 +19111,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" ht="39">
       <c r="A342" s="2" t="s">
         <v>384</v>
       </c>
@@ -19183,7 +19168,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" ht="39">
       <c r="A343" s="2" t="s">
         <v>384</v>
       </c>
@@ -19240,7 +19225,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" ht="39">
       <c r="A344" s="2" t="s">
         <v>384</v>
       </c>
@@ -19297,7 +19282,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" ht="39">
       <c r="A345" s="2" t="s">
         <v>384</v>
       </c>
@@ -19354,7 +19339,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" ht="39">
       <c r="A346" s="2" t="s">
         <v>384</v>
       </c>
@@ -19411,7 +19396,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" ht="39">
       <c r="A347" s="2" t="s">
         <v>384</v>
       </c>
@@ -19468,7 +19453,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" ht="39">
       <c r="A348" s="2" t="s">
         <v>384</v>
       </c>
@@ -19525,7 +19510,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" ht="39">
       <c r="A349" s="2" t="s">
         <v>384</v>
       </c>
@@ -19582,7 +19567,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="39">
       <c r="A350" s="2" t="s">
         <v>384</v>
       </c>
@@ -19639,7 +19624,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" ht="39">
       <c r="A351" s="2" t="s">
         <v>384</v>
       </c>
@@ -19696,7 +19681,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" ht="39">
       <c r="A352" s="2" t="s">
         <v>384</v>
       </c>
@@ -19753,7 +19738,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" ht="39">
       <c r="A353" s="2" t="s">
         <v>384</v>
       </c>
@@ -19810,7 +19795,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" ht="39">
       <c r="A354" s="2" t="s">
         <v>384</v>
       </c>
@@ -19867,7 +19852,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" ht="39">
       <c r="A355" s="2" t="s">
         <v>384</v>
       </c>
@@ -19924,7 +19909,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" ht="39">
       <c r="A356" s="2" t="s">
         <v>384</v>
       </c>
@@ -19981,7 +19966,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" ht="39">
       <c r="A357" s="2" t="s">
         <v>384</v>
       </c>
@@ -20038,7 +20023,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" ht="39">
       <c r="A358" s="2" t="s">
         <v>384</v>
       </c>
@@ -20093,7 +20078,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" ht="39">
       <c r="A359" s="2" t="s">
         <v>384</v>
       </c>
@@ -20150,7 +20135,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" ht="39">
       <c r="A360" s="2" t="s">
         <v>384</v>
       </c>
@@ -20207,7 +20192,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" ht="39">
       <c r="A361" s="2" t="s">
         <v>384</v>
       </c>
@@ -20264,7 +20249,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" ht="39">
       <c r="A362" s="2" t="s">
         <v>384</v>
       </c>
@@ -20321,7 +20306,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" ht="39">
       <c r="A363" s="2" t="s">
         <v>384</v>
       </c>
@@ -20378,7 +20363,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" ht="39">
       <c r="A364" s="2" t="s">
         <v>384</v>
       </c>
@@ -20435,7 +20420,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" ht="39">
       <c r="A365" s="2" t="s">
         <v>384</v>
       </c>
@@ -20492,7 +20477,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" ht="39">
       <c r="A366" s="2" t="s">
         <v>384</v>
       </c>
@@ -20549,7 +20534,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" ht="39">
       <c r="A367" s="2" t="s">
         <v>384</v>
       </c>
@@ -20606,7 +20591,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" ht="39">
       <c r="A368" s="2" t="s">
         <v>384</v>
       </c>
@@ -20663,7 +20648,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" ht="39">
       <c r="A369" s="2" t="s">
         <v>384</v>
       </c>
@@ -20720,7 +20705,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" ht="39">
       <c r="A370" s="2" t="s">
         <v>384</v>
       </c>
@@ -20777,7 +20762,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" ht="39">
       <c r="A371" s="2" t="s">
         <v>384</v>
       </c>
@@ -20834,7 +20819,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" ht="39">
       <c r="A372" s="2" t="s">
         <v>417</v>
       </c>
@@ -20891,7 +20876,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" ht="39">
       <c r="A373" s="2" t="s">
         <v>417</v>
       </c>
@@ -20948,7 +20933,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" ht="39">
       <c r="A374" s="2" t="s">
         <v>417</v>
       </c>
@@ -21005,7 +20990,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" ht="58.5">
       <c r="A375" s="2" t="s">
         <v>417</v>
       </c>
@@ -21064,7 +21049,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" ht="39">
       <c r="A376" s="2" t="s">
         <v>417</v>
       </c>
@@ -21109,7 +21094,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" ht="39">
       <c r="A377" s="2" t="s">
         <v>417</v>
       </c>
@@ -21154,7 +21139,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" ht="39">
       <c r="A378" s="2" t="s">
         <v>417</v>
       </c>
@@ -21199,7 +21184,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" ht="39">
       <c r="A379" s="2" t="s">
         <v>417</v>
       </c>
@@ -21252,7 +21237,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" ht="39">
       <c r="A380" s="2" t="s">
         <v>417</v>
       </c>
@@ -21297,7 +21282,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" ht="39">
       <c r="A381" s="2" t="s">
         <v>417</v>
       </c>
@@ -21356,7 +21341,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" ht="48.75">
       <c r="A382" s="2" t="s">
         <v>417</v>
       </c>
@@ -21415,7 +21400,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" ht="39">
       <c r="A383" s="2" t="s">
         <v>435</v>
       </c>
@@ -21472,7 +21457,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" ht="39">
       <c r="A384" s="2" t="s">
         <v>435</v>
       </c>
@@ -21529,7 +21514,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="48.75">
       <c r="A385" s="2" t="s">
         <v>435</v>
       </c>
@@ -21588,7 +21573,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="48.75">
       <c r="A386" s="2" t="s">
         <v>435</v>
       </c>
@@ -21643,7 +21628,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" ht="48.75">
       <c r="A387" s="2" t="s">
         <v>435</v>
       </c>
@@ -21702,7 +21687,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" ht="19.5">
       <c r="A388" s="2" t="s">
         <v>435</v>
       </c>
@@ -21753,7 +21738,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" ht="68.25">
       <c r="A389" s="2" t="s">
         <v>445</v>
       </c>
@@ -21812,7 +21797,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" ht="78">
       <c r="A390" s="2" t="s">
         <v>445</v>
       </c>
@@ -21871,7 +21856,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" ht="78">
       <c r="A391" s="2" t="s">
         <v>445</v>
       </c>
@@ -21930,7 +21915,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" ht="68.25">
       <c r="A392" s="2" t="s">
         <v>445</v>
       </c>
@@ -21989,7 +21974,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" ht="48.75">
       <c r="A393" s="2" t="s">
         <v>445</v>
       </c>
@@ -22046,7 +22031,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" ht="19.5">
       <c r="A394" s="2" t="s">
         <v>455</v>
       </c>
@@ -22103,7 +22088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" ht="19.5">
       <c r="A395" s="2" t="s">
         <v>455</v>
       </c>
@@ -22160,7 +22145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" ht="39">
       <c r="A396" s="2" t="s">
         <v>455</v>
       </c>
@@ -22217,7 +22202,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" ht="19.5">
       <c r="A397" s="2" t="s">
         <v>455</v>
       </c>
@@ -22256,7 +22241,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" ht="19.5">
       <c r="A398" s="2" t="s">
         <v>455</v>
       </c>
@@ -22289,7 +22274,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" ht="19.5">
       <c r="A399" s="2" t="s">
         <v>455</v>
       </c>
@@ -22322,7 +22307,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" ht="19.5">
       <c r="A400" s="2" t="s">
         <v>455</v>
       </c>
@@ -22355,7 +22340,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" ht="19.5">
       <c r="A401" s="2" t="s">
         <v>455</v>
       </c>
@@ -22394,7 +22379,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" ht="19.5">
       <c r="A402" s="2" t="s">
         <v>455</v>
       </c>
@@ -22433,7 +22418,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" ht="19.5">
       <c r="A403" s="2" t="s">
         <v>455</v>
       </c>
@@ -22472,7 +22457,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" ht="39">
       <c r="A404" s="2" t="s">
         <v>455</v>
       </c>
@@ -22531,7 +22516,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" ht="19.5">
       <c r="A405" s="2" t="s">
         <v>455</v>
       </c>
@@ -22588,7 +22573,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" ht="29.25">
       <c r="A406" s="2" t="s">
         <v>455</v>
       </c>
@@ -22647,7 +22632,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" ht="29.25">
       <c r="A407" s="2" t="s">
         <v>455</v>
       </c>
@@ -22698,7 +22683,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="29.25">
       <c r="A408" s="2" t="s">
         <v>455</v>
       </c>
@@ -22749,7 +22734,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="19.5">
       <c r="A409" s="2" t="s">
         <v>455</v>
       </c>
@@ -22806,7 +22791,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" ht="29.25">
       <c r="A410" s="2" t="s">
         <v>475</v>
       </c>
@@ -22863,7 +22848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" ht="29.25">
       <c r="A411" s="2" t="s">
         <v>475</v>
       </c>
@@ -22922,7 +22907,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" ht="29.25">
       <c r="A412" s="2" t="s">
         <v>475</v>
       </c>
@@ -22965,7 +22950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" ht="29.25">
       <c r="A413" s="2" t="s">
         <v>475</v>
       </c>
@@ -23018,7 +23003,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" ht="29.25">
       <c r="A414" s="2" t="s">
         <v>475</v>
       </c>
@@ -23063,7 +23048,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" ht="29.25">
       <c r="A415" s="2" t="s">
         <v>475</v>
       </c>
@@ -23108,7 +23093,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" ht="29.25">
       <c r="A416" s="2" t="s">
         <v>475</v>
       </c>
@@ -23153,7 +23138,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" ht="29.25">
       <c r="A417" s="2" t="s">
         <v>475</v>
       </c>
@@ -23198,7 +23183,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" ht="29.25">
       <c r="A418" s="2" t="s">
         <v>475</v>
       </c>
@@ -23243,7 +23228,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" ht="29.25">
       <c r="A419" s="2" t="s">
         <v>475</v>
       </c>
@@ -23288,7 +23273,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" ht="39">
       <c r="A420" s="2" t="s">
         <v>475</v>
       </c>
@@ -23333,7 +23318,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" ht="39">
       <c r="A421" s="2" t="s">
         <v>475</v>
       </c>
@@ -23378,7 +23363,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" ht="39">
       <c r="A422" s="2" t="s">
         <v>475</v>
       </c>
@@ -23423,7 +23408,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" ht="39">
       <c r="A423" s="2" t="s">
         <v>475</v>
       </c>
@@ -23468,7 +23453,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" ht="39">
       <c r="A424" s="2" t="s">
         <v>475</v>
       </c>
@@ -23525,7 +23510,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" ht="39">
       <c r="A425" s="2" t="s">
         <v>475</v>
       </c>
@@ -23582,7 +23567,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" ht="39">
       <c r="A426" s="2" t="s">
         <v>475</v>
       </c>
@@ -23639,7 +23624,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" ht="39">
       <c r="A427" s="2" t="s">
         <v>475</v>
       </c>
@@ -23696,7 +23681,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" ht="39">
       <c r="A428" s="2" t="s">
         <v>475</v>
       </c>
@@ -23753,7 +23738,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" ht="29.25">
       <c r="A429" s="2" t="s">
         <v>475</v>
       </c>
@@ -23810,7 +23795,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" ht="29.25">
       <c r="A430" s="2" t="s">
         <v>475</v>
       </c>
@@ -23849,7 +23834,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" ht="29.25">
       <c r="A431" s="2" t="s">
         <v>475</v>
       </c>
@@ -23888,7 +23873,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" ht="29.25">
       <c r="A432" s="2" t="s">
         <v>475</v>
       </c>
@@ -23927,7 +23912,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" ht="29.25">
       <c r="A433" s="2" t="s">
         <v>475</v>
       </c>
@@ -23966,7 +23951,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" ht="29.25">
       <c r="A434" s="2" t="s">
         <v>475</v>
       </c>
@@ -24005,7 +23990,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" ht="29.25">
       <c r="A435" s="2" t="s">
         <v>475</v>
       </c>
@@ -24044,7 +24029,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" ht="29.25">
       <c r="A436" s="2" t="s">
         <v>475</v>
       </c>
@@ -24083,7 +24068,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" ht="29.25">
       <c r="A437" s="2" t="s">
         <v>475</v>
       </c>
@@ -24122,7 +24107,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" ht="29.25">
       <c r="A438" s="2" t="s">
         <v>475</v>
       </c>
@@ -24161,7 +24146,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" ht="29.25">
       <c r="A439" s="2" t="s">
         <v>475</v>
       </c>
@@ -24200,7 +24185,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" ht="29.25">
       <c r="A440" s="2" t="s">
         <v>475</v>
       </c>
@@ -24239,7 +24224,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" ht="29.25">
       <c r="A441" s="2" t="s">
         <v>475</v>
       </c>
@@ -24278,7 +24263,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" ht="29.25">
       <c r="A442" s="2" t="s">
         <v>475</v>
       </c>
@@ -24337,7 +24322,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" ht="29.25">
       <c r="A443" s="2" t="s">
         <v>475</v>
       </c>
@@ -24376,7 +24361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" ht="19.5">
       <c r="A444" s="2" t="s">
         <v>510</v>
       </c>
@@ -24433,7 +24418,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" ht="19.5">
       <c r="A445" s="2" t="s">
         <v>510</v>
       </c>
@@ -24490,7 +24475,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="19.5">
       <c r="A446" s="2" t="s">
         <v>510</v>
       </c>
@@ -24547,7 +24532,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" ht="29.25">
       <c r="A447" s="2" t="s">
         <v>510</v>
       </c>
@@ -24604,7 +24589,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="29.25">
       <c r="A448" s="2" t="s">
         <v>510</v>
       </c>
@@ -24663,7 +24648,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" ht="19.5">
       <c r="A449" s="2" t="s">
         <v>510</v>
       </c>
@@ -24720,7 +24705,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" ht="29.25">
       <c r="A450" s="2" t="s">
         <v>510</v>
       </c>
@@ -24777,7 +24762,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" ht="29.25">
       <c r="A451" s="2" t="s">
         <v>510</v>
       </c>
@@ -24836,7 +24821,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" ht="29.25">
       <c r="A452" s="2" t="s">
         <v>510</v>
       </c>
@@ -24895,7 +24880,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" ht="29.25">
       <c r="A453" s="2" t="s">
         <v>510</v>
       </c>
@@ -24954,7 +24939,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" ht="19.5">
       <c r="A454" s="2" t="s">
         <v>510</v>
       </c>
@@ -25011,7 +24996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" ht="19.5">
       <c r="A455" s="2" t="s">
         <v>510</v>
       </c>
@@ -25070,7 +25055,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" ht="19.5">
       <c r="A456" s="2" t="s">
         <v>510</v>
       </c>
@@ -25129,7 +25114,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" ht="29.25">
       <c r="A457" s="2" t="s">
         <v>510</v>
       </c>
@@ -25186,7 +25171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" ht="29.25">
       <c r="A458" s="2" t="s">
         <v>510</v>
       </c>
@@ -25245,7 +25230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" ht="39">
       <c r="A459" s="2" t="s">
         <v>510</v>
       </c>
@@ -25304,7 +25289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" ht="19.5">
       <c r="A460" s="2" t="s">
         <v>510</v>
       </c>
@@ -25363,7 +25348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" ht="58.5">
       <c r="A461" s="2" t="s">
         <v>510</v>
       </c>
@@ -25422,7 +25407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" ht="58.5">
       <c r="A462" s="2" t="s">
         <v>510</v>
       </c>
@@ -25481,7 +25466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" ht="29.25">
       <c r="A463" s="2" t="s">
         <v>510</v>
       </c>
@@ -25524,7 +25509,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" ht="29.25">
       <c r="A464" s="2" t="s">
         <v>510</v>
       </c>
@@ -25583,7 +25568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" ht="29.25">
       <c r="A465" s="2" t="s">
         <v>510</v>
       </c>
@@ -25642,7 +25627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" ht="29.25">
       <c r="A466" s="2" t="s">
         <v>510</v>
       </c>
@@ -25693,7 +25678,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" ht="48.75">
       <c r="A467" s="2" t="s">
         <v>510</v>
       </c>
@@ -25730,7 +25715,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" ht="48.75">
       <c r="A468" s="2" t="s">
         <v>510</v>
       </c>
@@ -25789,7 +25774,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" ht="48.75">
       <c r="A469" s="2" t="s">
         <v>510</v>
       </c>
@@ -25848,9 +25833,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A472" s="12" t="s">
         <v>547</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1370,7 +1375,7 @@
     <t>Ministerstwo Rolnictwa i Rozwoju Wsi</t>
   </si>
   <si>
-    <t>udział zasobów rybnych w pełni wykorzystanych (fully exploited) na Morzu Bałtyckim</t>
+    <t>odsetek zasobów rybnych w pełni wykorzystanych (fully exploited) na Morzu Bałtyckim</t>
   </si>
   <si>
     <t>odsetek stad ryb które są nie w pełni wykorzystane (non-fully exploited) na Morzu Bałtyckim</t>
@@ -1661,13 +1666,13 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 23-05-2023, 11:42</t>
+    <t>Ostatnia aktualizacja: 06-06-2023, 11:45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
@@ -1676,7 +1681,7 @@
     <numFmt numFmtId="168" formatCode="[$-10415]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10415]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1874,6 +1879,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1894,7 +1907,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1957,7 +1970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1989,9 +2002,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2023,6 +2037,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2198,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2206,7 +2221,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2218,17 +2233,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="25.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2287,7 +2302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2344,7 +2359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.5">
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2401,7 +2416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.5">
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2458,7 +2473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="19.5">
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2515,7 +2530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="19.5">
+    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2572,7 +2587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.5">
+    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2629,7 +2644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="19.5">
+    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2686,7 +2701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="19.5">
+    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2743,7 +2758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="19.5">
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2800,7 +2815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="19.5">
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2857,7 +2872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.5">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2914,7 +2929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.5">
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2971,7 +2986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="19.5">
+    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3010,7 +3025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="19.5">
+    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3069,7 +3084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="107.25">
+    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3124,7 +3139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="107.25">
+    <row r="19" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3179,7 +3194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="107.25">
+    <row r="20" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3234,7 +3249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19.5">
+    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3289,7 +3304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="39">
+    <row r="22" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3346,7 +3361,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="39">
+    <row r="23" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3403,7 +3418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="39">
+    <row r="24" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3452,7 +3467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="68.25">
+    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3501,7 +3516,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="29.25">
+    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3550,7 +3565,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="29.25">
+    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3599,7 +3614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="29.25">
+    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3650,7 +3665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="39">
+    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3707,7 +3722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="39">
+    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3764,7 +3779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="39">
+    <row r="31" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3821,7 +3836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="39">
+    <row r="32" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3878,7 +3893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3933,7 +3948,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="39">
+    <row r="34" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3978,7 +3993,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="39">
+    <row r="35" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4023,7 +4038,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="39">
+    <row r="36" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4068,7 +4083,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="29.25">
+    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4113,7 +4128,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="29.25">
+    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4158,7 +4173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="29.25">
+    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4203,7 +4218,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="48.75">
+    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4242,7 +4257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="68.25">
+    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4301,7 +4316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="68.25">
+    <row r="42" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4360,7 +4375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="68.25">
+    <row r="43" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4419,7 +4434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="68.25">
+    <row r="44" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4478,7 +4493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="68.25">
+    <row r="45" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4537,7 +4552,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="68.25">
+    <row r="46" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4596,7 +4611,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="29.25">
+    <row r="47" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4645,7 +4660,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="29.25">
+    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4694,7 +4709,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.5">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4751,7 +4766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="19.5">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4802,7 +4817,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.5">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4859,7 +4874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.5">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4916,7 +4931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.5">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4973,7 +4988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.5">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -5030,7 +5045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.5">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -5087,7 +5102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.5">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -5144,7 +5159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.5">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -5201,7 +5216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.5">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -5258,7 +5273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="39">
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -5315,7 +5330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.5">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -5372,7 +5387,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="39">
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -5431,7 +5446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="39">
+    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
@@ -5490,7 +5505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="39">
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
@@ -5549,7 +5564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.5">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -5606,7 +5621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="39">
+    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
@@ -5665,7 +5680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="39">
+    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -5724,7 +5739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="39">
+    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -5783,7 +5798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="29.25">
+    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5840,7 +5855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="29.25">
+    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5897,7 +5912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="29.25">
+    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -5954,7 +5969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="29.25">
+    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -6011,7 +6026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.5">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -6068,7 +6083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.5">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -6125,7 +6140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.5">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -6182,7 +6197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.5">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -6239,7 +6254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="29.25">
+    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
@@ -6296,7 +6311,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="29.25">
+    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -6335,7 +6350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.5">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -6392,7 +6407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.5">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -6449,7 +6464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.5">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -6506,7 +6521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.5">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -6547,7 +6562,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="29.25">
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -6592,7 +6607,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="29.25">
+    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -6637,7 +6652,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="39">
+    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -6672,7 +6687,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="39">
+    <row r="85" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -6707,7 +6722,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.5">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -6764,7 +6779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.5">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -6803,7 +6818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="29.25">
+    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -6860,7 +6875,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="29.25">
+    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -6917,7 +6932,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="29.25">
+    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -6958,7 +6973,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="19.5">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -7009,7 +7024,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.5">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -7048,7 +7063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.5">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -7087,7 +7102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="19.5">
+    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -7126,7 +7141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.5">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -7179,7 +7194,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="29.25">
+    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>148</v>
       </c>
@@ -7216,7 +7231,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="29.25">
+    <row r="97" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>148</v>
       </c>
@@ -7253,7 +7268,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="29.25">
+    <row r="98" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>148</v>
       </c>
@@ -7290,7 +7305,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="29.25">
+    <row r="99" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>148</v>
       </c>
@@ -7331,7 +7346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="29.25">
+    <row r="100" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>148</v>
       </c>
@@ -7372,7 +7387,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="29.25">
+    <row r="101" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>148</v>
       </c>
@@ -7413,7 +7428,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="29.25">
+    <row r="102" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>148</v>
       </c>
@@ -7454,7 +7469,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="29.25">
+    <row r="103" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>148</v>
       </c>
@@ -7495,7 +7510,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="29.25">
+    <row r="104" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>148</v>
       </c>
@@ -7536,7 +7551,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="29.25">
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>148</v>
       </c>
@@ -7573,7 +7588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="19.5">
+    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>148</v>
       </c>
@@ -7630,7 +7645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="19.5">
+    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>148</v>
       </c>
@@ -7687,7 +7702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="19.5">
+    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>148</v>
       </c>
@@ -7744,7 +7759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="29.25">
+    <row r="109" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>148</v>
       </c>
@@ -7781,7 +7796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="29.25">
+    <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>148</v>
       </c>
@@ -7818,7 +7833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="29.25">
+    <row r="111" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>148</v>
       </c>
@@ -7855,7 +7870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="39">
+    <row r="112" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>148</v>
       </c>
@@ -7900,7 +7915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="29.25">
+    <row r="113" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>148</v>
       </c>
@@ -7947,7 +7962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="58.5">
+    <row r="114" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>148</v>
       </c>
@@ -7994,7 +8009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="58.5">
+    <row r="115" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>148</v>
       </c>
@@ -8041,7 +8056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="68.25">
+    <row r="116" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>148</v>
       </c>
@@ -8088,7 +8103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="29.25">
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>148</v>
       </c>
@@ -8135,7 +8150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="39">
+    <row r="118" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -8180,7 +8195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="29.25">
+    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>148</v>
       </c>
@@ -8227,7 +8242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="58.5">
+    <row r="120" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>148</v>
       </c>
@@ -8274,7 +8289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="58.5">
+    <row r="121" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -8321,7 +8336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="68.25">
+    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -8368,7 +8383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="29.25">
+    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8415,7 +8430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="39">
+    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8454,7 +8469,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="39">
+    <row r="125" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8493,7 +8508,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="39">
+    <row r="126" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8550,7 +8565,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="29.25">
+    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8585,7 +8600,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="29.25">
+    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8620,7 +8635,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="29.25">
+    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8655,7 +8670,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="29.25">
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8690,7 +8705,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="29.25">
+    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8725,7 +8740,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="29.25">
+    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8760,7 +8775,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="29.25">
+    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8795,7 +8810,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="29.25">
+    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8830,7 +8845,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="29.25">
+    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8865,7 +8880,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="29.25">
+    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8900,7 +8915,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="29.25">
+    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8935,7 +8950,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="29.25">
+    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8970,7 +8985,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="29.25">
+    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -9005,7 +9020,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="29.25">
+    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -9040,7 +9055,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="29.25">
+    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9075,7 +9090,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="29.25">
+    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9110,7 +9125,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="48.75">
+    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9169,7 +9184,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="68.25">
+    <row r="144" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9228,7 +9243,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="68.25">
+    <row r="145" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9263,7 +9278,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="68.25">
+    <row r="146" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9298,7 +9313,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="68.25">
+    <row r="147" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9357,7 +9372,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="68.25">
+    <row r="148" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9416,7 +9431,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="68.25">
+    <row r="149" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9475,7 +9490,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="19.5">
+    <row r="150" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9526,7 +9541,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="48.75">
+    <row r="151" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9581,7 +9596,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="48.75">
+    <row r="152" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9636,7 +9651,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="48.75">
+    <row r="153" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9691,7 +9706,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="48.75">
+    <row r="154" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9746,7 +9761,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="39">
+    <row r="155" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>203</v>
       </c>
@@ -9781,7 +9796,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="29.25">
+    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>203</v>
       </c>
@@ -9838,7 +9853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="29.25">
+    <row r="157" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>203</v>
       </c>
@@ -9873,7 +9888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="29.25">
+    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>203</v>
       </c>
@@ -9908,7 +9923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="29.25">
+    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>203</v>
       </c>
@@ -9943,7 +9958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="29.25">
+    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>203</v>
       </c>
@@ -9978,7 +9993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="29.25">
+    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>203</v>
       </c>
@@ -10013,7 +10028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="19.5">
+    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>203</v>
       </c>
@@ -10048,7 +10063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="19.5">
+    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>203</v>
       </c>
@@ -10083,7 +10098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="19.5">
+    <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -10118,7 +10133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="19.5">
+    <row r="165" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>203</v>
       </c>
@@ -10153,7 +10168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="19.5">
+    <row r="166" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>203</v>
       </c>
@@ -10188,7 +10203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="19.5">
+    <row r="167" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>203</v>
       </c>
@@ -10223,7 +10238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="19.5">
+    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>203</v>
       </c>
@@ -10258,7 +10273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="19.5">
+    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>203</v>
       </c>
@@ -10293,7 +10308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="39">
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>203</v>
       </c>
@@ -10332,7 +10347,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="39">
+    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>203</v>
       </c>
@@ -10371,7 +10386,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="39">
+    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>203</v>
       </c>
@@ -10428,7 +10443,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="39">
+    <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>203</v>
       </c>
@@ -10485,7 +10500,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="39">
+    <row r="174" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>203</v>
       </c>
@@ -10542,7 +10557,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="39">
+    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>203</v>
       </c>
@@ -10599,7 +10614,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="39">
+    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>203</v>
       </c>
@@ -10656,7 +10671,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="39">
+    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>203</v>
       </c>
@@ -10701,7 +10716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="68.25">
+    <row r="178" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>203</v>
       </c>
@@ -10746,7 +10761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="48.75">
+    <row r="179" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>203</v>
       </c>
@@ -10791,7 +10806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="39">
+    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>203</v>
       </c>
@@ -10836,7 +10851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="39">
+    <row r="181" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>203</v>
       </c>
@@ -10881,7 +10896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="39">
+    <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>203</v>
       </c>
@@ -10926,7 +10941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="68.25">
+    <row r="183" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>203</v>
       </c>
@@ -10971,7 +10986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="39">
+    <row r="184" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>203</v>
       </c>
@@ -11010,7 +11025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="39">
+    <row r="185" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>203</v>
       </c>
@@ -11049,7 +11064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="39">
+    <row r="186" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>203</v>
       </c>
@@ -11088,7 +11103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="39">
+    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>203</v>
       </c>
@@ -11127,7 +11142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="39">
+    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>203</v>
       </c>
@@ -11166,7 +11181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="39">
+    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>203</v>
       </c>
@@ -11205,7 +11220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="39">
+    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>203</v>
       </c>
@@ -11244,7 +11259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="39">
+    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>203</v>
       </c>
@@ -11283,7 +11298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="39">
+    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>203</v>
       </c>
@@ -11322,7 +11337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="39">
+    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>203</v>
       </c>
@@ -11361,7 +11376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="39">
+    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>203</v>
       </c>
@@ -11400,7 +11415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="39">
+    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
@@ -11439,7 +11454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="29.25">
+    <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>203</v>
       </c>
@@ -11480,7 +11495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="19.5">
+    <row r="197" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>203</v>
       </c>
@@ -11535,7 +11550,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="19.5">
+    <row r="198" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>203</v>
       </c>
@@ -11590,7 +11605,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="19.5">
+    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>242</v>
       </c>
@@ -11647,7 +11662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="29.25">
+    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>242</v>
       </c>
@@ -11704,7 +11719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="19.5">
+    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>242</v>
       </c>
@@ -11761,7 +11776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="19.5">
+    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>242</v>
       </c>
@@ -11796,7 +11811,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="19.5">
+    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>242</v>
       </c>
@@ -11831,7 +11846,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="29.25">
+    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>242</v>
       </c>
@@ -11886,7 +11901,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="19.5">
+    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>242</v>
       </c>
@@ -11941,7 +11956,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="29.25">
+    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>242</v>
       </c>
@@ -11986,7 +12001,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="19.5">
+    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>242</v>
       </c>
@@ -12045,7 +12060,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="29.25">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>242</v>
       </c>
@@ -12096,7 +12111,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="48.75">
+    <row r="209" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>242</v>
       </c>
@@ -12153,7 +12168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="19.5">
+    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>263</v>
       </c>
@@ -12188,7 +12203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="19.5">
+    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>263</v>
       </c>
@@ -12245,7 +12260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="39">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>263</v>
       </c>
@@ -12300,7 +12315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="19.5">
+    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>263</v>
       </c>
@@ -12351,7 +12366,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="29.25">
+    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>269</v>
       </c>
@@ -12408,7 +12423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="29.25">
+    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>269</v>
       </c>
@@ -12465,7 +12480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="29.25">
+    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>269</v>
       </c>
@@ -12504,7 +12519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="29.25">
+    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>269</v>
       </c>
@@ -12543,7 +12558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="29.25">
+    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>269</v>
       </c>
@@ -12582,7 +12597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="29.25">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>269</v>
       </c>
@@ -12639,7 +12654,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="29.25">
+    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>269</v>
       </c>
@@ -12696,7 +12711,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="29.25">
+    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>269</v>
       </c>
@@ -12753,7 +12768,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="29.25">
+    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>269</v>
       </c>
@@ -12798,7 +12813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="29.25">
+    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>269</v>
       </c>
@@ -12843,7 +12858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="29.25">
+    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>269</v>
       </c>
@@ -12888,7 +12903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="58.5">
+    <row r="225" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>269</v>
       </c>
@@ -12933,7 +12948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="29.25">
+    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>269</v>
       </c>
@@ -12978,7 +12993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="29.25">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>269</v>
       </c>
@@ -13023,7 +13038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="29.25">
+    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>269</v>
       </c>
@@ -13068,7 +13083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="29.25">
+    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>269</v>
       </c>
@@ -13113,7 +13128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="39">
+    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>269</v>
       </c>
@@ -13158,7 +13173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="29.25">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>269</v>
       </c>
@@ -13203,7 +13218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="39">
+    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>269</v>
       </c>
@@ -13248,7 +13263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="29.25">
+    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>269</v>
       </c>
@@ -13293,7 +13308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="29.25">
+    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>269</v>
       </c>
@@ -13338,7 +13353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="29.25">
+    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>269</v>
       </c>
@@ -13383,7 +13398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="29.25">
+    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>269</v>
       </c>
@@ -13428,7 +13443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="29.25">
+    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>269</v>
       </c>
@@ -13473,7 +13488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="29.25">
+    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>269</v>
       </c>
@@ -13518,7 +13533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="29.25">
+    <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>269</v>
       </c>
@@ -13563,7 +13578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="29.25">
+    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>269</v>
       </c>
@@ -13608,7 +13623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="29.25">
+    <row r="241" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>269</v>
       </c>
@@ -13667,7 +13682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="29.25">
+    <row r="242" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>269</v>
       </c>
@@ -13726,7 +13741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="29.25">
+    <row r="243" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>269</v>
       </c>
@@ -13785,7 +13800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="29.25">
+    <row r="244" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>269</v>
       </c>
@@ -13844,7 +13859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="29.25">
+    <row r="245" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>269</v>
       </c>
@@ -13903,7 +13918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="29.25">
+    <row r="246" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>269</v>
       </c>
@@ -13962,7 +13977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="29.25">
+    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>269</v>
       </c>
@@ -14021,7 +14036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="29.25">
+    <row r="248" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>269</v>
       </c>
@@ -14080,7 +14095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="29.25">
+    <row r="249" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>269</v>
       </c>
@@ -14139,7 +14154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="29.25">
+    <row r="250" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>269</v>
       </c>
@@ -14196,7 +14211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="29.25">
+    <row r="251" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>269</v>
       </c>
@@ -14253,7 +14268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="29.25">
+    <row r="252" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>269</v>
       </c>
@@ -14310,7 +14325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="39">
+    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>269</v>
       </c>
@@ -14351,7 +14366,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="39">
+    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>269</v>
       </c>
@@ -14392,7 +14407,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="39">
+    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>269</v>
       </c>
@@ -14433,7 +14448,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="29.25">
+    <row r="256" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>269</v>
       </c>
@@ -14490,7 +14505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="39">
+    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>269</v>
       </c>
@@ -14547,7 +14562,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="29.25">
+    <row r="258" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>269</v>
       </c>
@@ -14582,7 +14597,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="29.25">
+    <row r="259" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>269</v>
       </c>
@@ -14617,7 +14632,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="29.25">
+    <row r="260" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>269</v>
       </c>
@@ -14652,7 +14667,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="29.25">
+    <row r="261" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>269</v>
       </c>
@@ -14687,7 +14702,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="29.25">
+    <row r="262" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>269</v>
       </c>
@@ -14722,7 +14737,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="29.25">
+    <row r="263" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>269</v>
       </c>
@@ -14757,7 +14772,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="29.25">
+    <row r="264" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>269</v>
       </c>
@@ -14792,7 +14807,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="29.25">
+    <row r="265" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>269</v>
       </c>
@@ -14827,7 +14842,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="29.25">
+    <row r="266" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>269</v>
       </c>
@@ -14878,7 +14893,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="39">
+    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>313</v>
       </c>
@@ -14935,7 +14950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="39">
+    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>313</v>
       </c>
@@ -14992,7 +15007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="39">
+    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>313</v>
       </c>
@@ -15049,7 +15064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="39">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>313</v>
       </c>
@@ -15106,7 +15121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="39">
+    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>313</v>
       </c>
@@ -15163,7 +15178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="39">
+    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>313</v>
       </c>
@@ -15220,7 +15235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="39">
+    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>313</v>
       </c>
@@ -15277,7 +15292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="39">
+    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>313</v>
       </c>
@@ -15334,7 +15349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="39">
+    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>313</v>
       </c>
@@ -15391,7 +15406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="39">
+    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>313</v>
       </c>
@@ -15448,7 +15463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="39">
+    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>313</v>
       </c>
@@ -15505,7 +15520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="39">
+    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>313</v>
       </c>
@@ -15562,7 +15577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="39">
+    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>313</v>
       </c>
@@ -15619,7 +15634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="39">
+    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>313</v>
       </c>
@@ -15676,7 +15691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="39">
+    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>313</v>
       </c>
@@ -15733,7 +15748,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="39">
+    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>313</v>
       </c>
@@ -15790,7 +15805,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="39">
+    <row r="283" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>313</v>
       </c>
@@ -15847,7 +15862,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="39">
+    <row r="284" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>313</v>
       </c>
@@ -15904,7 +15919,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="39">
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>313</v>
       </c>
@@ -15961,7 +15976,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="39">
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>313</v>
       </c>
@@ -16018,7 +16033,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="39">
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>313</v>
       </c>
@@ -16069,7 +16084,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="39">
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>313</v>
       </c>
@@ -16126,7 +16141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="39">
+    <row r="289" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>313</v>
       </c>
@@ -16183,7 +16198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="39">
+    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>313</v>
       </c>
@@ -16234,7 +16249,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="39">
+    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>313</v>
       </c>
@@ -16287,7 +16302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="48.75">
+    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>313</v>
       </c>
@@ -16336,7 +16351,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="48.75">
+    <row r="293" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>313</v>
       </c>
@@ -16385,7 +16400,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="19.5">
+    <row r="294" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>345</v>
       </c>
@@ -16442,7 +16457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="58.5">
+    <row r="295" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>345</v>
       </c>
@@ -16499,7 +16514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="19.5">
+    <row r="296" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>345</v>
       </c>
@@ -16556,7 +16571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="19.5">
+    <row r="297" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>345</v>
       </c>
@@ -16613,7 +16628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="19.5">
+    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>345</v>
       </c>
@@ -16670,7 +16685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="19.5">
+    <row r="299" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>345</v>
       </c>
@@ -16727,7 +16742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="19.5">
+    <row r="300" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>345</v>
       </c>
@@ -16784,7 +16799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="19.5">
+    <row r="301" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>345</v>
       </c>
@@ -16841,7 +16856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="19.5">
+    <row r="302" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>345</v>
       </c>
@@ -16898,7 +16913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="19.5">
+    <row r="303" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>345</v>
       </c>
@@ -16955,7 +16970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="19.5">
+    <row r="304" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>345</v>
       </c>
@@ -17012,7 +17027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="19.5">
+    <row r="305" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>345</v>
       </c>
@@ -17051,7 +17066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="19.5">
+    <row r="306" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>345</v>
       </c>
@@ -17108,7 +17123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="78">
+    <row r="307" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>345</v>
       </c>
@@ -17165,7 +17180,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="48.75">
+    <row r="308" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>345</v>
       </c>
@@ -17222,7 +17237,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="78">
+    <row r="309" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>345</v>
       </c>
@@ -17279,7 +17294,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="48.75">
+    <row r="310" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>345</v>
       </c>
@@ -17336,7 +17351,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="48.75">
+    <row r="311" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>345</v>
       </c>
@@ -17393,7 +17408,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="58.5">
+    <row r="312" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>345</v>
       </c>
@@ -17450,7 +17465,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="39">
+    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>345</v>
       </c>
@@ -17507,7 +17522,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="39">
+    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>345</v>
       </c>
@@ -17564,7 +17579,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="58.5">
+    <row r="315" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>345</v>
       </c>
@@ -17621,7 +17636,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="58.5">
+    <row r="316" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>345</v>
       </c>
@@ -17678,7 +17693,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="39">
+    <row r="317" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>345</v>
       </c>
@@ -17735,7 +17750,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="48.75">
+    <row r="318" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>345</v>
       </c>
@@ -17792,7 +17807,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="29.25">
+    <row r="319" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>345</v>
       </c>
@@ -17851,7 +17866,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="48.75">
+    <row r="320" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>345</v>
       </c>
@@ -17910,7 +17925,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="48.75">
+    <row r="321" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>345</v>
       </c>
@@ -17969,7 +17984,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="78">
+    <row r="322" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>345</v>
       </c>
@@ -18028,7 +18043,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="97.5">
+    <row r="323" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>345</v>
       </c>
@@ -18087,7 +18102,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="78">
+    <row r="324" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>345</v>
       </c>
@@ -18146,7 +18161,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="87.75">
+    <row r="325" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>345</v>
       </c>
@@ -18205,7 +18220,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="48.75">
+    <row r="326" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>345</v>
       </c>
@@ -18262,7 +18277,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="78">
+    <row r="327" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>345</v>
       </c>
@@ -18319,7 +18334,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="87.75">
+    <row r="328" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>345</v>
       </c>
@@ -18376,7 +18391,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="78">
+    <row r="329" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>345</v>
       </c>
@@ -18433,7 +18448,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="87.75">
+    <row r="330" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>345</v>
       </c>
@@ -18490,7 +18505,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="39">
+    <row r="331" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>384</v>
       </c>
@@ -18545,7 +18560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="39">
+    <row r="332" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>384</v>
       </c>
@@ -18600,7 +18615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="39">
+    <row r="333" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>384</v>
       </c>
@@ -18655,7 +18670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="39">
+    <row r="334" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>384</v>
       </c>
@@ -18712,7 +18727,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="39">
+    <row r="335" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>384</v>
       </c>
@@ -18769,7 +18784,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="39">
+    <row r="336" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>384</v>
       </c>
@@ -18826,7 +18841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="39">
+    <row r="337" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>384</v>
       </c>
@@ -18883,7 +18898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="39">
+    <row r="338" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>384</v>
       </c>
@@ -18940,7 +18955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="39">
+    <row r="339" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>384</v>
       </c>
@@ -18997,7 +19012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="39">
+    <row r="340" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>384</v>
       </c>
@@ -19054,7 +19069,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="39">
+    <row r="341" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>384</v>
       </c>
@@ -19111,7 +19126,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="39">
+    <row r="342" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>384</v>
       </c>
@@ -19168,7 +19183,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="39">
+    <row r="343" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>384</v>
       </c>
@@ -19225,7 +19240,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="39">
+    <row r="344" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>384</v>
       </c>
@@ -19282,7 +19297,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="39">
+    <row r="345" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>384</v>
       </c>
@@ -19339,7 +19354,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="39">
+    <row r="346" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>384</v>
       </c>
@@ -19396,7 +19411,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="39">
+    <row r="347" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>384</v>
       </c>
@@ -19453,7 +19468,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="39">
+    <row r="348" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>384</v>
       </c>
@@ -19510,7 +19525,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="39">
+    <row r="349" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>384</v>
       </c>
@@ -19567,7 +19582,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="39">
+    <row r="350" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>384</v>
       </c>
@@ -19624,7 +19639,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="39">
+    <row r="351" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>384</v>
       </c>
@@ -19681,7 +19696,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="39">
+    <row r="352" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>384</v>
       </c>
@@ -19738,7 +19753,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="39">
+    <row r="353" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>384</v>
       </c>
@@ -19795,7 +19810,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="39">
+    <row r="354" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>384</v>
       </c>
@@ -19852,7 +19867,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="39">
+    <row r="355" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>384</v>
       </c>
@@ -19909,7 +19924,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="39">
+    <row r="356" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>384</v>
       </c>
@@ -19966,7 +19981,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="39">
+    <row r="357" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>384</v>
       </c>
@@ -20023,7 +20038,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="39">
+    <row r="358" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>384</v>
       </c>
@@ -20078,7 +20093,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="39">
+    <row r="359" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>384</v>
       </c>
@@ -20135,7 +20150,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="39">
+    <row r="360" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>384</v>
       </c>
@@ -20192,7 +20207,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="39">
+    <row r="361" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>384</v>
       </c>
@@ -20249,7 +20264,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="39">
+    <row r="362" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>384</v>
       </c>
@@ -20306,7 +20321,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="39">
+    <row r="363" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>384</v>
       </c>
@@ -20363,7 +20378,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="39">
+    <row r="364" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>384</v>
       </c>
@@ -20420,7 +20435,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="39">
+    <row r="365" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>384</v>
       </c>
@@ -20477,7 +20492,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="39">
+    <row r="366" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>384</v>
       </c>
@@ -20534,7 +20549,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="39">
+    <row r="367" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>384</v>
       </c>
@@ -20591,7 +20606,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="39">
+    <row r="368" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>384</v>
       </c>
@@ -20648,7 +20663,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="39">
+    <row r="369" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>384</v>
       </c>
@@ -20705,7 +20720,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="39">
+    <row r="370" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>384</v>
       </c>
@@ -20762,7 +20777,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="39">
+    <row r="371" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>384</v>
       </c>
@@ -20819,7 +20834,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="39">
+    <row r="372" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>417</v>
       </c>
@@ -20876,7 +20891,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="39">
+    <row r="373" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>417</v>
       </c>
@@ -20933,7 +20948,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="39">
+    <row r="374" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>417</v>
       </c>
@@ -20990,7 +21005,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="58.5">
+    <row r="375" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>417</v>
       </c>
@@ -21049,7 +21064,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="39">
+    <row r="376" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>417</v>
       </c>
@@ -21094,7 +21109,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="39">
+    <row r="377" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>417</v>
       </c>
@@ -21139,7 +21154,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="39">
+    <row r="378" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>417</v>
       </c>
@@ -21184,7 +21199,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="39">
+    <row r="379" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>417</v>
       </c>
@@ -21237,7 +21252,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="39">
+    <row r="380" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>417</v>
       </c>
@@ -21282,7 +21297,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="39">
+    <row r="381" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>417</v>
       </c>
@@ -21341,7 +21356,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="48.75">
+    <row r="382" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>417</v>
       </c>
@@ -21400,7 +21415,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="39">
+    <row r="383" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>435</v>
       </c>
@@ -21457,7 +21472,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="39">
+    <row r="384" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>435</v>
       </c>
@@ -21514,7 +21529,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="48.75">
+    <row r="385" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>435</v>
       </c>
@@ -21573,7 +21588,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="48.75">
+    <row r="386" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>435</v>
       </c>
@@ -21628,7 +21643,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="48.75">
+    <row r="387" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>435</v>
       </c>
@@ -21687,7 +21702,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="19.5">
+    <row r="388" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>435</v>
       </c>
@@ -21738,7 +21753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="68.25">
+    <row r="389" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>445</v>
       </c>
@@ -21797,7 +21812,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="78">
+    <row r="390" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>445</v>
       </c>
@@ -21856,7 +21871,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="78">
+    <row r="391" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>445</v>
       </c>
@@ -21915,7 +21930,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="68.25">
+    <row r="392" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>445</v>
       </c>
@@ -21974,7 +21989,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="48.75">
+    <row r="393" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>445</v>
       </c>
@@ -22031,7 +22046,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="19.5">
+    <row r="394" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>455</v>
       </c>
@@ -22088,7 +22103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="19.5">
+    <row r="395" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>455</v>
       </c>
@@ -22145,7 +22160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="39">
+    <row r="396" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>455</v>
       </c>
@@ -22202,7 +22217,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="19.5">
+    <row r="397" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>455</v>
       </c>
@@ -22241,7 +22256,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="19.5">
+    <row r="398" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>455</v>
       </c>
@@ -22274,7 +22289,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="19.5">
+    <row r="399" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>455</v>
       </c>
@@ -22307,7 +22322,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="19.5">
+    <row r="400" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>455</v>
       </c>
@@ -22340,7 +22355,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="19.5">
+    <row r="401" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>455</v>
       </c>
@@ -22379,7 +22394,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="19.5">
+    <row r="402" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>455</v>
       </c>
@@ -22418,7 +22433,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="19.5">
+    <row r="403" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>455</v>
       </c>
@@ -22457,7 +22472,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="39">
+    <row r="404" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>455</v>
       </c>
@@ -22516,7 +22531,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="19.5">
+    <row r="405" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>455</v>
       </c>
@@ -22573,7 +22588,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="29.25">
+    <row r="406" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>455</v>
       </c>
@@ -22632,7 +22647,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="29.25">
+    <row r="407" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>455</v>
       </c>
@@ -22683,7 +22698,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="29.25">
+    <row r="408" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>455</v>
       </c>
@@ -22734,7 +22749,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="19.5">
+    <row r="409" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>455</v>
       </c>
@@ -22791,7 +22806,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="29.25">
+    <row r="410" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>475</v>
       </c>
@@ -22848,7 +22863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="29.25">
+    <row r="411" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>475</v>
       </c>
@@ -22907,7 +22922,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="29.25">
+    <row r="412" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>475</v>
       </c>
@@ -22950,7 +22965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="29.25">
+    <row r="413" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>475</v>
       </c>
@@ -23003,7 +23018,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="29.25">
+    <row r="414" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>475</v>
       </c>
@@ -23048,7 +23063,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="29.25">
+    <row r="415" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>475</v>
       </c>
@@ -23093,7 +23108,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="29.25">
+    <row r="416" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>475</v>
       </c>
@@ -23138,7 +23153,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="29.25">
+    <row r="417" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>475</v>
       </c>
@@ -23183,7 +23198,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="29.25">
+    <row r="418" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>475</v>
       </c>
@@ -23228,7 +23243,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="29.25">
+    <row r="419" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>475</v>
       </c>
@@ -23273,7 +23288,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="39">
+    <row r="420" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>475</v>
       </c>
@@ -23318,7 +23333,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="39">
+    <row r="421" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>475</v>
       </c>
@@ -23363,7 +23378,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="39">
+    <row r="422" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>475</v>
       </c>
@@ -23408,7 +23423,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="39">
+    <row r="423" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>475</v>
       </c>
@@ -23453,7 +23468,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="39">
+    <row r="424" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>475</v>
       </c>
@@ -23510,7 +23525,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="39">
+    <row r="425" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>475</v>
       </c>
@@ -23567,7 +23582,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="39">
+    <row r="426" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>475</v>
       </c>
@@ -23624,7 +23639,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="39">
+    <row r="427" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>475</v>
       </c>
@@ -23681,7 +23696,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="39">
+    <row r="428" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>475</v>
       </c>
@@ -23738,7 +23753,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="29.25">
+    <row r="429" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>475</v>
       </c>
@@ -23795,7 +23810,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="29.25">
+    <row r="430" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>475</v>
       </c>
@@ -23834,7 +23849,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="29.25">
+    <row r="431" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>475</v>
       </c>
@@ -23873,7 +23888,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="29.25">
+    <row r="432" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>475</v>
       </c>
@@ -23912,7 +23927,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="29.25">
+    <row r="433" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>475</v>
       </c>
@@ -23951,7 +23966,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="29.25">
+    <row r="434" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>475</v>
       </c>
@@ -23990,7 +24005,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="29.25">
+    <row r="435" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>475</v>
       </c>
@@ -24029,7 +24044,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="29.25">
+    <row r="436" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>475</v>
       </c>
@@ -24068,7 +24083,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="29.25">
+    <row r="437" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>475</v>
       </c>
@@ -24107,7 +24122,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="29.25">
+    <row r="438" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>475</v>
       </c>
@@ -24146,7 +24161,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="29.25">
+    <row r="439" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>475</v>
       </c>
@@ -24185,7 +24200,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="29.25">
+    <row r="440" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>475</v>
       </c>
@@ -24224,7 +24239,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="29.25">
+    <row r="441" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>475</v>
       </c>
@@ -24263,7 +24278,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="29.25">
+    <row r="442" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>475</v>
       </c>
@@ -24322,7 +24337,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="29.25">
+    <row r="443" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>475</v>
       </c>
@@ -24361,7 +24376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="19.5">
+    <row r="444" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>510</v>
       </c>
@@ -24418,7 +24433,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="19.5">
+    <row r="445" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>510</v>
       </c>
@@ -24475,7 +24490,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="19.5">
+    <row r="446" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>510</v>
       </c>
@@ -24532,7 +24547,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="29.25">
+    <row r="447" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>510</v>
       </c>
@@ -24589,7 +24604,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="29.25">
+    <row r="448" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>510</v>
       </c>
@@ -24648,7 +24663,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="19.5">
+    <row r="449" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>510</v>
       </c>
@@ -24705,7 +24720,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="29.25">
+    <row r="450" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>510</v>
       </c>
@@ -24762,7 +24777,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="29.25">
+    <row r="451" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>510</v>
       </c>
@@ -24821,7 +24836,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="29.25">
+    <row r="452" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>510</v>
       </c>
@@ -24880,7 +24895,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="29.25">
+    <row r="453" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>510</v>
       </c>
@@ -24939,7 +24954,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="19.5">
+    <row r="454" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>510</v>
       </c>
@@ -24996,7 +25011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="19.5">
+    <row r="455" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>510</v>
       </c>
@@ -25055,7 +25070,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="19.5">
+    <row r="456" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>510</v>
       </c>
@@ -25114,7 +25129,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="29.25">
+    <row r="457" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>510</v>
       </c>
@@ -25171,7 +25186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="29.25">
+    <row r="458" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>510</v>
       </c>
@@ -25230,7 +25245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="39">
+    <row r="459" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>510</v>
       </c>
@@ -25289,7 +25304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="19.5">
+    <row r="460" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>510</v>
       </c>
@@ -25348,7 +25363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="58.5">
+    <row r="461" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>510</v>
       </c>
@@ -25407,7 +25422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="58.5">
+    <row r="462" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>510</v>
       </c>
@@ -25466,7 +25481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="29.25">
+    <row r="463" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>510</v>
       </c>
@@ -25509,7 +25524,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="29.25">
+    <row r="464" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>510</v>
       </c>
@@ -25568,7 +25583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="29.25">
+    <row r="465" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>510</v>
       </c>
@@ -25627,7 +25642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="29.25">
+    <row r="466" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>510</v>
       </c>
@@ -25678,7 +25693,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="48.75">
+    <row r="467" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>510</v>
       </c>
@@ -25715,7 +25730,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="48.75">
+    <row r="468" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>510</v>
       </c>
@@ -25774,7 +25789,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="48.75">
+    <row r="469" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>510</v>
       </c>
@@ -25833,9 +25848,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1"/>
-    <row r="471" spans="1:19" ht="18" customHeight="1"/>
-    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1">
+    <row r="470" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
         <v>547</v>
       </c>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1666,7 +1666,7 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 06-06-2023, 11:45</t>
+    <t>Ostatnia aktualizacja: 20-06-2023, 09:32</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2218,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/pl/wskazniki_globalne.xlsx
+++ b/assets/excel/pl/wskazniki_globalne.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1666,13 +1661,13 @@
     <t>100% rejestracja zgonów</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 20-06-2023, 09:32</t>
+    <t>Ostatnia aktualizacja: 04-07-2023, 11:50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
@@ -1681,7 +1676,7 @@
     <numFmt numFmtId="168" formatCode="[$-10415]0.000000;\-0.000000;0.000000"/>
     <numFmt numFmtId="169" formatCode="[$-10415]0.0000;\-0.0000;0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1879,14 +1874,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1907,7 +1894,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1970,7 +1957,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2002,10 +1989,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2037,7 +2023,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -2213,15 +2198,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2233,17 +2218,17 @@
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2302,7 +2287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2359,7 +2344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2416,7 +2401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2473,7 +2458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2530,7 +2515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2587,7 +2572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2644,7 +2629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2701,7 +2686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2758,7 +2743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2815,7 +2800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2872,7 +2857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2929,7 +2914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2986,7 +2971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="19.5">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3025,7 +3010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="19.5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3084,7 +3069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="107.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3139,7 +3124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="107.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3194,7 +3179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="107.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3249,7 +3234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3304,7 +3289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="39">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3361,7 +3346,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="39">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3418,7 +3403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="39">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3467,7 +3452,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="68.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3516,7 +3501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="29.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3565,7 +3550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="29.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3614,7 +3599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="29.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3665,7 +3650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="39">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3722,7 +3707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="39">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3779,7 +3764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="39">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3836,7 +3821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="39">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3893,7 +3878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3948,7 +3933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="39">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3993,7 +3978,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="39">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -4038,7 +4023,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="39">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -4083,7 +4068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4128,7 +4113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="29.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -4173,7 +4158,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -4218,7 +4203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="48.75">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4257,7 +4242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="68.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4316,7 +4301,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="68.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4375,7 +4360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="68.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4434,7 +4419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="68.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4493,7 +4478,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="68.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4552,7 +4537,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="68.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4611,7 +4596,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="29.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -4660,7 +4645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="29.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4709,7 +4694,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4766,7 +4751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="19.5">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -4817,7 +4802,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4874,7 +4859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4931,7 +4916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4988,7 +4973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -5045,7 +5030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -5102,7 +5087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -5159,7 +5144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -5216,7 +5201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -5273,7 +5258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="39">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -5330,7 +5315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -5387,7 +5372,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="39">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -5446,7 +5431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="39">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
@@ -5505,7 +5490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="39">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
@@ -5564,7 +5549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -5621,7 +5606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="39">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
@@ -5680,7 +5665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="39">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -5739,7 +5724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="39">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -5798,7 +5783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="29.25">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5855,7 +5840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="29.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5912,7 +5897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="29.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -5969,7 +5954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -6026,7 +6011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -6083,7 +6068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -6140,7 +6125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -6197,7 +6182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -6254,7 +6239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29.25">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
@@ -6311,7 +6296,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="29.25">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -6350,7 +6335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -6407,7 +6392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -6464,7 +6449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -6521,7 +6506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -6562,7 +6547,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -6607,7 +6592,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29.25">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -6652,7 +6637,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="39">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -6687,7 +6672,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="39">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -6722,7 +6707,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25